--- a/data/compleat_wiki_man.xlsx
+++ b/data/compleat_wiki_man.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\GitHub\PhyrexianDictionary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\GitHub\PhyrexianDictionary\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C778E8DD-6A13-4B78-ABE2-440A52793F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFA7B0C-B9F2-438F-896B-1FB3AF2CC2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2882,8 +2882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="K240" sqref="K240"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3208,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">

--- a/data/compleat_wiki_man.xlsx
+++ b/data/compleat_wiki_man.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\GitHub\PhyrexianDictionary\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFA7B0C-B9F2-438F-896B-1FB3AF2CC2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66516843-E912-4AF8-A91B-1FE66497600E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2882,8 +2882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6054,7 +6054,7 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="A125" s="2" t="s">
         <v>348</v>
       </c>
       <c r="B125" t="s">

--- a/data/compleat_wiki_man.xlsx
+++ b/data/compleat_wiki_man.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\GitHub\PhyrexianDictionary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\GitHub\PhyrexianDictionary\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C778E8DD-6A13-4B78-ABE2-440A52793F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4A1942-FB02-4684-BEEC-C689BDE03AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="808">
   <si>
     <t>IPA</t>
   </si>
@@ -833,9 +833,6 @@
     <t>qipmt</t>
   </si>
   <si>
-    <t>šχʁɒčχ</t>
-  </si>
-  <si>
     <t>'ønəķ</t>
   </si>
   <si>
@@ -848,12 +845,6 @@
     <t>θutlzətč</t>
   </si>
   <si>
-    <t>ǩliŋš</t>
-  </si>
-  <si>
-    <t>naķmtǆyφķ</t>
-  </si>
-  <si>
     <t>plinexs</t>
   </si>
   <si>
@@ -893,9 +884,6 @@
     <t>twøǩxθəxt</t>
   </si>
   <si>
-    <t>čxəťu'θəxt</t>
-  </si>
-  <si>
     <t>θuqxiwwθəxt</t>
   </si>
   <si>
@@ -926,9 +914,6 @@
     <t>ɣwi't</t>
   </si>
   <si>
-    <t>ɢʁičtx</t>
-  </si>
-  <si>
     <t>kfɒ'ǧ'</t>
   </si>
   <si>
@@ -953,9 +938,6 @@
     <t>šuqn</t>
   </si>
   <si>
-    <t>juvẅķ</t>
-  </si>
-  <si>
     <t>naǩm</t>
   </si>
   <si>
@@ -965,9 +947,6 @@
     <t>qab'</t>
   </si>
   <si>
-    <t>šteǩʁ</t>
-  </si>
-  <si>
     <t>mprasw</t>
   </si>
   <si>
@@ -1127,9 +1106,6 @@
     <t>θuqx</t>
   </si>
   <si>
-    <t>čəxtefa'qsemr</t>
-  </si>
-  <si>
     <t>χɬkevk</t>
   </si>
   <si>
@@ -1217,21 +1193,12 @@
     <t>korxgr</t>
   </si>
   <si>
-    <t>zɒðʁ</t>
-  </si>
-  <si>
-    <t>jɒ'gzɒðʁ</t>
-  </si>
-  <si>
     <t>vuw'k</t>
   </si>
   <si>
     <t>ǆfyll</t>
   </si>
   <si>
-    <t>ɢnaɢɮ</t>
-  </si>
-  <si>
     <t>šoprapt</t>
   </si>
   <si>
@@ -1274,9 +1241,6 @@
     <t>'iţpənn</t>
   </si>
   <si>
-    <t>hfwežp</t>
-  </si>
-  <si>
     <t>føvɣ</t>
   </si>
   <si>
@@ -1358,9 +1322,6 @@
     <t>huqet</t>
   </si>
   <si>
-    <t>ɮɒ'θ</t>
-  </si>
-  <si>
     <t>raφoj</t>
   </si>
   <si>
@@ -1475,9 +1436,6 @@
     <t>dlabzdʒfyll</t>
   </si>
   <si>
-    <t>ʃχʁɒtʃχ</t>
-  </si>
-  <si>
     <t>ʔønəkʰ</t>
   </si>
   <si>
@@ -1490,12 +1448,6 @@
     <t>θutlzəttʃ</t>
   </si>
   <si>
-    <t>k'liŋʃ</t>
-  </si>
-  <si>
-    <t>nakʰmtdʒyɸkʰ</t>
-  </si>
-  <si>
     <t>ɣwiθuqxʔəkʃ</t>
   </si>
   <si>
@@ -1511,9 +1463,6 @@
     <t>twøk'xθəxt</t>
   </si>
   <si>
-    <t>tʃxət'uʔθəxt</t>
-  </si>
-  <si>
     <t>dlabzqpøntʃ</t>
   </si>
   <si>
@@ -1529,9 +1478,6 @@
     <t>ɣwiʔt</t>
   </si>
   <si>
-    <t>ɢʁitʃtx</t>
-  </si>
-  <si>
     <t>kfɒʔg'ʔ</t>
   </si>
   <si>
@@ -1547,9 +1493,6 @@
     <t>ʃuqn</t>
   </si>
   <si>
-    <t>juvɯkʰ</t>
-  </si>
-  <si>
     <t>nak'm</t>
   </si>
   <si>
@@ -1559,9 +1502,6 @@
     <t>qabʔ</t>
   </si>
   <si>
-    <t>ʃtek'ʁ</t>
-  </si>
-  <si>
     <t>tʃkalakm</t>
   </si>
   <si>
@@ -1673,9 +1613,6 @@
     <t>ɸlnakʰm</t>
   </si>
   <si>
-    <t>tʃəxtefaʔqsemr</t>
-  </si>
-  <si>
     <t>aχəwʔ</t>
   </si>
   <si>
@@ -1730,9 +1667,6 @@
     <t>nakʰm</t>
   </si>
   <si>
-    <t>jɒʔgzɒðʁ</t>
-  </si>
-  <si>
     <t>vuwʔk</t>
   </si>
   <si>
@@ -1769,9 +1703,6 @@
     <t>ʔitʰpənn</t>
   </si>
   <si>
-    <t>hfweʒp</t>
-  </si>
-  <si>
     <t>txʃ</t>
   </si>
   <si>
@@ -1808,9 +1739,6 @@
     <t>tʃkaqq</t>
   </si>
   <si>
-    <t>ɮɒʔθ</t>
-  </si>
-  <si>
     <t>raɸoj</t>
   </si>
   <si>
@@ -1913,9 +1841,6 @@
     <t>qiipmt</t>
   </si>
   <si>
-    <t>šχʁɒɒčχ</t>
-  </si>
-  <si>
     <t>'øønəķ</t>
   </si>
   <si>
@@ -1934,21 +1859,12 @@
     <t>θutlzəətč</t>
   </si>
   <si>
-    <t>ǩliiŋš</t>
-  </si>
-  <si>
-    <t>naķmtǆyyφķ</t>
-  </si>
-  <si>
     <t>verb</t>
   </si>
   <si>
     <t>twøǩxθəəxt</t>
   </si>
   <si>
-    <t>čxəťu'θəəxt</t>
-  </si>
-  <si>
     <t>θuqxiwwθəəxt</t>
   </si>
   <si>
@@ -1994,9 +1910,6 @@
     <t>χaanj</t>
   </si>
   <si>
-    <t>juuvẅķ</t>
-  </si>
-  <si>
     <t>čkalaakm</t>
   </si>
   <si>
@@ -2069,15 +1982,9 @@
     <t>moo'θ</t>
   </si>
   <si>
-    <t>jɒɒ'gmo'yθ</t>
-  </si>
-  <si>
     <t>Father of Machines</t>
   </si>
   <si>
-    <t>jɒɒ'gmoo'yθ</t>
-  </si>
-  <si>
     <t>xwiixč</t>
   </si>
   <si>
@@ -2126,12 +2033,6 @@
     <t>mroodn</t>
   </si>
   <si>
-    <t>zɒɒðʁ</t>
-  </si>
-  <si>
-    <t>jɒ'gzɒɒðʁ</t>
-  </si>
-  <si>
     <t>ǆfyyll</t>
   </si>
   <si>
@@ -2150,9 +2051,6 @@
     <t>qẅrɮwii'g</t>
   </si>
   <si>
-    <t>hfweežp</t>
-  </si>
-  <si>
     <t>føøvɣ</t>
   </si>
   <si>
@@ -2204,9 +2102,6 @@
     <t>χiiɢɬ</t>
   </si>
   <si>
-    <t>ɮɒɒ'θ</t>
-  </si>
-  <si>
     <t>'opaarxχ</t>
   </si>
   <si>
@@ -2339,9 +2234,6 @@
     <t>twøǩx,θəxt</t>
   </si>
   <si>
-    <t>čxəť',θəxt</t>
-  </si>
-  <si>
     <t>θuqx,θəxt</t>
   </si>
   <si>
@@ -2411,15 +2303,9 @@
     <t>korx</t>
   </si>
   <si>
-    <t>jɒ'g,zɒðʁ</t>
-  </si>
-  <si>
     <t>rukx,tekt</t>
   </si>
   <si>
-    <t>naķm,tǆyφķ</t>
-  </si>
-  <si>
     <t>'əqoq'</t>
   </si>
   <si>
@@ -2454,6 +2340,123 @@
   </si>
   <si>
     <t>viižǥ</t>
+  </si>
+  <si>
+    <t>ǧliŋš</t>
+  </si>
+  <si>
+    <t>g'liŋʃ</t>
+  </si>
+  <si>
+    <t>ǧliiŋš</t>
+  </si>
+  <si>
+    <t>šχʁɒčx</t>
+  </si>
+  <si>
+    <t>ʃχʁɒtʃx</t>
+  </si>
+  <si>
+    <t>šχʁɒɒčx</t>
+  </si>
+  <si>
+    <t>naķmtǆyφt</t>
+  </si>
+  <si>
+    <t>nakʰmtdʒyɸt</t>
+  </si>
+  <si>
+    <t>naķmtǆyyφt</t>
+  </si>
+  <si>
+    <t>čxət'θəxt</t>
+  </si>
+  <si>
+    <t>tʃxətʔθəxt</t>
+  </si>
+  <si>
+    <t>čxət'θəəxt</t>
+  </si>
+  <si>
+    <t>čxət',θəxt</t>
+  </si>
+  <si>
+    <t>gʁičtx</t>
+  </si>
+  <si>
+    <t>gʁitʃtx</t>
+  </si>
+  <si>
+    <t>naķm,tǆyφt</t>
+  </si>
+  <si>
+    <t>juχẅķ</t>
+  </si>
+  <si>
+    <t>juuχẅķ</t>
+  </si>
+  <si>
+    <t>juχɯkʰ</t>
+  </si>
+  <si>
+    <t>šteǧʁ</t>
+  </si>
+  <si>
+    <t>ʃteg'ʁ</t>
+  </si>
+  <si>
+    <t>čəxkefa'qsemr</t>
+  </si>
+  <si>
+    <t>tʃəxkefaʔqsemr</t>
+  </si>
+  <si>
+    <t>jɒ'gmo'yθ</t>
+  </si>
+  <si>
+    <t>jɒ'gmoo'yθ</t>
+  </si>
+  <si>
+    <t>žɒðʁ</t>
+  </si>
+  <si>
+    <t>žɒɒðʁ</t>
+  </si>
+  <si>
+    <t>jɒ'g,žɒðʁ</t>
+  </si>
+  <si>
+    <t>jɒ'gžɒɒðʁ</t>
+  </si>
+  <si>
+    <t>jɒ'gžɒðʁ</t>
+  </si>
+  <si>
+    <t>ʒɒðʁ</t>
+  </si>
+  <si>
+    <t>jɒʔgʒɒðʁ</t>
+  </si>
+  <si>
+    <t>ɢnagɮ</t>
+  </si>
+  <si>
+    <t>hfwežφ</t>
+  </si>
+  <si>
+    <t>hfweežφ</t>
+  </si>
+  <si>
+    <t>hfweʒɸ</t>
+  </si>
+  <si>
+    <t>ɮɒ'ɣ</t>
+  </si>
+  <si>
+    <t>ɮɒʔɣ</t>
+  </si>
+  <si>
+    <t>ɮɒɒ'ɣ</t>
   </si>
 </sst>
 </file>
@@ -2882,8 +2885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="K240" sqref="K240"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="E225" sqref="E225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2899,37 +2902,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>602</v>
+        <v>578</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>604</v>
+        <v>580</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>603</v>
+        <v>579</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>608</v>
+        <v>584</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>609</v>
+        <v>585</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>601</v>
+        <v>577</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>606</v>
+        <v>582</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>607</v>
+        <v>583</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>800</v>
+        <v>762</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -2937,7 +2940,7 @@
         <v>233</v>
       </c>
       <c r="B2" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -2946,13 +2949,13 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>801</v>
+        <v>763</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2960,7 +2963,7 @@
         <v>234</v>
       </c>
       <c r="B3" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -2969,13 +2972,13 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>801</v>
+        <v>763</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2983,7 +2986,7 @@
         <v>235</v>
       </c>
       <c r="B4" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -2992,13 +2995,13 @@
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>801</v>
+        <v>763</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -3015,13 +3018,13 @@
         <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>801</v>
+        <v>763</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -3029,7 +3032,7 @@
         <v>237</v>
       </c>
       <c r="B6" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -3038,13 +3041,13 @@
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>801</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3052,7 +3055,7 @@
         <v>238</v>
       </c>
       <c r="B7" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -3061,13 +3064,13 @@
         <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>801</v>
+        <v>763</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -3075,7 +3078,7 @@
         <v>239</v>
       </c>
       <c r="B8" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -3084,13 +3087,13 @@
         <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>801</v>
+        <v>763</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -3098,7 +3101,7 @@
         <v>240</v>
       </c>
       <c r="B9" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -3107,13 +3110,13 @@
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>801</v>
+        <v>763</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -3121,7 +3124,7 @@
         <v>241</v>
       </c>
       <c r="B10" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -3130,13 +3133,13 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>801</v>
+        <v>763</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -3144,7 +3147,7 @@
         <v>242</v>
       </c>
       <c r="B11" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -3153,13 +3156,13 @@
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>801</v>
+        <v>763</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -3176,21 +3179,21 @@
         <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>801</v>
+        <v>763</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>749</v>
+        <v>714</v>
       </c>
       <c r="B13" t="s">
-        <v>751</v>
+        <v>716</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -3199,16 +3202,16 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>750</v>
+        <v>715</v>
       </c>
       <c r="H13" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>801</v>
+        <v>764</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -3216,7 +3219,7 @@
         <v>243</v>
       </c>
       <c r="B14" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -3225,13 +3228,13 @@
         <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>801</v>
+        <v>763</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -3239,7 +3242,7 @@
         <v>244</v>
       </c>
       <c r="B15" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -3248,13 +3251,13 @@
         <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>801</v>
+        <v>763</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -3271,13 +3274,13 @@
         <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>801</v>
+        <v>763</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -3285,7 +3288,7 @@
         <v>246</v>
       </c>
       <c r="B17" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -3294,13 +3297,13 @@
         <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>801</v>
+        <v>763</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -3308,7 +3311,7 @@
         <v>247</v>
       </c>
       <c r="B18" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -3317,13 +3320,13 @@
         <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>801</v>
+        <v>763</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -3331,7 +3334,7 @@
         <v>248</v>
       </c>
       <c r="B19" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -3340,13 +3343,13 @@
         <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>801</v>
+        <v>763</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -3354,7 +3357,7 @@
         <v>249</v>
       </c>
       <c r="B20" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -3363,13 +3366,13 @@
         <v>21</v>
       </c>
       <c r="H20" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -3389,13 +3392,13 @@
         <v>250</v>
       </c>
       <c r="H21" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -3403,10 +3406,10 @@
         <v>251</v>
       </c>
       <c r="B22" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C22" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -3415,13 +3418,13 @@
         <v>251</v>
       </c>
       <c r="H22" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -3429,10 +3432,10 @@
         <v>252</v>
       </c>
       <c r="B23" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="C23" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
@@ -3441,13 +3444,13 @@
         <v>252</v>
       </c>
       <c r="H23" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -3455,10 +3458,10 @@
         <v>253</v>
       </c>
       <c r="B24" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="C24" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
@@ -3467,13 +3470,13 @@
         <v>253</v>
       </c>
       <c r="H24" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I24" t="b">
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -3484,22 +3487,22 @@
         <v>254</v>
       </c>
       <c r="C25" t="s">
-        <v>615</v>
+        <v>591</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>752</v>
+        <v>717</v>
       </c>
       <c r="H25" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -3507,25 +3510,25 @@
         <v>255</v>
       </c>
       <c r="B26" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="C26" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="D26" t="s">
         <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>753</v>
+        <v>718</v>
       </c>
       <c r="H26" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I26" t="b">
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -3536,7 +3539,7 @@
         <v>256</v>
       </c>
       <c r="C27" t="s">
-        <v>617</v>
+        <v>593</v>
       </c>
       <c r="D27" t="s">
         <v>28</v>
@@ -3545,13 +3548,13 @@
         <v>256</v>
       </c>
       <c r="H27" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I27" t="b">
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -3568,16 +3571,16 @@
         <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="H28" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -3585,10 +3588,10 @@
         <v>258</v>
       </c>
       <c r="B29" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
       <c r="D29" t="s">
         <v>30</v>
@@ -3597,13 +3600,13 @@
         <v>258</v>
       </c>
       <c r="H29" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I29" t="b">
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -3611,10 +3614,10 @@
         <v>259</v>
       </c>
       <c r="B30" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="C30" t="s">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="D30" t="s">
         <v>31</v>
@@ -3623,13 +3626,13 @@
         <v>256</v>
       </c>
       <c r="H30" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -3637,10 +3640,10 @@
         <v>260</v>
       </c>
       <c r="B31" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="C31" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="D31" t="s">
         <v>32</v>
@@ -3649,13 +3652,13 @@
         <v>260</v>
       </c>
       <c r="H31" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -3666,7 +3669,7 @@
         <v>261</v>
       </c>
       <c r="C32" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
       <c r="D32" t="s">
         <v>33</v>
@@ -3675,39 +3678,39 @@
         <v>261</v>
       </c>
       <c r="H32" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I32" t="b">
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>797</v>
+        <v>759</v>
       </c>
       <c r="B33" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>628</v>
+        <v>603</v>
       </c>
       <c r="D33" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>797</v>
+        <v>759</v>
       </c>
       <c r="H33" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -3715,25 +3718,25 @@
         <v>262</v>
       </c>
       <c r="B34" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="C34" t="s">
-        <v>622</v>
+        <v>598</v>
       </c>
       <c r="D34" t="s">
         <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>754</v>
+        <v>719</v>
       </c>
       <c r="H34" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I34" t="b">
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -3741,25 +3744,25 @@
         <v>263</v>
       </c>
       <c r="B35" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="C35" t="s">
-        <v>623</v>
+        <v>599</v>
       </c>
       <c r="D35" t="s">
         <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
       <c r="H35" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I35" t="b">
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -3770,7 +3773,7 @@
         <v>264</v>
       </c>
       <c r="C36" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="D36" t="s">
         <v>37</v>
@@ -3779,13 +3782,13 @@
         <v>264</v>
       </c>
       <c r="H36" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -3796,7 +3799,7 @@
         <v>265</v>
       </c>
       <c r="C37" t="s">
-        <v>625</v>
+        <v>601</v>
       </c>
       <c r="D37" t="s">
         <v>38</v>
@@ -3805,226 +3808,226 @@
         <v>265</v>
       </c>
       <c r="H37" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>266</v>
+        <v>772</v>
       </c>
       <c r="B38" t="s">
-        <v>480</v>
+        <v>773</v>
       </c>
       <c r="C38" t="s">
-        <v>626</v>
+        <v>774</v>
       </c>
       <c r="D38" t="s">
         <v>39</v>
       </c>
       <c r="H38" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I38" t="b">
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>803</v>
+        <v>765</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B39" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>627</v>
+        <v>602</v>
       </c>
       <c r="D39" t="s">
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H39" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I39" t="b">
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>795</v>
+        <v>757</v>
       </c>
       <c r="B40" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="D40" t="s">
         <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>755</v>
+        <v>720</v>
       </c>
       <c r="H40" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I40" t="b">
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B41" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="C41" t="s">
-        <v>630</v>
+        <v>605</v>
       </c>
       <c r="D41" t="s">
         <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H41" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I41" t="b">
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C42" t="s">
-        <v>631</v>
+        <v>606</v>
       </c>
       <c r="D42" t="s">
         <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H42" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B43" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="C43" t="s">
-        <v>632</v>
+        <v>607</v>
       </c>
       <c r="D43" t="s">
         <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>756</v>
+        <v>721</v>
       </c>
       <c r="H43" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I43" t="b">
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>271</v>
+        <v>769</v>
       </c>
       <c r="B44" t="s">
-        <v>485</v>
+        <v>770</v>
       </c>
       <c r="C44" t="s">
-        <v>633</v>
+        <v>771</v>
       </c>
       <c r="D44" t="s">
         <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>271</v>
+        <v>769</v>
       </c>
       <c r="H44" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I44" t="b">
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>272</v>
+        <v>775</v>
       </c>
       <c r="B45" t="s">
-        <v>486</v>
+        <v>776</v>
       </c>
       <c r="C45" t="s">
-        <v>634</v>
+        <v>777</v>
       </c>
       <c r="D45" t="s">
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="H45" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I45" t="b">
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B46" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -4033,24 +4036,24 @@
         <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H46" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="I46" t="b">
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B47" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -4059,24 +4062,24 @@
         <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>757</v>
+        <v>722</v>
       </c>
       <c r="H47" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I47" t="b">
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B48" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -4085,24 +4088,24 @@
         <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H48" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B49" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -4111,24 +4114,24 @@
         <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>752</v>
+        <v>717</v>
       </c>
       <c r="H49" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I49" t="b">
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B50" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -4137,24 +4140,24 @@
         <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>758</v>
+        <v>723</v>
       </c>
       <c r="H50" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I50" t="b">
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B51" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -4163,24 +4166,24 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>759</v>
+        <v>724</v>
       </c>
       <c r="H51" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I51" t="b">
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B52" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -4189,24 +4192,24 @@
         <v>53</v>
       </c>
       <c r="E52" t="s">
-        <v>760</v>
+        <v>725</v>
       </c>
       <c r="H52" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I52" t="b">
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>761</v>
+        <v>726</v>
       </c>
       <c r="B53" t="s">
-        <v>762</v>
+        <v>727</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -4215,24 +4218,24 @@
         <v>54</v>
       </c>
       <c r="E53" t="s">
-        <v>763</v>
+        <v>728</v>
       </c>
       <c r="H53" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I53" t="b">
         <v>1</v>
       </c>
       <c r="K53" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B54" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -4241,24 +4244,24 @@
         <v>55</v>
       </c>
       <c r="E54" t="s">
+        <v>729</v>
+      </c>
+      <c r="H54" t="s">
+        <v>587</v>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
         <v>764</v>
-      </c>
-      <c r="H54" t="s">
-        <v>611</v>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="K54" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B55" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -4267,24 +4270,24 @@
         <v>56</v>
       </c>
       <c r="E55" t="s">
-        <v>765</v>
+        <v>730</v>
       </c>
       <c r="H55" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I55" t="b">
         <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B56" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -4293,24 +4296,24 @@
         <v>57</v>
       </c>
       <c r="E56" t="s">
-        <v>766</v>
+        <v>731</v>
       </c>
       <c r="H56" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I56" t="b">
         <v>1</v>
       </c>
       <c r="K56" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B57" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
@@ -4319,24 +4322,24 @@
         <v>58</v>
       </c>
       <c r="E57" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H57" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I57" t="b">
         <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B58" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
@@ -4345,310 +4348,310 @@
         <v>59</v>
       </c>
       <c r="E58" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="H58" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I58" t="b">
         <v>1</v>
       </c>
       <c r="K58" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B59" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="C59" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="D59" t="s">
         <v>60</v>
       </c>
       <c r="E59" t="s">
-        <v>767</v>
+        <v>732</v>
       </c>
       <c r="H59" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I59" t="b">
         <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>286</v>
+        <v>778</v>
       </c>
       <c r="B60" t="s">
-        <v>492</v>
+        <v>779</v>
       </c>
       <c r="C60" t="s">
-        <v>637</v>
+        <v>780</v>
       </c>
       <c r="D60" t="s">
-        <v>774</v>
+        <v>738</v>
       </c>
       <c r="E60" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="H60" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I60" t="b">
         <v>1</v>
       </c>
       <c r="K60" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B61" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C61" t="s">
-        <v>638</v>
+        <v>610</v>
       </c>
       <c r="D61" t="s">
         <v>61</v>
       </c>
       <c r="E61" t="s">
-        <v>769</v>
+        <v>733</v>
       </c>
       <c r="H61" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I61" t="b">
         <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B62" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C62" t="s">
-        <v>639</v>
+        <v>611</v>
       </c>
       <c r="D62" t="s">
         <v>62</v>
       </c>
       <c r="E62" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H62" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I62" t="b">
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B63" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C63" t="s">
-        <v>640</v>
+        <v>612</v>
       </c>
       <c r="D63" t="s">
         <v>63</v>
       </c>
       <c r="E63" t="s">
-        <v>770</v>
+        <v>734</v>
       </c>
       <c r="H63" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I63" t="b">
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B64" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C64" t="s">
-        <v>641</v>
+        <v>613</v>
       </c>
       <c r="D64" t="s">
         <v>64</v>
       </c>
       <c r="E64" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H64" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I64" t="b">
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>646</v>
+        <v>618</v>
       </c>
       <c r="B65" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="C65" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="D65" t="s">
         <v>65</v>
       </c>
       <c r="E65" t="s">
-        <v>771</v>
+        <v>735</v>
       </c>
       <c r="H65" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I65" t="b">
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B66" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="C66" t="s">
-        <v>642</v>
+        <v>614</v>
       </c>
       <c r="D66" t="s">
         <v>66</v>
       </c>
       <c r="E66" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H66" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I66" t="b">
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>644</v>
+        <v>616</v>
       </c>
       <c r="B67" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="C67" t="s">
-        <v>645</v>
+        <v>617</v>
       </c>
       <c r="D67" t="s">
         <v>67</v>
       </c>
       <c r="E67" t="s">
-        <v>772</v>
+        <v>736</v>
       </c>
       <c r="H67" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I67" t="b">
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B68" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="C68" t="s">
-        <v>643</v>
+        <v>615</v>
       </c>
       <c r="D68" t="s">
         <v>68</v>
       </c>
       <c r="E68" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H68" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I68" t="b">
         <v>1</v>
       </c>
       <c r="K68" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B69" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C69" t="s">
-        <v>648</v>
+        <v>620</v>
       </c>
       <c r="D69" t="s">
         <v>69</v>
       </c>
       <c r="E69" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H69" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I69" t="b">
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B70" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
@@ -4657,24 +4660,24 @@
         <v>70</v>
       </c>
       <c r="E70" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H70" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="I70" t="b">
         <v>1</v>
       </c>
       <c r="K70" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B71" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -4683,50 +4686,50 @@
         <v>71</v>
       </c>
       <c r="E71" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H71" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="I71" t="b">
         <v>1</v>
       </c>
       <c r="K71" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B72" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="C72" t="s">
-        <v>650</v>
+        <v>622</v>
       </c>
       <c r="D72" t="s">
-        <v>649</v>
+        <v>621</v>
       </c>
       <c r="E72" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H72" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I72" t="b">
         <v>1</v>
       </c>
       <c r="K72" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>297</v>
+        <v>782</v>
       </c>
       <c r="B73" t="s">
-        <v>498</v>
+        <v>783</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
@@ -4735,125 +4738,125 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>297</v>
+        <v>782</v>
       </c>
       <c r="H73" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I73" t="b">
         <v>1</v>
       </c>
       <c r="K73" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B74" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>773</v>
+        <v>737</v>
       </c>
       <c r="E74" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H74" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I74" t="b">
         <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B75" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="C75" t="s">
-        <v>651</v>
+        <v>623</v>
       </c>
       <c r="D75" t="s">
         <v>73</v>
       </c>
       <c r="E75" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H75" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I75" t="b">
         <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B76" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C76" t="s">
-        <v>662</v>
+        <v>633</v>
       </c>
       <c r="D76" t="s">
-        <v>804</v>
+        <v>766</v>
       </c>
       <c r="E76" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H76" t="s">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="I76" t="b">
         <v>1</v>
       </c>
       <c r="K76" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B77" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="C77" t="s">
-        <v>744</v>
+        <v>709</v>
       </c>
       <c r="D77" t="s">
         <v>74</v>
       </c>
       <c r="H77" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I77" t="b">
         <v>1</v>
       </c>
       <c r="K77" t="s">
-        <v>803</v>
+        <v>765</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B78" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -4862,128 +4865,128 @@
         <v>75</v>
       </c>
       <c r="E78" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H78" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I78" t="b">
         <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B79" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C79" t="s">
-        <v>745</v>
+        <v>710</v>
       </c>
       <c r="D79" t="s">
         <v>76</v>
       </c>
       <c r="E79" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H79" t="s">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="I79" t="b">
         <v>1</v>
       </c>
       <c r="K79" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B80" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>652</v>
+        <v>624</v>
       </c>
       <c r="D80" t="s">
         <v>77</v>
       </c>
       <c r="E80" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H80" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I80" t="b">
         <v>1</v>
       </c>
       <c r="K80" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B81" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>776</v>
+        <v>740</v>
       </c>
       <c r="E81" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H81" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I81" t="b">
         <v>1</v>
       </c>
       <c r="K81" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>306</v>
+        <v>785</v>
       </c>
       <c r="B82" t="s">
-        <v>504</v>
+        <v>787</v>
       </c>
       <c r="C82" t="s">
-        <v>653</v>
+        <v>786</v>
       </c>
       <c r="D82" t="s">
         <v>78</v>
       </c>
       <c r="E82" t="s">
-        <v>306</v>
+        <v>785</v>
       </c>
       <c r="H82" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I82" t="b">
         <v>1</v>
       </c>
       <c r="K82" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B83" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -4992,24 +4995,24 @@
         <v>79</v>
       </c>
       <c r="E83" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="H83" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I83" t="b">
         <v>1</v>
       </c>
       <c r="K83" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B84" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
@@ -5018,24 +5021,24 @@
         <v>80</v>
       </c>
       <c r="E84" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H84" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I84" t="b">
         <v>1</v>
       </c>
       <c r="K84" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B85" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
@@ -5044,24 +5047,24 @@
         <v>81</v>
       </c>
       <c r="E85" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H85" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I85" t="b">
         <v>1</v>
       </c>
       <c r="K85" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>310</v>
+        <v>788</v>
       </c>
       <c r="B86" t="s">
-        <v>508</v>
+        <v>789</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
@@ -5070,24 +5073,24 @@
         <v>82</v>
       </c>
       <c r="E86" t="s">
-        <v>310</v>
+        <v>788</v>
       </c>
       <c r="H86" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I86" t="b">
         <v>1</v>
       </c>
       <c r="K86" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B87" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
@@ -5096,76 +5099,76 @@
         <v>83</v>
       </c>
       <c r="E87" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="H87" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I87" t="b">
         <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B88" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="C88" t="s">
-        <v>654</v>
+        <v>625</v>
       </c>
       <c r="D88" t="s">
         <v>84</v>
       </c>
       <c r="E88" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="H88" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I88" t="b">
         <v>1</v>
       </c>
       <c r="K88" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B89" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>775</v>
+        <v>739</v>
       </c>
       <c r="E89" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="H89" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I89" t="b">
         <v>1</v>
       </c>
       <c r="K89" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B90" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
@@ -5174,24 +5177,24 @@
         <v>85</v>
       </c>
       <c r="E90" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="H90" t="s">
-        <v>746</v>
+        <v>711</v>
       </c>
       <c r="I90" t="b">
         <v>1</v>
       </c>
       <c r="K90" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B91" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
@@ -5200,50 +5203,50 @@
         <v>86</v>
       </c>
       <c r="E91" t="s">
-        <v>777</v>
+        <v>741</v>
       </c>
       <c r="H91" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I91" t="b">
         <v>1</v>
       </c>
       <c r="K91" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B92" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="C92" t="s">
-        <v>655</v>
+        <v>626</v>
       </c>
       <c r="D92" t="s">
         <v>87</v>
       </c>
       <c r="E92" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="H92" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I92" t="b">
         <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B93" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
@@ -5252,76 +5255,76 @@
         <v>88</v>
       </c>
       <c r="E93" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H93" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I93" t="b">
         <v>1</v>
       </c>
       <c r="K93" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B94" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="C94" t="s">
-        <v>656</v>
+        <v>627</v>
       </c>
       <c r="D94" t="s">
         <v>89</v>
       </c>
       <c r="E94" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H94" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I94" t="b">
         <v>1</v>
       </c>
       <c r="K94" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B95" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="C95" t="s">
-        <v>657</v>
+        <v>628</v>
       </c>
       <c r="D95" t="s">
         <v>90</v>
       </c>
       <c r="E95" t="s">
-        <v>778</v>
+        <v>742</v>
       </c>
       <c r="H95" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I95" t="b">
         <v>1</v>
       </c>
       <c r="K95" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B96" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
@@ -5330,47 +5333,47 @@
         <v>91</v>
       </c>
       <c r="H96" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I96" t="b">
         <v>1</v>
       </c>
       <c r="K96" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B97" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>658</v>
+        <v>629</v>
       </c>
       <c r="D97" t="s">
         <v>92</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>779</v>
+        <v>743</v>
       </c>
       <c r="H97" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I97" t="b">
         <v>1</v>
       </c>
       <c r="K97" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B98" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="C98" t="b">
         <v>0</v>
@@ -5379,99 +5382,99 @@
         <v>93</v>
       </c>
       <c r="E98" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="H98" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I98" t="b">
         <v>1</v>
       </c>
       <c r="K98" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B99" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="C99" t="s">
-        <v>659</v>
+        <v>630</v>
       </c>
       <c r="D99" t="s">
         <v>94</v>
       </c>
       <c r="E99" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H99" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I99" t="b">
         <v>1</v>
       </c>
       <c r="K99" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B100" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C100" t="s">
-        <v>660</v>
+        <v>631</v>
       </c>
       <c r="D100" t="s">
         <v>95</v>
       </c>
       <c r="H100" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I100" t="b">
         <v>1</v>
       </c>
       <c r="K100" t="s">
-        <v>803</v>
+        <v>765</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B101" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="C101" t="s">
-        <v>661</v>
+        <v>632</v>
       </c>
       <c r="D101" t="s">
         <v>96</v>
       </c>
       <c r="E101" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="H101" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I101" t="b">
         <v>1</v>
       </c>
       <c r="K101" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B102" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>
@@ -5480,24 +5483,24 @@
         <v>97</v>
       </c>
       <c r="E102" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="H102" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I102" t="b">
         <v>1</v>
       </c>
       <c r="K102" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B103" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="C103" t="b">
         <v>0</v>
@@ -5506,21 +5509,21 @@
         <v>98</v>
       </c>
       <c r="H103" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I103" t="b">
         <v>1</v>
       </c>
       <c r="K103" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B104" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C104" t="b">
         <v>0</v>
@@ -5529,24 +5532,24 @@
         <v>99</v>
       </c>
       <c r="E104" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="H104" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I104" t="b">
         <v>1</v>
       </c>
       <c r="K104" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B105" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="C105" t="b">
         <v>0</v>
@@ -5555,48 +5558,48 @@
         <v>100</v>
       </c>
       <c r="E105" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="H105" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I105" t="b">
         <v>1</v>
       </c>
       <c r="K105" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B106" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="C106" t="s">
-        <v>663</v>
+        <v>634</v>
       </c>
       <c r="D106" t="s">
         <v>101</v>
       </c>
       <c r="E106" s="2"/>
       <c r="H106" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I106" t="b">
         <v>1</v>
       </c>
       <c r="K106" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B107" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="C107" t="b">
         <v>0</v>
@@ -5605,76 +5608,76 @@
         <v>102</v>
       </c>
       <c r="E107" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H107" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I107" t="b">
         <v>1</v>
       </c>
       <c r="K107" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B108" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="C108" t="s">
-        <v>665</v>
+        <v>636</v>
       </c>
       <c r="D108" t="s">
         <v>103</v>
       </c>
       <c r="E108" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="H108" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I108" t="b">
         <v>1</v>
       </c>
       <c r="K108" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B109" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C109" t="s">
-        <v>664</v>
+        <v>635</v>
       </c>
       <c r="D109" t="s">
         <v>104</v>
       </c>
       <c r="E109" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="H109" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I109" t="b">
         <v>1</v>
       </c>
       <c r="K109" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B110" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="C110" t="b">
         <v>0</v>
@@ -5683,24 +5686,24 @@
         <v>105</v>
       </c>
       <c r="E110" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H110" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I110" t="b">
         <v>1</v>
       </c>
       <c r="K110" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B111" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="C111" t="b">
         <v>0</v>
@@ -5709,24 +5712,24 @@
         <v>106</v>
       </c>
       <c r="E111" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="H111" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I111" t="b">
         <v>1</v>
       </c>
       <c r="K111" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B112" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="C112" t="b">
         <v>0</v>
@@ -5735,24 +5738,24 @@
         <v>107</v>
       </c>
       <c r="E112" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H112" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I112" t="b">
         <v>1</v>
       </c>
       <c r="K112" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B113" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="C113" t="b">
         <v>0</v>
@@ -5761,24 +5764,24 @@
         <v>108</v>
       </c>
       <c r="E113" t="s">
-        <v>780</v>
+        <v>744</v>
       </c>
       <c r="H113" t="s">
-        <v>748</v>
+        <v>713</v>
       </c>
       <c r="I113" t="b">
         <v>1</v>
       </c>
       <c r="K113" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B114" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="C114" t="b">
         <v>0</v>
@@ -5787,50 +5790,50 @@
         <v>109</v>
       </c>
       <c r="E114" t="s">
-        <v>780</v>
+        <v>744</v>
       </c>
       <c r="H114" t="s">
-        <v>748</v>
+        <v>713</v>
       </c>
       <c r="I114" t="b">
         <v>1</v>
       </c>
       <c r="K114" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>805</v>
+        <v>767</v>
       </c>
       <c r="B115" t="s">
-        <v>806</v>
+        <v>768</v>
       </c>
       <c r="C115" t="s">
-        <v>805</v>
+        <v>767</v>
       </c>
       <c r="D115" t="s">
         <v>110</v>
       </c>
       <c r="E115" t="s">
-        <v>805</v>
+        <v>767</v>
       </c>
       <c r="H115" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I115" t="b">
         <v>1</v>
       </c>
       <c r="K115" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B116" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="C116" t="b">
         <v>0</v>
@@ -5839,21 +5842,21 @@
         <v>111</v>
       </c>
       <c r="H116" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I116" t="b">
         <v>1</v>
       </c>
       <c r="K116" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B117" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C117" t="b">
         <v>0</v>
@@ -5862,151 +5865,151 @@
         <v>112</v>
       </c>
       <c r="E117" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="H117" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I117" t="b">
         <v>1</v>
       </c>
       <c r="K117" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B118" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C118" t="s">
-        <v>666</v>
+        <v>637</v>
       </c>
       <c r="D118" t="s">
         <v>113</v>
       </c>
       <c r="E118" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="H118" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I118" t="b">
         <v>1</v>
       </c>
       <c r="K118" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B119" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="C119" t="s">
-        <v>667</v>
+        <v>638</v>
       </c>
       <c r="D119" t="s">
         <v>114</v>
       </c>
       <c r="E119" t="s">
-        <v>781</v>
+        <v>745</v>
       </c>
       <c r="H119" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I119" t="b">
         <v>1</v>
       </c>
       <c r="K119" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B120" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="C120" t="s">
-        <v>668</v>
+        <v>639</v>
       </c>
       <c r="D120" t="s">
         <v>115</v>
       </c>
       <c r="H120" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I120" t="b">
         <v>1</v>
       </c>
       <c r="K120" t="s">
-        <v>803</v>
+        <v>765</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B121" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="C121" t="s">
-        <v>670</v>
+        <v>641</v>
       </c>
       <c r="D121" t="s">
         <v>116</v>
       </c>
       <c r="E121" t="s">
-        <v>783</v>
+        <v>747</v>
       </c>
       <c r="H121" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I121" t="b">
         <v>1</v>
       </c>
       <c r="K121" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B122" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="C122" t="s">
-        <v>669</v>
+        <v>640</v>
       </c>
       <c r="D122" t="s">
         <v>117</v>
       </c>
       <c r="E122" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="H122" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I122" t="b">
         <v>1</v>
       </c>
       <c r="K122" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B123" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C123" t="b">
         <v>0</v>
@@ -6015,24 +6018,24 @@
         <v>118</v>
       </c>
       <c r="E123" t="s">
-        <v>784</v>
+        <v>748</v>
       </c>
       <c r="H123" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="I123" t="b">
         <v>1</v>
       </c>
       <c r="K123" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B124" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="C124" t="b">
         <v>0</v>
@@ -6041,50 +6044,50 @@
         <v>119</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>785</v>
+        <v>749</v>
       </c>
       <c r="H124" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I124" t="b">
         <v>1</v>
       </c>
       <c r="K124" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B125" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>685</v>
+        <v>654</v>
       </c>
       <c r="D125" t="s">
         <v>120</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H125" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I125" t="b">
         <v>1</v>
       </c>
       <c r="K125" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B126" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C126" t="b">
         <v>0</v>
@@ -6093,50 +6096,50 @@
         <v>121</v>
       </c>
       <c r="E126" t="s">
-        <v>786</v>
+        <v>750</v>
       </c>
       <c r="H126" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I126" t="b">
         <v>1</v>
       </c>
       <c r="K126" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B127" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="C127" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D127" t="s">
         <v>122</v>
       </c>
       <c r="E127" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="H127" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I127" t="b">
         <v>1</v>
       </c>
       <c r="K127" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B128" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C128" t="b">
         <v>0</v>
@@ -6145,47 +6148,47 @@
         <v>123</v>
       </c>
       <c r="H128" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="I128" t="b">
         <v>1</v>
       </c>
       <c r="K128" t="s">
-        <v>803</v>
+        <v>765</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B129" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C129" t="s">
-        <v>671</v>
+        <v>642</v>
       </c>
       <c r="D129" t="s">
         <v>124</v>
       </c>
       <c r="E129" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="H129" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I129" t="b">
         <v>0</v>
       </c>
       <c r="K129" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B130" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="C130" t="b">
         <v>0</v>
@@ -6194,21 +6197,21 @@
         <v>125</v>
       </c>
       <c r="H130" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I130" t="b">
         <v>1</v>
       </c>
       <c r="K130" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B131" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C131" t="b">
         <v>0</v>
@@ -6217,24 +6220,24 @@
         <v>126</v>
       </c>
       <c r="E131" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="H131" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="I131" t="b">
         <v>1</v>
       </c>
       <c r="K131" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B132" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="C132" t="b">
         <v>0</v>
@@ -6243,24 +6246,24 @@
         <v>127</v>
       </c>
       <c r="E132" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H132" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I132" t="b">
         <v>1</v>
       </c>
       <c r="K132" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B133" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C133" t="b">
         <v>0</v>
@@ -6269,47 +6272,47 @@
         <v>128</v>
       </c>
       <c r="H133" t="s">
-        <v>747</v>
+        <v>712</v>
       </c>
       <c r="I133" t="b">
         <v>1</v>
       </c>
       <c r="K133" t="s">
-        <v>803</v>
+        <v>765</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B134" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="C134" t="s">
-        <v>672</v>
+        <v>643</v>
       </c>
       <c r="D134" t="s">
         <v>129</v>
       </c>
       <c r="E134" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H134" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I134" t="b">
         <v>0</v>
       </c>
       <c r="K134" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B135" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="C135" t="b">
         <v>0</v>
@@ -6318,21 +6321,21 @@
         <v>130</v>
       </c>
       <c r="H135" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I135" t="b">
         <v>1</v>
       </c>
       <c r="K135" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B136" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="C136" t="b">
         <v>0</v>
@@ -6341,47 +6344,47 @@
         <v>131</v>
       </c>
       <c r="H136" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I136" t="b">
         <v>1</v>
       </c>
       <c r="K136" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B137" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="C137" t="s">
-        <v>642</v>
+        <v>614</v>
       </c>
       <c r="D137" t="s">
         <v>66</v>
       </c>
       <c r="E137" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H137" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I137" t="b">
         <v>1</v>
       </c>
       <c r="K137" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B138" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="C138" t="b">
         <v>0</v>
@@ -6390,24 +6393,24 @@
         <v>132</v>
       </c>
       <c r="E138" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="H138" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I138" t="b">
         <v>1</v>
       </c>
       <c r="K138" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B139" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="C139" t="b">
         <v>0</v>
@@ -6416,76 +6419,76 @@
         <v>133</v>
       </c>
       <c r="E139" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="H139" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="I139" t="b">
         <v>1</v>
       </c>
       <c r="K139" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B140" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C140" t="s">
-        <v>673</v>
+        <v>644</v>
       </c>
       <c r="D140" t="s">
         <v>134</v>
       </c>
       <c r="E140" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H140" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I140" t="b">
         <v>1</v>
       </c>
       <c r="K140" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B141" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C141" t="s">
-        <v>674</v>
+        <v>645</v>
       </c>
       <c r="D141" t="s">
         <v>135</v>
       </c>
       <c r="E141" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H141" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I141" t="b">
         <v>1</v>
       </c>
       <c r="K141" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>364</v>
+        <v>790</v>
       </c>
       <c r="B142" t="s">
-        <v>546</v>
+        <v>791</v>
       </c>
       <c r="C142" t="b">
         <v>0</v>
@@ -6494,21 +6497,21 @@
         <v>136</v>
       </c>
       <c r="H142" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I142" t="b">
         <v>1</v>
       </c>
       <c r="K142" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B143" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C143" t="b">
         <v>0</v>
@@ -6517,21 +6520,21 @@
         <v>137</v>
       </c>
       <c r="H143" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I143" t="b">
         <v>1</v>
       </c>
       <c r="K143" t="s">
-        <v>803</v>
+        <v>765</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B144" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="C144" t="b">
         <v>0</v>
@@ -6540,24 +6543,24 @@
         <v>138</v>
       </c>
       <c r="E144" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="H144" t="s">
-        <v>748</v>
+        <v>713</v>
       </c>
       <c r="I144" t="b">
         <v>1</v>
       </c>
       <c r="K144" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B145" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C145" t="b">
         <v>0</v>
@@ -6566,47 +6569,47 @@
         <v>139</v>
       </c>
       <c r="E145" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="H145" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="I145" t="b">
         <v>1</v>
       </c>
       <c r="K145" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B146" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C146" t="s">
-        <v>675</v>
+        <v>646</v>
       </c>
       <c r="D146" t="s">
         <v>140</v>
       </c>
       <c r="H146" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I146" t="b">
         <v>1</v>
       </c>
       <c r="K146" t="s">
-        <v>803</v>
+        <v>765</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B147" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="C147" t="b">
         <v>0</v>
@@ -6615,47 +6618,47 @@
         <v>141</v>
       </c>
       <c r="H147" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I147" t="b">
         <v>1</v>
       </c>
       <c r="K147" t="s">
-        <v>803</v>
+        <v>765</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B148" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C148" t="s">
-        <v>676</v>
+        <v>647</v>
       </c>
       <c r="D148" t="s">
         <v>142</v>
       </c>
       <c r="E148" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="H148" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I148" t="b">
         <v>1</v>
       </c>
       <c r="K148" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B149" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="C149" t="b">
         <v>0</v>
@@ -6664,128 +6667,128 @@
         <v>143</v>
       </c>
       <c r="E149" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="H149" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I149" t="b">
         <v>1</v>
       </c>
       <c r="K149" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B150" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C150" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D150" t="s">
         <v>144</v>
       </c>
       <c r="E150" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="H150" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="I150" t="b">
         <v>1</v>
       </c>
       <c r="K150" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B151" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="C151" t="s">
-        <v>677</v>
+        <v>648</v>
       </c>
       <c r="D151" t="s">
         <v>145</v>
       </c>
       <c r="E151" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="H151" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I151" t="b">
         <v>1</v>
       </c>
       <c r="K151" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>678</v>
+        <v>792</v>
       </c>
       <c r="B152" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="C152" t="s">
-        <v>680</v>
+        <v>793</v>
       </c>
       <c r="D152" t="s">
-        <v>679</v>
+        <v>649</v>
       </c>
       <c r="E152" t="s">
-        <v>788</v>
+        <v>752</v>
       </c>
       <c r="H152" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I152" t="b">
         <v>1</v>
       </c>
       <c r="K152" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B153" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="C153" t="s">
-        <v>681</v>
+        <v>650</v>
       </c>
       <c r="D153" t="s">
         <v>146</v>
       </c>
       <c r="E153" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="H153" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I153" t="b">
         <v>1</v>
       </c>
       <c r="K153" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B154" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="C154" t="b">
         <v>0</v>
@@ -6794,24 +6797,24 @@
         <v>147</v>
       </c>
       <c r="E154" t="s">
-        <v>789</v>
+        <v>753</v>
       </c>
       <c r="H154" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I154" t="b">
         <v>1</v>
       </c>
       <c r="K154" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B155" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="C155" t="b">
         <v>0</v>
@@ -6820,24 +6823,24 @@
         <v>148</v>
       </c>
       <c r="E155" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="H155" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I155" t="b">
         <v>1</v>
       </c>
       <c r="K155" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B156" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C156" t="b">
         <v>0</v>
@@ -6846,50 +6849,50 @@
         <v>149</v>
       </c>
       <c r="E156" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="H156" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I156" t="b">
         <v>1</v>
       </c>
       <c r="K156" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B157" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>684</v>
+        <v>653</v>
       </c>
       <c r="D157" t="s">
         <v>150</v>
       </c>
       <c r="E157" t="s">
-        <v>787</v>
+        <v>751</v>
       </c>
       <c r="H157" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I157" t="b">
         <v>1</v>
       </c>
       <c r="K157" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B158" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C158" t="b">
         <v>0</v>
@@ -6898,16 +6901,16 @@
         <v>151</v>
       </c>
       <c r="E158" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="H158" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I158" t="b">
         <v>1</v>
       </c>
       <c r="K158" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
@@ -6918,7 +6921,7 @@
         <v>236</v>
       </c>
       <c r="C159" t="s">
-        <v>682</v>
+        <v>651</v>
       </c>
       <c r="D159" t="s">
         <v>152</v>
@@ -6927,21 +6930,21 @@
         <v>236</v>
       </c>
       <c r="H159" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I159" t="b">
         <v>1</v>
       </c>
       <c r="K159" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B160" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="C160" t="b">
         <v>0</v>
@@ -6950,76 +6953,76 @@
         <v>153</v>
       </c>
       <c r="E160" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="H160" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I160" t="b">
         <v>1</v>
       </c>
       <c r="K160" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B161" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>683</v>
+        <v>652</v>
       </c>
       <c r="D161" t="s">
         <v>154</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="H161" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I161" t="b">
         <v>1</v>
       </c>
       <c r="K161" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B162" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="C162" t="s">
-        <v>686</v>
+        <v>655</v>
       </c>
       <c r="D162" t="s">
         <v>155</v>
       </c>
       <c r="E162" t="s">
-        <v>790</v>
+        <v>754</v>
       </c>
       <c r="H162" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I162" t="b">
         <v>1</v>
       </c>
       <c r="K162" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B163" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="C163" t="b">
         <v>0</v>
@@ -7028,47 +7031,47 @@
         <v>156</v>
       </c>
       <c r="E163" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H163" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="I163" t="b">
         <v>1</v>
       </c>
       <c r="K163" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B164" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="C164" t="s">
-        <v>687</v>
+        <v>656</v>
       </c>
       <c r="D164" t="s">
         <v>157</v>
       </c>
       <c r="H164" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I164" t="b">
         <v>1</v>
       </c>
       <c r="K164" t="s">
-        <v>803</v>
+        <v>765</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B165" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="C165" t="b">
         <v>0</v>
@@ -7077,47 +7080,47 @@
         <v>158</v>
       </c>
       <c r="H165" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="I165" t="b">
         <v>1</v>
       </c>
       <c r="K165" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B166" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C166" t="s">
-        <v>688</v>
+        <v>657</v>
       </c>
       <c r="D166" t="s">
         <v>159</v>
       </c>
       <c r="E166" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="H166" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I166" t="b">
         <v>1</v>
       </c>
       <c r="K166" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B167" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="C167" t="b">
         <v>0</v>
@@ -7126,50 +7129,50 @@
         <v>160</v>
       </c>
       <c r="E167" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H167" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I167" t="b">
         <v>1</v>
       </c>
       <c r="K167" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B168" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C168" t="s">
-        <v>689</v>
+        <v>658</v>
       </c>
       <c r="D168" t="s">
         <v>161</v>
       </c>
       <c r="E168" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="H168" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I168" t="b">
         <v>1</v>
       </c>
       <c r="K168" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B169" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C169" t="b">
         <v>0</v>
@@ -7178,114 +7181,114 @@
         <v>162</v>
       </c>
       <c r="E169" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="I169" t="b">
         <v>1</v>
       </c>
       <c r="K169" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B170" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="C170" t="s">
-        <v>690</v>
+        <v>659</v>
       </c>
       <c r="D170" t="s">
         <v>163</v>
       </c>
       <c r="E170" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H170" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I170" t="b">
         <v>1</v>
       </c>
       <c r="K170" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>692</v>
+        <v>661</v>
       </c>
       <c r="B171" t="s">
-        <v>693</v>
+        <v>662</v>
       </c>
       <c r="C171" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D171" t="s">
-        <v>691</v>
+        <v>660</v>
       </c>
       <c r="E171" t="s">
-        <v>692</v>
+        <v>661</v>
       </c>
       <c r="H171" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I171" t="b">
         <v>1</v>
       </c>
       <c r="K171" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B172" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="C172" t="s">
-        <v>694</v>
+        <v>663</v>
       </c>
       <c r="D172" t="s">
         <v>164</v>
       </c>
       <c r="E172" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="H172" t="s">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="I172" t="b">
         <v>1</v>
       </c>
       <c r="K172" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B173" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C173" t="s">
-        <v>695</v>
+        <v>664</v>
       </c>
       <c r="D173" t="s">
         <v>165</v>
       </c>
       <c r="H173" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I173" t="b">
         <v>1</v>
       </c>
       <c r="K173" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
@@ -7296,7 +7299,7 @@
         <v>2</v>
       </c>
       <c r="C174" t="s">
-        <v>696</v>
+        <v>665</v>
       </c>
       <c r="D174" t="s">
         <v>166</v>
@@ -7305,21 +7308,21 @@
         <v>2</v>
       </c>
       <c r="H174" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I174" t="b">
         <v>0</v>
       </c>
       <c r="K174" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B175" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C175" t="b">
         <v>0</v>
@@ -7328,73 +7331,73 @@
         <v>167</v>
       </c>
       <c r="E175" t="s">
-        <v>791</v>
+        <v>755</v>
       </c>
       <c r="I175" t="b">
         <v>1</v>
       </c>
       <c r="K175" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>394</v>
+        <v>794</v>
       </c>
       <c r="B176" t="s">
-        <v>394</v>
+        <v>799</v>
       </c>
       <c r="C176" t="s">
-        <v>697</v>
+        <v>795</v>
       </c>
       <c r="D176" t="s">
         <v>168</v>
       </c>
       <c r="E176" t="s">
-        <v>394</v>
+        <v>794</v>
       </c>
       <c r="H176" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I176" t="b">
         <v>1</v>
       </c>
       <c r="K176" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>395</v>
+        <v>798</v>
       </c>
       <c r="B177" t="s">
-        <v>565</v>
+        <v>800</v>
       </c>
       <c r="C177" t="s">
-        <v>698</v>
+        <v>797</v>
       </c>
       <c r="D177" t="s">
         <v>169</v>
       </c>
       <c r="E177" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="H177" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I177" t="b">
         <v>1</v>
       </c>
       <c r="K177" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="B178" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="C178" t="b">
         <v>0</v>
@@ -7403,47 +7406,47 @@
         <v>170</v>
       </c>
       <c r="E178" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="H178" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I178" t="b">
         <v>1</v>
       </c>
       <c r="K178" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B179" t="s">
-        <v>567</v>
+        <v>545</v>
       </c>
       <c r="C179" t="s">
-        <v>699</v>
+        <v>666</v>
       </c>
       <c r="D179" t="s">
         <v>171</v>
       </c>
       <c r="H179" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I179" t="b">
         <v>1</v>
       </c>
       <c r="K179" t="s">
-        <v>803</v>
+        <v>765</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>398</v>
+        <v>801</v>
       </c>
       <c r="B180" t="s">
-        <v>398</v>
+        <v>801</v>
       </c>
       <c r="C180" t="b">
         <v>0</v>
@@ -7452,24 +7455,24 @@
         <v>172</v>
       </c>
       <c r="E180" t="s">
-        <v>398</v>
+        <v>801</v>
       </c>
       <c r="H180" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="I180" t="b">
         <v>1</v>
       </c>
       <c r="K180" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="B181" t="s">
-        <v>568</v>
+        <v>546</v>
       </c>
       <c r="C181" t="b">
         <v>0</v>
@@ -7478,122 +7481,122 @@
         <v>173</v>
       </c>
       <c r="H181" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="I181" t="b">
         <v>1</v>
       </c>
       <c r="K181" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="B182" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="C182" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="D182" t="s">
         <v>174</v>
       </c>
       <c r="E182" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="H182" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I182" t="b">
         <v>1</v>
       </c>
       <c r="K182" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B183" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="C183" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="D183" t="s">
         <v>175</v>
       </c>
       <c r="E183" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="H183" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I183" t="b">
         <v>1</v>
       </c>
       <c r="K183" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="B184" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="C184" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="D184" t="s">
         <v>176</v>
       </c>
       <c r="E184" t="s">
-        <v>793</v>
+        <v>756</v>
       </c>
       <c r="H184" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I184" t="b">
         <v>1</v>
       </c>
       <c r="K184" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="B185" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>701</v>
+        <v>668</v>
       </c>
       <c r="D185" t="s">
         <v>177</v>
       </c>
       <c r="H185" t="s">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="I185" t="b">
         <v>1</v>
       </c>
       <c r="K185" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="B186" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="C186" t="b">
         <v>0</v>
@@ -7602,21 +7605,21 @@
         <v>178</v>
       </c>
       <c r="E186" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I186" t="b">
         <v>1</v>
       </c>
       <c r="K186" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="B187" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="C187" t="b">
         <v>0</v>
@@ -7625,50 +7628,50 @@
         <v>179</v>
       </c>
       <c r="E187" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="H187" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I187" t="b">
         <v>1</v>
       </c>
       <c r="K187" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B188" t="s">
-        <v>572</v>
+        <v>550</v>
       </c>
       <c r="C188" t="s">
-        <v>702</v>
+        <v>669</v>
       </c>
       <c r="D188" t="s">
         <v>180</v>
       </c>
       <c r="E188" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H188" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I188" t="b">
         <v>1</v>
       </c>
       <c r="K188" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="B189" t="s">
-        <v>573</v>
+        <v>551</v>
       </c>
       <c r="C189" t="b">
         <v>0</v>
@@ -7677,44 +7680,44 @@
         <v>181</v>
       </c>
       <c r="H189" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I189" t="b">
         <v>1</v>
       </c>
       <c r="K189" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="B190" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="C190" t="s">
-        <v>703</v>
+        <v>670</v>
       </c>
       <c r="D190" t="s">
         <v>182</v>
       </c>
       <c r="H190" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I190" t="b">
         <v>1</v>
       </c>
       <c r="K190" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="B191" t="s">
-        <v>575</v>
+        <v>553</v>
       </c>
       <c r="C191" t="b">
         <v>0</v>
@@ -7723,24 +7726,24 @@
         <v>183</v>
       </c>
       <c r="E191" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="H191" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I191" t="b">
         <v>1</v>
       </c>
       <c r="K191" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="B192" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="C192" t="b">
         <v>0</v>
@@ -7749,47 +7752,47 @@
         <v>184</v>
       </c>
       <c r="E192" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="H192" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I192" t="b">
         <v>1</v>
       </c>
       <c r="K192" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="B193" t="s">
-        <v>576</v>
+        <v>554</v>
       </c>
       <c r="C193" t="s">
-        <v>704</v>
+        <v>671</v>
       </c>
       <c r="D193" t="s">
         <v>185</v>
       </c>
       <c r="H193" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I193" t="b">
         <v>1</v>
       </c>
       <c r="K193" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="B194" t="s">
-        <v>577</v>
+        <v>555</v>
       </c>
       <c r="C194" t="b">
         <v>0</v>
@@ -7798,99 +7801,99 @@
         <v>186</v>
       </c>
       <c r="H194" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I194" t="b">
         <v>1</v>
       </c>
       <c r="K194" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>413</v>
+        <v>802</v>
       </c>
       <c r="B195" t="s">
-        <v>578</v>
+        <v>804</v>
       </c>
       <c r="C195" t="s">
-        <v>705</v>
+        <v>803</v>
       </c>
       <c r="D195" t="s">
         <v>187</v>
       </c>
       <c r="E195" t="s">
-        <v>413</v>
+        <v>802</v>
       </c>
       <c r="H195" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I195" t="b">
         <v>1</v>
       </c>
       <c r="K195" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="B196" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C196" t="s">
-        <v>706</v>
+        <v>672</v>
       </c>
       <c r="D196" t="s">
         <v>188</v>
       </c>
       <c r="E196" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="H196" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I196" t="b">
         <v>1</v>
       </c>
       <c r="K196" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B197" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="C197" t="s">
-        <v>707</v>
+        <v>673</v>
       </c>
       <c r="D197" t="s">
         <v>189</v>
       </c>
       <c r="E197" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="H197" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I197" t="b">
         <v>1</v>
       </c>
       <c r="K197" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="B198" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="C198" t="b">
         <v>0</v>
@@ -7899,24 +7902,24 @@
         <v>190</v>
       </c>
       <c r="E198" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="H198" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I198" t="b">
         <v>1</v>
       </c>
       <c r="K198" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="B199" t="s">
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="C199" t="b">
         <v>0</v>
@@ -7925,50 +7928,50 @@
         <v>191</v>
       </c>
       <c r="E199" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="H199" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I199" t="b">
         <v>1</v>
       </c>
       <c r="K199" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B200" t="s">
-        <v>580</v>
+        <v>557</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>708</v>
+        <v>674</v>
       </c>
       <c r="D200" t="s">
         <v>192</v>
       </c>
       <c r="E200" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="H200" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I200" t="b">
         <v>1</v>
       </c>
       <c r="K200" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="B201" t="s">
-        <v>581</v>
+        <v>558</v>
       </c>
       <c r="C201" t="b">
         <v>0</v>
@@ -7977,24 +7980,24 @@
         <v>193</v>
       </c>
       <c r="E201" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="H201" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I201" t="b">
         <v>1</v>
       </c>
       <c r="K201" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="B202" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="C202" t="b">
         <v>0</v>
@@ -8003,24 +8006,24 @@
         <v>194</v>
       </c>
       <c r="E202" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="H202" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I202" t="b">
         <v>1</v>
       </c>
       <c r="K202" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="B203" t="s">
-        <v>582</v>
+        <v>559</v>
       </c>
       <c r="C203" t="b">
         <v>0</v>
@@ -8029,50 +8032,50 @@
         <v>195</v>
       </c>
       <c r="E203" t="s">
-        <v>766</v>
+        <v>731</v>
       </c>
       <c r="H203" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I203" t="b">
         <v>1</v>
       </c>
       <c r="K203" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="B204" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>709</v>
+        <v>675</v>
       </c>
       <c r="D204" t="s">
         <v>196</v>
       </c>
       <c r="E204" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="H204" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I204" t="b">
         <v>1</v>
       </c>
       <c r="K204" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="B205" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="C205" t="b">
         <v>0</v>
@@ -8081,24 +8084,24 @@
         <v>197</v>
       </c>
       <c r="E205" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="H205" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I205" t="b">
         <v>1</v>
       </c>
       <c r="K205" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="B206" t="s">
-        <v>584</v>
+        <v>561</v>
       </c>
       <c r="C206" t="b">
         <v>0</v>
@@ -8107,24 +8110,24 @@
         <v>198</v>
       </c>
       <c r="E206" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="H206" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I206" t="b">
         <v>1</v>
       </c>
       <c r="K206" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="B207" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
       <c r="C207" t="b">
         <v>0</v>
@@ -8133,50 +8136,50 @@
         <v>199</v>
       </c>
       <c r="E207" t="s">
-        <v>798</v>
+        <v>760</v>
       </c>
       <c r="H207" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I207" t="b">
         <v>1</v>
       </c>
       <c r="K207" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>799</v>
+        <v>761</v>
       </c>
       <c r="B208" t="s">
-        <v>711</v>
+        <v>677</v>
       </c>
       <c r="C208" t="s">
-        <v>710</v>
+        <v>676</v>
       </c>
       <c r="D208" t="s">
         <v>200</v>
       </c>
       <c r="E208" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="H208" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I208" t="b">
         <v>1</v>
       </c>
       <c r="K208" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="B209" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="C209" t="b">
         <v>0</v>
@@ -8185,47 +8188,47 @@
         <v>201</v>
       </c>
       <c r="E209" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="H209" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I209" t="b">
         <v>1</v>
       </c>
       <c r="K209" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="B210" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="C210" t="s">
-        <v>712</v>
+        <v>678</v>
       </c>
       <c r="D210" t="s">
         <v>202</v>
       </c>
       <c r="H210" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I210" t="b">
         <v>1</v>
       </c>
       <c r="K210" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="B211" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="C211" t="b">
         <v>0</v>
@@ -8234,47 +8237,47 @@
         <v>203</v>
       </c>
       <c r="E211" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="I211" t="b">
         <v>1</v>
       </c>
       <c r="K211" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="B212" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C212" t="s">
-        <v>713</v>
+        <v>679</v>
       </c>
       <c r="D212" t="s">
         <v>204</v>
       </c>
       <c r="E212" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="H212" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I212" t="b">
         <v>1</v>
       </c>
       <c r="K212" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="B213" t="s">
-        <v>586</v>
+        <v>563</v>
       </c>
       <c r="C213" t="b">
         <v>0</v>
@@ -8286,64 +8289,64 @@
         <v>1</v>
       </c>
       <c r="K213" t="s">
-        <v>803</v>
+        <v>765</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="B214" t="s">
-        <v>587</v>
+        <v>564</v>
       </c>
       <c r="C214" t="s">
-        <v>714</v>
+        <v>680</v>
       </c>
       <c r="D214" t="s">
         <v>206</v>
       </c>
       <c r="E214" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="H214" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I214" t="b">
         <v>1</v>
       </c>
       <c r="K214" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="B215" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="C215" t="s">
-        <v>715</v>
+        <v>681</v>
       </c>
       <c r="D215" t="s">
         <v>207</v>
       </c>
       <c r="H215" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I215" t="b">
         <v>1</v>
       </c>
       <c r="K215" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="B216" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="C216" t="b">
         <v>0</v>
@@ -8352,76 +8355,76 @@
         <v>208</v>
       </c>
       <c r="E216" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="H216" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I216" t="b">
         <v>1</v>
       </c>
       <c r="K216" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="B217" t="s">
-        <v>588</v>
+        <v>565</v>
       </c>
       <c r="C217" t="s">
-        <v>717</v>
+        <v>683</v>
       </c>
       <c r="D217" t="s">
-        <v>716</v>
+        <v>682</v>
       </c>
       <c r="E217" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="H217" t="s">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="I217" t="b">
         <v>1</v>
       </c>
       <c r="K217" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="B218" t="s">
-        <v>589</v>
+        <v>566</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>718</v>
+        <v>684</v>
       </c>
       <c r="D218" t="s">
         <v>209</v>
       </c>
       <c r="H218" t="s">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="I218" t="b">
         <v>1</v>
       </c>
       <c r="K218" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B219" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="C219" t="s">
-        <v>719</v>
+        <v>685</v>
       </c>
       <c r="D219" t="s">
         <v>210</v>
@@ -8430,99 +8433,99 @@
         <v>256</v>
       </c>
       <c r="H219" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I219" t="b">
         <v>1</v>
       </c>
       <c r="K219" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="B220" t="s">
-        <v>590</v>
+        <v>567</v>
       </c>
       <c r="C220" t="s">
-        <v>720</v>
+        <v>686</v>
       </c>
       <c r="D220" t="s">
         <v>211</v>
       </c>
       <c r="E220" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="H220" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I220" t="b">
         <v>1</v>
       </c>
       <c r="K220" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="B221" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="C221" t="s">
-        <v>721</v>
+        <v>687</v>
       </c>
       <c r="D221" t="s">
         <v>212</v>
       </c>
       <c r="E221" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="H221" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I221" t="b">
         <v>1</v>
       </c>
       <c r="K221" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="B222" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="C222" t="s">
-        <v>722</v>
+        <v>688</v>
       </c>
       <c r="D222" t="s">
         <v>213</v>
       </c>
       <c r="E222" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="H222" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I222" t="b">
         <v>1</v>
       </c>
       <c r="K222" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>728</v>
+        <v>693</v>
       </c>
       <c r="B223" t="s">
-        <v>729</v>
+        <v>694</v>
       </c>
       <c r="C223" t="b">
         <v>0</v>
@@ -8531,24 +8534,24 @@
         <v>214</v>
       </c>
       <c r="E223" t="s">
-        <v>728</v>
+        <v>693</v>
       </c>
       <c r="H223" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I223" t="b">
         <v>1</v>
       </c>
       <c r="K223" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B224" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="C224" t="b">
         <v>0</v>
@@ -8557,174 +8560,174 @@
         <v>215</v>
       </c>
       <c r="E224" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="H224" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I224" t="b">
         <v>1</v>
       </c>
       <c r="K224" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>441</v>
+        <v>805</v>
       </c>
       <c r="B225" t="s">
-        <v>591</v>
+        <v>806</v>
       </c>
       <c r="C225" t="s">
-        <v>723</v>
+        <v>807</v>
       </c>
       <c r="D225" t="s">
         <v>216</v>
       </c>
       <c r="E225" t="s">
-        <v>441</v>
+        <v>805</v>
       </c>
       <c r="H225" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I225" t="b">
         <v>0</v>
       </c>
       <c r="K225" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>727</v>
+        <v>692</v>
       </c>
       <c r="B226" t="s">
-        <v>726</v>
+        <v>691</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>724</v>
+        <v>689</v>
       </c>
       <c r="D226" t="s">
         <v>217</v>
       </c>
       <c r="H226" t="s">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="I226" t="b">
         <v>1</v>
       </c>
       <c r="K226" t="s">
-        <v>803</v>
+        <v>765</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B227" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
       <c r="C227" t="s">
-        <v>725</v>
+        <v>690</v>
       </c>
       <c r="D227" t="s">
         <v>218</v>
       </c>
       <c r="H227" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I227" t="b">
         <v>1</v>
       </c>
       <c r="K227" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="B228" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="C228" t="s">
-        <v>730</v>
+        <v>695</v>
       </c>
       <c r="D228" t="s">
         <v>219</v>
       </c>
       <c r="E228" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="H228" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I228" t="b">
         <v>1</v>
       </c>
       <c r="K228" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="B229" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="C229" t="s">
-        <v>731</v>
+        <v>696</v>
       </c>
       <c r="D229" t="s">
         <v>220</v>
       </c>
       <c r="E229" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="H229" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I229" t="b">
         <v>1</v>
       </c>
       <c r="K229" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="B230" t="s">
-        <v>593</v>
+        <v>569</v>
       </c>
       <c r="C230" t="s">
-        <v>732</v>
+        <v>697</v>
       </c>
       <c r="D230" t="s">
         <v>221</v>
       </c>
       <c r="E230" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="H230" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I230" t="b">
         <v>1</v>
       </c>
       <c r="K230" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="B231" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="C231" t="b">
         <v>0</v>
@@ -8733,50 +8736,50 @@
         <v>222</v>
       </c>
       <c r="E231" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="H231" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="I231" t="b">
         <v>1</v>
       </c>
       <c r="K231" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>733</v>
+        <v>698</v>
       </c>
       <c r="B232" t="s">
-        <v>735</v>
+        <v>700</v>
       </c>
       <c r="C232" t="s">
-        <v>734</v>
+        <v>699</v>
       </c>
       <c r="D232" t="s">
         <v>223</v>
       </c>
       <c r="E232" t="s">
-        <v>733</v>
+        <v>698</v>
       </c>
       <c r="H232" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I232" t="b">
         <v>1</v>
       </c>
       <c r="K232" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B233" t="s">
-        <v>594</v>
+        <v>570</v>
       </c>
       <c r="C233" t="b">
         <v>0</v>
@@ -8785,24 +8788,24 @@
         <v>224</v>
       </c>
       <c r="E233" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="H233" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="I233" t="b">
         <v>1</v>
       </c>
       <c r="K233" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="B234" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="C234" t="b">
         <v>0</v>
@@ -8811,24 +8814,24 @@
         <v>225</v>
       </c>
       <c r="E234" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="H234" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="I234" t="b">
         <v>1</v>
       </c>
       <c r="K234" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="B235" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="C235" t="b">
         <v>0</v>
@@ -8837,169 +8840,169 @@
         <v>226</v>
       </c>
       <c r="E235" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="H235" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="I235" t="b">
         <v>1</v>
       </c>
       <c r="K235" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="B236" t="s">
-        <v>596</v>
+        <v>572</v>
       </c>
       <c r="C236" t="s">
-        <v>736</v>
+        <v>701</v>
       </c>
       <c r="D236" t="s">
         <v>227</v>
       </c>
       <c r="E236" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="H236" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I236" t="b">
         <v>1</v>
       </c>
       <c r="K236" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="B237" t="s">
-        <v>597</v>
+        <v>573</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>737</v>
+        <v>702</v>
       </c>
       <c r="D237" t="s">
         <v>228</v>
       </c>
       <c r="E237" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="H237" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I237" t="b">
         <v>1</v>
       </c>
       <c r="K237" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>738</v>
+        <v>703</v>
       </c>
       <c r="B238" t="s">
-        <v>739</v>
+        <v>704</v>
       </c>
       <c r="C238" t="s">
-        <v>740</v>
+        <v>705</v>
       </c>
       <c r="D238" t="s">
         <v>229</v>
       </c>
       <c r="H238" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I238" t="b">
         <v>1</v>
       </c>
       <c r="K238" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="B239" t="s">
-        <v>598</v>
+        <v>574</v>
       </c>
       <c r="C239" t="s">
-        <v>741</v>
+        <v>706</v>
       </c>
       <c r="D239" t="s">
         <v>230</v>
       </c>
       <c r="E239" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="H239" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I239" t="b">
         <v>1</v>
       </c>
       <c r="K239" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="B240" t="s">
-        <v>599</v>
+        <v>575</v>
       </c>
       <c r="C240" t="s">
-        <v>742</v>
+        <v>707</v>
       </c>
       <c r="D240" t="s">
         <v>231</v>
       </c>
       <c r="E240" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="H240" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I240" t="b">
         <v>1</v>
       </c>
       <c r="K240" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="B241" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="C241" t="s">
-        <v>743</v>
+        <v>708</v>
       </c>
       <c r="D241" t="s">
         <v>232</v>
       </c>
       <c r="E241" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="H241" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I241" t="b">
         <v>1</v>
       </c>
       <c r="K241" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>

--- a/data/compleat_wiki_man.xlsx
+++ b/data/compleat_wiki_man.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\GitHub\PhyrexianDictionary\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66516843-E912-4AF8-A91B-1FE66497600E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA63359-5034-48A6-B937-3C853FC56F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1355,9 +1355,6 @@
     <t>χiɢɬ</t>
   </si>
   <si>
-    <t>huqet</t>
-  </si>
-  <si>
     <t>ɮɒ'θ</t>
   </si>
   <si>
@@ -2454,6 +2451,9 @@
   </si>
   <si>
     <t>viižǥ</t>
+  </si>
+  <si>
+    <t>huqt</t>
   </si>
 </sst>
 </file>
@@ -2882,8 +2882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="E225" sqref="E225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2899,37 +2899,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>607</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -2937,7 +2937,7 @@
         <v>233</v>
       </c>
       <c r="B2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -2946,13 +2946,13 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2960,7 +2960,7 @@
         <v>234</v>
       </c>
       <c r="B3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -2969,13 +2969,13 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2983,7 +2983,7 @@
         <v>235</v>
       </c>
       <c r="B4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -2992,13 +2992,13 @@
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -3015,13 +3015,13 @@
         <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -3029,7 +3029,7 @@
         <v>237</v>
       </c>
       <c r="B6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -3038,13 +3038,13 @@
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3052,7 +3052,7 @@
         <v>238</v>
       </c>
       <c r="B7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -3061,13 +3061,13 @@
         <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -3075,7 +3075,7 @@
         <v>239</v>
       </c>
       <c r="B8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -3084,13 +3084,13 @@
         <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -3098,7 +3098,7 @@
         <v>240</v>
       </c>
       <c r="B9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -3107,13 +3107,13 @@
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -3121,7 +3121,7 @@
         <v>241</v>
       </c>
       <c r="B10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -3130,13 +3130,13 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -3144,7 +3144,7 @@
         <v>242</v>
       </c>
       <c r="B11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -3153,13 +3153,13 @@
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -3176,21 +3176,21 @@
         <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B13" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -3199,16 +3199,16 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -3216,7 +3216,7 @@
         <v>243</v>
       </c>
       <c r="B14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -3225,13 +3225,13 @@
         <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -3239,7 +3239,7 @@
         <v>244</v>
       </c>
       <c r="B15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -3248,13 +3248,13 @@
         <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -3271,13 +3271,13 @@
         <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -3285,7 +3285,7 @@
         <v>246</v>
       </c>
       <c r="B17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -3294,13 +3294,13 @@
         <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -3308,7 +3308,7 @@
         <v>247</v>
       </c>
       <c r="B18" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -3317,13 +3317,13 @@
         <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -3331,7 +3331,7 @@
         <v>248</v>
       </c>
       <c r="B19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -3340,13 +3340,13 @@
         <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -3354,7 +3354,7 @@
         <v>249</v>
       </c>
       <c r="B20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -3363,13 +3363,13 @@
         <v>21</v>
       </c>
       <c r="H20" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -3389,13 +3389,13 @@
         <v>250</v>
       </c>
       <c r="H21" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -3403,10 +3403,10 @@
         <v>251</v>
       </c>
       <c r="B22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C22" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -3415,13 +3415,13 @@
         <v>251</v>
       </c>
       <c r="H22" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -3429,10 +3429,10 @@
         <v>252</v>
       </c>
       <c r="B23" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C23" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
@@ -3441,13 +3441,13 @@
         <v>252</v>
       </c>
       <c r="H23" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -3455,10 +3455,10 @@
         <v>253</v>
       </c>
       <c r="B24" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C24" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
@@ -3467,13 +3467,13 @@
         <v>253</v>
       </c>
       <c r="H24" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I24" t="b">
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -3484,22 +3484,22 @@
         <v>254</v>
       </c>
       <c r="C25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H25" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -3507,25 +3507,25 @@
         <v>255</v>
       </c>
       <c r="B26" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C26" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D26" t="s">
         <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I26" t="b">
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -3536,7 +3536,7 @@
         <v>256</v>
       </c>
       <c r="C27" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D27" t="s">
         <v>28</v>
@@ -3545,13 +3545,13 @@
         <v>256</v>
       </c>
       <c r="H27" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I27" t="b">
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -3571,13 +3571,13 @@
         <v>433</v>
       </c>
       <c r="H28" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -3585,10 +3585,10 @@
         <v>258</v>
       </c>
       <c r="B29" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D29" t="s">
         <v>30</v>
@@ -3597,13 +3597,13 @@
         <v>258</v>
       </c>
       <c r="H29" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I29" t="b">
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -3611,10 +3611,10 @@
         <v>259</v>
       </c>
       <c r="B30" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C30" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D30" t="s">
         <v>31</v>
@@ -3623,13 +3623,13 @@
         <v>256</v>
       </c>
       <c r="H30" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -3637,10 +3637,10 @@
         <v>260</v>
       </c>
       <c r="B31" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C31" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D31" t="s">
         <v>32</v>
@@ -3649,13 +3649,13 @@
         <v>260</v>
       </c>
       <c r="H31" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -3666,7 +3666,7 @@
         <v>261</v>
       </c>
       <c r="C32" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D32" t="s">
         <v>33</v>
@@ -3675,39 +3675,39 @@
         <v>261</v>
       </c>
       <c r="H32" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I32" t="b">
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B33" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D33" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H33" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -3715,25 +3715,25 @@
         <v>262</v>
       </c>
       <c r="B34" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C34" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D34" t="s">
         <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H34" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I34" t="b">
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -3741,25 +3741,25 @@
         <v>263</v>
       </c>
       <c r="B35" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C35" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D35" t="s">
         <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H35" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I35" t="b">
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -3770,7 +3770,7 @@
         <v>264</v>
       </c>
       <c r="C36" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D36" t="s">
         <v>37</v>
@@ -3779,13 +3779,13 @@
         <v>264</v>
       </c>
       <c r="H36" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -3796,7 +3796,7 @@
         <v>265</v>
       </c>
       <c r="C37" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D37" t="s">
         <v>38</v>
@@ -3805,13 +3805,13 @@
         <v>265</v>
       </c>
       <c r="H37" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -3819,22 +3819,22 @@
         <v>266</v>
       </c>
       <c r="B38" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C38" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D38" t="s">
         <v>39</v>
       </c>
       <c r="H38" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I38" t="b">
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -3842,10 +3842,10 @@
         <v>267</v>
       </c>
       <c r="B39" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D39" t="s">
         <v>40</v>
@@ -3854,39 +3854,39 @@
         <v>267</v>
       </c>
       <c r="H39" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I39" t="b">
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B40" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D40" t="s">
         <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H40" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I40" t="b">
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -3894,10 +3894,10 @@
         <v>268</v>
       </c>
       <c r="B41" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C41" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D41" t="s">
         <v>42</v>
@@ -3906,13 +3906,13 @@
         <v>268</v>
       </c>
       <c r="H41" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I41" t="b">
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -3923,7 +3923,7 @@
         <v>269</v>
       </c>
       <c r="C42" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D42" t="s">
         <v>43</v>
@@ -3932,13 +3932,13 @@
         <v>269</v>
       </c>
       <c r="H42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -3946,25 +3946,25 @@
         <v>270</v>
       </c>
       <c r="B43" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C43" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D43" t="s">
         <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H43" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I43" t="b">
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -3972,10 +3972,10 @@
         <v>271</v>
       </c>
       <c r="B44" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C44" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D44" t="s">
         <v>45</v>
@@ -3984,13 +3984,13 @@
         <v>271</v>
       </c>
       <c r="H44" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I44" t="b">
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -3998,25 +3998,25 @@
         <v>272</v>
       </c>
       <c r="B45" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C45" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D45" t="s">
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H45" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I45" t="b">
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -4036,13 +4036,13 @@
         <v>273</v>
       </c>
       <c r="H46" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I46" t="b">
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -4050,7 +4050,7 @@
         <v>274</v>
       </c>
       <c r="B47" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -4059,16 +4059,16 @@
         <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H47" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I47" t="b">
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -4088,13 +4088,13 @@
         <v>275</v>
       </c>
       <c r="H48" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -4111,16 +4111,16 @@
         <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H49" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I49" t="b">
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -4128,7 +4128,7 @@
         <v>277</v>
       </c>
       <c r="B50" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H50" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I50" t="b">
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -4163,16 +4163,16 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H51" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I51" t="b">
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -4189,24 +4189,24 @@
         <v>53</v>
       </c>
       <c r="E52" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H52" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I52" t="b">
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>760</v>
+      </c>
+      <c r="B53" t="s">
         <v>761</v>
-      </c>
-      <c r="B53" t="s">
-        <v>762</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -4215,16 +4215,16 @@
         <v>54</v>
       </c>
       <c r="E53" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H53" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I53" t="b">
         <v>1</v>
       </c>
       <c r="K53" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -4241,16 +4241,16 @@
         <v>55</v>
       </c>
       <c r="E54" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H54" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I54" t="b">
         <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -4258,7 +4258,7 @@
         <v>281</v>
       </c>
       <c r="B55" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -4267,16 +4267,16 @@
         <v>56</v>
       </c>
       <c r="E55" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H55" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I55" t="b">
         <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -4284,7 +4284,7 @@
         <v>282</v>
       </c>
       <c r="B56" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -4293,16 +4293,16 @@
         <v>57</v>
       </c>
       <c r="E56" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H56" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I56" t="b">
         <v>1</v>
       </c>
       <c r="K56" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -4322,13 +4322,13 @@
         <v>283</v>
       </c>
       <c r="H57" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I57" t="b">
         <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -4348,13 +4348,13 @@
         <v>416</v>
       </c>
       <c r="H58" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I58" t="b">
         <v>1</v>
       </c>
       <c r="K58" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -4362,25 +4362,25 @@
         <v>285</v>
       </c>
       <c r="B59" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C59" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D59" t="s">
         <v>60</v>
       </c>
       <c r="E59" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H59" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I59" t="b">
         <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -4388,25 +4388,25 @@
         <v>286</v>
       </c>
       <c r="B60" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C60" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D60" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E60" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H60" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I60" t="b">
         <v>1</v>
       </c>
       <c r="K60" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -4417,22 +4417,22 @@
         <v>287</v>
       </c>
       <c r="C61" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D61" t="s">
         <v>61</v>
       </c>
       <c r="E61" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H61" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I61" t="b">
         <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -4443,7 +4443,7 @@
         <v>288</v>
       </c>
       <c r="C62" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D62" t="s">
         <v>62</v>
@@ -4452,13 +4452,13 @@
         <v>288</v>
       </c>
       <c r="H62" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I62" t="b">
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -4469,22 +4469,22 @@
         <v>289</v>
       </c>
       <c r="C63" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D63" t="s">
         <v>63</v>
       </c>
       <c r="E63" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H63" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I63" t="b">
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -4495,7 +4495,7 @@
         <v>290</v>
       </c>
       <c r="C64" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D64" t="s">
         <v>64</v>
@@ -4504,39 +4504,39 @@
         <v>290</v>
       </c>
       <c r="H64" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I64" t="b">
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>645</v>
+      </c>
+      <c r="B65" t="s">
+        <v>492</v>
+      </c>
+      <c r="C65" t="s">
         <v>646</v>
-      </c>
-      <c r="B65" t="s">
-        <v>493</v>
-      </c>
-      <c r="C65" t="s">
-        <v>647</v>
       </c>
       <c r="D65" t="s">
         <v>65</v>
       </c>
       <c r="E65" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H65" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I65" t="b">
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -4544,10 +4544,10 @@
         <v>291</v>
       </c>
       <c r="B66" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C66" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D66" t="s">
         <v>66</v>
@@ -4556,39 +4556,39 @@
         <v>291</v>
       </c>
       <c r="H66" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I66" t="b">
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>643</v>
+      </c>
+      <c r="B67" t="s">
+        <v>494</v>
+      </c>
+      <c r="C67" t="s">
         <v>644</v>
-      </c>
-      <c r="B67" t="s">
-        <v>495</v>
-      </c>
-      <c r="C67" t="s">
-        <v>645</v>
       </c>
       <c r="D67" t="s">
         <v>67</v>
       </c>
       <c r="E67" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H67" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I67" t="b">
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -4596,10 +4596,10 @@
         <v>292</v>
       </c>
       <c r="B68" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C68" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D68" t="s">
         <v>68</v>
@@ -4608,13 +4608,13 @@
         <v>292</v>
       </c>
       <c r="H68" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I68" t="b">
         <v>1</v>
       </c>
       <c r="K68" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -4625,7 +4625,7 @@
         <v>293</v>
       </c>
       <c r="C69" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D69" t="s">
         <v>69</v>
@@ -4634,13 +4634,13 @@
         <v>293</v>
       </c>
       <c r="H69" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I69" t="b">
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -4660,13 +4660,13 @@
         <v>294</v>
       </c>
       <c r="H70" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I70" t="b">
         <v>1</v>
       </c>
       <c r="K70" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -4686,13 +4686,13 @@
         <v>295</v>
       </c>
       <c r="H71" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I71" t="b">
         <v>1</v>
       </c>
       <c r="K71" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -4700,25 +4700,25 @@
         <v>296</v>
       </c>
       <c r="B72" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C72" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D72" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E72" t="s">
         <v>296</v>
       </c>
       <c r="H72" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I72" t="b">
         <v>1</v>
       </c>
       <c r="K72" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -4726,7 +4726,7 @@
         <v>297</v>
       </c>
       <c r="B73" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
@@ -4738,13 +4738,13 @@
         <v>297</v>
       </c>
       <c r="H73" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I73" t="b">
         <v>1</v>
       </c>
       <c r="K73" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -4752,25 +4752,25 @@
         <v>298</v>
       </c>
       <c r="B74" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E74" t="s">
         <v>298</v>
       </c>
       <c r="H74" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I74" t="b">
         <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -4778,10 +4778,10 @@
         <v>299</v>
       </c>
       <c r="B75" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C75" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D75" t="s">
         <v>73</v>
@@ -4790,13 +4790,13 @@
         <v>299</v>
       </c>
       <c r="H75" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I75" t="b">
         <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -4807,22 +4807,22 @@
         <v>300</v>
       </c>
       <c r="C76" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D76" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E76" t="s">
         <v>300</v>
       </c>
       <c r="H76" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I76" t="b">
         <v>1</v>
       </c>
       <c r="K76" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -4830,22 +4830,22 @@
         <v>301</v>
       </c>
       <c r="B77" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C77" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D77" t="s">
         <v>74</v>
       </c>
       <c r="H77" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I77" t="b">
         <v>1</v>
       </c>
       <c r="K77" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -4853,7 +4853,7 @@
         <v>302</v>
       </c>
       <c r="B78" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -4865,13 +4865,13 @@
         <v>302</v>
       </c>
       <c r="H78" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I78" t="b">
         <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -4882,7 +4882,7 @@
         <v>303</v>
       </c>
       <c r="C79" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D79" t="s">
         <v>76</v>
@@ -4891,13 +4891,13 @@
         <v>303</v>
       </c>
       <c r="H79" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I79" t="b">
         <v>1</v>
       </c>
       <c r="K79" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -4908,7 +4908,7 @@
         <v>304</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D80" t="s">
         <v>77</v>
@@ -4917,13 +4917,13 @@
         <v>304</v>
       </c>
       <c r="H80" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I80" t="b">
         <v>1</v>
       </c>
       <c r="K80" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -4931,25 +4931,25 @@
         <v>305</v>
       </c>
       <c r="B81" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E81" t="s">
         <v>305</v>
       </c>
       <c r="H81" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I81" t="b">
         <v>1</v>
       </c>
       <c r="K81" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -4957,10 +4957,10 @@
         <v>306</v>
       </c>
       <c r="B82" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C82" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D82" t="s">
         <v>78</v>
@@ -4969,13 +4969,13 @@
         <v>306</v>
       </c>
       <c r="H82" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I82" t="b">
         <v>1</v>
       </c>
       <c r="K82" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -4983,7 +4983,7 @@
         <v>307</v>
       </c>
       <c r="B83" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -4995,13 +4995,13 @@
         <v>307</v>
       </c>
       <c r="H83" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I83" t="b">
         <v>1</v>
       </c>
       <c r="K83" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -5009,7 +5009,7 @@
         <v>308</v>
       </c>
       <c r="B84" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
@@ -5021,13 +5021,13 @@
         <v>308</v>
       </c>
       <c r="H84" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I84" t="b">
         <v>1</v>
       </c>
       <c r="K84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -5035,7 +5035,7 @@
         <v>309</v>
       </c>
       <c r="B85" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
@@ -5047,13 +5047,13 @@
         <v>309</v>
       </c>
       <c r="H85" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I85" t="b">
         <v>1</v>
       </c>
       <c r="K85" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -5061,7 +5061,7 @@
         <v>310</v>
       </c>
       <c r="B86" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
@@ -5073,13 +5073,13 @@
         <v>310</v>
       </c>
       <c r="H86" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I86" t="b">
         <v>1</v>
       </c>
       <c r="K86" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -5099,13 +5099,13 @@
         <v>311</v>
       </c>
       <c r="H87" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I87" t="b">
         <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -5113,10 +5113,10 @@
         <v>312</v>
       </c>
       <c r="B88" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C88" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D88" t="s">
         <v>84</v>
@@ -5125,13 +5125,13 @@
         <v>312</v>
       </c>
       <c r="H88" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I88" t="b">
         <v>1</v>
       </c>
       <c r="K88" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -5139,25 +5139,25 @@
         <v>313</v>
       </c>
       <c r="B89" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E89" t="s">
         <v>313</v>
       </c>
       <c r="H89" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I89" t="b">
         <v>1</v>
       </c>
       <c r="K89" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -5165,7 +5165,7 @@
         <v>314</v>
       </c>
       <c r="B90" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
@@ -5177,13 +5177,13 @@
         <v>314</v>
       </c>
       <c r="H90" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I90" t="b">
         <v>1</v>
       </c>
       <c r="K90" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -5200,16 +5200,16 @@
         <v>86</v>
       </c>
       <c r="E91" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H91" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I91" t="b">
         <v>1</v>
       </c>
       <c r="K91" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -5217,10 +5217,10 @@
         <v>316</v>
       </c>
       <c r="B92" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C92" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D92" t="s">
         <v>87</v>
@@ -5229,13 +5229,13 @@
         <v>316</v>
       </c>
       <c r="H92" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I92" t="b">
         <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -5243,7 +5243,7 @@
         <v>317</v>
       </c>
       <c r="B93" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
@@ -5255,13 +5255,13 @@
         <v>317</v>
       </c>
       <c r="H93" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I93" t="b">
         <v>1</v>
       </c>
       <c r="K93" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -5269,10 +5269,10 @@
         <v>318</v>
       </c>
       <c r="B94" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C94" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D94" t="s">
         <v>89</v>
@@ -5281,13 +5281,13 @@
         <v>323</v>
       </c>
       <c r="H94" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I94" t="b">
         <v>1</v>
       </c>
       <c r="K94" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -5295,25 +5295,25 @@
         <v>319</v>
       </c>
       <c r="B95" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C95" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D95" t="s">
         <v>90</v>
       </c>
       <c r="E95" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H95" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I95" t="b">
         <v>1</v>
       </c>
       <c r="K95" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -5321,7 +5321,7 @@
         <v>320</v>
       </c>
       <c r="B96" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
@@ -5330,13 +5330,13 @@
         <v>91</v>
       </c>
       <c r="H96" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I96" t="b">
         <v>1</v>
       </c>
       <c r="K96" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -5344,25 +5344,25 @@
         <v>321</v>
       </c>
       <c r="B97" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D97" t="s">
         <v>92</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H97" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I97" t="b">
         <v>1</v>
       </c>
       <c r="K97" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -5370,7 +5370,7 @@
         <v>322</v>
       </c>
       <c r="B98" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C98" t="b">
         <v>0</v>
@@ -5382,13 +5382,13 @@
         <v>322</v>
       </c>
       <c r="H98" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I98" t="b">
         <v>1</v>
       </c>
       <c r="K98" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -5396,10 +5396,10 @@
         <v>323</v>
       </c>
       <c r="B99" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C99" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D99" t="s">
         <v>94</v>
@@ -5408,13 +5408,13 @@
         <v>323</v>
       </c>
       <c r="H99" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I99" t="b">
         <v>1</v>
       </c>
       <c r="K99" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -5425,19 +5425,19 @@
         <v>324</v>
       </c>
       <c r="C100" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D100" t="s">
         <v>95</v>
       </c>
       <c r="H100" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I100" t="b">
         <v>1</v>
       </c>
       <c r="K100" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -5445,10 +5445,10 @@
         <v>325</v>
       </c>
       <c r="B101" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C101" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D101" t="s">
         <v>96</v>
@@ -5457,13 +5457,13 @@
         <v>325</v>
       </c>
       <c r="H101" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I101" t="b">
         <v>1</v>
       </c>
       <c r="K101" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
@@ -5483,13 +5483,13 @@
         <v>326</v>
       </c>
       <c r="H102" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I102" t="b">
         <v>1</v>
       </c>
       <c r="K102" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
@@ -5497,7 +5497,7 @@
         <v>327</v>
       </c>
       <c r="B103" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C103" t="b">
         <v>0</v>
@@ -5506,13 +5506,13 @@
         <v>98</v>
       </c>
       <c r="H103" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I103" t="b">
         <v>1</v>
       </c>
       <c r="K103" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
@@ -5532,13 +5532,13 @@
         <v>328</v>
       </c>
       <c r="H104" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I104" t="b">
         <v>1</v>
       </c>
       <c r="K104" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
@@ -5546,7 +5546,7 @@
         <v>329</v>
       </c>
       <c r="B105" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C105" t="b">
         <v>0</v>
@@ -5558,13 +5558,13 @@
         <v>329</v>
       </c>
       <c r="H105" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I105" t="b">
         <v>1</v>
       </c>
       <c r="K105" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
@@ -5572,23 +5572,23 @@
         <v>330</v>
       </c>
       <c r="B106" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C106" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D106" t="s">
         <v>101</v>
       </c>
       <c r="E106" s="2"/>
       <c r="H106" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I106" t="b">
         <v>1</v>
       </c>
       <c r="K106" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
@@ -5596,7 +5596,7 @@
         <v>331</v>
       </c>
       <c r="B107" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C107" t="b">
         <v>0</v>
@@ -5608,13 +5608,13 @@
         <v>331</v>
       </c>
       <c r="H107" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I107" t="b">
         <v>1</v>
       </c>
       <c r="K107" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
@@ -5622,10 +5622,10 @@
         <v>332</v>
       </c>
       <c r="B108" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C108" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D108" t="s">
         <v>103</v>
@@ -5634,13 +5634,13 @@
         <v>332</v>
       </c>
       <c r="H108" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I108" t="b">
         <v>1</v>
       </c>
       <c r="K108" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
@@ -5651,7 +5651,7 @@
         <v>333</v>
       </c>
       <c r="C109" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D109" t="s">
         <v>104</v>
@@ -5660,13 +5660,13 @@
         <v>333</v>
       </c>
       <c r="H109" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I109" t="b">
         <v>1</v>
       </c>
       <c r="K109" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
@@ -5674,7 +5674,7 @@
         <v>334</v>
       </c>
       <c r="B110" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C110" t="b">
         <v>0</v>
@@ -5686,13 +5686,13 @@
         <v>334</v>
       </c>
       <c r="H110" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I110" t="b">
         <v>1</v>
       </c>
       <c r="K110" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
@@ -5700,7 +5700,7 @@
         <v>335</v>
       </c>
       <c r="B111" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C111" t="b">
         <v>0</v>
@@ -5712,13 +5712,13 @@
         <v>335</v>
       </c>
       <c r="H111" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I111" t="b">
         <v>1</v>
       </c>
       <c r="K111" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
@@ -5726,7 +5726,7 @@
         <v>336</v>
       </c>
       <c r="B112" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C112" t="b">
         <v>0</v>
@@ -5738,13 +5738,13 @@
         <v>336</v>
       </c>
       <c r="H112" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I112" t="b">
         <v>1</v>
       </c>
       <c r="K112" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
@@ -5752,7 +5752,7 @@
         <v>337</v>
       </c>
       <c r="B113" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C113" t="b">
         <v>0</v>
@@ -5761,16 +5761,16 @@
         <v>108</v>
       </c>
       <c r="E113" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H113" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I113" t="b">
         <v>1</v>
       </c>
       <c r="K113" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
@@ -5778,7 +5778,7 @@
         <v>338</v>
       </c>
       <c r="B114" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C114" t="b">
         <v>0</v>
@@ -5787,42 +5787,42 @@
         <v>109</v>
       </c>
       <c r="E114" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H114" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I114" t="b">
         <v>1</v>
       </c>
       <c r="K114" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
+        <v>804</v>
+      </c>
+      <c r="B115" t="s">
         <v>805</v>
       </c>
-      <c r="B115" t="s">
-        <v>806</v>
-      </c>
       <c r="C115" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D115" t="s">
         <v>110</v>
       </c>
       <c r="E115" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H115" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I115" t="b">
         <v>1</v>
       </c>
       <c r="K115" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
@@ -5830,7 +5830,7 @@
         <v>339</v>
       </c>
       <c r="B116" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C116" t="b">
         <v>0</v>
@@ -5839,13 +5839,13 @@
         <v>111</v>
       </c>
       <c r="H116" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I116" t="b">
         <v>1</v>
       </c>
       <c r="K116" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
@@ -5865,13 +5865,13 @@
         <v>340</v>
       </c>
       <c r="H117" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I117" t="b">
         <v>1</v>
       </c>
       <c r="K117" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
@@ -5882,7 +5882,7 @@
         <v>341</v>
       </c>
       <c r="C118" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D118" t="s">
         <v>113</v>
@@ -5891,13 +5891,13 @@
         <v>341</v>
       </c>
       <c r="H118" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I118" t="b">
         <v>1</v>
       </c>
       <c r="K118" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
@@ -5905,25 +5905,25 @@
         <v>342</v>
       </c>
       <c r="B119" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C119" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D119" t="s">
         <v>114</v>
       </c>
       <c r="E119" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H119" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I119" t="b">
         <v>1</v>
       </c>
       <c r="K119" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
@@ -5931,22 +5931,22 @@
         <v>343</v>
       </c>
       <c r="B120" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C120" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D120" t="s">
         <v>115</v>
       </c>
       <c r="H120" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I120" t="b">
         <v>1</v>
       </c>
       <c r="K120" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
@@ -5954,25 +5954,25 @@
         <v>344</v>
       </c>
       <c r="B121" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C121" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D121" t="s">
         <v>116</v>
       </c>
       <c r="E121" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H121" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I121" t="b">
         <v>1</v>
       </c>
       <c r="K121" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
@@ -5980,25 +5980,25 @@
         <v>345</v>
       </c>
       <c r="B122" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C122" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D122" t="s">
         <v>117</v>
       </c>
       <c r="E122" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H122" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I122" t="b">
         <v>1</v>
       </c>
       <c r="K122" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
@@ -6015,16 +6015,16 @@
         <v>118</v>
       </c>
       <c r="E123" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H123" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I123" t="b">
         <v>1</v>
       </c>
       <c r="K123" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
@@ -6032,7 +6032,7 @@
         <v>347</v>
       </c>
       <c r="B124" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C124" t="b">
         <v>0</v>
@@ -6041,16 +6041,16 @@
         <v>119</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H124" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I124" t="b">
         <v>1</v>
       </c>
       <c r="K124" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
@@ -6058,10 +6058,10 @@
         <v>348</v>
       </c>
       <c r="B125" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D125" t="s">
         <v>120</v>
@@ -6070,13 +6070,13 @@
         <v>334</v>
       </c>
       <c r="H125" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I125" t="b">
         <v>1</v>
       </c>
       <c r="K125" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
@@ -6093,16 +6093,16 @@
         <v>121</v>
       </c>
       <c r="E126" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H126" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I126" t="b">
         <v>1</v>
       </c>
       <c r="K126" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
@@ -6110,7 +6110,7 @@
         <v>350</v>
       </c>
       <c r="B127" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C127" t="s">
         <v>350</v>
@@ -6122,13 +6122,13 @@
         <v>350</v>
       </c>
       <c r="H127" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I127" t="b">
         <v>1</v>
       </c>
       <c r="K127" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
@@ -6145,13 +6145,13 @@
         <v>123</v>
       </c>
       <c r="H128" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I128" t="b">
         <v>1</v>
       </c>
       <c r="K128" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
@@ -6162,7 +6162,7 @@
         <v>352</v>
       </c>
       <c r="C129" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D129" t="s">
         <v>124</v>
@@ -6171,13 +6171,13 @@
         <v>352</v>
       </c>
       <c r="H129" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I129" t="b">
         <v>0</v>
       </c>
       <c r="K129" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -6185,7 +6185,7 @@
         <v>353</v>
       </c>
       <c r="B130" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C130" t="b">
         <v>0</v>
@@ -6194,13 +6194,13 @@
         <v>125</v>
       </c>
       <c r="H130" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I130" t="b">
         <v>1</v>
       </c>
       <c r="K130" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -6220,13 +6220,13 @@
         <v>354</v>
       </c>
       <c r="H131" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I131" t="b">
         <v>1</v>
       </c>
       <c r="K131" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
@@ -6234,7 +6234,7 @@
         <v>355</v>
       </c>
       <c r="B132" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C132" t="b">
         <v>0</v>
@@ -6246,13 +6246,13 @@
         <v>355</v>
       </c>
       <c r="H132" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I132" t="b">
         <v>1</v>
       </c>
       <c r="K132" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
@@ -6269,13 +6269,13 @@
         <v>128</v>
       </c>
       <c r="H133" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I133" t="b">
         <v>1</v>
       </c>
       <c r="K133" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
@@ -6283,10 +6283,10 @@
         <v>357</v>
       </c>
       <c r="B134" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C134" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D134" t="s">
         <v>129</v>
@@ -6295,13 +6295,13 @@
         <v>357</v>
       </c>
       <c r="H134" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I134" t="b">
         <v>0</v>
       </c>
       <c r="K134" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
@@ -6309,7 +6309,7 @@
         <v>358</v>
       </c>
       <c r="B135" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C135" t="b">
         <v>0</v>
@@ -6318,13 +6318,13 @@
         <v>130</v>
       </c>
       <c r="H135" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I135" t="b">
         <v>1</v>
       </c>
       <c r="K135" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
@@ -6332,7 +6332,7 @@
         <v>359</v>
       </c>
       <c r="B136" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C136" t="b">
         <v>0</v>
@@ -6341,13 +6341,13 @@
         <v>131</v>
       </c>
       <c r="H136" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I136" t="b">
         <v>1</v>
       </c>
       <c r="K136" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
@@ -6355,10 +6355,10 @@
         <v>291</v>
       </c>
       <c r="B137" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C137" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D137" t="s">
         <v>66</v>
@@ -6367,13 +6367,13 @@
         <v>291</v>
       </c>
       <c r="H137" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I137" t="b">
         <v>1</v>
       </c>
       <c r="K137" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
@@ -6381,7 +6381,7 @@
         <v>360</v>
       </c>
       <c r="B138" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C138" t="b">
         <v>0</v>
@@ -6393,13 +6393,13 @@
         <v>360</v>
       </c>
       <c r="H138" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I138" t="b">
         <v>1</v>
       </c>
       <c r="K138" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
@@ -6407,7 +6407,7 @@
         <v>361</v>
       </c>
       <c r="B139" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C139" t="b">
         <v>0</v>
@@ -6419,13 +6419,13 @@
         <v>391</v>
       </c>
       <c r="H139" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I139" t="b">
         <v>1</v>
       </c>
       <c r="K139" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
@@ -6436,7 +6436,7 @@
         <v>362</v>
       </c>
       <c r="C140" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D140" t="s">
         <v>134</v>
@@ -6445,13 +6445,13 @@
         <v>362</v>
       </c>
       <c r="H140" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I140" t="b">
         <v>1</v>
       </c>
       <c r="K140" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
@@ -6462,7 +6462,7 @@
         <v>363</v>
       </c>
       <c r="C141" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D141" t="s">
         <v>135</v>
@@ -6471,13 +6471,13 @@
         <v>363</v>
       </c>
       <c r="H141" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I141" t="b">
         <v>1</v>
       </c>
       <c r="K141" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
@@ -6485,7 +6485,7 @@
         <v>364</v>
       </c>
       <c r="B142" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C142" t="b">
         <v>0</v>
@@ -6494,13 +6494,13 @@
         <v>136</v>
       </c>
       <c r="H142" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I142" t="b">
         <v>1</v>
       </c>
       <c r="K142" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
@@ -6517,13 +6517,13 @@
         <v>137</v>
       </c>
       <c r="H143" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I143" t="b">
         <v>1</v>
       </c>
       <c r="K143" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
@@ -6531,7 +6531,7 @@
         <v>366</v>
       </c>
       <c r="B144" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C144" t="b">
         <v>0</v>
@@ -6543,13 +6543,13 @@
         <v>366</v>
       </c>
       <c r="H144" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I144" t="b">
         <v>1</v>
       </c>
       <c r="K144" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
@@ -6569,13 +6569,13 @@
         <v>367</v>
       </c>
       <c r="H145" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I145" t="b">
         <v>1</v>
       </c>
       <c r="K145" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
@@ -6583,22 +6583,22 @@
         <v>368</v>
       </c>
       <c r="B146" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C146" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D146" t="s">
         <v>140</v>
       </c>
       <c r="H146" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I146" t="b">
         <v>1</v>
       </c>
       <c r="K146" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
@@ -6606,7 +6606,7 @@
         <v>369</v>
       </c>
       <c r="B147" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C147" t="b">
         <v>0</v>
@@ -6615,13 +6615,13 @@
         <v>141</v>
       </c>
       <c r="H147" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I147" t="b">
         <v>1</v>
       </c>
       <c r="K147" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
@@ -6632,7 +6632,7 @@
         <v>370</v>
       </c>
       <c r="C148" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D148" t="s">
         <v>142</v>
@@ -6641,13 +6641,13 @@
         <v>370</v>
       </c>
       <c r="H148" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I148" t="b">
         <v>1</v>
       </c>
       <c r="K148" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
@@ -6655,7 +6655,7 @@
         <v>371</v>
       </c>
       <c r="B149" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C149" t="b">
         <v>0</v>
@@ -6667,13 +6667,13 @@
         <v>371</v>
       </c>
       <c r="H149" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I149" t="b">
         <v>1</v>
       </c>
       <c r="K149" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
@@ -6693,13 +6693,13 @@
         <v>372</v>
       </c>
       <c r="H150" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I150" t="b">
         <v>1</v>
       </c>
       <c r="K150" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
@@ -6707,10 +6707,10 @@
         <v>373</v>
       </c>
       <c r="B151" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C151" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D151" t="s">
         <v>145</v>
@@ -6719,39 +6719,39 @@
         <v>373</v>
       </c>
       <c r="H151" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I151" t="b">
         <v>1</v>
       </c>
       <c r="K151" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
+        <v>677</v>
+      </c>
+      <c r="B152" t="s">
+        <v>551</v>
+      </c>
+      <c r="C152" t="s">
+        <v>679</v>
+      </c>
+      <c r="D152" t="s">
         <v>678</v>
       </c>
-      <c r="B152" t="s">
-        <v>552</v>
-      </c>
-      <c r="C152" t="s">
-        <v>680</v>
-      </c>
-      <c r="D152" t="s">
-        <v>679</v>
-      </c>
       <c r="E152" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H152" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I152" t="b">
         <v>1</v>
       </c>
       <c r="K152" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
@@ -6759,10 +6759,10 @@
         <v>374</v>
       </c>
       <c r="B153" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C153" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D153" t="s">
         <v>146</v>
@@ -6771,13 +6771,13 @@
         <v>374</v>
       </c>
       <c r="H153" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I153" t="b">
         <v>1</v>
       </c>
       <c r="K153" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
@@ -6785,7 +6785,7 @@
         <v>375</v>
       </c>
       <c r="B154" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C154" t="b">
         <v>0</v>
@@ -6794,16 +6794,16 @@
         <v>147</v>
       </c>
       <c r="E154" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H154" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I154" t="b">
         <v>1</v>
       </c>
       <c r="K154" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
@@ -6811,7 +6811,7 @@
         <v>376</v>
       </c>
       <c r="B155" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C155" t="b">
         <v>0</v>
@@ -6823,13 +6823,13 @@
         <v>376</v>
       </c>
       <c r="H155" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I155" t="b">
         <v>1</v>
       </c>
       <c r="K155" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
@@ -6849,13 +6849,13 @@
         <v>377</v>
       </c>
       <c r="H156" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I156" t="b">
         <v>1</v>
       </c>
       <c r="K156" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
@@ -6863,25 +6863,25 @@
         <v>378</v>
       </c>
       <c r="B157" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D157" t="s">
         <v>150</v>
       </c>
       <c r="E157" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H157" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I157" t="b">
         <v>1</v>
       </c>
       <c r="K157" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
@@ -6901,13 +6901,13 @@
         <v>379</v>
       </c>
       <c r="H158" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I158" t="b">
         <v>1</v>
       </c>
       <c r="K158" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
@@ -6918,7 +6918,7 @@
         <v>236</v>
       </c>
       <c r="C159" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D159" t="s">
         <v>152</v>
@@ -6927,13 +6927,13 @@
         <v>236</v>
       </c>
       <c r="H159" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I159" t="b">
         <v>1</v>
       </c>
       <c r="K159" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
@@ -6941,7 +6941,7 @@
         <v>314</v>
       </c>
       <c r="B160" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C160" t="b">
         <v>0</v>
@@ -6953,13 +6953,13 @@
         <v>314</v>
       </c>
       <c r="H160" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I160" t="b">
         <v>1</v>
       </c>
       <c r="K160" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
@@ -6967,10 +6967,10 @@
         <v>380</v>
       </c>
       <c r="B161" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D161" t="s">
         <v>154</v>
@@ -6979,13 +6979,13 @@
         <v>380</v>
       </c>
       <c r="H161" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I161" t="b">
         <v>1</v>
       </c>
       <c r="K161" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
@@ -6993,25 +6993,25 @@
         <v>381</v>
       </c>
       <c r="B162" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C162" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D162" t="s">
         <v>155</v>
       </c>
       <c r="E162" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H162" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I162" t="b">
         <v>1</v>
       </c>
       <c r="K162" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
@@ -7019,7 +7019,7 @@
         <v>382</v>
       </c>
       <c r="B163" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C163" t="b">
         <v>0</v>
@@ -7031,13 +7031,13 @@
         <v>382</v>
       </c>
       <c r="H163" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I163" t="b">
         <v>1</v>
       </c>
       <c r="K163" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
@@ -7045,22 +7045,22 @@
         <v>383</v>
       </c>
       <c r="B164" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C164" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D164" t="s">
         <v>157</v>
       </c>
       <c r="H164" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I164" t="b">
         <v>1</v>
       </c>
       <c r="K164" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
@@ -7068,7 +7068,7 @@
         <v>384</v>
       </c>
       <c r="B165" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C165" t="b">
         <v>0</v>
@@ -7077,13 +7077,13 @@
         <v>158</v>
       </c>
       <c r="H165" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I165" t="b">
         <v>1</v>
       </c>
       <c r="K165" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
@@ -7094,7 +7094,7 @@
         <v>385</v>
       </c>
       <c r="C166" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D166" t="s">
         <v>159</v>
@@ -7103,13 +7103,13 @@
         <v>385</v>
       </c>
       <c r="H166" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I166" t="b">
         <v>1</v>
       </c>
       <c r="K166" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
@@ -7117,7 +7117,7 @@
         <v>386</v>
       </c>
       <c r="B167" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C167" t="b">
         <v>0</v>
@@ -7129,13 +7129,13 @@
         <v>363</v>
       </c>
       <c r="H167" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I167" t="b">
         <v>1</v>
       </c>
       <c r="K167" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
@@ -7146,22 +7146,22 @@
         <v>387</v>
       </c>
       <c r="C168" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D168" t="s">
         <v>161</v>
       </c>
       <c r="E168" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H168" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I168" t="b">
         <v>1</v>
       </c>
       <c r="K168" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
@@ -7184,7 +7184,7 @@
         <v>1</v>
       </c>
       <c r="K169" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
@@ -7192,10 +7192,10 @@
         <v>389</v>
       </c>
       <c r="B170" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C170" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D170" t="s">
         <v>163</v>
@@ -7204,39 +7204,39 @@
         <v>389</v>
       </c>
       <c r="H170" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I170" t="b">
         <v>1</v>
       </c>
       <c r="K170" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
+        <v>691</v>
+      </c>
+      <c r="B171" t="s">
         <v>692</v>
-      </c>
-      <c r="B171" t="s">
-        <v>693</v>
       </c>
       <c r="C171" t="s">
         <v>390</v>
       </c>
       <c r="D171" t="s">
+        <v>690</v>
+      </c>
+      <c r="E171" t="s">
         <v>691</v>
       </c>
-      <c r="E171" t="s">
-        <v>692</v>
-      </c>
       <c r="H171" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I171" t="b">
         <v>1</v>
       </c>
       <c r="K171" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
@@ -7244,10 +7244,10 @@
         <v>391</v>
       </c>
       <c r="B172" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C172" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D172" t="s">
         <v>164</v>
@@ -7256,13 +7256,13 @@
         <v>391</v>
       </c>
       <c r="H172" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I172" t="b">
         <v>1</v>
       </c>
       <c r="K172" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
@@ -7273,19 +7273,19 @@
         <v>392</v>
       </c>
       <c r="C173" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D173" t="s">
         <v>165</v>
       </c>
       <c r="H173" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I173" t="b">
         <v>1</v>
       </c>
       <c r="K173" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
@@ -7296,7 +7296,7 @@
         <v>2</v>
       </c>
       <c r="C174" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D174" t="s">
         <v>166</v>
@@ -7305,13 +7305,13 @@
         <v>2</v>
       </c>
       <c r="H174" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I174" t="b">
         <v>0</v>
       </c>
       <c r="K174" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
@@ -7328,13 +7328,13 @@
         <v>167</v>
       </c>
       <c r="E175" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I175" t="b">
         <v>1</v>
       </c>
       <c r="K175" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
@@ -7345,7 +7345,7 @@
         <v>394</v>
       </c>
       <c r="C176" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D176" t="s">
         <v>168</v>
@@ -7354,13 +7354,13 @@
         <v>394</v>
       </c>
       <c r="H176" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I176" t="b">
         <v>1</v>
       </c>
       <c r="K176" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
@@ -7368,25 +7368,25 @@
         <v>395</v>
       </c>
       <c r="B177" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C177" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D177" t="s">
         <v>169</v>
       </c>
       <c r="E177" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H177" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I177" t="b">
         <v>1</v>
       </c>
       <c r="K177" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
@@ -7394,7 +7394,7 @@
         <v>396</v>
       </c>
       <c r="B178" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C178" t="b">
         <v>0</v>
@@ -7406,13 +7406,13 @@
         <v>396</v>
       </c>
       <c r="H178" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I178" t="b">
         <v>1</v>
       </c>
       <c r="K178" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
@@ -7420,22 +7420,22 @@
         <v>397</v>
       </c>
       <c r="B179" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C179" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D179" t="s">
         <v>171</v>
       </c>
       <c r="H179" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I179" t="b">
         <v>1</v>
       </c>
       <c r="K179" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
@@ -7455,13 +7455,13 @@
         <v>398</v>
       </c>
       <c r="H180" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I180" t="b">
         <v>1</v>
       </c>
       <c r="K180" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
@@ -7469,7 +7469,7 @@
         <v>399</v>
       </c>
       <c r="B181" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C181" t="b">
         <v>0</v>
@@ -7478,13 +7478,13 @@
         <v>173</v>
       </c>
       <c r="H181" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I181" t="b">
         <v>1</v>
       </c>
       <c r="K181" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
@@ -7492,7 +7492,7 @@
         <v>400</v>
       </c>
       <c r="B182" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C182" t="s">
         <v>400</v>
@@ -7504,13 +7504,13 @@
         <v>400</v>
       </c>
       <c r="H182" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I182" t="b">
         <v>1</v>
       </c>
       <c r="K182" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
@@ -7530,13 +7530,13 @@
         <v>401</v>
       </c>
       <c r="H183" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I183" t="b">
         <v>1</v>
       </c>
       <c r="K183" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
@@ -7553,16 +7553,16 @@
         <v>176</v>
       </c>
       <c r="E184" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H184" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I184" t="b">
         <v>1</v>
       </c>
       <c r="K184" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
@@ -7570,22 +7570,22 @@
         <v>403</v>
       </c>
       <c r="B185" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D185" t="s">
         <v>177</v>
       </c>
       <c r="H185" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I185" t="b">
         <v>1</v>
       </c>
       <c r="K185" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
@@ -7608,7 +7608,7 @@
         <v>1</v>
       </c>
       <c r="K186" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
@@ -7616,7 +7616,7 @@
         <v>405</v>
       </c>
       <c r="B187" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C187" t="b">
         <v>0</v>
@@ -7628,13 +7628,13 @@
         <v>391</v>
       </c>
       <c r="H187" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I187" t="b">
         <v>1</v>
       </c>
       <c r="K187" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
@@ -7642,10 +7642,10 @@
         <v>406</v>
       </c>
       <c r="B188" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C188" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D188" t="s">
         <v>180</v>
@@ -7654,13 +7654,13 @@
         <v>292</v>
       </c>
       <c r="H188" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I188" t="b">
         <v>1</v>
       </c>
       <c r="K188" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
@@ -7668,7 +7668,7 @@
         <v>407</v>
       </c>
       <c r="B189" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C189" t="b">
         <v>0</v>
@@ -7677,13 +7677,13 @@
         <v>181</v>
       </c>
       <c r="H189" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I189" t="b">
         <v>1</v>
       </c>
       <c r="K189" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
@@ -7691,22 +7691,22 @@
         <v>408</v>
       </c>
       <c r="B190" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C190" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D190" t="s">
         <v>182</v>
       </c>
       <c r="H190" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I190" t="b">
         <v>1</v>
       </c>
       <c r="K190" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
@@ -7714,7 +7714,7 @@
         <v>409</v>
       </c>
       <c r="B191" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C191" t="b">
         <v>0</v>
@@ -7726,13 +7726,13 @@
         <v>409</v>
       </c>
       <c r="H191" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I191" t="b">
         <v>1</v>
       </c>
       <c r="K191" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
@@ -7752,13 +7752,13 @@
         <v>410</v>
       </c>
       <c r="H192" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I192" t="b">
         <v>1</v>
       </c>
       <c r="K192" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
@@ -7766,22 +7766,22 @@
         <v>411</v>
       </c>
       <c r="B193" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C193" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D193" t="s">
         <v>185</v>
       </c>
       <c r="H193" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I193" t="b">
         <v>1</v>
       </c>
       <c r="K193" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
@@ -7789,7 +7789,7 @@
         <v>412</v>
       </c>
       <c r="B194" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C194" t="b">
         <v>0</v>
@@ -7798,13 +7798,13 @@
         <v>186</v>
       </c>
       <c r="H194" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I194" t="b">
         <v>1</v>
       </c>
       <c r="K194" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
@@ -7812,10 +7812,10 @@
         <v>413</v>
       </c>
       <c r="B195" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C195" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D195" t="s">
         <v>187</v>
@@ -7824,13 +7824,13 @@
         <v>413</v>
       </c>
       <c r="H195" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I195" t="b">
         <v>1</v>
       </c>
       <c r="K195" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
@@ -7841,7 +7841,7 @@
         <v>414</v>
       </c>
       <c r="C196" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D196" t="s">
         <v>188</v>
@@ -7850,13 +7850,13 @@
         <v>414</v>
       </c>
       <c r="H196" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I196" t="b">
         <v>1</v>
       </c>
       <c r="K196" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
@@ -7867,7 +7867,7 @@
         <v>415</v>
       </c>
       <c r="C197" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D197" t="s">
         <v>189</v>
@@ -7876,13 +7876,13 @@
         <v>415</v>
       </c>
       <c r="H197" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I197" t="b">
         <v>1</v>
       </c>
       <c r="K197" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
@@ -7902,13 +7902,13 @@
         <v>416</v>
       </c>
       <c r="H198" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I198" t="b">
         <v>1</v>
       </c>
       <c r="K198" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
@@ -7916,7 +7916,7 @@
         <v>417</v>
       </c>
       <c r="B199" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C199" t="b">
         <v>0</v>
@@ -7928,13 +7928,13 @@
         <v>417</v>
       </c>
       <c r="H199" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I199" t="b">
         <v>1</v>
       </c>
       <c r="K199" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
@@ -7942,10 +7942,10 @@
         <v>418</v>
       </c>
       <c r="B200" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D200" t="s">
         <v>192</v>
@@ -7954,13 +7954,13 @@
         <v>418</v>
       </c>
       <c r="H200" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I200" t="b">
         <v>1</v>
       </c>
       <c r="K200" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
@@ -7968,7 +7968,7 @@
         <v>419</v>
       </c>
       <c r="B201" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C201" t="b">
         <v>0</v>
@@ -7980,13 +7980,13 @@
         <v>419</v>
       </c>
       <c r="H201" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I201" t="b">
         <v>1</v>
       </c>
       <c r="K201" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
@@ -8006,13 +8006,13 @@
         <v>420</v>
       </c>
       <c r="H202" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I202" t="b">
         <v>1</v>
       </c>
       <c r="K202" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
@@ -8020,7 +8020,7 @@
         <v>421</v>
       </c>
       <c r="B203" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C203" t="b">
         <v>0</v>
@@ -8029,16 +8029,16 @@
         <v>195</v>
       </c>
       <c r="E203" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H203" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I203" t="b">
         <v>1</v>
       </c>
       <c r="K203" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
@@ -8046,10 +8046,10 @@
         <v>422</v>
       </c>
       <c r="B204" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D204" t="s">
         <v>196</v>
@@ -8058,13 +8058,13 @@
         <v>422</v>
       </c>
       <c r="H204" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I204" t="b">
         <v>1</v>
       </c>
       <c r="K204" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
@@ -8084,13 +8084,13 @@
         <v>423</v>
       </c>
       <c r="H205" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I205" t="b">
         <v>1</v>
       </c>
       <c r="K205" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
@@ -8098,7 +8098,7 @@
         <v>424</v>
       </c>
       <c r="B206" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C206" t="b">
         <v>0</v>
@@ -8110,13 +8110,13 @@
         <v>424</v>
       </c>
       <c r="H206" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I206" t="b">
         <v>1</v>
       </c>
       <c r="K206" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
@@ -8124,7 +8124,7 @@
         <v>425</v>
       </c>
       <c r="B207" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C207" t="b">
         <v>0</v>
@@ -8133,27 +8133,27 @@
         <v>199</v>
       </c>
       <c r="E207" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H207" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I207" t="b">
         <v>1</v>
       </c>
       <c r="K207" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B208" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C208" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D208" t="s">
         <v>200</v>
@@ -8162,13 +8162,13 @@
         <v>416</v>
       </c>
       <c r="H208" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I208" t="b">
         <v>1</v>
       </c>
       <c r="K208" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
@@ -8188,13 +8188,13 @@
         <v>426</v>
       </c>
       <c r="H209" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I209" t="b">
         <v>1</v>
       </c>
       <c r="K209" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
@@ -8205,19 +8205,19 @@
         <v>427</v>
       </c>
       <c r="C210" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D210" t="s">
         <v>202</v>
       </c>
       <c r="H210" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I210" t="b">
         <v>1</v>
       </c>
       <c r="K210" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
@@ -8240,7 +8240,7 @@
         <v>1</v>
       </c>
       <c r="K211" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
@@ -8251,7 +8251,7 @@
         <v>429</v>
       </c>
       <c r="C212" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D212" t="s">
         <v>204</v>
@@ -8260,13 +8260,13 @@
         <v>429</v>
       </c>
       <c r="H212" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I212" t="b">
         <v>1</v>
       </c>
       <c r="K212" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
@@ -8274,7 +8274,7 @@
         <v>430</v>
       </c>
       <c r="B213" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C213" t="b">
         <v>0</v>
@@ -8286,7 +8286,7 @@
         <v>1</v>
       </c>
       <c r="K213" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
@@ -8294,10 +8294,10 @@
         <v>431</v>
       </c>
       <c r="B214" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C214" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D214" t="s">
         <v>206</v>
@@ -8306,13 +8306,13 @@
         <v>431</v>
       </c>
       <c r="H214" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I214" t="b">
         <v>1</v>
       </c>
       <c r="K214" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.3">
@@ -8323,19 +8323,19 @@
         <v>432</v>
       </c>
       <c r="C215" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D215" t="s">
         <v>207</v>
       </c>
       <c r="H215" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I215" t="b">
         <v>1</v>
       </c>
       <c r="K215" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
@@ -8355,13 +8355,13 @@
         <v>433</v>
       </c>
       <c r="H216" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I216" t="b">
         <v>1</v>
       </c>
       <c r="K216" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.3">
@@ -8369,25 +8369,25 @@
         <v>434</v>
       </c>
       <c r="B217" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C217" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D217" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E217" t="s">
         <v>434</v>
       </c>
       <c r="H217" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I217" t="b">
         <v>1</v>
       </c>
       <c r="K217" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
@@ -8395,22 +8395,22 @@
         <v>435</v>
       </c>
       <c r="B218" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D218" t="s">
         <v>209</v>
       </c>
       <c r="H218" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I218" t="b">
         <v>1</v>
       </c>
       <c r="K218" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.3">
@@ -8421,7 +8421,7 @@
         <v>436</v>
       </c>
       <c r="C219" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D219" t="s">
         <v>210</v>
@@ -8430,13 +8430,13 @@
         <v>256</v>
       </c>
       <c r="H219" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I219" t="b">
         <v>1</v>
       </c>
       <c r="K219" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.3">
@@ -8444,10 +8444,10 @@
         <v>437</v>
       </c>
       <c r="B220" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C220" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D220" t="s">
         <v>211</v>
@@ -8456,13 +8456,13 @@
         <v>437</v>
       </c>
       <c r="H220" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I220" t="b">
         <v>1</v>
       </c>
       <c r="K220" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.3">
@@ -8473,7 +8473,7 @@
         <v>438</v>
       </c>
       <c r="C221" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D221" t="s">
         <v>212</v>
@@ -8482,13 +8482,13 @@
         <v>438</v>
       </c>
       <c r="H221" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I221" t="b">
         <v>1</v>
       </c>
       <c r="K221" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
@@ -8499,7 +8499,7 @@
         <v>439</v>
       </c>
       <c r="C222" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D222" t="s">
         <v>213</v>
@@ -8508,21 +8508,21 @@
         <v>439</v>
       </c>
       <c r="H222" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I222" t="b">
         <v>1</v>
       </c>
       <c r="K222" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
+        <v>727</v>
+      </c>
+      <c r="B223" t="s">
         <v>728</v>
-      </c>
-      <c r="B223" t="s">
-        <v>729</v>
       </c>
       <c r="C223" t="b">
         <v>0</v>
@@ -8531,24 +8531,24 @@
         <v>214</v>
       </c>
       <c r="E223" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H223" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I223" t="b">
         <v>1</v>
       </c>
       <c r="K223" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>440</v>
+        <v>806</v>
       </c>
       <c r="B224" t="s">
-        <v>440</v>
+        <v>806</v>
       </c>
       <c r="C224" t="b">
         <v>0</v>
@@ -8557,174 +8557,174 @@
         <v>215</v>
       </c>
       <c r="E224" t="s">
-        <v>440</v>
+        <v>806</v>
       </c>
       <c r="H224" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I224" t="b">
         <v>1</v>
       </c>
       <c r="K224" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B225" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C225" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D225" t="s">
         <v>216</v>
       </c>
       <c r="E225" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H225" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I225" t="b">
         <v>0</v>
       </c>
       <c r="K225" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B226" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D226" t="s">
         <v>217</v>
       </c>
       <c r="H226" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I226" t="b">
         <v>1</v>
       </c>
       <c r="K226" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B227" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C227" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D227" t="s">
         <v>218</v>
       </c>
       <c r="H227" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I227" t="b">
         <v>1</v>
       </c>
       <c r="K227" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B228" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C228" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D228" t="s">
         <v>219</v>
       </c>
       <c r="E228" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H228" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I228" t="b">
         <v>1</v>
       </c>
       <c r="K228" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B229" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C229" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D229" t="s">
         <v>220</v>
       </c>
       <c r="E229" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H229" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I229" t="b">
         <v>1</v>
       </c>
       <c r="K229" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B230" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C230" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D230" t="s">
         <v>221</v>
       </c>
       <c r="E230" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H230" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I230" t="b">
         <v>1</v>
       </c>
       <c r="K230" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B231" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C231" t="b">
         <v>0</v>
@@ -8733,50 +8733,50 @@
         <v>222</v>
       </c>
       <c r="E231" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H231" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I231" t="b">
         <v>1</v>
       </c>
       <c r="K231" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
+        <v>732</v>
+      </c>
+      <c r="B232" t="s">
+        <v>734</v>
+      </c>
+      <c r="C232" t="s">
         <v>733</v>
-      </c>
-      <c r="B232" t="s">
-        <v>735</v>
-      </c>
-      <c r="C232" t="s">
-        <v>734</v>
       </c>
       <c r="D232" t="s">
         <v>223</v>
       </c>
       <c r="E232" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H232" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I232" t="b">
         <v>1</v>
       </c>
       <c r="K232" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B233" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C233" t="b">
         <v>0</v>
@@ -8785,24 +8785,24 @@
         <v>224</v>
       </c>
       <c r="E233" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H233" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I233" t="b">
         <v>1</v>
       </c>
       <c r="K233" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B234" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C234" t="b">
         <v>0</v>
@@ -8811,24 +8811,24 @@
         <v>225</v>
       </c>
       <c r="E234" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H234" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I234" t="b">
         <v>1</v>
       </c>
       <c r="K234" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B235" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C235" t="b">
         <v>0</v>
@@ -8837,169 +8837,169 @@
         <v>226</v>
       </c>
       <c r="E235" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H235" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I235" t="b">
         <v>1</v>
       </c>
       <c r="K235" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B236" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C236" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D236" t="s">
         <v>227</v>
       </c>
       <c r="E236" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H236" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I236" t="b">
         <v>1</v>
       </c>
       <c r="K236" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B237" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D237" t="s">
         <v>228</v>
       </c>
       <c r="E237" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H237" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I237" t="b">
         <v>1</v>
       </c>
       <c r="K237" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
+        <v>737</v>
+      </c>
+      <c r="B238" t="s">
         <v>738</v>
       </c>
-      <c r="B238" t="s">
+      <c r="C238" t="s">
         <v>739</v>
-      </c>
-      <c r="C238" t="s">
-        <v>740</v>
       </c>
       <c r="D238" t="s">
         <v>229</v>
       </c>
       <c r="H238" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I238" t="b">
         <v>1</v>
       </c>
       <c r="K238" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B239" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C239" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D239" t="s">
         <v>230</v>
       </c>
       <c r="E239" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H239" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I239" t="b">
         <v>1</v>
       </c>
       <c r="K239" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B240" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C240" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D240" t="s">
         <v>231</v>
       </c>
       <c r="E240" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H240" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I240" t="b">
         <v>1</v>
       </c>
       <c r="K240" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B241" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C241" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D241" t="s">
         <v>232</v>
       </c>
       <c r="E241" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H241" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I241" t="b">
         <v>1</v>
       </c>
       <c r="K241" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>

--- a/data/compleat_wiki_man.xlsx
+++ b/data/compleat_wiki_man.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\GitHub\PhyrexianDictionary\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4A1942-FB02-4684-BEEC-C689BDE03AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B71F28B-5863-44DB-888B-DCD131181FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="812">
   <si>
     <t>IPA</t>
   </si>
@@ -2457,6 +2457,18 @@
   </si>
   <si>
     <t>ɮɒɒ'ɣ</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>solid</t>
+  </si>
+  <si>
+    <t>likely</t>
+  </si>
+  <si>
+    <t>moderate</t>
   </si>
 </sst>
 </file>
@@ -2535,7 +2547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2543,6 +2555,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2883,10 +2898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K241"/>
+  <dimension ref="A1:L241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="E225" sqref="E225"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="C227" sqref="C227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2898,9 +2913,10 @@
     <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.21875" customWidth="1"/>
     <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>578</v>
       </c>
@@ -2934,8 +2950,11 @@
       <c r="K1" s="4" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="5" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>233</v>
       </c>
@@ -2957,8 +2976,11 @@
       <c r="K2" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>234</v>
       </c>
@@ -2980,8 +3002,11 @@
       <c r="K3" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>235</v>
       </c>
@@ -3003,8 +3028,11 @@
       <c r="K4" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>236</v>
       </c>
@@ -3026,8 +3054,11 @@
       <c r="K5" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>237</v>
       </c>
@@ -3049,8 +3080,11 @@
       <c r="K6" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>238</v>
       </c>
@@ -3072,8 +3106,11 @@
       <c r="K7" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>239</v>
       </c>
@@ -3095,8 +3132,11 @@
       <c r="K8" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>240</v>
       </c>
@@ -3118,8 +3158,11 @@
       <c r="K9" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>241</v>
       </c>
@@ -3141,8 +3184,11 @@
       <c r="K10" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>242</v>
       </c>
@@ -3164,8 +3210,11 @@
       <c r="K11" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -3187,8 +3236,11 @@
       <c r="K12" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>714</v>
       </c>
@@ -3213,8 +3265,11 @@
       <c r="K13" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>243</v>
       </c>
@@ -3236,8 +3291,11 @@
       <c r="K14" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>244</v>
       </c>
@@ -3259,8 +3317,11 @@
       <c r="K15" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>245</v>
       </c>
@@ -3282,8 +3343,11 @@
       <c r="K16" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>246</v>
       </c>
@@ -3305,8 +3369,11 @@
       <c r="K17" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>247</v>
       </c>
@@ -3328,8 +3395,11 @@
       <c r="K18" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>248</v>
       </c>
@@ -3351,8 +3421,11 @@
       <c r="K19" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>249</v>
       </c>
@@ -3374,8 +3447,11 @@
       <c r="K20" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>250</v>
       </c>
@@ -3400,8 +3476,11 @@
       <c r="K21" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>251</v>
       </c>
@@ -3426,8 +3505,11 @@
       <c r="K22" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>252</v>
       </c>
@@ -3452,8 +3534,11 @@
       <c r="K23" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>253</v>
       </c>
@@ -3478,8 +3563,11 @@
       <c r="K24" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>254</v>
       </c>
@@ -3504,8 +3592,11 @@
       <c r="K25" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>255</v>
       </c>
@@ -3530,8 +3621,11 @@
       <c r="K26" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>256</v>
       </c>
@@ -3556,8 +3650,11 @@
       <c r="K27" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L27" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>257</v>
       </c>
@@ -3582,8 +3679,11 @@
       <c r="K28" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>258</v>
       </c>
@@ -3608,8 +3708,11 @@
       <c r="K29" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>259</v>
       </c>
@@ -3634,8 +3737,11 @@
       <c r="K30" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>260</v>
       </c>
@@ -3660,8 +3766,11 @@
       <c r="K31" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>261</v>
       </c>
@@ -3686,8 +3795,11 @@
       <c r="K32" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>759</v>
       </c>
@@ -3712,8 +3824,11 @@
       <c r="K33" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>262</v>
       </c>
@@ -3738,8 +3853,11 @@
       <c r="K34" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>263</v>
       </c>
@@ -3764,8 +3882,11 @@
       <c r="K35" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>264</v>
       </c>
@@ -3790,8 +3911,11 @@
       <c r="K36" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>265</v>
       </c>
@@ -3816,8 +3940,11 @@
       <c r="K37" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>772</v>
       </c>
@@ -3839,8 +3966,11 @@
       <c r="K38" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>266</v>
       </c>
@@ -3865,8 +3995,11 @@
       <c r="K39" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>757</v>
       </c>
@@ -3891,8 +4024,11 @@
       <c r="K40" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>267</v>
       </c>
@@ -3917,8 +4053,11 @@
       <c r="K41" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>268</v>
       </c>
@@ -3943,8 +4082,11 @@
       <c r="K42" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L42" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>269</v>
       </c>
@@ -3969,8 +4111,11 @@
       <c r="K43" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L43" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>769</v>
       </c>
@@ -3995,8 +4140,11 @@
       <c r="K44" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>775</v>
       </c>
@@ -4021,8 +4169,11 @@
       <c r="K45" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L45" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>270</v>
       </c>
@@ -4047,8 +4198,11 @@
       <c r="K46" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L46" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>271</v>
       </c>
@@ -4073,8 +4227,11 @@
       <c r="K47" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L47" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>272</v>
       </c>
@@ -4099,8 +4256,11 @@
       <c r="K48" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L48" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>273</v>
       </c>
@@ -4125,8 +4285,11 @@
       <c r="K49" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L49" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>274</v>
       </c>
@@ -4151,8 +4314,11 @@
       <c r="K50" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L50" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>275</v>
       </c>
@@ -4177,8 +4343,11 @@
       <c r="K51" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L51" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>276</v>
       </c>
@@ -4203,8 +4372,11 @@
       <c r="K52" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L52" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>726</v>
       </c>
@@ -4229,8 +4401,11 @@
       <c r="K53" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L53" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>277</v>
       </c>
@@ -4255,8 +4430,11 @@
       <c r="K54" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L54" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>278</v>
       </c>
@@ -4281,8 +4459,11 @@
       <c r="K55" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L55" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>279</v>
       </c>
@@ -4307,8 +4488,11 @@
       <c r="K56" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L56" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>280</v>
       </c>
@@ -4333,8 +4517,11 @@
       <c r="K57" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L57" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>281</v>
       </c>
@@ -4359,8 +4546,11 @@
       <c r="K58" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L58" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>282</v>
       </c>
@@ -4385,8 +4575,11 @@
       <c r="K59" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L59" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>778</v>
       </c>
@@ -4411,8 +4604,11 @@
       <c r="K60" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L60" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>283</v>
       </c>
@@ -4437,8 +4633,11 @@
       <c r="K61" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L61" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>284</v>
       </c>
@@ -4463,8 +4662,11 @@
       <c r="K62" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L62" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>285</v>
       </c>
@@ -4489,8 +4691,11 @@
       <c r="K63" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L63" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>286</v>
       </c>
@@ -4515,8 +4720,11 @@
       <c r="K64" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L64" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>618</v>
       </c>
@@ -4541,8 +4749,11 @@
       <c r="K65" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L65" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>287</v>
       </c>
@@ -4567,8 +4778,11 @@
       <c r="K66" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L66" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>616</v>
       </c>
@@ -4593,8 +4807,11 @@
       <c r="K67" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L67" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>288</v>
       </c>
@@ -4619,8 +4836,11 @@
       <c r="K68" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L68" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>289</v>
       </c>
@@ -4645,8 +4865,11 @@
       <c r="K69" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L69" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>290</v>
       </c>
@@ -4671,8 +4894,11 @@
       <c r="K70" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L70" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>291</v>
       </c>
@@ -4697,8 +4923,11 @@
       <c r="K71" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L71" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>292</v>
       </c>
@@ -4723,8 +4952,11 @@
       <c r="K72" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L72" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>782</v>
       </c>
@@ -4749,8 +4981,11 @@
       <c r="K73" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L73" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>293</v>
       </c>
@@ -4775,8 +5010,11 @@
       <c r="K74" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L74" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>294</v>
       </c>
@@ -4801,8 +5039,11 @@
       <c r="K75" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L75" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>295</v>
       </c>
@@ -4827,8 +5068,11 @@
       <c r="K76" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L76" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>296</v>
       </c>
@@ -4850,8 +5094,11 @@
       <c r="K77" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L77" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>297</v>
       </c>
@@ -4876,8 +5123,11 @@
       <c r="K78" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L78" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>298</v>
       </c>
@@ -4902,8 +5152,11 @@
       <c r="K79" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L79" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>299</v>
       </c>
@@ -4928,8 +5181,11 @@
       <c r="K80" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L80" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>300</v>
       </c>
@@ -4954,8 +5210,11 @@
       <c r="K81" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L81" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>785</v>
       </c>
@@ -4980,8 +5239,11 @@
       <c r="K82" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L82" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>301</v>
       </c>
@@ -5006,8 +5268,11 @@
       <c r="K83" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L83" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>302</v>
       </c>
@@ -5032,8 +5297,11 @@
       <c r="K84" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L84" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>303</v>
       </c>
@@ -5058,8 +5326,11 @@
       <c r="K85" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L85" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>788</v>
       </c>
@@ -5084,8 +5355,11 @@
       <c r="K86" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L86" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>304</v>
       </c>
@@ -5110,8 +5384,11 @@
       <c r="K87" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L87" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>305</v>
       </c>
@@ -5136,8 +5413,11 @@
       <c r="K88" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L88" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>306</v>
       </c>
@@ -5162,8 +5442,11 @@
       <c r="K89" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L89" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>307</v>
       </c>
@@ -5188,8 +5471,11 @@
       <c r="K90" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L90" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>308</v>
       </c>
@@ -5214,8 +5500,11 @@
       <c r="K91" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L91" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>309</v>
       </c>
@@ -5240,8 +5529,11 @@
       <c r="K92" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L92" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>310</v>
       </c>
@@ -5266,8 +5558,11 @@
       <c r="K93" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L93" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>311</v>
       </c>
@@ -5292,8 +5587,11 @@
       <c r="K94" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L94" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>312</v>
       </c>
@@ -5318,8 +5616,11 @@
       <c r="K95" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L95" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>313</v>
       </c>
@@ -5341,8 +5642,11 @@
       <c r="K96" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L96" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>314</v>
       </c>
@@ -5367,8 +5671,11 @@
       <c r="K97" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L97" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>315</v>
       </c>
@@ -5393,8 +5700,11 @@
       <c r="K98" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L98" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>316</v>
       </c>
@@ -5419,8 +5729,11 @@
       <c r="K99" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L99" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>317</v>
       </c>
@@ -5442,8 +5755,11 @@
       <c r="K100" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L100" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>318</v>
       </c>
@@ -5468,8 +5784,11 @@
       <c r="K101" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L101" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>319</v>
       </c>
@@ -5494,8 +5813,11 @@
       <c r="K102" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L102" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>320</v>
       </c>
@@ -5517,8 +5839,11 @@
       <c r="K103" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L103" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>321</v>
       </c>
@@ -5543,8 +5868,11 @@
       <c r="K104" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L104" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>322</v>
       </c>
@@ -5569,8 +5897,11 @@
       <c r="K105" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L105" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>323</v>
       </c>
@@ -5593,8 +5924,11 @@
       <c r="K106" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L106" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>324</v>
       </c>
@@ -5619,8 +5953,11 @@
       <c r="K107" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L107" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>325</v>
       </c>
@@ -5645,8 +5982,11 @@
       <c r="K108" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L108" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>326</v>
       </c>
@@ -5671,8 +6011,11 @@
       <c r="K109" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L109" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>327</v>
       </c>
@@ -5697,8 +6040,11 @@
       <c r="K110" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L110" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>328</v>
       </c>
@@ -5723,8 +6069,11 @@
       <c r="K111" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L111" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>329</v>
       </c>
@@ -5749,8 +6098,11 @@
       <c r="K112" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L112" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>330</v>
       </c>
@@ -5775,8 +6127,11 @@
       <c r="K113" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L113" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>331</v>
       </c>
@@ -5801,8 +6156,11 @@
       <c r="K114" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L114" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>767</v>
       </c>
@@ -5827,8 +6185,11 @@
       <c r="K115" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L115" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>332</v>
       </c>
@@ -5850,8 +6211,11 @@
       <c r="K116" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L116" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>333</v>
       </c>
@@ -5876,8 +6240,11 @@
       <c r="K117" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L117" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>334</v>
       </c>
@@ -5902,8 +6269,11 @@
       <c r="K118" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L118" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>335</v>
       </c>
@@ -5928,8 +6298,11 @@
       <c r="K119" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L119" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>336</v>
       </c>
@@ -5951,8 +6324,11 @@
       <c r="K120" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L120" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>337</v>
       </c>
@@ -5977,8 +6353,11 @@
       <c r="K121" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L121" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>338</v>
       </c>
@@ -6003,8 +6382,11 @@
       <c r="K122" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L122" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>339</v>
       </c>
@@ -6029,8 +6411,11 @@
       <c r="K123" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L123" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>340</v>
       </c>
@@ -6055,8 +6440,11 @@
       <c r="K124" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L124" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>341</v>
       </c>
@@ -6081,8 +6469,11 @@
       <c r="K125" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L125" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>342</v>
       </c>
@@ -6107,8 +6498,11 @@
       <c r="K126" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L126" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>343</v>
       </c>
@@ -6133,8 +6527,11 @@
       <c r="K127" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L127" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>344</v>
       </c>
@@ -6156,8 +6553,11 @@
       <c r="K128" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L128" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>345</v>
       </c>
@@ -6182,8 +6582,11 @@
       <c r="K129" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L129" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>346</v>
       </c>
@@ -6205,8 +6608,11 @@
       <c r="K130" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L130" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>347</v>
       </c>
@@ -6231,8 +6637,11 @@
       <c r="K131" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L131" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>348</v>
       </c>
@@ -6257,8 +6666,11 @@
       <c r="K132" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L132" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>349</v>
       </c>
@@ -6280,8 +6692,11 @@
       <c r="K133" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L133" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>350</v>
       </c>
@@ -6306,8 +6721,11 @@
       <c r="K134" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L134" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>351</v>
       </c>
@@ -6329,8 +6747,11 @@
       <c r="K135" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L135" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>352</v>
       </c>
@@ -6352,8 +6773,11 @@
       <c r="K136" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L136" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>287</v>
       </c>
@@ -6378,8 +6802,11 @@
       <c r="K137" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L137" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>353</v>
       </c>
@@ -6404,8 +6831,11 @@
       <c r="K138" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L138" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>354</v>
       </c>
@@ -6430,8 +6860,11 @@
       <c r="K139" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L139" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>355</v>
       </c>
@@ -6456,8 +6889,11 @@
       <c r="K140" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L140" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>356</v>
       </c>
@@ -6482,8 +6918,11 @@
       <c r="K141" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L141" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>790</v>
       </c>
@@ -6505,8 +6944,11 @@
       <c r="K142" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L142" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>357</v>
       </c>
@@ -6528,8 +6970,11 @@
       <c r="K143" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L143" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>358</v>
       </c>
@@ -6554,8 +6999,11 @@
       <c r="K144" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L144" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>359</v>
       </c>
@@ -6580,8 +7028,11 @@
       <c r="K145" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L145" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>360</v>
       </c>
@@ -6603,8 +7054,11 @@
       <c r="K146" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L146" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>361</v>
       </c>
@@ -6626,8 +7080,11 @@
       <c r="K147" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L147" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>362</v>
       </c>
@@ -6652,8 +7109,11 @@
       <c r="K148" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L148" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>363</v>
       </c>
@@ -6678,8 +7138,11 @@
       <c r="K149" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L149" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>364</v>
       </c>
@@ -6704,8 +7167,11 @@
       <c r="K150" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L150" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>365</v>
       </c>
@@ -6730,8 +7196,11 @@
       <c r="K151" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L151" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>792</v>
       </c>
@@ -6756,8 +7225,11 @@
       <c r="K152" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L152" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>366</v>
       </c>
@@ -6782,8 +7254,11 @@
       <c r="K153" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L153" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>367</v>
       </c>
@@ -6808,8 +7283,11 @@
       <c r="K154" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L154" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>368</v>
       </c>
@@ -6834,8 +7312,11 @@
       <c r="K155" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L155" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>369</v>
       </c>
@@ -6860,8 +7341,11 @@
       <c r="K156" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L156" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>370</v>
       </c>
@@ -6886,8 +7370,11 @@
       <c r="K157" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L157" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>371</v>
       </c>
@@ -6912,8 +7399,11 @@
       <c r="K158" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L158" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>236</v>
       </c>
@@ -6938,8 +7428,11 @@
       <c r="K159" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L159" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>307</v>
       </c>
@@ -6964,8 +7457,11 @@
       <c r="K160" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L160" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>372</v>
       </c>
@@ -6990,8 +7486,11 @@
       <c r="K161" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L161" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>373</v>
       </c>
@@ -7016,8 +7515,11 @@
       <c r="K162" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L162" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>374</v>
       </c>
@@ -7042,8 +7544,11 @@
       <c r="K163" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L163" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>375</v>
       </c>
@@ -7065,8 +7570,11 @@
       <c r="K164" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L164" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>376</v>
       </c>
@@ -7088,8 +7596,11 @@
       <c r="K165" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L165" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>377</v>
       </c>
@@ -7114,8 +7625,11 @@
       <c r="K166" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L166" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>378</v>
       </c>
@@ -7140,8 +7654,11 @@
       <c r="K167" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L167" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>379</v>
       </c>
@@ -7166,8 +7683,11 @@
       <c r="K168" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L168" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>380</v>
       </c>
@@ -7189,8 +7709,11 @@
       <c r="K169" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L169" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>381</v>
       </c>
@@ -7215,8 +7738,11 @@
       <c r="K170" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L170" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>661</v>
       </c>
@@ -7241,8 +7767,11 @@
       <c r="K171" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L171" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>383</v>
       </c>
@@ -7267,8 +7796,11 @@
       <c r="K172" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L172" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>384</v>
       </c>
@@ -7290,8 +7822,11 @@
       <c r="K173" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L173" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>2</v>
       </c>
@@ -7316,8 +7851,11 @@
       <c r="K174" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L174" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>385</v>
       </c>
@@ -7339,8 +7877,11 @@
       <c r="K175" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L175" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>794</v>
       </c>
@@ -7365,8 +7906,11 @@
       <c r="K176" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L176" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>798</v>
       </c>
@@ -7391,8 +7935,11 @@
       <c r="K177" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L177" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>386</v>
       </c>
@@ -7417,8 +7964,11 @@
       <c r="K178" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L178" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>387</v>
       </c>
@@ -7440,8 +7990,11 @@
       <c r="K179" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L179" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>801</v>
       </c>
@@ -7466,8 +8019,11 @@
       <c r="K180" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L180" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>388</v>
       </c>
@@ -7489,8 +8045,11 @@
       <c r="K181" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L181" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>389</v>
       </c>
@@ -7515,8 +8074,11 @@
       <c r="K182" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L182" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>390</v>
       </c>
@@ -7541,8 +8103,11 @@
       <c r="K183" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L183" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>391</v>
       </c>
@@ -7567,8 +8132,11 @@
       <c r="K184" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L184" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>392</v>
       </c>
@@ -7590,8 +8158,11 @@
       <c r="K185" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L185" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>393</v>
       </c>
@@ -7613,8 +8184,11 @@
       <c r="K186" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L186" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>394</v>
       </c>
@@ -7639,8 +8213,11 @@
       <c r="K187" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L187" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>395</v>
       </c>
@@ -7665,8 +8242,11 @@
       <c r="K188" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L188" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>396</v>
       </c>
@@ -7688,8 +8268,11 @@
       <c r="K189" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L189" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>397</v>
       </c>
@@ -7711,8 +8294,11 @@
       <c r="K190" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L190" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>398</v>
       </c>
@@ -7737,8 +8323,11 @@
       <c r="K191" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L191" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>399</v>
       </c>
@@ -7763,8 +8352,11 @@
       <c r="K192" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L192" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>400</v>
       </c>
@@ -7786,8 +8378,11 @@
       <c r="K193" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L193" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>401</v>
       </c>
@@ -7809,8 +8404,11 @@
       <c r="K194" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L194" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>802</v>
       </c>
@@ -7835,8 +8433,11 @@
       <c r="K195" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L195" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>402</v>
       </c>
@@ -7861,8 +8462,11 @@
       <c r="K196" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L196" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>403</v>
       </c>
@@ -7887,8 +8491,11 @@
       <c r="K197" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L197" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>404</v>
       </c>
@@ -7913,8 +8520,11 @@
       <c r="K198" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L198" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>405</v>
       </c>
@@ -7939,8 +8549,11 @@
       <c r="K199" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L199" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>406</v>
       </c>
@@ -7965,8 +8578,11 @@
       <c r="K200" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L200" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>407</v>
       </c>
@@ -7991,8 +8607,11 @@
       <c r="K201" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L201" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>408</v>
       </c>
@@ -8017,8 +8636,11 @@
       <c r="K202" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L202" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>409</v>
       </c>
@@ -8043,8 +8665,11 @@
       <c r="K203" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L203" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>410</v>
       </c>
@@ -8069,8 +8694,11 @@
       <c r="K204" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L204" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>411</v>
       </c>
@@ -8095,8 +8723,11 @@
       <c r="K205" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L205" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>412</v>
       </c>
@@ -8121,8 +8752,11 @@
       <c r="K206" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L206" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>413</v>
       </c>
@@ -8147,8 +8781,11 @@
       <c r="K207" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L207" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>761</v>
       </c>
@@ -8173,8 +8810,11 @@
       <c r="K208" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L208" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>414</v>
       </c>
@@ -8199,8 +8839,11 @@
       <c r="K209" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L209" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>415</v>
       </c>
@@ -8222,8 +8865,11 @@
       <c r="K210" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L210" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>416</v>
       </c>
@@ -8245,8 +8891,11 @@
       <c r="K211" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L211" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>417</v>
       </c>
@@ -8271,8 +8920,11 @@
       <c r="K212" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L212" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>418</v>
       </c>
@@ -8291,8 +8943,11 @@
       <c r="K213" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L213" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>419</v>
       </c>
@@ -8317,8 +8972,11 @@
       <c r="K214" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L214" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>420</v>
       </c>
@@ -8340,8 +8998,11 @@
       <c r="K215" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L215" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>421</v>
       </c>
@@ -8366,8 +9027,11 @@
       <c r="K216" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L216" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>422</v>
       </c>
@@ -8392,8 +9056,11 @@
       <c r="K217" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L217" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>423</v>
       </c>
@@ -8415,8 +9082,11 @@
       <c r="K218" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L218" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>424</v>
       </c>
@@ -8441,8 +9111,11 @@
       <c r="K219" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L219" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>425</v>
       </c>
@@ -8467,8 +9140,11 @@
       <c r="K220" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L220" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>426</v>
       </c>
@@ -8493,8 +9169,11 @@
       <c r="K221" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L221" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>427</v>
       </c>
@@ -8519,8 +9198,11 @@
       <c r="K222" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L222" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>693</v>
       </c>
@@ -8545,8 +9227,11 @@
       <c r="K223" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L223" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>428</v>
       </c>
@@ -8571,8 +9256,11 @@
       <c r="K224" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L224" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>805</v>
       </c>
@@ -8597,8 +9285,11 @@
       <c r="K225" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L225" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>692</v>
       </c>
@@ -8620,8 +9311,11 @@
       <c r="K226" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L226" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>429</v>
       </c>
@@ -8643,8 +9337,11 @@
       <c r="K227" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L227" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>430</v>
       </c>
@@ -8669,8 +9366,11 @@
       <c r="K228" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L228" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>431</v>
       </c>
@@ -8695,8 +9395,11 @@
       <c r="K229" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L229" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>432</v>
       </c>
@@ -8721,8 +9424,11 @@
       <c r="K230" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L230" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>433</v>
       </c>
@@ -8747,8 +9453,11 @@
       <c r="K231" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L231" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>698</v>
       </c>
@@ -8773,8 +9482,11 @@
       <c r="K232" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L232" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>434</v>
       </c>
@@ -8799,8 +9511,11 @@
       <c r="K233" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L233" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>435</v>
       </c>
@@ -8825,8 +9540,11 @@
       <c r="K234" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L234" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>436</v>
       </c>
@@ -8851,8 +9569,11 @@
       <c r="K235" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L235" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>437</v>
       </c>
@@ -8877,8 +9598,11 @@
       <c r="K236" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L236" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>438</v>
       </c>
@@ -8903,8 +9627,11 @@
       <c r="K237" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L237" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>703</v>
       </c>
@@ -8926,8 +9653,11 @@
       <c r="K238" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L238" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>439</v>
       </c>
@@ -8952,8 +9682,11 @@
       <c r="K239" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L239" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>440</v>
       </c>
@@ -8978,8 +9711,11 @@
       <c r="K240" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L240" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>441</v>
       </c>
@@ -9003,6 +9739,9 @@
       </c>
       <c r="K241" t="s">
         <v>581</v>
+      </c>
+      <c r="L241" t="s">
+        <v>810</v>
       </c>
     </row>
   </sheetData>

--- a/data/compleat_wiki_man.xlsx
+++ b/data/compleat_wiki_man.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\GitHub\PhyrexianDictionary\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA63359-5034-48A6-B937-3C853FC56F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BAA6B8-60B8-4DA3-8AF7-0A6768B29701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="925">
   <si>
     <t>IPA</t>
   </si>
@@ -2454,6 +2454,360 @@
   </si>
   <si>
     <t>huqt</t>
+  </si>
+  <si>
+    <t>negative (anti-affirmative/double negative)</t>
+  </si>
+  <si>
+    <t>Indicative, Present</t>
+  </si>
+  <si>
+    <t>Past</t>
+  </si>
+  <si>
+    <t>Interrogative</t>
+  </si>
+  <si>
+    <t>Imperative</t>
+  </si>
+  <si>
+    <t>Alternative (or)</t>
+  </si>
+  <si>
+    <t>Addition (and)</t>
+  </si>
+  <si>
+    <t>Negative (un-, not)</t>
+  </si>
+  <si>
+    <t>mood</t>
+  </si>
+  <si>
+    <t>mood, suffix</t>
+  </si>
+  <si>
+    <t>mood, prefix</t>
+  </si>
+  <si>
+    <t>particle</t>
+  </si>
+  <si>
+    <t>xe</t>
+  </si>
+  <si>
+    <t>'u</t>
+  </si>
+  <si>
+    <t>ŋo</t>
+  </si>
+  <si>
+    <t>ǩaπa</t>
+  </si>
+  <si>
+    <t>ba</t>
+  </si>
+  <si>
+    <t>bu</t>
+  </si>
+  <si>
+    <t>xwe</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>ðə</t>
+  </si>
+  <si>
+    <t>xə</t>
+  </si>
+  <si>
+    <t>əx</t>
+  </si>
+  <si>
+    <t>əl</t>
+  </si>
+  <si>
+    <t>'a</t>
+  </si>
+  <si>
+    <t>qə</t>
+  </si>
+  <si>
+    <t>ťe</t>
+  </si>
+  <si>
+    <t>əq</t>
+  </si>
+  <si>
+    <t>Consequential (thus)</t>
+  </si>
+  <si>
+    <t>"Unless"</t>
+  </si>
+  <si>
+    <t>Permissive/ableness (can/may)</t>
+  </si>
+  <si>
+    <t>Deontic (may)</t>
+  </si>
+  <si>
+    <t>obligation/necessity (must)</t>
+  </si>
+  <si>
+    <t>subordinative (that)</t>
+  </si>
+  <si>
+    <t>Conditional (if)</t>
+  </si>
+  <si>
+    <t>Conditional negative (if not)</t>
+  </si>
+  <si>
+    <t>Jussive (shall/will)</t>
+  </si>
+  <si>
+    <t>xẅots</t>
+  </si>
+  <si>
+    <t>ʔu</t>
+  </si>
+  <si>
+    <t>ʔa</t>
+  </si>
+  <si>
+    <t>t'e</t>
+  </si>
+  <si>
+    <t>k'ap'a</t>
+  </si>
+  <si>
+    <t>xɯots</t>
+  </si>
+  <si>
+    <t>xuφ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relative (when) </t>
+  </si>
+  <si>
+    <t>qilx</t>
+  </si>
+  <si>
+    <t>Conditional (would)</t>
+  </si>
+  <si>
+    <t>Paired mood with conditional (if) or past</t>
+  </si>
+  <si>
+    <t>Paired mood with if</t>
+  </si>
+  <si>
+    <t>qit</t>
+  </si>
+  <si>
+    <t>Alternative (instead/but)</t>
+  </si>
+  <si>
+    <t>Paired with many other moods</t>
+  </si>
+  <si>
+    <t>šta</t>
+  </si>
+  <si>
+    <t>ʃta</t>
+  </si>
+  <si>
+    <t>Historical/evidential</t>
+  </si>
+  <si>
+    <t>Paired with past</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>əšq</t>
+  </si>
+  <si>
+    <t>əʃq</t>
+  </si>
+  <si>
+    <t>dl</t>
+  </si>
+  <si>
+    <t>φɒ'</t>
+  </si>
+  <si>
+    <t>φɒʔ</t>
+  </si>
+  <si>
+    <t>to (spatial)</t>
+  </si>
+  <si>
+    <t>on (spatial)</t>
+  </si>
+  <si>
+    <t>in (spatial)</t>
+  </si>
+  <si>
+    <t>until (temporal)</t>
+  </si>
+  <si>
+    <t>for (temporal)</t>
+  </si>
+  <si>
+    <t>'ɒp</t>
+  </si>
+  <si>
+    <t>ʔɒp</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>ɢə</t>
+  </si>
+  <si>
+    <t>this/that</t>
+  </si>
+  <si>
+    <t>ɣẅ</t>
+  </si>
+  <si>
+    <t>ɣɯ</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>qər</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>"destroy all permanents with counters"</t>
+  </si>
+  <si>
+    <t>"ability of a permanent"</t>
+  </si>
+  <si>
+    <t>"a card from your deck"</t>
+  </si>
+  <si>
+    <t>"sacrifice this creature"</t>
+  </si>
+  <si>
+    <t>"produce mana of any type"</t>
+  </si>
+  <si>
+    <t>"you can do this for this turn"</t>
+  </si>
+  <si>
+    <t>"until your next turn"</t>
+  </si>
+  <si>
+    <t>"target card in your graveyard"</t>
+  </si>
+  <si>
+    <t>"put a counter on this"</t>
+  </si>
+  <si>
+    <t>"return this to your hand"</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>than</t>
+  </si>
+  <si>
+    <t>"more/less than"</t>
+  </si>
+  <si>
+    <t>pl</t>
+  </si>
+  <si>
+    <t>completion</t>
+  </si>
+  <si>
+    <t>"Complete (prefix + make)"</t>
+  </si>
+  <si>
+    <t>plθ</t>
+  </si>
+  <si>
+    <t>not-completion</t>
+  </si>
+  <si>
+    <t>"half, rounded down (prefix + not + two + amounts)"</t>
+  </si>
+  <si>
+    <t>pn</t>
+  </si>
+  <si>
+    <t>greater</t>
+  </si>
+  <si>
+    <t>"Vigilance (ability + prefix + see)"</t>
+  </si>
+  <si>
+    <t>ke</t>
+  </si>
+  <si>
+    <t>collective</t>
+  </si>
+  <si>
+    <t>"world (prefix + land)"</t>
+  </si>
+  <si>
+    <t>ɣwi</t>
+  </si>
+  <si>
+    <t>ability</t>
+  </si>
+  <si>
+    <t>"Immortality (prefix + un + death)"</t>
+  </si>
+  <si>
+    <t>tč</t>
+  </si>
+  <si>
+    <t>ttʃ</t>
+  </si>
+  <si>
+    <t>Number-related. "Top (first) card of your library "</t>
+  </si>
+  <si>
+    <t>xe_'ə</t>
+  </si>
+  <si>
+    <t>suffix</t>
+  </si>
+  <si>
+    <t>prefix, suffix</t>
+  </si>
+  <si>
+    <t>indicate order</t>
+  </si>
+  <si>
+    <t>indicate frequency</t>
+  </si>
+  <si>
+    <t>Number-related. "once per turn"</t>
+  </si>
+  <si>
+    <t>xe_ʔə</t>
   </si>
 </sst>
 </file>
@@ -2532,7 +2886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2542,6 +2896,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2560,9 +2921,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2600,9 +2961,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2635,26 +2996,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2687,26 +3031,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2880,10 +3207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K241"/>
+  <dimension ref="A1:K280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="E225" sqref="E225"/>
+    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
+      <selection activeCell="H274" sqref="H274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2895,6 +3222,7 @@
     <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.21875" customWidth="1"/>
     <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="10" max="10" width="34.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -9002,6 +9330,1236 @@
         <v>604</v>
       </c>
     </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A242" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="C242" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D242" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="E242" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F242" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G242" s="6"/>
+      <c r="H242" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="I242" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J242" s="6"/>
+      <c r="K242" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A243" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="C243" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D243" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="E243" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F243" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G243" s="6"/>
+      <c r="H243" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="I243" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J243" s="6"/>
+      <c r="K243" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A244" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="C244" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="E244" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F244" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G244" s="6"/>
+      <c r="H244" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="I244" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J244" s="6"/>
+      <c r="K244" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A245" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="C245" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D245" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="E245" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F245" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G245" s="6"/>
+      <c r="H245" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="I245" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J245" s="6"/>
+      <c r="K245" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A246" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="C246" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D246" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="E246" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F246" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G246" s="6"/>
+      <c r="H246" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="I246" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J246" s="6"/>
+      <c r="K246" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A247" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="C247" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D247" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="E247" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F247" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G247" s="6"/>
+      <c r="H247" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="I247" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J247" s="6"/>
+      <c r="K247" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A248" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="C248" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D248" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="E248" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F248" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G248" s="6"/>
+      <c r="H248" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="I248" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" s="6"/>
+      <c r="K248" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A249" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="C249" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D249" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="E249" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F249" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G249" s="6"/>
+      <c r="H249" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="I249" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" s="6"/>
+      <c r="K249" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A250" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="C250" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D250" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="E250" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F250" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G250" s="6"/>
+      <c r="H250" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="I250" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" s="6"/>
+      <c r="K250" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A251" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="C251" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D251" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="E251" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F251" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G251" s="6"/>
+      <c r="H251" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="I251" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J251" s="6"/>
+      <c r="K251" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A252" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="C252" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D252" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="E252" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F252" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G252" s="6"/>
+      <c r="H252" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="I252" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J252" s="6"/>
+      <c r="K252" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A253" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="C253" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D253" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="E253" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F253" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G253" s="6"/>
+      <c r="H253" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="I253" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J253" s="6"/>
+      <c r="K253" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A254" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="C254" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D254" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="E254" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F254" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G254" s="6"/>
+      <c r="H254" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="I254" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J254" s="6"/>
+      <c r="K254" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A255" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="C255" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D255" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="E255" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F255" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G255" s="6"/>
+      <c r="H255" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="I255" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J255" s="6"/>
+      <c r="K255" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A256" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="C256" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D256" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="E256" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F256" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G256" s="6"/>
+      <c r="H256" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="I256" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256" s="6"/>
+      <c r="K256" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A257" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="C257" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D257" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="E257" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F257" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G257" s="6"/>
+      <c r="H257" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="I257" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J257" s="6"/>
+      <c r="K257" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A258" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="C258" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D258" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="E258" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F258" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G258" s="6"/>
+      <c r="H258" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="I258" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K258" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A259" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="C259" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D259" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="E259" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F259" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H259" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="I259" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J259" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="K259" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A260" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="C260" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D260" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="E260" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F260" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H260" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="I260" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J260" t="s">
+        <v>855</v>
+      </c>
+      <c r="K260" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A261" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C261" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D261" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="E261" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F261" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H261" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="I261" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J261" t="s">
+        <v>858</v>
+      </c>
+      <c r="K261" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A262" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="C262" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D262" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="E262" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F262" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H262" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="I262" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J262" t="s">
+        <v>862</v>
+      </c>
+      <c r="K262" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A263" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="C263" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D263" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="E263" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F263" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H263" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="I263" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J263" t="s">
+        <v>896</v>
+      </c>
+      <c r="K263" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A264" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="C264" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D264" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="E264" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F264" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H264" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="I264" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J264" t="s">
+        <v>895</v>
+      </c>
+      <c r="K264" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A265" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="C265" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D265" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="E265" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F265" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H265" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="I265" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J265" t="s">
+        <v>894</v>
+      </c>
+      <c r="K265" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A266" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="C266" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D266" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="E266" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F266" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H266" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="I266" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J266" t="s">
+        <v>893</v>
+      </c>
+      <c r="K266" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>430</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="C267" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D267" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="E267" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F267" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H267" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="I267" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J267" t="s">
+        <v>892</v>
+      </c>
+      <c r="K267" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A268" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="B268" t="s">
+        <v>876</v>
+      </c>
+      <c r="C268" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D268" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="E268" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F268" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H268" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="I268" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J268" t="s">
+        <v>891</v>
+      </c>
+      <c r="K268" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>878</v>
+      </c>
+      <c r="B269" t="s">
+        <v>878</v>
+      </c>
+      <c r="C269" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D269" s="7" t="s">
+        <v>879</v>
+      </c>
+      <c r="E269" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F269" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H269" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="I269" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J269" t="s">
+        <v>890</v>
+      </c>
+      <c r="K269" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>880</v>
+      </c>
+      <c r="B270" t="s">
+        <v>881</v>
+      </c>
+      <c r="C270" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D270" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="E270" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F270" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H270" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="I270" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J270" t="s">
+        <v>889</v>
+      </c>
+      <c r="K270" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>883</v>
+      </c>
+      <c r="B271" t="s">
+        <v>883</v>
+      </c>
+      <c r="C271" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D271" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="E271" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F271" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H271" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="I271" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J271" t="s">
+        <v>888</v>
+      </c>
+      <c r="K271" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>885</v>
+      </c>
+      <c r="B272" t="s">
+        <v>885</v>
+      </c>
+      <c r="C272" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D272" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="E272" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F272" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H272" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="I272" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J272" t="s">
+        <v>887</v>
+      </c>
+      <c r="K272" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>897</v>
+      </c>
+      <c r="B273" t="s">
+        <v>897</v>
+      </c>
+      <c r="C273" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D273" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="E273" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F273" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H273" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="I273" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J273" t="s">
+        <v>899</v>
+      </c>
+      <c r="K273" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>900</v>
+      </c>
+      <c r="B274" t="s">
+        <v>900</v>
+      </c>
+      <c r="C274" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D274" s="7" t="s">
+        <v>901</v>
+      </c>
+      <c r="E274" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F274" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H274" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="I274" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J274" t="s">
+        <v>902</v>
+      </c>
+      <c r="K274" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>903</v>
+      </c>
+      <c r="B275" t="s">
+        <v>903</v>
+      </c>
+      <c r="C275" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D275" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="E275" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F275" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H275" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="I275" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J275" t="s">
+        <v>905</v>
+      </c>
+      <c r="K275" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>906</v>
+      </c>
+      <c r="B276" t="s">
+        <v>906</v>
+      </c>
+      <c r="C276" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D276" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="E276" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F276" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H276" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="I276" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J276" t="s">
+        <v>908</v>
+      </c>
+      <c r="K276" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>909</v>
+      </c>
+      <c r="B277" t="s">
+        <v>909</v>
+      </c>
+      <c r="C277" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D277" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="E277" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F277" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H277" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="I277" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J277" t="s">
+        <v>911</v>
+      </c>
+      <c r="K277" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>912</v>
+      </c>
+      <c r="B278" t="s">
+        <v>912</v>
+      </c>
+      <c r="C278" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D278" s="7" t="s">
+        <v>913</v>
+      </c>
+      <c r="E278" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F278" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H278" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="I278" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J278" t="s">
+        <v>914</v>
+      </c>
+      <c r="K278" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>915</v>
+      </c>
+      <c r="B279" t="s">
+        <v>916</v>
+      </c>
+      <c r="C279" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D279" t="s">
+        <v>921</v>
+      </c>
+      <c r="E279" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F279" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H279" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="I279" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J279" t="s">
+        <v>917</v>
+      </c>
+      <c r="K279" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>918</v>
+      </c>
+      <c r="B280" t="s">
+        <v>924</v>
+      </c>
+      <c r="C280" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D280" t="s">
+        <v>922</v>
+      </c>
+      <c r="E280" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F280" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H280" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="I280" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J280" t="s">
+        <v>923</v>
+      </c>
+      <c r="K280" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/data/compleat_wiki_man.xlsx
+++ b/data/compleat_wiki_man.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\GitHub\PhyrexianDictionary\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B71F28B-5863-44DB-888B-DCD131181FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C8BE85-54A6-4978-B3D6-096C9FE8AB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="931">
   <si>
     <t>IPA</t>
   </si>
@@ -2469,6 +2469,363 @@
   </si>
   <si>
     <t>moderate</t>
+  </si>
+  <si>
+    <t>xe</t>
+  </si>
+  <si>
+    <t>Indicative, Present</t>
+  </si>
+  <si>
+    <t>mood</t>
+  </si>
+  <si>
+    <t>particle</t>
+  </si>
+  <si>
+    <t>'u</t>
+  </si>
+  <si>
+    <t>ʔu</t>
+  </si>
+  <si>
+    <t>Past</t>
+  </si>
+  <si>
+    <t>ŋo</t>
+  </si>
+  <si>
+    <t>Interrogative</t>
+  </si>
+  <si>
+    <t>ǩaπa</t>
+  </si>
+  <si>
+    <t>k'ap'a</t>
+  </si>
+  <si>
+    <t>Jussive (shall/will)</t>
+  </si>
+  <si>
+    <t>ba</t>
+  </si>
+  <si>
+    <t>Conditional (if)</t>
+  </si>
+  <si>
+    <t>bu</t>
+  </si>
+  <si>
+    <t>Conditional negative (if not)</t>
+  </si>
+  <si>
+    <t>xwe</t>
+  </si>
+  <si>
+    <t>Deontic (may)</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>Imperative</t>
+  </si>
+  <si>
+    <t>ðə</t>
+  </si>
+  <si>
+    <t>Alternative (or)</t>
+  </si>
+  <si>
+    <t>mood, suffix</t>
+  </si>
+  <si>
+    <t>xə</t>
+  </si>
+  <si>
+    <t>Addition (and)</t>
+  </si>
+  <si>
+    <t>əx</t>
+  </si>
+  <si>
+    <t>Negative (un-, not)</t>
+  </si>
+  <si>
+    <t>mood, prefix</t>
+  </si>
+  <si>
+    <t>əl</t>
+  </si>
+  <si>
+    <t>negative (anti-affirmative/double negative)</t>
+  </si>
+  <si>
+    <t>'a</t>
+  </si>
+  <si>
+    <t>ʔa</t>
+  </si>
+  <si>
+    <t>obligation/necessity (must)</t>
+  </si>
+  <si>
+    <t>qə</t>
+  </si>
+  <si>
+    <t>subordinative (that)</t>
+  </si>
+  <si>
+    <t>ťe</t>
+  </si>
+  <si>
+    <t>t'e</t>
+  </si>
+  <si>
+    <t>Permissive/ableness (can/may)</t>
+  </si>
+  <si>
+    <t>əq</t>
+  </si>
+  <si>
+    <t>"Unless"</t>
+  </si>
+  <si>
+    <t>xẅots</t>
+  </si>
+  <si>
+    <t>xɯots</t>
+  </si>
+  <si>
+    <t>Consequential (thus)</t>
+  </si>
+  <si>
+    <t>xuφ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relative (when) </t>
+  </si>
+  <si>
+    <t>Paired mood with conditional (if) or past</t>
+  </si>
+  <si>
+    <t>qilx</t>
+  </si>
+  <si>
+    <t>Conditional (would)</t>
+  </si>
+  <si>
+    <t>Paired mood with if</t>
+  </si>
+  <si>
+    <t>qit</t>
+  </si>
+  <si>
+    <t>Alternative (instead/but)</t>
+  </si>
+  <si>
+    <t>Paired with many other moods</t>
+  </si>
+  <si>
+    <t>šta</t>
+  </si>
+  <si>
+    <t>ʃta</t>
+  </si>
+  <si>
+    <t>Historical/evidential</t>
+  </si>
+  <si>
+    <t>Paired with past</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>to (spatial)</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>"return this to your hand"</t>
+  </si>
+  <si>
+    <t>əšq</t>
+  </si>
+  <si>
+    <t>əʃq</t>
+  </si>
+  <si>
+    <t>on (spatial)</t>
+  </si>
+  <si>
+    <t>"put a counter on this"</t>
+  </si>
+  <si>
+    <t>dl</t>
+  </si>
+  <si>
+    <t>in (spatial)</t>
+  </si>
+  <si>
+    <t>"target card in your graveyard"</t>
+  </si>
+  <si>
+    <t>φɒ'</t>
+  </si>
+  <si>
+    <t>φɒʔ</t>
+  </si>
+  <si>
+    <t>until (temporal)</t>
+  </si>
+  <si>
+    <t>"until your next turn"</t>
+  </si>
+  <si>
+    <t>for (temporal)</t>
+  </si>
+  <si>
+    <t>"you can do this for this turn"</t>
+  </si>
+  <si>
+    <t>'ɒp</t>
+  </si>
+  <si>
+    <t>ʔɒp</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>"produce mana of any type"</t>
+  </si>
+  <si>
+    <t>ɢə</t>
+  </si>
+  <si>
+    <t>this/that</t>
+  </si>
+  <si>
+    <t>"sacrifice this creature"</t>
+  </si>
+  <si>
+    <t>ɣẅ</t>
+  </si>
+  <si>
+    <t>ɣɯ</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>"a card from your deck"</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>"ability of a permanent"</t>
+  </si>
+  <si>
+    <t>qər</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>"destroy all permanents with counters"</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>than</t>
+  </si>
+  <si>
+    <t>prefix, suffix</t>
+  </si>
+  <si>
+    <t>"more/less than"</t>
+  </si>
+  <si>
+    <t>pl</t>
+  </si>
+  <si>
+    <t>completion</t>
+  </si>
+  <si>
+    <t>"Complete (prefix + make)"</t>
+  </si>
+  <si>
+    <t>plθ</t>
+  </si>
+  <si>
+    <t>not-completion</t>
+  </si>
+  <si>
+    <t>"half, rounded down (prefix + not + two + amounts)"</t>
+  </si>
+  <si>
+    <t>pn</t>
+  </si>
+  <si>
+    <t>greater</t>
+  </si>
+  <si>
+    <t>"Vigilance (ability + prefix + see)"</t>
+  </si>
+  <si>
+    <t>ke</t>
+  </si>
+  <si>
+    <t>collective</t>
+  </si>
+  <si>
+    <t>"world (prefix + land)"</t>
+  </si>
+  <si>
+    <t>ɣwi</t>
+  </si>
+  <si>
+    <t>ability</t>
+  </si>
+  <si>
+    <t>"Immortality (prefix + un + death)"</t>
+  </si>
+  <si>
+    <t>tč</t>
+  </si>
+  <si>
+    <t>ttʃ</t>
+  </si>
+  <si>
+    <t>indicate order</t>
+  </si>
+  <si>
+    <t>suffix</t>
+  </si>
+  <si>
+    <t>Number-related. "Top (first) card of your library "</t>
+  </si>
+  <si>
+    <t>xe_'ə</t>
+  </si>
+  <si>
+    <t>xe_ʔə</t>
+  </si>
+  <si>
+    <t>indicate frequency</t>
+  </si>
+  <si>
+    <t>Number-related. "once per turn"</t>
+  </si>
+  <si>
+    <t>poor</t>
   </si>
 </sst>
 </file>
@@ -2557,8 +2914,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2578,9 +2935,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2618,9 +2975,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2653,26 +3010,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2705,26 +3045,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2898,10 +3221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L241"/>
+  <dimension ref="A1:L280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="C227" sqref="C227"/>
+    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="L281" sqref="L281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2950,7 +3273,7 @@
       <c r="K1" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>808</v>
       </c>
     </row>
@@ -9742,6 +10065,1320 @@
       </c>
       <c r="L241" t="s">
         <v>810</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>812</v>
+      </c>
+      <c r="B242" t="s">
+        <v>812</v>
+      </c>
+      <c r="C242" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="E242" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F242" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H242" t="s">
+        <v>814</v>
+      </c>
+      <c r="I242" t="b">
+        <v>1</v>
+      </c>
+      <c r="K242" t="s">
+        <v>815</v>
+      </c>
+      <c r="L242" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A243" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="B243" t="s">
+        <v>817</v>
+      </c>
+      <c r="C243" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="E243" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F243" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H243" t="s">
+        <v>814</v>
+      </c>
+      <c r="I243" t="b">
+        <v>1</v>
+      </c>
+      <c r="K243" t="s">
+        <v>815</v>
+      </c>
+      <c r="L243" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>819</v>
+      </c>
+      <c r="B244" t="s">
+        <v>819</v>
+      </c>
+      <c r="C244" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D244" t="s">
+        <v>820</v>
+      </c>
+      <c r="E244" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F244" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H244" t="s">
+        <v>814</v>
+      </c>
+      <c r="I244" t="b">
+        <v>1</v>
+      </c>
+      <c r="K244" t="s">
+        <v>815</v>
+      </c>
+      <c r="L244" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>821</v>
+      </c>
+      <c r="B245" t="s">
+        <v>822</v>
+      </c>
+      <c r="C245" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="E245" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F245" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H245" t="s">
+        <v>814</v>
+      </c>
+      <c r="I245" t="b">
+        <v>1</v>
+      </c>
+      <c r="K245" t="s">
+        <v>815</v>
+      </c>
+      <c r="L245" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>824</v>
+      </c>
+      <c r="B246" t="s">
+        <v>824</v>
+      </c>
+      <c r="C246" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="E246" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F246" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H246" t="s">
+        <v>814</v>
+      </c>
+      <c r="I246" t="b">
+        <v>1</v>
+      </c>
+      <c r="K246" t="s">
+        <v>815</v>
+      </c>
+      <c r="L246" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>826</v>
+      </c>
+      <c r="B247" t="s">
+        <v>826</v>
+      </c>
+      <c r="C247" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="E247" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F247" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H247" t="s">
+        <v>814</v>
+      </c>
+      <c r="I247" t="b">
+        <v>1</v>
+      </c>
+      <c r="K247" t="s">
+        <v>815</v>
+      </c>
+      <c r="L247" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>828</v>
+      </c>
+      <c r="B248" t="s">
+        <v>828</v>
+      </c>
+      <c r="C248" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="E248" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F248" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H248" t="s">
+        <v>814</v>
+      </c>
+      <c r="I248" t="b">
+        <v>1</v>
+      </c>
+      <c r="K248" t="s">
+        <v>815</v>
+      </c>
+      <c r="L248" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>830</v>
+      </c>
+      <c r="B249" t="s">
+        <v>830</v>
+      </c>
+      <c r="C249" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D249" t="s">
+        <v>831</v>
+      </c>
+      <c r="E249" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F249" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H249" t="s">
+        <v>814</v>
+      </c>
+      <c r="I249" t="b">
+        <v>1</v>
+      </c>
+      <c r="K249" t="s">
+        <v>815</v>
+      </c>
+      <c r="L249" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>832</v>
+      </c>
+      <c r="B250" t="s">
+        <v>832</v>
+      </c>
+      <c r="C250" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="E250" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F250" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H250" t="s">
+        <v>834</v>
+      </c>
+      <c r="I250" t="b">
+        <v>1</v>
+      </c>
+      <c r="K250" t="s">
+        <v>815</v>
+      </c>
+      <c r="L250" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>835</v>
+      </c>
+      <c r="B251" t="s">
+        <v>835</v>
+      </c>
+      <c r="C251" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="E251" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F251" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H251" t="s">
+        <v>834</v>
+      </c>
+      <c r="I251" t="b">
+        <v>1</v>
+      </c>
+      <c r="K251" t="s">
+        <v>815</v>
+      </c>
+      <c r="L251" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>837</v>
+      </c>
+      <c r="B252" t="s">
+        <v>837</v>
+      </c>
+      <c r="C252" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="E252" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F252" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H252" t="s">
+        <v>839</v>
+      </c>
+      <c r="I252" t="b">
+        <v>1</v>
+      </c>
+      <c r="K252" t="s">
+        <v>815</v>
+      </c>
+      <c r="L252" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>840</v>
+      </c>
+      <c r="B253" t="s">
+        <v>840</v>
+      </c>
+      <c r="C253" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="E253" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F253" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H253" t="s">
+        <v>814</v>
+      </c>
+      <c r="I253" t="b">
+        <v>1</v>
+      </c>
+      <c r="K253" t="s">
+        <v>815</v>
+      </c>
+      <c r="L253" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A254" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B254" t="s">
+        <v>843</v>
+      </c>
+      <c r="C254" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="E254" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F254" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H254" t="s">
+        <v>814</v>
+      </c>
+      <c r="I254" t="b">
+        <v>1</v>
+      </c>
+      <c r="K254" t="s">
+        <v>815</v>
+      </c>
+      <c r="L254" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>845</v>
+      </c>
+      <c r="B255" t="s">
+        <v>845</v>
+      </c>
+      <c r="C255" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="E255" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F255" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H255" t="s">
+        <v>814</v>
+      </c>
+      <c r="I255" t="b">
+        <v>1</v>
+      </c>
+      <c r="K255" t="s">
+        <v>815</v>
+      </c>
+      <c r="L255" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>847</v>
+      </c>
+      <c r="B256" t="s">
+        <v>848</v>
+      </c>
+      <c r="C256" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="E256" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F256" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H256" t="s">
+        <v>814</v>
+      </c>
+      <c r="I256" t="b">
+        <v>1</v>
+      </c>
+      <c r="K256" t="s">
+        <v>815</v>
+      </c>
+      <c r="L256" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>850</v>
+      </c>
+      <c r="B257" t="s">
+        <v>850</v>
+      </c>
+      <c r="C257" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="E257" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F257" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H257" t="s">
+        <v>814</v>
+      </c>
+      <c r="I257" t="b">
+        <v>1</v>
+      </c>
+      <c r="K257" t="s">
+        <v>815</v>
+      </c>
+      <c r="L257" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>852</v>
+      </c>
+      <c r="B258" t="s">
+        <v>853</v>
+      </c>
+      <c r="C258" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="E258" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F258" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H258" t="s">
+        <v>814</v>
+      </c>
+      <c r="I258" t="b">
+        <v>1</v>
+      </c>
+      <c r="K258" t="s">
+        <v>815</v>
+      </c>
+      <c r="L258" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>855</v>
+      </c>
+      <c r="B259" t="s">
+        <v>855</v>
+      </c>
+      <c r="C259" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="E259" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F259" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H259" t="s">
+        <v>814</v>
+      </c>
+      <c r="I259" t="b">
+        <v>1</v>
+      </c>
+      <c r="J259" t="s">
+        <v>857</v>
+      </c>
+      <c r="K259" t="s">
+        <v>815</v>
+      </c>
+      <c r="L259" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>858</v>
+      </c>
+      <c r="B260" t="s">
+        <v>858</v>
+      </c>
+      <c r="C260" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="E260" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F260" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H260" t="s">
+        <v>814</v>
+      </c>
+      <c r="I260" t="b">
+        <v>1</v>
+      </c>
+      <c r="J260" t="s">
+        <v>860</v>
+      </c>
+      <c r="K260" t="s">
+        <v>815</v>
+      </c>
+      <c r="L260" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>861</v>
+      </c>
+      <c r="B261" t="s">
+        <v>861</v>
+      </c>
+      <c r="C261" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="E261" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F261" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H261" t="s">
+        <v>814</v>
+      </c>
+      <c r="I261" t="b">
+        <v>1</v>
+      </c>
+      <c r="J261" t="s">
+        <v>863</v>
+      </c>
+      <c r="K261" t="s">
+        <v>815</v>
+      </c>
+      <c r="L261" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>864</v>
+      </c>
+      <c r="B262" t="s">
+        <v>865</v>
+      </c>
+      <c r="C262" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="E262" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F262" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H262" t="s">
+        <v>814</v>
+      </c>
+      <c r="I262" t="b">
+        <v>1</v>
+      </c>
+      <c r="J262" t="s">
+        <v>867</v>
+      </c>
+      <c r="K262" t="s">
+        <v>815</v>
+      </c>
+      <c r="L262" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>868</v>
+      </c>
+      <c r="B263" t="s">
+        <v>868</v>
+      </c>
+      <c r="C263" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="E263" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F263" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H263" t="s">
+        <v>870</v>
+      </c>
+      <c r="I263" t="b">
+        <v>1</v>
+      </c>
+      <c r="J263" t="s">
+        <v>871</v>
+      </c>
+      <c r="K263" t="s">
+        <v>815</v>
+      </c>
+      <c r="L263" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>872</v>
+      </c>
+      <c r="B264" t="s">
+        <v>873</v>
+      </c>
+      <c r="C264" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="E264" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F264" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H264" t="s">
+        <v>870</v>
+      </c>
+      <c r="I264" t="b">
+        <v>1</v>
+      </c>
+      <c r="J264" t="s">
+        <v>875</v>
+      </c>
+      <c r="K264" t="s">
+        <v>815</v>
+      </c>
+      <c r="L264" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>876</v>
+      </c>
+      <c r="B265" t="s">
+        <v>876</v>
+      </c>
+      <c r="C265" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D265" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="E265" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F265" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H265" t="s">
+        <v>870</v>
+      </c>
+      <c r="I265" t="b">
+        <v>1</v>
+      </c>
+      <c r="J265" t="s">
+        <v>878</v>
+      </c>
+      <c r="K265" t="s">
+        <v>815</v>
+      </c>
+      <c r="L265" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>879</v>
+      </c>
+      <c r="B266" t="s">
+        <v>880</v>
+      </c>
+      <c r="C266" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D266" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="E266" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F266" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H266" t="s">
+        <v>870</v>
+      </c>
+      <c r="I266" t="b">
+        <v>1</v>
+      </c>
+      <c r="J266" t="s">
+        <v>882</v>
+      </c>
+      <c r="K266" t="s">
+        <v>815</v>
+      </c>
+      <c r="L266" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>418</v>
+      </c>
+      <c r="B267" t="s">
+        <v>563</v>
+      </c>
+      <c r="C267" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="E267" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F267" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H267" t="s">
+        <v>870</v>
+      </c>
+      <c r="I267" t="b">
+        <v>1</v>
+      </c>
+      <c r="J267" t="s">
+        <v>884</v>
+      </c>
+      <c r="K267" t="s">
+        <v>815</v>
+      </c>
+      <c r="L267" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A268" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="B268" t="s">
+        <v>886</v>
+      </c>
+      <c r="C268" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="E268" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F268" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H268" t="s">
+        <v>870</v>
+      </c>
+      <c r="I268" t="b">
+        <v>1</v>
+      </c>
+      <c r="J268" t="s">
+        <v>888</v>
+      </c>
+      <c r="K268" t="s">
+        <v>815</v>
+      </c>
+      <c r="L268" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>889</v>
+      </c>
+      <c r="B269" t="s">
+        <v>889</v>
+      </c>
+      <c r="C269" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D269" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="E269" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F269" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H269" t="s">
+        <v>870</v>
+      </c>
+      <c r="I269" t="b">
+        <v>1</v>
+      </c>
+      <c r="J269" t="s">
+        <v>891</v>
+      </c>
+      <c r="K269" t="s">
+        <v>815</v>
+      </c>
+      <c r="L269" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>892</v>
+      </c>
+      <c r="B270" t="s">
+        <v>893</v>
+      </c>
+      <c r="C270" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="E270" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F270" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H270" t="s">
+        <v>870</v>
+      </c>
+      <c r="I270" t="b">
+        <v>1</v>
+      </c>
+      <c r="J270" t="s">
+        <v>895</v>
+      </c>
+      <c r="K270" t="s">
+        <v>815</v>
+      </c>
+      <c r="L270" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>896</v>
+      </c>
+      <c r="B271" t="s">
+        <v>896</v>
+      </c>
+      <c r="C271" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D271" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="E271" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F271" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H271" t="s">
+        <v>870</v>
+      </c>
+      <c r="I271" t="b">
+        <v>1</v>
+      </c>
+      <c r="J271" t="s">
+        <v>898</v>
+      </c>
+      <c r="K271" t="s">
+        <v>815</v>
+      </c>
+      <c r="L271" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>899</v>
+      </c>
+      <c r="B272" t="s">
+        <v>899</v>
+      </c>
+      <c r="C272" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D272" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="E272" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F272" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H272" t="s">
+        <v>870</v>
+      </c>
+      <c r="I272" t="b">
+        <v>1</v>
+      </c>
+      <c r="J272" t="s">
+        <v>901</v>
+      </c>
+      <c r="K272" t="s">
+        <v>815</v>
+      </c>
+      <c r="L272" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>902</v>
+      </c>
+      <c r="B273" t="s">
+        <v>902</v>
+      </c>
+      <c r="C273" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D273" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="E273" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F273" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H273" t="s">
+        <v>904</v>
+      </c>
+      <c r="I273" t="b">
+        <v>1</v>
+      </c>
+      <c r="J273" t="s">
+        <v>905</v>
+      </c>
+      <c r="K273" t="s">
+        <v>815</v>
+      </c>
+      <c r="L273" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>906</v>
+      </c>
+      <c r="B274" t="s">
+        <v>906</v>
+      </c>
+      <c r="C274" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="E274" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F274" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H274" t="s">
+        <v>870</v>
+      </c>
+      <c r="I274" t="b">
+        <v>1</v>
+      </c>
+      <c r="J274" t="s">
+        <v>908</v>
+      </c>
+      <c r="K274" t="s">
+        <v>815</v>
+      </c>
+      <c r="L274" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>909</v>
+      </c>
+      <c r="B275" t="s">
+        <v>909</v>
+      </c>
+      <c r="C275" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D275" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="E275" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F275" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H275" t="s">
+        <v>870</v>
+      </c>
+      <c r="I275" t="b">
+        <v>1</v>
+      </c>
+      <c r="J275" t="s">
+        <v>911</v>
+      </c>
+      <c r="K275" t="s">
+        <v>815</v>
+      </c>
+      <c r="L275" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>912</v>
+      </c>
+      <c r="B276" t="s">
+        <v>912</v>
+      </c>
+      <c r="C276" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="E276" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F276" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H276" t="s">
+        <v>870</v>
+      </c>
+      <c r="I276" t="b">
+        <v>1</v>
+      </c>
+      <c r="J276" t="s">
+        <v>914</v>
+      </c>
+      <c r="K276" t="s">
+        <v>815</v>
+      </c>
+      <c r="L276" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>915</v>
+      </c>
+      <c r="B277" t="s">
+        <v>915</v>
+      </c>
+      <c r="C277" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D277" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="E277" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F277" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H277" t="s">
+        <v>870</v>
+      </c>
+      <c r="I277" t="b">
+        <v>1</v>
+      </c>
+      <c r="J277" t="s">
+        <v>917</v>
+      </c>
+      <c r="K277" t="s">
+        <v>815</v>
+      </c>
+      <c r="L277" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>918</v>
+      </c>
+      <c r="B278" t="s">
+        <v>918</v>
+      </c>
+      <c r="C278" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D278" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="E278" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F278" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H278" t="s">
+        <v>870</v>
+      </c>
+      <c r="I278" t="b">
+        <v>1</v>
+      </c>
+      <c r="J278" t="s">
+        <v>920</v>
+      </c>
+      <c r="K278" t="s">
+        <v>815</v>
+      </c>
+      <c r="L278" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>921</v>
+      </c>
+      <c r="B279" t="s">
+        <v>922</v>
+      </c>
+      <c r="C279" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D279" t="s">
+        <v>923</v>
+      </c>
+      <c r="E279" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F279" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H279" t="s">
+        <v>924</v>
+      </c>
+      <c r="I279" t="b">
+        <v>1</v>
+      </c>
+      <c r="J279" t="s">
+        <v>925</v>
+      </c>
+      <c r="K279" t="s">
+        <v>815</v>
+      </c>
+      <c r="L279" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>926</v>
+      </c>
+      <c r="B280" t="s">
+        <v>927</v>
+      </c>
+      <c r="C280" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D280" t="s">
+        <v>928</v>
+      </c>
+      <c r="E280" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F280" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H280" t="s">
+        <v>904</v>
+      </c>
+      <c r="I280" t="b">
+        <v>1</v>
+      </c>
+      <c r="J280" t="s">
+        <v>929</v>
+      </c>
+      <c r="K280" t="s">
+        <v>815</v>
+      </c>
+      <c r="L280" t="s">
+        <v>809</v>
       </c>
     </row>
   </sheetData>

--- a/data/compleat_wiki_man.xlsx
+++ b/data/compleat_wiki_man.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\GitHub\PhyrexianDictionary\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C8BE85-54A6-4978-B3D6-096C9FE8AB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0C2A7D-E513-4992-BB79-7277934B0EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3223,8 +3223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="L281" sqref="L281"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="G231" sqref="G231:G280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/compleat_wiki_man.xlsx
+++ b/data/compleat_wiki_man.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\GitHub\PhyrexianDictionary\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0C2A7D-E513-4992-BB79-7277934B0EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009160DF-8CB6-44B9-BC74-E9D7A28842C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2648,9 +2648,6 @@
     <t>prefix</t>
   </si>
   <si>
-    <t>"return this to your hand"</t>
-  </si>
-  <si>
     <t>əšq</t>
   </si>
   <si>
@@ -2660,18 +2657,12 @@
     <t>on (spatial)</t>
   </si>
   <si>
-    <t>"put a counter on this"</t>
-  </si>
-  <si>
     <t>dl</t>
   </si>
   <si>
     <t>in (spatial)</t>
   </si>
   <si>
-    <t>"target card in your graveyard"</t>
-  </si>
-  <si>
     <t>φɒ'</t>
   </si>
   <si>
@@ -2681,15 +2672,9 @@
     <t>until (temporal)</t>
   </si>
   <si>
-    <t>"until your next turn"</t>
-  </si>
-  <si>
     <t>for (temporal)</t>
   </si>
   <si>
-    <t>"you can do this for this turn"</t>
-  </si>
-  <si>
     <t>'ɒp</t>
   </si>
   <si>
@@ -2699,18 +2684,12 @@
     <t>any</t>
   </si>
   <si>
-    <t>"produce mana of any type"</t>
-  </si>
-  <si>
     <t>ɢə</t>
   </si>
   <si>
     <t>this/that</t>
   </si>
   <si>
-    <t>"sacrifice this creature"</t>
-  </si>
-  <si>
     <t>ɣẅ</t>
   </si>
   <si>
@@ -2720,27 +2699,18 @@
     <t>from</t>
   </si>
   <si>
-    <t>"a card from your deck"</t>
-  </si>
-  <si>
     <t>w</t>
   </si>
   <si>
     <t>of</t>
   </si>
   <si>
-    <t>"ability of a permanent"</t>
-  </si>
-  <si>
     <t>qər</t>
   </si>
   <si>
     <t>with</t>
   </si>
   <si>
-    <t>"destroy all permanents with counters"</t>
-  </si>
-  <si>
     <t>gr</t>
   </si>
   <si>
@@ -2750,54 +2720,36 @@
     <t>prefix, suffix</t>
   </si>
   <si>
-    <t>"more/less than"</t>
-  </si>
-  <si>
     <t>pl</t>
   </si>
   <si>
     <t>completion</t>
   </si>
   <si>
-    <t>"Complete (prefix + make)"</t>
-  </si>
-  <si>
     <t>plθ</t>
   </si>
   <si>
     <t>not-completion</t>
   </si>
   <si>
-    <t>"half, rounded down (prefix + not + two + amounts)"</t>
-  </si>
-  <si>
     <t>pn</t>
   </si>
   <si>
     <t>greater</t>
   </si>
   <si>
-    <t>"Vigilance (ability + prefix + see)"</t>
-  </si>
-  <si>
     <t>ke</t>
   </si>
   <si>
     <t>collective</t>
   </si>
   <si>
-    <t>"world (prefix + land)"</t>
-  </si>
-  <si>
     <t>ɣwi</t>
   </si>
   <si>
     <t>ability</t>
   </si>
   <si>
-    <t>"Immortality (prefix + un + death)"</t>
-  </si>
-  <si>
     <t>tč</t>
   </si>
   <si>
@@ -2810,9 +2762,6 @@
     <t>suffix</t>
   </si>
   <si>
-    <t>Number-related. "Top (first) card of your library "</t>
-  </si>
-  <si>
     <t>xe_'ə</t>
   </si>
   <si>
@@ -2822,10 +2771,61 @@
     <t>indicate frequency</t>
   </si>
   <si>
-    <t>Number-related. "once per turn"</t>
-  </si>
-  <si>
     <t>poor</t>
+  </si>
+  <si>
+    <t>'return this to your hand'</t>
+  </si>
+  <si>
+    <t>'put a counter on this'</t>
+  </si>
+  <si>
+    <t>'target card in your graveyard'</t>
+  </si>
+  <si>
+    <t>'until your next turn'</t>
+  </si>
+  <si>
+    <t>'you can do this for this turn'</t>
+  </si>
+  <si>
+    <t>'produce mana of any type'</t>
+  </si>
+  <si>
+    <t>'sacrifice this creature'</t>
+  </si>
+  <si>
+    <t>'a card from your deck'</t>
+  </si>
+  <si>
+    <t>'ability of a permanent'</t>
+  </si>
+  <si>
+    <t>'destroy all permanents with counters'</t>
+  </si>
+  <si>
+    <t>'more/less than'</t>
+  </si>
+  <si>
+    <t>'Complete (prefix + make)'</t>
+  </si>
+  <si>
+    <t>'half, rounded down (prefix + not + two + amounts)'</t>
+  </si>
+  <si>
+    <t>'Vigilance (ability + prefix + see)'</t>
+  </si>
+  <si>
+    <t>'world (prefix + land)'</t>
+  </si>
+  <si>
+    <t>'Immortality (prefix + un + death)'</t>
+  </si>
+  <si>
+    <t>Number-related. 'Top (first) card of your library '</t>
+  </si>
+  <si>
+    <t>Number-related. 'once per turn'</t>
   </si>
 </sst>
 </file>
@@ -3224,7 +3224,7 @@
   <dimension ref="A1:L280"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="G231" sqref="G231:G280"/>
+      <selection activeCell="N270" sqref="N270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3237,6 +3237,7 @@
     <col min="6" max="6" width="12.21875" customWidth="1"/>
     <col min="8" max="8" width="12.77734375" customWidth="1"/>
     <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -10480,7 +10481,7 @@
         <v>815</v>
       </c>
       <c r="L254" t="s">
-        <v>930</v>
+        <v>912</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.3">
@@ -10777,7 +10778,7 @@
         <v>1</v>
       </c>
       <c r="J263" t="s">
-        <v>871</v>
+        <v>913</v>
       </c>
       <c r="K263" t="s">
         <v>815</v>
@@ -10788,16 +10789,16 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
+        <v>871</v>
+      </c>
+      <c r="B264" t="s">
         <v>872</v>
       </c>
-      <c r="B264" t="s">
+      <c r="C264" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D264" s="5" t="s">
         <v>873</v>
-      </c>
-      <c r="C264" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D264" s="5" t="s">
-        <v>874</v>
       </c>
       <c r="E264" s="5" t="b">
         <v>0</v>
@@ -10812,7 +10813,7 @@
         <v>1</v>
       </c>
       <c r="J264" t="s">
-        <v>875</v>
+        <v>914</v>
       </c>
       <c r="K264" t="s">
         <v>815</v>
@@ -10823,16 +10824,16 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B265" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C265" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E265" s="5" t="b">
         <v>0</v>
@@ -10847,7 +10848,7 @@
         <v>1</v>
       </c>
       <c r="J265" t="s">
-        <v>878</v>
+        <v>915</v>
       </c>
       <c r="K265" t="s">
         <v>815</v>
@@ -10858,16 +10859,16 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B266" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="C266" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E266" s="5" t="b">
         <v>0</v>
@@ -10882,7 +10883,7 @@
         <v>1</v>
       </c>
       <c r="J266" t="s">
-        <v>882</v>
+        <v>916</v>
       </c>
       <c r="K266" t="s">
         <v>815</v>
@@ -10902,7 +10903,7 @@
         <v>0</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="E267" s="5" t="b">
         <v>0</v>
@@ -10917,7 +10918,7 @@
         <v>1</v>
       </c>
       <c r="J267" t="s">
-        <v>884</v>
+        <v>917</v>
       </c>
       <c r="K267" t="s">
         <v>815</v>
@@ -10928,16 +10929,16 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="B268" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="C268" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="E268" s="5" t="b">
         <v>0</v>
@@ -10952,7 +10953,7 @@
         <v>1</v>
       </c>
       <c r="J268" t="s">
-        <v>888</v>
+        <v>918</v>
       </c>
       <c r="K268" t="s">
         <v>815</v>
@@ -10963,16 +10964,16 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="B269" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="C269" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="E269" s="5" t="b">
         <v>0</v>
@@ -10987,7 +10988,7 @@
         <v>1</v>
       </c>
       <c r="J269" t="s">
-        <v>891</v>
+        <v>919</v>
       </c>
       <c r="K269" t="s">
         <v>815</v>
@@ -10998,16 +10999,16 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="B270" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="C270" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="E270" s="5" t="b">
         <v>0</v>
@@ -11022,7 +11023,7 @@
         <v>1</v>
       </c>
       <c r="J270" t="s">
-        <v>895</v>
+        <v>920</v>
       </c>
       <c r="K270" t="s">
         <v>815</v>
@@ -11033,16 +11034,16 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="B271" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="C271" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="E271" s="5" t="b">
         <v>0</v>
@@ -11057,7 +11058,7 @@
         <v>1</v>
       </c>
       <c r="J271" t="s">
-        <v>898</v>
+        <v>921</v>
       </c>
       <c r="K271" t="s">
         <v>815</v>
@@ -11068,16 +11069,16 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="B272" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="C272" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="E272" s="5" t="b">
         <v>0</v>
@@ -11092,7 +11093,7 @@
         <v>1</v>
       </c>
       <c r="J272" t="s">
-        <v>901</v>
+        <v>922</v>
       </c>
       <c r="K272" t="s">
         <v>815</v>
@@ -11103,16 +11104,16 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="B273" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="C273" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="E273" s="5" t="b">
         <v>0</v>
@@ -11121,13 +11122,13 @@
         <v>0</v>
       </c>
       <c r="H273" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="I273" t="b">
         <v>1</v>
       </c>
       <c r="J273" t="s">
-        <v>905</v>
+        <v>923</v>
       </c>
       <c r="K273" t="s">
         <v>815</v>
@@ -11138,16 +11139,16 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="B274" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="C274" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E274" s="5" t="b">
         <v>0</v>
@@ -11162,7 +11163,7 @@
         <v>1</v>
       </c>
       <c r="J274" t="s">
-        <v>908</v>
+        <v>924</v>
       </c>
       <c r="K274" t="s">
         <v>815</v>
@@ -11173,16 +11174,16 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="B275" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="C275" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="E275" s="5" t="b">
         <v>0</v>
@@ -11197,7 +11198,7 @@
         <v>1</v>
       </c>
       <c r="J275" t="s">
-        <v>911</v>
+        <v>925</v>
       </c>
       <c r="K275" t="s">
         <v>815</v>
@@ -11208,16 +11209,16 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="B276" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="C276" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
       <c r="E276" s="5" t="b">
         <v>0</v>
@@ -11232,7 +11233,7 @@
         <v>1</v>
       </c>
       <c r="J276" t="s">
-        <v>914</v>
+        <v>926</v>
       </c>
       <c r="K276" t="s">
         <v>815</v>
@@ -11243,16 +11244,16 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
       <c r="B277" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
       <c r="C277" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="E277" s="5" t="b">
         <v>0</v>
@@ -11267,7 +11268,7 @@
         <v>1</v>
       </c>
       <c r="J277" t="s">
-        <v>917</v>
+        <v>927</v>
       </c>
       <c r="K277" t="s">
         <v>815</v>
@@ -11278,16 +11279,16 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>918</v>
+        <v>903</v>
       </c>
       <c r="B278" t="s">
-        <v>918</v>
+        <v>903</v>
       </c>
       <c r="C278" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>919</v>
+        <v>904</v>
       </c>
       <c r="E278" s="5" t="b">
         <v>0</v>
@@ -11302,7 +11303,7 @@
         <v>1</v>
       </c>
       <c r="J278" t="s">
-        <v>920</v>
+        <v>928</v>
       </c>
       <c r="K278" t="s">
         <v>815</v>
@@ -11313,16 +11314,16 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>921</v>
+        <v>905</v>
       </c>
       <c r="B279" t="s">
-        <v>922</v>
+        <v>906</v>
       </c>
       <c r="C279" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D279" t="s">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E279" s="5" t="b">
         <v>0</v>
@@ -11331,13 +11332,13 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>924</v>
+        <v>908</v>
       </c>
       <c r="I279" t="b">
         <v>1</v>
       </c>
       <c r="J279" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="K279" t="s">
         <v>815</v>
@@ -11348,16 +11349,16 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>926</v>
+        <v>909</v>
       </c>
       <c r="B280" t="s">
-        <v>927</v>
+        <v>910</v>
       </c>
       <c r="C280" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D280" t="s">
-        <v>928</v>
+        <v>911</v>
       </c>
       <c r="E280" s="5" t="b">
         <v>0</v>
@@ -11366,13 +11367,13 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="I280" t="b">
         <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="K280" t="s">
         <v>815</v>

--- a/data/compleat_wiki_man.xlsx
+++ b/data/compleat_wiki_man.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\GitHub\PhyrexianDictionary\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009160DF-8CB6-44B9-BC74-E9D7A28842C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C75C42-3BC2-4BF4-BFD6-2B65D3761EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2588,9 +2588,6 @@
     <t>əq</t>
   </si>
   <si>
-    <t>"Unless"</t>
-  </si>
-  <si>
     <t>xẅots</t>
   </si>
   <si>
@@ -2826,6 +2823,9 @@
   </si>
   <si>
     <t>Number-related. 'once per turn'</t>
+  </si>
+  <si>
+    <t>'Unless'</t>
   </si>
 </sst>
 </file>
@@ -2904,7 +2904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2915,6 +2915,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3223,8 +3226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="N270" sqref="N270"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="D257" sqref="D257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10481,7 +10484,7 @@
         <v>815</v>
       </c>
       <c r="L254" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.3">
@@ -10558,8 +10561,8 @@
       <c r="C257" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D257" s="5" t="s">
-        <v>851</v>
+      <c r="D257" s="6" t="s">
+        <v>930</v>
       </c>
       <c r="E257" s="5" t="b">
         <v>0</v>
@@ -10582,16 +10585,16 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
+        <v>851</v>
+      </c>
+      <c r="B258" t="s">
         <v>852</v>
       </c>
-      <c r="B258" t="s">
+      <c r="C258" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D258" s="5" t="s">
         <v>853</v>
-      </c>
-      <c r="C258" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D258" s="5" t="s">
-        <v>854</v>
       </c>
       <c r="E258" s="5" t="b">
         <v>0</v>
@@ -10614,16 +10617,16 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
+        <v>854</v>
+      </c>
+      <c r="B259" t="s">
+        <v>854</v>
+      </c>
+      <c r="C259" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D259" s="5" t="s">
         <v>855</v>
-      </c>
-      <c r="B259" t="s">
-        <v>855</v>
-      </c>
-      <c r="C259" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D259" s="5" t="s">
-        <v>856</v>
       </c>
       <c r="E259" s="5" t="b">
         <v>0</v>
@@ -10638,7 +10641,7 @@
         <v>1</v>
       </c>
       <c r="J259" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K259" t="s">
         <v>815</v>
@@ -10649,16 +10652,16 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
+        <v>857</v>
+      </c>
+      <c r="B260" t="s">
+        <v>857</v>
+      </c>
+      <c r="C260" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D260" s="5" t="s">
         <v>858</v>
-      </c>
-      <c r="B260" t="s">
-        <v>858</v>
-      </c>
-      <c r="C260" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D260" s="5" t="s">
-        <v>859</v>
       </c>
       <c r="E260" s="5" t="b">
         <v>0</v>
@@ -10673,7 +10676,7 @@
         <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="K260" t="s">
         <v>815</v>
@@ -10684,16 +10687,16 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
+        <v>860</v>
+      </c>
+      <c r="B261" t="s">
+        <v>860</v>
+      </c>
+      <c r="C261" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D261" s="5" t="s">
         <v>861</v>
-      </c>
-      <c r="B261" t="s">
-        <v>861</v>
-      </c>
-      <c r="C261" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D261" s="5" t="s">
-        <v>862</v>
       </c>
       <c r="E261" s="5" t="b">
         <v>0</v>
@@ -10708,7 +10711,7 @@
         <v>1</v>
       </c>
       <c r="J261" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="K261" t="s">
         <v>815</v>
@@ -10719,16 +10722,16 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
+        <v>863</v>
+      </c>
+      <c r="B262" t="s">
         <v>864</v>
       </c>
-      <c r="B262" t="s">
+      <c r="C262" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D262" s="5" t="s">
         <v>865</v>
-      </c>
-      <c r="C262" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D262" s="5" t="s">
-        <v>866</v>
       </c>
       <c r="E262" s="5" t="b">
         <v>0</v>
@@ -10743,7 +10746,7 @@
         <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="K262" t="s">
         <v>815</v>
@@ -10754,31 +10757,31 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
+        <v>867</v>
+      </c>
+      <c r="B263" t="s">
+        <v>867</v>
+      </c>
+      <c r="C263" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D263" s="5" t="s">
         <v>868</v>
       </c>
-      <c r="B263" t="s">
-        <v>868</v>
-      </c>
-      <c r="C263" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D263" s="5" t="s">
+      <c r="E263" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F263" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H263" t="s">
         <v>869</v>
       </c>
-      <c r="E263" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F263" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H263" t="s">
-        <v>870</v>
-      </c>
       <c r="I263" t="b">
         <v>1</v>
       </c>
       <c r="J263" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="K263" t="s">
         <v>815</v>
@@ -10789,17 +10792,17 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
+        <v>870</v>
+      </c>
+      <c r="B264" t="s">
         <v>871</v>
       </c>
-      <c r="B264" t="s">
+      <c r="C264" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D264" s="5" t="s">
         <v>872</v>
       </c>
-      <c r="C264" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D264" s="5" t="s">
-        <v>873</v>
-      </c>
       <c r="E264" s="5" t="b">
         <v>0</v>
       </c>
@@ -10807,13 +10810,13 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I264" t="b">
         <v>1</v>
       </c>
       <c r="J264" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K264" t="s">
         <v>815</v>
@@ -10824,17 +10827,17 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
+        <v>873</v>
+      </c>
+      <c r="B265" t="s">
+        <v>873</v>
+      </c>
+      <c r="C265" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D265" s="5" t="s">
         <v>874</v>
       </c>
-      <c r="B265" t="s">
-        <v>874</v>
-      </c>
-      <c r="C265" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D265" s="5" t="s">
-        <v>875</v>
-      </c>
       <c r="E265" s="5" t="b">
         <v>0</v>
       </c>
@@ -10842,13 +10845,13 @@
         <v>0</v>
       </c>
       <c r="H265" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I265" t="b">
         <v>1</v>
       </c>
       <c r="J265" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="K265" t="s">
         <v>815</v>
@@ -10859,17 +10862,17 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
+        <v>875</v>
+      </c>
+      <c r="B266" t="s">
         <v>876</v>
       </c>
-      <c r="B266" t="s">
+      <c r="C266" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D266" s="5" t="s">
         <v>877</v>
       </c>
-      <c r="C266" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D266" s="5" t="s">
-        <v>878</v>
-      </c>
       <c r="E266" s="5" t="b">
         <v>0</v>
       </c>
@@ -10877,13 +10880,13 @@
         <v>0</v>
       </c>
       <c r="H266" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I266" t="b">
         <v>1</v>
       </c>
       <c r="J266" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="K266" t="s">
         <v>815</v>
@@ -10903,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E267" s="5" t="b">
         <v>0</v>
@@ -10912,13 +10915,13 @@
         <v>0</v>
       </c>
       <c r="H267" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I267" t="b">
         <v>1</v>
       </c>
       <c r="J267" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="K267" t="s">
         <v>815</v>
@@ -10929,17 +10932,17 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="B268" t="s">
         <v>880</v>
       </c>
-      <c r="B268" t="s">
+      <c r="C268" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D268" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="C268" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D268" s="5" t="s">
-        <v>882</v>
-      </c>
       <c r="E268" s="5" t="b">
         <v>0</v>
       </c>
@@ -10947,13 +10950,13 @@
         <v>0</v>
       </c>
       <c r="H268" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I268" t="b">
         <v>1</v>
       </c>
       <c r="J268" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="K268" t="s">
         <v>815</v>
@@ -10964,17 +10967,17 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
+        <v>882</v>
+      </c>
+      <c r="B269" t="s">
+        <v>882</v>
+      </c>
+      <c r="C269" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D269" s="5" t="s">
         <v>883</v>
       </c>
-      <c r="B269" t="s">
-        <v>883</v>
-      </c>
-      <c r="C269" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D269" s="5" t="s">
-        <v>884</v>
-      </c>
       <c r="E269" s="5" t="b">
         <v>0</v>
       </c>
@@ -10982,13 +10985,13 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I269" t="b">
         <v>1</v>
       </c>
       <c r="J269" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="K269" t="s">
         <v>815</v>
@@ -10999,17 +11002,17 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
+        <v>884</v>
+      </c>
+      <c r="B270" t="s">
         <v>885</v>
       </c>
-      <c r="B270" t="s">
+      <c r="C270" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D270" s="5" t="s">
         <v>886</v>
       </c>
-      <c r="C270" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D270" s="5" t="s">
-        <v>887</v>
-      </c>
       <c r="E270" s="5" t="b">
         <v>0</v>
       </c>
@@ -11017,13 +11020,13 @@
         <v>0</v>
       </c>
       <c r="H270" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I270" t="b">
         <v>1</v>
       </c>
       <c r="J270" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="K270" t="s">
         <v>815</v>
@@ -11034,17 +11037,17 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
+        <v>887</v>
+      </c>
+      <c r="B271" t="s">
+        <v>887</v>
+      </c>
+      <c r="C271" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D271" s="5" t="s">
         <v>888</v>
       </c>
-      <c r="B271" t="s">
-        <v>888</v>
-      </c>
-      <c r="C271" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D271" s="5" t="s">
-        <v>889</v>
-      </c>
       <c r="E271" s="5" t="b">
         <v>0</v>
       </c>
@@ -11052,13 +11055,13 @@
         <v>0</v>
       </c>
       <c r="H271" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I271" t="b">
         <v>1</v>
       </c>
       <c r="J271" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="K271" t="s">
         <v>815</v>
@@ -11069,17 +11072,17 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
+        <v>889</v>
+      </c>
+      <c r="B272" t="s">
+        <v>889</v>
+      </c>
+      <c r="C272" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D272" s="5" t="s">
         <v>890</v>
       </c>
-      <c r="B272" t="s">
-        <v>890</v>
-      </c>
-      <c r="C272" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D272" s="5" t="s">
-        <v>891</v>
-      </c>
       <c r="E272" s="5" t="b">
         <v>0</v>
       </c>
@@ -11087,13 +11090,13 @@
         <v>0</v>
       </c>
       <c r="H272" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I272" t="b">
         <v>1</v>
       </c>
       <c r="J272" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="K272" t="s">
         <v>815</v>
@@ -11104,31 +11107,31 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
+        <v>891</v>
+      </c>
+      <c r="B273" t="s">
+        <v>891</v>
+      </c>
+      <c r="C273" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D273" s="5" t="s">
         <v>892</v>
       </c>
-      <c r="B273" t="s">
-        <v>892</v>
-      </c>
-      <c r="C273" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D273" s="5" t="s">
+      <c r="E273" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F273" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H273" t="s">
         <v>893</v>
       </c>
-      <c r="E273" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F273" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H273" t="s">
-        <v>894</v>
-      </c>
       <c r="I273" t="b">
         <v>1</v>
       </c>
       <c r="J273" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="K273" t="s">
         <v>815</v>
@@ -11139,17 +11142,17 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
+        <v>894</v>
+      </c>
+      <c r="B274" t="s">
+        <v>894</v>
+      </c>
+      <c r="C274" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D274" s="5" t="s">
         <v>895</v>
       </c>
-      <c r="B274" t="s">
-        <v>895</v>
-      </c>
-      <c r="C274" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D274" s="5" t="s">
-        <v>896</v>
-      </c>
       <c r="E274" s="5" t="b">
         <v>0</v>
       </c>
@@ -11157,13 +11160,13 @@
         <v>0</v>
       </c>
       <c r="H274" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I274" t="b">
         <v>1</v>
       </c>
       <c r="J274" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="K274" t="s">
         <v>815</v>
@@ -11174,17 +11177,17 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
+        <v>896</v>
+      </c>
+      <c r="B275" t="s">
+        <v>896</v>
+      </c>
+      <c r="C275" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D275" s="5" t="s">
         <v>897</v>
       </c>
-      <c r="B275" t="s">
-        <v>897</v>
-      </c>
-      <c r="C275" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D275" s="5" t="s">
-        <v>898</v>
-      </c>
       <c r="E275" s="5" t="b">
         <v>0</v>
       </c>
@@ -11192,13 +11195,13 @@
         <v>0</v>
       </c>
       <c r="H275" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I275" t="b">
         <v>1</v>
       </c>
       <c r="J275" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="K275" t="s">
         <v>815</v>
@@ -11209,17 +11212,17 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
+        <v>898</v>
+      </c>
+      <c r="B276" t="s">
+        <v>898</v>
+      </c>
+      <c r="C276" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D276" s="5" t="s">
         <v>899</v>
       </c>
-      <c r="B276" t="s">
-        <v>899</v>
-      </c>
-      <c r="C276" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D276" s="5" t="s">
-        <v>900</v>
-      </c>
       <c r="E276" s="5" t="b">
         <v>0</v>
       </c>
@@ -11227,13 +11230,13 @@
         <v>0</v>
       </c>
       <c r="H276" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I276" t="b">
         <v>1</v>
       </c>
       <c r="J276" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="K276" t="s">
         <v>815</v>
@@ -11244,17 +11247,17 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
+        <v>900</v>
+      </c>
+      <c r="B277" t="s">
+        <v>900</v>
+      </c>
+      <c r="C277" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D277" s="5" t="s">
         <v>901</v>
       </c>
-      <c r="B277" t="s">
-        <v>901</v>
-      </c>
-      <c r="C277" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D277" s="5" t="s">
-        <v>902</v>
-      </c>
       <c r="E277" s="5" t="b">
         <v>0</v>
       </c>
@@ -11262,13 +11265,13 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I277" t="b">
         <v>1</v>
       </c>
       <c r="J277" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="K277" t="s">
         <v>815</v>
@@ -11279,17 +11282,17 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
+        <v>902</v>
+      </c>
+      <c r="B278" t="s">
+        <v>902</v>
+      </c>
+      <c r="C278" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D278" s="5" t="s">
         <v>903</v>
       </c>
-      <c r="B278" t="s">
-        <v>903</v>
-      </c>
-      <c r="C278" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D278" s="5" t="s">
-        <v>904</v>
-      </c>
       <c r="E278" s="5" t="b">
         <v>0</v>
       </c>
@@ -11297,13 +11300,13 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I278" t="b">
         <v>1</v>
       </c>
       <c r="J278" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K278" t="s">
         <v>815</v>
@@ -11314,31 +11317,31 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
+        <v>904</v>
+      </c>
+      <c r="B279" t="s">
         <v>905</v>
       </c>
-      <c r="B279" t="s">
+      <c r="C279" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D279" t="s">
         <v>906</v>
       </c>
-      <c r="C279" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D279" t="s">
+      <c r="E279" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F279" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H279" t="s">
         <v>907</v>
       </c>
-      <c r="E279" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F279" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H279" t="s">
-        <v>908</v>
-      </c>
       <c r="I279" t="b">
         <v>1</v>
       </c>
       <c r="J279" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K279" t="s">
         <v>815</v>
@@ -11349,17 +11352,17 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
+        <v>908</v>
+      </c>
+      <c r="B280" t="s">
         <v>909</v>
       </c>
-      <c r="B280" t="s">
+      <c r="C280" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D280" t="s">
         <v>910</v>
       </c>
-      <c r="C280" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D280" t="s">
-        <v>911</v>
-      </c>
       <c r="E280" s="5" t="b">
         <v>0</v>
       </c>
@@ -11367,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I280" t="b">
         <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="K280" t="s">
         <v>815</v>

--- a/data/compleat_wiki_man.xlsx
+++ b/data/compleat_wiki_man.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\GitHub\PhyrexianDictionary\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C75C42-3BC2-4BF4-BFD6-2B65D3761EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EBDD32-8CFB-4D67-BEE3-3620A60FE385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3226,8 +3226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="D257" sqref="D257"/>
+    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
+      <selection activeCell="G234" sqref="G234:G280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/compleat_wiki_man.xlsx
+++ b/data/compleat_wiki_man.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\GitHub\PhyrexianDictionary\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EBDD32-8CFB-4D67-BEE3-3620A60FE385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD41FBDA-6126-4864-856C-82D51992C9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="866">
   <si>
     <t>IPA</t>
   </si>
@@ -2477,12 +2477,6 @@
     <t>Indicative, Present</t>
   </si>
   <si>
-    <t>mood</t>
-  </si>
-  <si>
-    <t>particle</t>
-  </si>
-  <si>
     <t>'u</t>
   </si>
   <si>
@@ -2537,9 +2531,6 @@
     <t>Alternative (or)</t>
   </si>
   <si>
-    <t>mood, suffix</t>
-  </si>
-  <si>
     <t>xə</t>
   </si>
   <si>
@@ -2552,21 +2543,12 @@
     <t>Negative (un-, not)</t>
   </si>
   <si>
-    <t>mood, prefix</t>
-  </si>
-  <si>
     <t>əl</t>
   </si>
   <si>
     <t>negative (anti-affirmative/double negative)</t>
   </si>
   <si>
-    <t>'a</t>
-  </si>
-  <si>
-    <t>ʔa</t>
-  </si>
-  <si>
     <t>obligation/necessity (must)</t>
   </si>
   <si>
@@ -2636,196 +2618,19 @@
     <t>Paired with past</t>
   </si>
   <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>to (spatial)</t>
-  </si>
-  <si>
-    <t>prefix</t>
-  </si>
-  <si>
-    <t>əšq</t>
-  </si>
-  <si>
-    <t>əʃq</t>
-  </si>
-  <si>
-    <t>on (spatial)</t>
-  </si>
-  <si>
-    <t>dl</t>
-  </si>
-  <si>
-    <t>in (spatial)</t>
-  </si>
-  <si>
-    <t>φɒ'</t>
-  </si>
-  <si>
-    <t>φɒʔ</t>
-  </si>
-  <si>
-    <t>until (temporal)</t>
-  </si>
-  <si>
-    <t>for (temporal)</t>
-  </si>
-  <si>
-    <t>'ɒp</t>
-  </si>
-  <si>
-    <t>ʔɒp</t>
-  </si>
-  <si>
-    <t>any</t>
-  </si>
-  <si>
-    <t>ɢə</t>
-  </si>
-  <si>
-    <t>this/that</t>
-  </si>
-  <si>
-    <t>ɣẅ</t>
-  </si>
-  <si>
-    <t>ɣɯ</t>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>qər</t>
-  </si>
-  <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>than</t>
-  </si>
-  <si>
-    <t>prefix, suffix</t>
-  </si>
-  <si>
-    <t>pl</t>
-  </si>
-  <si>
-    <t>completion</t>
-  </si>
-  <si>
-    <t>plθ</t>
-  </si>
-  <si>
-    <t>not-completion</t>
-  </si>
-  <si>
-    <t>pn</t>
-  </si>
-  <si>
-    <t>greater</t>
-  </si>
-  <si>
-    <t>ke</t>
-  </si>
-  <si>
-    <t>collective</t>
-  </si>
-  <si>
-    <t>ɣwi</t>
-  </si>
-  <si>
-    <t>ability</t>
-  </si>
-  <si>
-    <t>tč</t>
-  </si>
-  <si>
-    <t>ttʃ</t>
-  </si>
-  <si>
-    <t>indicate order</t>
-  </si>
-  <si>
-    <t>suffix</t>
-  </si>
-  <si>
-    <t>xe_'ə</t>
-  </si>
-  <si>
-    <t>xe_ʔə</t>
-  </si>
-  <si>
-    <t>indicate frequency</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>'return this to your hand'</t>
-  </si>
-  <si>
-    <t>'put a counter on this'</t>
-  </si>
-  <si>
-    <t>'target card in your graveyard'</t>
-  </si>
-  <si>
-    <t>'until your next turn'</t>
-  </si>
-  <si>
-    <t>'you can do this for this turn'</t>
-  </si>
-  <si>
-    <t>'produce mana of any type'</t>
-  </si>
-  <si>
-    <t>'sacrifice this creature'</t>
-  </si>
-  <si>
-    <t>'a card from your deck'</t>
-  </si>
-  <si>
-    <t>'ability of a permanent'</t>
-  </si>
-  <si>
-    <t>'destroy all permanents with counters'</t>
-  </si>
-  <si>
-    <t>'more/less than'</t>
-  </si>
-  <si>
-    <t>'Complete (prefix + make)'</t>
-  </si>
-  <si>
-    <t>'half, rounded down (prefix + not + two + amounts)'</t>
-  </si>
-  <si>
-    <t>'Vigilance (ability + prefix + see)'</t>
-  </si>
-  <si>
-    <t>'world (prefix + land)'</t>
-  </si>
-  <si>
-    <t>'Immortality (prefix + un + death)'</t>
-  </si>
-  <si>
-    <t>Number-related. 'Top (first) card of your library '</t>
-  </si>
-  <si>
-    <t>Number-related. 'once per turn'</t>
-  </si>
-  <si>
     <t>'Unless'</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>marker</t>
   </si>
 </sst>
 </file>
@@ -3226,8 +3031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="G234" sqref="G234:G280"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="J242" sqref="J242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6365,7 +6170,7 @@
         <v>1</v>
       </c>
       <c r="K110" t="s">
-        <v>581</v>
+        <v>863</v>
       </c>
       <c r="L110" t="s">
         <v>809</v>
@@ -6394,7 +6199,7 @@
         <v>1</v>
       </c>
       <c r="K111" t="s">
-        <v>581</v>
+        <v>863</v>
       </c>
       <c r="L111" t="s">
         <v>809</v>
@@ -6423,7 +6228,7 @@
         <v>1</v>
       </c>
       <c r="K112" t="s">
-        <v>581</v>
+        <v>863</v>
       </c>
       <c r="L112" t="s">
         <v>809</v>
@@ -10090,14 +9895,11 @@
       <c r="F242" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H242" t="s">
-        <v>814</v>
-      </c>
       <c r="I242" t="b">
         <v>1</v>
       </c>
       <c r="K242" t="s">
-        <v>815</v>
+        <v>865</v>
       </c>
       <c r="L242" t="s">
         <v>809</v>
@@ -10105,31 +9907,28 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B243" t="s">
+        <v>815</v>
+      </c>
+      <c r="C243" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D243" s="5" t="s">
         <v>816</v>
       </c>
-      <c r="B243" t="s">
-        <v>817</v>
-      </c>
-      <c r="C243" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D243" s="5" t="s">
-        <v>818</v>
-      </c>
       <c r="E243" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F243" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H243" t="s">
-        <v>814</v>
-      </c>
       <c r="I243" t="b">
         <v>1</v>
       </c>
       <c r="K243" t="s">
-        <v>815</v>
+        <v>865</v>
       </c>
       <c r="L243" t="s">
         <v>809</v>
@@ -10137,16 +9936,16 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B244" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C244" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D244" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E244" s="5" t="b">
         <v>0</v>
@@ -10154,14 +9953,11 @@
       <c r="F244" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H244" t="s">
-        <v>814</v>
-      </c>
       <c r="I244" t="b">
         <v>1</v>
       </c>
       <c r="K244" t="s">
-        <v>815</v>
+        <v>865</v>
       </c>
       <c r="L244" t="s">
         <v>809</v>
@@ -10169,31 +9965,28 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
+        <v>819</v>
+      </c>
+      <c r="B245" t="s">
+        <v>820</v>
+      </c>
+      <c r="C245" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D245" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="B245" t="s">
-        <v>822</v>
-      </c>
-      <c r="C245" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D245" s="5" t="s">
-        <v>823</v>
-      </c>
       <c r="E245" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F245" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H245" t="s">
-        <v>814</v>
-      </c>
       <c r="I245" t="b">
         <v>1</v>
       </c>
       <c r="K245" t="s">
-        <v>815</v>
+        <v>865</v>
       </c>
       <c r="L245" t="s">
         <v>809</v>
@@ -10201,16 +9994,16 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B246" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C246" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E246" s="5" t="b">
         <v>0</v>
@@ -10218,14 +10011,11 @@
       <c r="F246" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H246" t="s">
-        <v>814</v>
-      </c>
       <c r="I246" t="b">
         <v>1</v>
       </c>
       <c r="K246" t="s">
-        <v>815</v>
+        <v>865</v>
       </c>
       <c r="L246" t="s">
         <v>809</v>
@@ -10233,16 +10023,16 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B247" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C247" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E247" s="5" t="b">
         <v>0</v>
@@ -10250,14 +10040,11 @@
       <c r="F247" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H247" t="s">
-        <v>814</v>
-      </c>
       <c r="I247" t="b">
         <v>1</v>
       </c>
       <c r="K247" t="s">
-        <v>815</v>
+        <v>865</v>
       </c>
       <c r="L247" t="s">
         <v>809</v>
@@ -10265,16 +10052,16 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B248" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C248" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E248" s="5" t="b">
         <v>0</v>
@@ -10282,14 +10069,11 @@
       <c r="F248" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H248" t="s">
-        <v>814</v>
-      </c>
       <c r="I248" t="b">
         <v>1</v>
       </c>
       <c r="K248" t="s">
-        <v>815</v>
+        <v>865</v>
       </c>
       <c r="L248" t="s">
         <v>809</v>
@@ -10297,16 +10081,16 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B249" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C249" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D249" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E249" s="5" t="b">
         <v>0</v>
@@ -10314,14 +10098,11 @@
       <c r="F249" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H249" t="s">
-        <v>814</v>
-      </c>
       <c r="I249" t="b">
         <v>1</v>
       </c>
       <c r="K249" t="s">
-        <v>815</v>
+        <v>865</v>
       </c>
       <c r="L249" t="s">
         <v>809</v>
@@ -10329,16 +10110,16 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B250" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C250" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E250" s="5" t="b">
         <v>0</v>
@@ -10346,14 +10127,11 @@
       <c r="F250" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H250" t="s">
-        <v>834</v>
-      </c>
       <c r="I250" t="b">
         <v>1</v>
       </c>
       <c r="K250" t="s">
-        <v>815</v>
+        <v>865</v>
       </c>
       <c r="L250" t="s">
         <v>809</v>
@@ -10361,16 +10139,16 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B251" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C251" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="E251" s="5" t="b">
         <v>0</v>
@@ -10378,14 +10156,11 @@
       <c r="F251" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H251" t="s">
-        <v>834</v>
-      </c>
       <c r="I251" t="b">
         <v>1</v>
       </c>
       <c r="K251" t="s">
-        <v>815</v>
+        <v>865</v>
       </c>
       <c r="L251" t="s">
         <v>809</v>
@@ -10393,16 +10168,16 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B252" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C252" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="E252" s="5" t="b">
         <v>0</v>
@@ -10410,14 +10185,11 @@
       <c r="F252" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H252" t="s">
-        <v>839</v>
-      </c>
       <c r="I252" t="b">
         <v>1</v>
       </c>
       <c r="K252" t="s">
-        <v>815</v>
+        <v>865</v>
       </c>
       <c r="L252" t="s">
         <v>809</v>
@@ -10425,16 +10197,16 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B253" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C253" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="E253" s="5" t="b">
         <v>0</v>
@@ -10442,14 +10214,11 @@
       <c r="F253" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H253" t="s">
-        <v>814</v>
-      </c>
       <c r="I253" t="b">
         <v>1</v>
       </c>
       <c r="K253" t="s">
-        <v>815</v>
+        <v>865</v>
       </c>
       <c r="L253" t="s">
         <v>810</v>
@@ -10457,16 +10226,16 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>842</v>
+        <v>864</v>
       </c>
       <c r="B254" t="s">
-        <v>843</v>
+        <v>864</v>
       </c>
       <c r="C254" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="E254" s="5" t="b">
         <v>0</v>
@@ -10474,31 +10243,28 @@
       <c r="F254" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H254" t="s">
-        <v>814</v>
-      </c>
       <c r="I254" t="b">
         <v>1</v>
       </c>
       <c r="K254" t="s">
-        <v>815</v>
+        <v>865</v>
       </c>
       <c r="L254" t="s">
-        <v>911</v>
+        <v>861</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="B255" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="C255" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="E255" s="5" t="b">
         <v>0</v>
@@ -10506,14 +10272,11 @@
       <c r="F255" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H255" t="s">
-        <v>814</v>
-      </c>
       <c r="I255" t="b">
         <v>1</v>
       </c>
       <c r="K255" t="s">
-        <v>815</v>
+        <v>865</v>
       </c>
       <c r="L255" t="s">
         <v>809</v>
@@ -10521,16 +10284,16 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="B256" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="C256" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="E256" s="5" t="b">
         <v>0</v>
@@ -10538,14 +10301,11 @@
       <c r="F256" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H256" t="s">
-        <v>814</v>
-      </c>
       <c r="I256" t="b">
         <v>1</v>
       </c>
       <c r="K256" t="s">
-        <v>815</v>
+        <v>865</v>
       </c>
       <c r="L256" t="s">
         <v>811</v>
@@ -10553,16 +10313,16 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="B257" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="C257" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>930</v>
+        <v>862</v>
       </c>
       <c r="E257" s="5" t="b">
         <v>0</v>
@@ -10570,14 +10330,11 @@
       <c r="F257" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H257" t="s">
-        <v>814</v>
-      </c>
       <c r="I257" t="b">
         <v>1</v>
       </c>
       <c r="K257" t="s">
-        <v>815</v>
+        <v>865</v>
       </c>
       <c r="L257" t="s">
         <v>809</v>
@@ -10585,16 +10342,16 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="B258" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C258" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="E258" s="5" t="b">
         <v>0</v>
@@ -10602,14 +10359,11 @@
       <c r="F258" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H258" t="s">
-        <v>814</v>
-      </c>
       <c r="I258" t="b">
         <v>1</v>
       </c>
       <c r="K258" t="s">
-        <v>815</v>
+        <v>865</v>
       </c>
       <c r="L258" t="s">
         <v>809</v>
@@ -10617,16 +10371,16 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="B259" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C259" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="E259" s="5" t="b">
         <v>0</v>
@@ -10634,17 +10388,14 @@
       <c r="F259" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H259" t="s">
-        <v>814</v>
-      </c>
       <c r="I259" t="b">
         <v>1</v>
       </c>
       <c r="J259" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="K259" t="s">
-        <v>815</v>
+        <v>865</v>
       </c>
       <c r="L259" t="s">
         <v>809</v>
@@ -10652,16 +10403,16 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="B260" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="C260" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="E260" s="5" t="b">
         <v>0</v>
@@ -10669,17 +10420,14 @@
       <c r="F260" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H260" t="s">
-        <v>814</v>
-      </c>
       <c r="I260" t="b">
         <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="K260" t="s">
-        <v>815</v>
+        <v>865</v>
       </c>
       <c r="L260" t="s">
         <v>809</v>
@@ -10687,16 +10435,16 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="B261" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C261" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="E261" s="5" t="b">
         <v>0</v>
@@ -10704,17 +10452,14 @@
       <c r="F261" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H261" t="s">
-        <v>814</v>
-      </c>
       <c r="I261" t="b">
         <v>1</v>
       </c>
       <c r="J261" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="K261" t="s">
-        <v>815</v>
+        <v>865</v>
       </c>
       <c r="L261" t="s">
         <v>809</v>
@@ -10722,668 +10467,142 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B262" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="C262" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D262" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="E262" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F262" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I262" t="b">
+        <v>1</v>
+      </c>
+      <c r="J262" t="s">
+        <v>860</v>
+      </c>
+      <c r="K262" t="s">
         <v>865</v>
       </c>
-      <c r="E262" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F262" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H262" t="s">
-        <v>814</v>
-      </c>
-      <c r="I262" t="b">
-        <v>1</v>
-      </c>
-      <c r="J262" t="s">
-        <v>866</v>
-      </c>
-      <c r="K262" t="s">
-        <v>815</v>
-      </c>
       <c r="L262" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
-        <v>867</v>
-      </c>
-      <c r="B263" t="s">
-        <v>867</v>
-      </c>
-      <c r="C263" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D263" s="5" t="s">
-        <v>868</v>
-      </c>
-      <c r="E263" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F263" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H263" t="s">
-        <v>869</v>
-      </c>
-      <c r="I263" t="b">
-        <v>1</v>
-      </c>
-      <c r="J263" t="s">
-        <v>912</v>
-      </c>
-      <c r="K263" t="s">
-        <v>815</v>
-      </c>
-      <c r="L263" t="s">
-        <v>809</v>
-      </c>
+      <c r="C263" s="5"/>
+      <c r="D263" s="5"/>
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>870</v>
-      </c>
-      <c r="B264" t="s">
-        <v>871</v>
-      </c>
-      <c r="C264" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D264" s="5" t="s">
-        <v>872</v>
-      </c>
-      <c r="E264" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F264" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H264" t="s">
-        <v>869</v>
-      </c>
-      <c r="I264" t="b">
-        <v>1</v>
-      </c>
-      <c r="J264" t="s">
-        <v>913</v>
-      </c>
-      <c r="K264" t="s">
-        <v>815</v>
-      </c>
-      <c r="L264" t="s">
-        <v>809</v>
-      </c>
+      <c r="C264" s="5"/>
+      <c r="D264" s="5"/>
+      <c r="E264" s="5"/>
+      <c r="F264" s="5"/>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>873</v>
-      </c>
-      <c r="B265" t="s">
-        <v>873</v>
-      </c>
-      <c r="C265" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D265" s="5" t="s">
-        <v>874</v>
-      </c>
-      <c r="E265" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F265" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H265" t="s">
-        <v>869</v>
-      </c>
-      <c r="I265" t="b">
-        <v>1</v>
-      </c>
-      <c r="J265" t="s">
-        <v>914</v>
-      </c>
-      <c r="K265" t="s">
-        <v>815</v>
-      </c>
-      <c r="L265" t="s">
-        <v>809</v>
-      </c>
+      <c r="C265" s="5"/>
+      <c r="D265" s="5"/>
+      <c r="E265" s="5"/>
+      <c r="F265" s="5"/>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>875</v>
-      </c>
-      <c r="B266" t="s">
-        <v>876</v>
-      </c>
-      <c r="C266" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D266" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="E266" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F266" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H266" t="s">
-        <v>869</v>
-      </c>
-      <c r="I266" t="b">
-        <v>1</v>
-      </c>
-      <c r="J266" t="s">
-        <v>915</v>
-      </c>
-      <c r="K266" t="s">
-        <v>815</v>
-      </c>
-      <c r="L266" t="s">
-        <v>809</v>
-      </c>
+      <c r="C266" s="5"/>
+      <c r="D266" s="5"/>
+      <c r="E266" s="5"/>
+      <c r="F266" s="5"/>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
-        <v>418</v>
-      </c>
-      <c r="B267" t="s">
-        <v>563</v>
-      </c>
-      <c r="C267" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D267" s="5" t="s">
-        <v>878</v>
-      </c>
-      <c r="E267" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F267" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H267" t="s">
-        <v>869</v>
-      </c>
-      <c r="I267" t="b">
-        <v>1</v>
-      </c>
-      <c r="J267" t="s">
-        <v>916</v>
-      </c>
-      <c r="K267" t="s">
-        <v>815</v>
-      </c>
-      <c r="L267" t="s">
-        <v>809</v>
-      </c>
+      <c r="C267" s="5"/>
+      <c r="D267" s="5"/>
+      <c r="E267" s="5"/>
+      <c r="F267" s="5"/>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A268" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="B268" t="s">
-        <v>880</v>
-      </c>
-      <c r="C268" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D268" s="5" t="s">
-        <v>881</v>
-      </c>
-      <c r="E268" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F268" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H268" t="s">
-        <v>869</v>
-      </c>
-      <c r="I268" t="b">
-        <v>1</v>
-      </c>
-      <c r="J268" t="s">
-        <v>917</v>
-      </c>
-      <c r="K268" t="s">
-        <v>815</v>
-      </c>
-      <c r="L268" t="s">
-        <v>809</v>
-      </c>
+      <c r="A268" s="2"/>
+      <c r="C268" s="5"/>
+      <c r="D268" s="5"/>
+      <c r="E268" s="5"/>
+      <c r="F268" s="5"/>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
-        <v>882</v>
-      </c>
-      <c r="B269" t="s">
-        <v>882</v>
-      </c>
-      <c r="C269" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D269" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="E269" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F269" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H269" t="s">
-        <v>869</v>
-      </c>
-      <c r="I269" t="b">
-        <v>1</v>
-      </c>
-      <c r="J269" t="s">
-        <v>918</v>
-      </c>
-      <c r="K269" t="s">
-        <v>815</v>
-      </c>
-      <c r="L269" t="s">
-        <v>809</v>
-      </c>
+      <c r="C269" s="5"/>
+      <c r="D269" s="5"/>
+      <c r="E269" s="5"/>
+      <c r="F269" s="5"/>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
-        <v>884</v>
-      </c>
-      <c r="B270" t="s">
-        <v>885</v>
-      </c>
-      <c r="C270" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D270" s="5" t="s">
-        <v>886</v>
-      </c>
-      <c r="E270" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F270" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H270" t="s">
-        <v>869</v>
-      </c>
-      <c r="I270" t="b">
-        <v>1</v>
-      </c>
-      <c r="J270" t="s">
-        <v>919</v>
-      </c>
-      <c r="K270" t="s">
-        <v>815</v>
-      </c>
-      <c r="L270" t="s">
-        <v>809</v>
-      </c>
+      <c r="C270" s="5"/>
+      <c r="D270" s="5"/>
+      <c r="E270" s="5"/>
+      <c r="F270" s="5"/>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
-        <v>887</v>
-      </c>
-      <c r="B271" t="s">
-        <v>887</v>
-      </c>
-      <c r="C271" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D271" s="5" t="s">
-        <v>888</v>
-      </c>
-      <c r="E271" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F271" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H271" t="s">
-        <v>869</v>
-      </c>
-      <c r="I271" t="b">
-        <v>1</v>
-      </c>
-      <c r="J271" t="s">
-        <v>920</v>
-      </c>
-      <c r="K271" t="s">
-        <v>815</v>
-      </c>
-      <c r="L271" t="s">
-        <v>810</v>
-      </c>
+      <c r="C271" s="5"/>
+      <c r="D271" s="5"/>
+      <c r="E271" s="5"/>
+      <c r="F271" s="5"/>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
-        <v>889</v>
-      </c>
-      <c r="B272" t="s">
-        <v>889</v>
-      </c>
-      <c r="C272" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D272" s="5" t="s">
-        <v>890</v>
-      </c>
-      <c r="E272" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F272" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H272" t="s">
-        <v>869</v>
-      </c>
-      <c r="I272" t="b">
-        <v>1</v>
-      </c>
-      <c r="J272" t="s">
-        <v>921</v>
-      </c>
-      <c r="K272" t="s">
-        <v>815</v>
-      </c>
-      <c r="L272" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
-        <v>891</v>
-      </c>
-      <c r="B273" t="s">
-        <v>891</v>
-      </c>
-      <c r="C273" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D273" s="5" t="s">
-        <v>892</v>
-      </c>
-      <c r="E273" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F273" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H273" t="s">
-        <v>893</v>
-      </c>
-      <c r="I273" t="b">
-        <v>1</v>
-      </c>
-      <c r="J273" t="s">
-        <v>922</v>
-      </c>
-      <c r="K273" t="s">
-        <v>815</v>
-      </c>
-      <c r="L273" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
-        <v>894</v>
-      </c>
-      <c r="B274" t="s">
-        <v>894</v>
-      </c>
-      <c r="C274" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D274" s="5" t="s">
-        <v>895</v>
-      </c>
-      <c r="E274" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F274" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H274" t="s">
-        <v>869</v>
-      </c>
-      <c r="I274" t="b">
-        <v>1</v>
-      </c>
-      <c r="J274" t="s">
-        <v>923</v>
-      </c>
-      <c r="K274" t="s">
-        <v>815</v>
-      </c>
-      <c r="L274" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
-        <v>896</v>
-      </c>
-      <c r="B275" t="s">
-        <v>896</v>
-      </c>
-      <c r="C275" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D275" s="5" t="s">
-        <v>897</v>
-      </c>
-      <c r="E275" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F275" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H275" t="s">
-        <v>869</v>
-      </c>
-      <c r="I275" t="b">
-        <v>1</v>
-      </c>
-      <c r="J275" t="s">
-        <v>924</v>
-      </c>
-      <c r="K275" t="s">
-        <v>815</v>
-      </c>
-      <c r="L275" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
-        <v>898</v>
-      </c>
-      <c r="B276" t="s">
-        <v>898</v>
-      </c>
-      <c r="C276" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D276" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="E276" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F276" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H276" t="s">
-        <v>869</v>
-      </c>
-      <c r="I276" t="b">
-        <v>1</v>
-      </c>
-      <c r="J276" t="s">
-        <v>925</v>
-      </c>
-      <c r="K276" t="s">
-        <v>815</v>
-      </c>
-      <c r="L276" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
-        <v>900</v>
-      </c>
-      <c r="B277" t="s">
-        <v>900</v>
-      </c>
-      <c r="C277" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D277" s="5" t="s">
-        <v>901</v>
-      </c>
-      <c r="E277" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F277" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H277" t="s">
-        <v>869</v>
-      </c>
-      <c r="I277" t="b">
-        <v>1</v>
-      </c>
-      <c r="J277" t="s">
-        <v>926</v>
-      </c>
-      <c r="K277" t="s">
-        <v>815</v>
-      </c>
-      <c r="L277" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
-        <v>902</v>
-      </c>
-      <c r="B278" t="s">
-        <v>902</v>
-      </c>
-      <c r="C278" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D278" s="5" t="s">
-        <v>903</v>
-      </c>
-      <c r="E278" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F278" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H278" t="s">
-        <v>869</v>
-      </c>
-      <c r="I278" t="b">
-        <v>1</v>
-      </c>
-      <c r="J278" t="s">
-        <v>927</v>
-      </c>
-      <c r="K278" t="s">
-        <v>815</v>
-      </c>
-      <c r="L278" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
-        <v>904</v>
-      </c>
-      <c r="B279" t="s">
-        <v>905</v>
-      </c>
-      <c r="C279" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D279" t="s">
-        <v>906</v>
-      </c>
-      <c r="E279" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F279" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H279" t="s">
-        <v>907</v>
-      </c>
-      <c r="I279" t="b">
-        <v>1</v>
-      </c>
-      <c r="J279" t="s">
-        <v>928</v>
-      </c>
-      <c r="K279" t="s">
-        <v>815</v>
-      </c>
-      <c r="L279" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
-        <v>908</v>
-      </c>
-      <c r="B280" t="s">
-        <v>909</v>
-      </c>
-      <c r="C280" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D280" t="s">
-        <v>910</v>
-      </c>
-      <c r="E280" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F280" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H280" t="s">
-        <v>893</v>
-      </c>
-      <c r="I280" t="b">
-        <v>1</v>
-      </c>
-      <c r="J280" t="s">
-        <v>929</v>
-      </c>
-      <c r="K280" t="s">
-        <v>815</v>
-      </c>
-      <c r="L280" t="s">
-        <v>809</v>
-      </c>
+      <c r="C272" s="5"/>
+      <c r="D272" s="5"/>
+      <c r="E272" s="5"/>
+      <c r="F272" s="5"/>
+    </row>
+    <row r="273" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C273" s="5"/>
+      <c r="D273" s="5"/>
+      <c r="E273" s="5"/>
+      <c r="F273" s="5"/>
+    </row>
+    <row r="274" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C274" s="5"/>
+      <c r="D274" s="5"/>
+      <c r="E274" s="5"/>
+      <c r="F274" s="5"/>
+    </row>
+    <row r="275" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C275" s="5"/>
+      <c r="D275" s="5"/>
+      <c r="E275" s="5"/>
+      <c r="F275" s="5"/>
+    </row>
+    <row r="276" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C276" s="5"/>
+      <c r="D276" s="5"/>
+      <c r="E276" s="5"/>
+      <c r="F276" s="5"/>
+    </row>
+    <row r="277" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C277" s="5"/>
+      <c r="D277" s="5"/>
+      <c r="E277" s="5"/>
+      <c r="F277" s="5"/>
+    </row>
+    <row r="278" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C278" s="5"/>
+      <c r="D278" s="5"/>
+      <c r="E278" s="5"/>
+      <c r="F278" s="5"/>
+    </row>
+    <row r="279" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C279" s="5"/>
+      <c r="E279" s="5"/>
+      <c r="F279" s="5"/>
+    </row>
+    <row r="280" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C280" s="5"/>
+      <c r="E280" s="5"/>
+      <c r="F280" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/compleat_wiki_man.xlsx
+++ b/data/compleat_wiki_man.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\GitHub\PhyrexianDictionary\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C75C42-3BC2-4BF4-BFD6-2B65D3761EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7182E0-5846-4867-8DF9-1AC6A31DE430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="929">
   <si>
     <t>IPA</t>
   </si>
@@ -533,9 +533,6 @@
     <t>Mind</t>
   </si>
   <si>
-    <t>Mirran</t>
-  </si>
-  <si>
     <t>More (than)</t>
   </si>
   <si>
@@ -980,9 +977,6 @@
     <t>'astiww</t>
   </si>
   <si>
-    <t>buǩð</t>
-  </si>
-  <si>
     <t>nɒqč</t>
   </si>
   <si>
@@ -1193,9 +1187,6 @@
     <t>korxgr</t>
   </si>
   <si>
-    <t>vuw'k</t>
-  </si>
-  <si>
     <t>ǆfyll</t>
   </si>
   <si>
@@ -1529,9 +1520,6 @@
     <t>ʔastiww</t>
   </si>
   <si>
-    <t>buk'ð</t>
-  </si>
-  <si>
     <t>nɒqtʃ</t>
   </si>
   <si>
@@ -1667,9 +1655,6 @@
     <t>nakʰm</t>
   </si>
   <si>
-    <t>vuwʔk</t>
-  </si>
-  <si>
     <t>dʒfyll</t>
   </si>
   <si>
@@ -2333,9 +2318,6 @@
     <t>unclear</t>
   </si>
   <si>
-    <t>Cast,Spell</t>
-  </si>
-  <si>
     <t>vižǥ</t>
   </si>
   <si>
@@ -2826,6 +2808,18 @@
   </si>
   <si>
     <t>'Unless'</t>
+  </si>
+  <si>
+    <t>Spell</t>
+  </si>
+  <si>
+    <t>bukð</t>
+  </si>
+  <si>
+    <t>Mirrodin</t>
+  </si>
+  <si>
+    <t>vuwk</t>
   </si>
 </sst>
 </file>
@@ -3226,8 +3220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="D257" sqref="D257"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="J178" sqref="J178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3245,48 +3239,48 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>583</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -3295,24 +3289,24 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L2" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -3321,24 +3315,24 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L3" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -3347,24 +3341,24 @@
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L4" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -3373,24 +3367,24 @@
         <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L5" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -3399,24 +3393,24 @@
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L6" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -3425,24 +3419,24 @@
         <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L7" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B8" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -3451,24 +3445,24 @@
         <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L8" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -3477,24 +3471,24 @@
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L9" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B10" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -3503,24 +3497,24 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L10" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B11" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -3529,16 +3523,16 @@
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L11" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -3555,24 +3549,24 @@
         <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L12" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B13" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -3581,27 +3575,27 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="H13" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L13" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B14" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -3610,24 +3604,24 @@
         <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L14" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B15" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -3636,24 +3630,24 @@
         <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L15" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -3662,24 +3656,24 @@
         <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L16" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B17" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -3688,24 +3682,24 @@
         <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L17" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B18" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -3714,24 +3708,24 @@
         <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L18" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B19" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -3740,24 +3734,24 @@
         <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L19" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B20" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -3766,24 +3760,24 @@
         <v>21</v>
       </c>
       <c r="H20" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L20" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -3792,720 +3786,720 @@
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H21" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L21" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B22" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C22" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H22" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L22" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B23" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C23" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H23" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L23" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C24" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H24" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I24" t="b">
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L24" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C25" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="H25" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L25" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C26" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D26" t="s">
         <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="H26" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I26" t="b">
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L26" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C27" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D27" t="s">
         <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H27" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I27" t="b">
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L27" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H28" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L28" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D29" t="s">
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H29" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I29" t="b">
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L29" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C30" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D30" t="s">
         <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H30" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L30" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C31" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D31" t="s">
         <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H31" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L31" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C32" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D32" t="s">
         <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H32" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I32" t="b">
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L32" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B33" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D33" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="H33" t="s">
+        <v>582</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
         <v>759</v>
       </c>
-      <c r="H33" t="s">
-        <v>587</v>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" t="s">
-        <v>764</v>
-      </c>
       <c r="L33" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B34" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C34" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D34" t="s">
         <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="H34" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I34" t="b">
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L34" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B35" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C35" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D35" t="s">
         <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="H35" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I35" t="b">
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L35" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C36" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D36" t="s">
         <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H36" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L36" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C37" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D37" t="s">
         <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H37" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L37" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="B38" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="C38" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="D38" t="s">
         <v>39</v>
       </c>
       <c r="H38" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I38" t="b">
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L38" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B39" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D39" t="s">
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H39" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I39" t="b">
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L39" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B40" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D40" t="s">
         <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="H40" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I40" t="b">
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L40" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B41" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C41" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D41" t="s">
         <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H41" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I41" t="b">
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L41" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C42" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="D42" t="s">
         <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H42" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L42" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B43" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C43" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D43" t="s">
         <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="H43" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I43" t="b">
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L43" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="B44" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="C44" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="D44" t="s">
         <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="H44" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I44" t="b">
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L44" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="B45" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="C45" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="D45" t="s">
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="H45" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I45" t="b">
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L45" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -4514,27 +4508,27 @@
         <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H46" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I46" t="b">
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L46" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B47" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -4543,27 +4537,27 @@
         <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="H47" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I47" t="b">
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L47" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B48" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -4572,27 +4566,27 @@
         <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H48" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L48" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B49" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -4601,27 +4595,27 @@
         <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="H49" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I49" t="b">
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L49" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B50" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -4630,27 +4624,27 @@
         <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="H50" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I50" t="b">
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L50" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -4659,27 +4653,27 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="H51" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I51" t="b">
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L51" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B52" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -4688,27 +4682,27 @@
         <v>53</v>
       </c>
       <c r="E52" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="H52" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I52" t="b">
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L52" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B53" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -4717,27 +4711,27 @@
         <v>54</v>
       </c>
       <c r="E53" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="H53" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I53" t="b">
         <v>1</v>
       </c>
       <c r="K53" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L53" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B54" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -4746,27 +4740,27 @@
         <v>55</v>
       </c>
       <c r="E54" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="H54" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I54" t="b">
         <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L54" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B55" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -4775,27 +4769,27 @@
         <v>56</v>
       </c>
       <c r="E55" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="H55" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I55" t="b">
         <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L55" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B56" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -4804,27 +4798,27 @@
         <v>57</v>
       </c>
       <c r="E56" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="H56" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I56" t="b">
         <v>1</v>
       </c>
       <c r="K56" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L56" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B57" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
@@ -4833,27 +4827,27 @@
         <v>58</v>
       </c>
       <c r="E57" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H57" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I57" t="b">
         <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L57" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B58" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
@@ -4862,346 +4856,346 @@
         <v>59</v>
       </c>
       <c r="E58" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H58" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I58" t="b">
         <v>1</v>
       </c>
       <c r="K58" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L58" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B59" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C59" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D59" t="s">
         <v>60</v>
       </c>
       <c r="E59" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="H59" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I59" t="b">
         <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L59" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="B60" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="C60" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="D60" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="E60" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="H60" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I60" t="b">
         <v>1</v>
       </c>
       <c r="K60" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L60" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B61" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C61" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D61" t="s">
         <v>61</v>
       </c>
       <c r="E61" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="H61" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I61" t="b">
         <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L61" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C62" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D62" t="s">
         <v>62</v>
       </c>
       <c r="E62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H62" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I62" t="b">
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L62" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B63" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C63" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D63" t="s">
         <v>63</v>
       </c>
       <c r="E63" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="H63" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I63" t="b">
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L63" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B64" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C64" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D64" t="s">
         <v>64</v>
       </c>
       <c r="E64" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H64" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I64" t="b">
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L64" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B65" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C65" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D65" t="s">
         <v>65</v>
       </c>
       <c r="E65" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="H65" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I65" t="b">
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L65" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B66" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C66" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D66" t="s">
         <v>66</v>
       </c>
       <c r="E66" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H66" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I66" t="b">
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L66" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B67" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C67" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D67" t="s">
         <v>67</v>
       </c>
       <c r="E67" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="H67" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I67" t="b">
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L67" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B68" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C68" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D68" t="s">
         <v>68</v>
       </c>
       <c r="E68" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H68" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I68" t="b">
         <v>1</v>
       </c>
       <c r="K68" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L68" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B69" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C69" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="D69" t="s">
         <v>69</v>
       </c>
       <c r="E69" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H69" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I69" t="b">
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L69" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B70" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
@@ -5210,27 +5204,27 @@
         <v>70</v>
       </c>
       <c r="E70" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H70" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I70" t="b">
         <v>1</v>
       </c>
       <c r="K70" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L70" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -5239,56 +5233,56 @@
         <v>71</v>
       </c>
       <c r="E71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H71" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I71" t="b">
         <v>1</v>
       </c>
       <c r="K71" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L71" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B72" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C72" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D72" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="E72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H72" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I72" t="b">
         <v>1</v>
       </c>
       <c r="K72" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L72" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="B73" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
@@ -5297,140 +5291,140 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="H73" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I73" t="b">
         <v>1</v>
       </c>
       <c r="K73" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L73" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B74" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="E74" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H74" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I74" t="b">
         <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L74" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B75" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C75" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="D75" t="s">
         <v>73</v>
       </c>
       <c r="E75" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H75" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I75" t="b">
         <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L75" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B76" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C76" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D76" t="s">
-        <v>766</v>
+        <v>925</v>
       </c>
       <c r="E76" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H76" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="I76" t="b">
         <v>1</v>
       </c>
       <c r="K76" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L76" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B77" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C77" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D77" t="s">
         <v>74</v>
       </c>
       <c r="H77" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I77" t="b">
         <v>1</v>
       </c>
       <c r="K77" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L77" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B78" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -5439,143 +5433,143 @@
         <v>75</v>
       </c>
       <c r="E78" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H78" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I78" t="b">
         <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L78" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B79" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C79" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D79" t="s">
         <v>76</v>
       </c>
       <c r="E79" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H79" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="I79" t="b">
         <v>1</v>
       </c>
       <c r="K79" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L79" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D80" t="s">
         <v>77</v>
       </c>
       <c r="E80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H80" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I80" t="b">
         <v>1</v>
       </c>
       <c r="K80" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L80" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B81" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="E81" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H81" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I81" t="b">
         <v>1</v>
       </c>
       <c r="K81" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L81" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="B82" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="C82" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="D82" t="s">
         <v>78</v>
       </c>
       <c r="E82" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="H82" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I82" t="b">
         <v>1</v>
       </c>
       <c r="K82" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L82" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B83" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -5584,27 +5578,27 @@
         <v>79</v>
       </c>
       <c r="E83" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H83" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I83" t="b">
         <v>1</v>
       </c>
       <c r="K83" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L83" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B84" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
@@ -5613,27 +5607,27 @@
         <v>80</v>
       </c>
       <c r="E84" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H84" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I84" t="b">
         <v>1</v>
       </c>
       <c r="K84" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L84" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B85" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
@@ -5642,27 +5636,27 @@
         <v>81</v>
       </c>
       <c r="E85" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H85" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I85" t="b">
         <v>1</v>
       </c>
       <c r="K85" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L85" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="B86" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
@@ -5671,27 +5665,27 @@
         <v>82</v>
       </c>
       <c r="E86" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="H86" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I86" t="b">
         <v>1</v>
       </c>
       <c r="K86" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L86" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B87" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
@@ -5700,85 +5694,85 @@
         <v>83</v>
       </c>
       <c r="E87" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H87" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I87" t="b">
         <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L87" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B88" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C88" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D88" t="s">
         <v>84</v>
       </c>
       <c r="E88" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H88" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I88" t="b">
         <v>1</v>
       </c>
       <c r="K88" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L88" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B89" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="E89" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H89" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I89" t="b">
         <v>1</v>
       </c>
       <c r="K89" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L89" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B90" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
@@ -5787,27 +5781,27 @@
         <v>85</v>
       </c>
       <c r="E90" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H90" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="I90" t="b">
         <v>1</v>
       </c>
       <c r="K90" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L90" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
@@ -5816,56 +5810,56 @@
         <v>86</v>
       </c>
       <c r="E91" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="H91" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I91" t="b">
         <v>1</v>
       </c>
       <c r="K91" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L91" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B92" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C92" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D92" t="s">
         <v>87</v>
       </c>
       <c r="E92" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H92" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I92" t="b">
         <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L92" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B93" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
@@ -5874,85 +5868,85 @@
         <v>88</v>
       </c>
       <c r="E93" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H93" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I93" t="b">
         <v>1</v>
       </c>
       <c r="K93" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L93" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B94" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C94" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D94" t="s">
         <v>89</v>
       </c>
       <c r="E94" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H94" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I94" t="b">
         <v>1</v>
       </c>
       <c r="K94" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L94" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B95" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C95" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D95" t="s">
         <v>90</v>
       </c>
       <c r="E95" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="H95" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I95" t="b">
         <v>1</v>
       </c>
       <c r="K95" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L95" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B96" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
@@ -5961,53 +5955,53 @@
         <v>91</v>
       </c>
       <c r="H96" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I96" t="b">
         <v>1</v>
       </c>
       <c r="K96" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L96" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B97" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D97" t="s">
         <v>92</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="H97" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I97" t="b">
         <v>1</v>
       </c>
       <c r="K97" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L97" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>315</v>
+        <v>926</v>
       </c>
       <c r="B98" t="s">
-        <v>498</v>
+        <v>926</v>
       </c>
       <c r="C98" t="b">
         <v>0</v>
@@ -6016,111 +6010,111 @@
         <v>93</v>
       </c>
       <c r="E98" t="s">
-        <v>315</v>
+        <v>926</v>
       </c>
       <c r="H98" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I98" t="b">
         <v>1</v>
       </c>
       <c r="K98" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L98" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B99" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C99" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D99" t="s">
         <v>94</v>
       </c>
       <c r="E99" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H99" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I99" t="b">
         <v>1</v>
       </c>
       <c r="K99" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L99" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B100" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C100" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D100" t="s">
         <v>95</v>
       </c>
       <c r="H100" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I100" t="b">
         <v>1</v>
       </c>
       <c r="K100" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L100" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B101" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C101" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="D101" t="s">
         <v>96</v>
       </c>
       <c r="E101" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H101" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I101" t="b">
         <v>1</v>
       </c>
       <c r="K101" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L101" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B102" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>
@@ -6129,27 +6123,27 @@
         <v>97</v>
       </c>
       <c r="E102" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H102" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I102" t="b">
         <v>1</v>
       </c>
       <c r="K102" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L102" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B103" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C103" t="b">
         <v>0</v>
@@ -6158,24 +6152,24 @@
         <v>98</v>
       </c>
       <c r="H103" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I103" t="b">
         <v>1</v>
       </c>
       <c r="K103" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L103" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B104" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C104" t="b">
         <v>0</v>
@@ -6184,27 +6178,27 @@
         <v>99</v>
       </c>
       <c r="E104" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H104" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I104" t="b">
         <v>1</v>
       </c>
       <c r="K104" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L104" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B105" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C105" t="b">
         <v>0</v>
@@ -6213,54 +6207,54 @@
         <v>100</v>
       </c>
       <c r="E105" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H105" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I105" t="b">
         <v>1</v>
       </c>
       <c r="K105" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L105" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B106" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C106" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="D106" t="s">
         <v>101</v>
       </c>
       <c r="E106" s="2"/>
       <c r="H106" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I106" t="b">
         <v>1</v>
       </c>
       <c r="K106" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L106" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B107" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C107" t="b">
         <v>0</v>
@@ -6269,85 +6263,85 @@
         <v>102</v>
       </c>
       <c r="E107" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H107" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I107" t="b">
         <v>1</v>
       </c>
       <c r="K107" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L107" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B108" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C108" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D108" t="s">
         <v>103</v>
       </c>
       <c r="E108" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H108" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I108" t="b">
         <v>1</v>
       </c>
       <c r="K108" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L108" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B109" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C109" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D109" t="s">
         <v>104</v>
       </c>
       <c r="E109" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H109" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I109" t="b">
         <v>1</v>
       </c>
       <c r="K109" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L109" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B110" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C110" t="b">
         <v>0</v>
@@ -6356,27 +6350,27 @@
         <v>105</v>
       </c>
       <c r="E110" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H110" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I110" t="b">
         <v>1</v>
       </c>
       <c r="K110" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L110" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B111" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C111" t="b">
         <v>0</v>
@@ -6385,27 +6379,27 @@
         <v>106</v>
       </c>
       <c r="E111" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H111" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I111" t="b">
         <v>1</v>
       </c>
       <c r="K111" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L111" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B112" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C112" t="b">
         <v>0</v>
@@ -6414,27 +6408,27 @@
         <v>107</v>
       </c>
       <c r="E112" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H112" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I112" t="b">
         <v>1</v>
       </c>
       <c r="K112" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L112" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B113" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C113" t="b">
         <v>0</v>
@@ -6443,27 +6437,27 @@
         <v>108</v>
       </c>
       <c r="E113" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="H113" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="I113" t="b">
         <v>1</v>
       </c>
       <c r="K113" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L113" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B114" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C114" t="b">
         <v>0</v>
@@ -6472,56 +6466,56 @@
         <v>109</v>
       </c>
       <c r="E114" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="H114" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="I114" t="b">
         <v>1</v>
       </c>
       <c r="K114" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L114" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="B115" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="C115" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="D115" t="s">
         <v>110</v>
       </c>
       <c r="E115" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="H115" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I115" t="b">
         <v>1</v>
       </c>
       <c r="K115" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L115" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B116" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C116" t="b">
         <v>0</v>
@@ -6530,24 +6524,24 @@
         <v>111</v>
       </c>
       <c r="H116" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I116" t="b">
         <v>1</v>
       </c>
       <c r="K116" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L116" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B117" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C117" t="b">
         <v>0</v>
@@ -6556,169 +6550,169 @@
         <v>112</v>
       </c>
       <c r="E117" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H117" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I117" t="b">
         <v>1</v>
       </c>
       <c r="K117" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L117" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B118" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C118" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="D118" t="s">
         <v>113</v>
       </c>
       <c r="E118" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H118" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I118" t="b">
         <v>1</v>
       </c>
       <c r="K118" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L118" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B119" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C119" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="D119" t="s">
         <v>114</v>
       </c>
       <c r="E119" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="H119" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I119" t="b">
         <v>1</v>
       </c>
       <c r="K119" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L119" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B120" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C120" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D120" t="s">
         <v>115</v>
       </c>
       <c r="H120" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I120" t="b">
         <v>1</v>
       </c>
       <c r="K120" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L120" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B121" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C121" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="D121" t="s">
         <v>116</v>
       </c>
       <c r="E121" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="H121" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I121" t="b">
         <v>1</v>
       </c>
       <c r="K121" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L121" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B122" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C122" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D122" t="s">
         <v>117</v>
       </c>
       <c r="E122" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="H122" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I122" t="b">
         <v>1</v>
       </c>
       <c r="K122" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L122" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B123" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C123" t="b">
         <v>0</v>
@@ -6727,27 +6721,27 @@
         <v>118</v>
       </c>
       <c r="E123" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="H123" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I123" t="b">
         <v>1</v>
       </c>
       <c r="K123" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L123" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B124" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C124" t="b">
         <v>0</v>
@@ -6756,56 +6750,56 @@
         <v>119</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="H124" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I124" t="b">
         <v>1</v>
       </c>
       <c r="K124" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L124" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B125" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D125" t="s">
         <v>120</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H125" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I125" t="b">
         <v>1</v>
       </c>
       <c r="K125" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L125" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B126" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C126" t="b">
         <v>0</v>
@@ -6814,56 +6808,56 @@
         <v>121</v>
       </c>
       <c r="E126" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="H126" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I126" t="b">
         <v>1</v>
       </c>
       <c r="K126" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L126" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B127" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C127" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D127" t="s">
         <v>122</v>
       </c>
       <c r="E127" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H127" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I127" t="b">
         <v>1</v>
       </c>
       <c r="K127" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L127" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B128" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C128" t="b">
         <v>0</v>
@@ -6872,53 +6866,53 @@
         <v>123</v>
       </c>
       <c r="H128" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I128" t="b">
         <v>1</v>
       </c>
       <c r="K128" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L128" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B129" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C129" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D129" t="s">
         <v>124</v>
       </c>
       <c r="E129" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H129" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I129" t="b">
         <v>0</v>
       </c>
       <c r="K129" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L129" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B130" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C130" t="b">
         <v>0</v>
@@ -6927,24 +6921,24 @@
         <v>125</v>
       </c>
       <c r="H130" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I130" t="b">
         <v>1</v>
       </c>
       <c r="K130" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L130" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B131" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C131" t="b">
         <v>0</v>
@@ -6953,27 +6947,27 @@
         <v>126</v>
       </c>
       <c r="E131" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H131" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I131" t="b">
         <v>1</v>
       </c>
       <c r="K131" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L131" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B132" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C132" t="b">
         <v>0</v>
@@ -6982,27 +6976,27 @@
         <v>127</v>
       </c>
       <c r="E132" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H132" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I132" t="b">
         <v>1</v>
       </c>
       <c r="K132" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L132" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B133" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C133" t="b">
         <v>0</v>
@@ -7011,53 +7005,53 @@
         <v>128</v>
       </c>
       <c r="H133" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="I133" t="b">
         <v>1</v>
       </c>
       <c r="K133" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L133" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B134" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C134" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D134" t="s">
         <v>129</v>
       </c>
       <c r="E134" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H134" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I134" t="b">
         <v>0</v>
       </c>
       <c r="K134" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L134" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B135" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C135" t="b">
         <v>0</v>
@@ -7066,24 +7060,24 @@
         <v>130</v>
       </c>
       <c r="H135" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I135" t="b">
         <v>1</v>
       </c>
       <c r="K135" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L135" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B136" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C136" t="b">
         <v>0</v>
@@ -7092,53 +7086,53 @@
         <v>131</v>
       </c>
       <c r="H136" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I136" t="b">
         <v>1</v>
       </c>
       <c r="K136" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L136" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B137" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C137" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D137" t="s">
         <v>66</v>
       </c>
       <c r="E137" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H137" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I137" t="b">
         <v>1</v>
       </c>
       <c r="K137" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L137" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B138" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C138" t="b">
         <v>0</v>
@@ -7147,27 +7141,27 @@
         <v>132</v>
       </c>
       <c r="E138" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H138" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I138" t="b">
         <v>1</v>
       </c>
       <c r="K138" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L138" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B139" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C139" t="b">
         <v>0</v>
@@ -7176,85 +7170,85 @@
         <v>133</v>
       </c>
       <c r="E139" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H139" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I139" t="b">
         <v>1</v>
       </c>
       <c r="K139" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L139" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B140" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C140" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D140" t="s">
         <v>134</v>
       </c>
       <c r="E140" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H140" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I140" t="b">
         <v>1</v>
       </c>
       <c r="K140" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L140" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B141" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C141" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D141" t="s">
         <v>135</v>
       </c>
       <c r="E141" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H141" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I141" t="b">
         <v>1</v>
       </c>
       <c r="K141" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L141" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="B142" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="C142" t="b">
         <v>0</v>
@@ -7263,24 +7257,24 @@
         <v>136</v>
       </c>
       <c r="H142" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I142" t="b">
         <v>1</v>
       </c>
       <c r="K142" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L142" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B143" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C143" t="b">
         <v>0</v>
@@ -7289,24 +7283,24 @@
         <v>137</v>
       </c>
       <c r="H143" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I143" t="b">
         <v>1</v>
       </c>
       <c r="K143" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L143" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B144" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C144" t="b">
         <v>0</v>
@@ -7315,27 +7309,27 @@
         <v>138</v>
       </c>
       <c r="E144" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H144" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="I144" t="b">
         <v>1</v>
       </c>
       <c r="K144" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L144" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B145" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C145" t="b">
         <v>0</v>
@@ -7344,53 +7338,53 @@
         <v>139</v>
       </c>
       <c r="E145" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H145" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I145" t="b">
         <v>1</v>
       </c>
       <c r="K145" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L145" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B146" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C146" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="D146" t="s">
         <v>140</v>
       </c>
       <c r="H146" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I146" t="b">
         <v>1</v>
       </c>
       <c r="K146" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L146" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B147" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C147" t="b">
         <v>0</v>
@@ -7399,53 +7393,53 @@
         <v>141</v>
       </c>
       <c r="H147" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I147" t="b">
         <v>1</v>
       </c>
       <c r="K147" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L147" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B148" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C148" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D148" t="s">
         <v>142</v>
       </c>
       <c r="E148" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H148" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I148" t="b">
         <v>1</v>
       </c>
       <c r="K148" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L148" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B149" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C149" t="b">
         <v>0</v>
@@ -7454,143 +7448,143 @@
         <v>143</v>
       </c>
       <c r="E149" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H149" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I149" t="b">
         <v>1</v>
       </c>
       <c r="K149" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L149" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B150" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C150" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D150" t="s">
         <v>144</v>
       </c>
       <c r="E150" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H150" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I150" t="b">
         <v>1</v>
       </c>
       <c r="K150" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L150" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B151" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C151" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D151" t="s">
         <v>145</v>
       </c>
       <c r="E151" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H151" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I151" t="b">
         <v>1</v>
       </c>
       <c r="K151" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L151" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="B152" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C152" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="D152" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="E152" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="H152" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I152" t="b">
         <v>1</v>
       </c>
       <c r="K152" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L152" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B153" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C153" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D153" t="s">
         <v>146</v>
       </c>
       <c r="E153" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H153" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I153" t="b">
         <v>1</v>
       </c>
       <c r="K153" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L153" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B154" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C154" t="b">
         <v>0</v>
@@ -7599,27 +7593,27 @@
         <v>147</v>
       </c>
       <c r="E154" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="H154" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I154" t="b">
         <v>1</v>
       </c>
       <c r="K154" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L154" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B155" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C155" t="b">
         <v>0</v>
@@ -7628,27 +7622,27 @@
         <v>148</v>
       </c>
       <c r="E155" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H155" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I155" t="b">
         <v>1</v>
       </c>
       <c r="K155" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L155" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B156" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C156" t="b">
         <v>0</v>
@@ -7657,56 +7651,56 @@
         <v>149</v>
       </c>
       <c r="E156" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H156" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I156" t="b">
         <v>1</v>
       </c>
       <c r="K156" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L156" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B157" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D157" t="s">
         <v>150</v>
       </c>
       <c r="E157" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="H157" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I157" t="b">
         <v>1</v>
       </c>
       <c r="K157" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L157" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B158" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C158" t="b">
         <v>0</v>
@@ -7715,56 +7709,56 @@
         <v>151</v>
       </c>
       <c r="E158" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H158" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I158" t="b">
         <v>1</v>
       </c>
       <c r="K158" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L158" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B159" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C159" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D159" t="s">
         <v>152</v>
       </c>
       <c r="E159" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H159" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I159" t="b">
         <v>1</v>
       </c>
       <c r="K159" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L159" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B160" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C160" t="b">
         <v>0</v>
@@ -7773,85 +7767,85 @@
         <v>153</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H160" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I160" t="b">
         <v>1</v>
       </c>
       <c r="K160" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L160" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B161" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D161" t="s">
         <v>154</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H161" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I161" t="b">
         <v>1</v>
       </c>
       <c r="K161" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L161" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B162" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C162" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="D162" t="s">
         <v>155</v>
       </c>
       <c r="E162" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="H162" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I162" t="b">
         <v>1</v>
       </c>
       <c r="K162" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L162" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B163" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C163" t="b">
         <v>0</v>
@@ -7860,53 +7854,53 @@
         <v>156</v>
       </c>
       <c r="E163" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H163" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I163" t="b">
         <v>1</v>
       </c>
       <c r="K163" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L163" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B164" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C164" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D164" t="s">
         <v>157</v>
       </c>
       <c r="H164" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I164" t="b">
         <v>1</v>
       </c>
       <c r="K164" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L164" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B165" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C165" t="b">
         <v>0</v>
@@ -7915,53 +7909,53 @@
         <v>158</v>
       </c>
       <c r="H165" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I165" t="b">
         <v>1</v>
       </c>
       <c r="K165" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L165" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B166" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C166" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D166" t="s">
         <v>159</v>
       </c>
       <c r="E166" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H166" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I166" t="b">
         <v>1</v>
       </c>
       <c r="K166" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L166" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B167" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C167" t="b">
         <v>0</v>
@@ -7970,56 +7964,56 @@
         <v>160</v>
       </c>
       <c r="E167" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H167" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I167" t="b">
         <v>1</v>
       </c>
       <c r="K167" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L167" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B168" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C168" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D168" t="s">
         <v>161</v>
       </c>
       <c r="E168" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H168" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I168" t="b">
         <v>1</v>
       </c>
       <c r="K168" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L168" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B169" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C169" t="b">
         <v>0</v>
@@ -8028,129 +8022,129 @@
         <v>162</v>
       </c>
       <c r="E169" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I169" t="b">
         <v>1</v>
       </c>
       <c r="K169" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L169" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B170" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C170" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="D170" t="s">
         <v>163</v>
       </c>
       <c r="E170" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H170" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I170" t="b">
         <v>1</v>
       </c>
       <c r="K170" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L170" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B171" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="C171" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D171" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="E171" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="H171" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I171" t="b">
         <v>1</v>
       </c>
       <c r="K171" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L171" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B172" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C172" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D172" t="s">
         <v>164</v>
       </c>
       <c r="E172" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H172" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="I172" t="b">
         <v>1</v>
       </c>
       <c r="K172" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L172" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B173" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C173" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="D173" t="s">
         <v>165</v>
       </c>
       <c r="H173" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I173" t="b">
         <v>1</v>
       </c>
       <c r="K173" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L173" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -8161,1928 +8155,1928 @@
         <v>2</v>
       </c>
       <c r="C174" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="D174" t="s">
-        <v>166</v>
+        <v>927</v>
       </c>
       <c r="E174" t="s">
         <v>2</v>
       </c>
       <c r="H174" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I174" t="b">
         <v>0</v>
       </c>
       <c r="K174" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L174" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B175" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C175" t="b">
         <v>0</v>
       </c>
       <c r="D175" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E175" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="I175" t="b">
         <v>1</v>
       </c>
       <c r="K175" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L175" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="B176" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="C176" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="D176" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E176" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="H176" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I176" t="b">
         <v>1</v>
       </c>
       <c r="K176" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L176" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B177" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="C177" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="D177" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E177" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="H177" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I177" t="b">
         <v>1</v>
       </c>
       <c r="K177" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L177" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>386</v>
+        <v>928</v>
       </c>
       <c r="B178" t="s">
-        <v>544</v>
+        <v>928</v>
       </c>
       <c r="C178" t="b">
         <v>0</v>
       </c>
       <c r="D178" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E178" t="s">
-        <v>386</v>
+        <v>928</v>
       </c>
       <c r="H178" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I178" t="b">
         <v>1</v>
       </c>
       <c r="K178" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L178" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B179" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C179" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="D179" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H179" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I179" t="b">
         <v>1</v>
       </c>
       <c r="K179" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L179" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B180" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="C180" t="b">
         <v>0</v>
       </c>
       <c r="D180" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E180" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="H180" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I180" t="b">
         <v>1</v>
       </c>
       <c r="K180" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L180" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B181" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C181" t="b">
         <v>0</v>
       </c>
       <c r="D181" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H181" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I181" t="b">
         <v>1</v>
       </c>
       <c r="K181" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L181" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B182" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C182" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D182" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E182" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H182" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I182" t="b">
         <v>1</v>
       </c>
       <c r="K182" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L182" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B183" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C183" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D183" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E183" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H183" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I183" t="b">
         <v>1</v>
       </c>
       <c r="K183" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L183" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B184" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C184" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D184" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E184" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H184" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I184" t="b">
         <v>1</v>
       </c>
       <c r="K184" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L184" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B185" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D185" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H185" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="I185" t="b">
         <v>1</v>
       </c>
       <c r="K185" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L185" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B186" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C186" t="b">
         <v>0</v>
       </c>
       <c r="D186" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E186" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="I186" t="b">
         <v>1</v>
       </c>
       <c r="K186" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L186" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B187" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C187" t="b">
         <v>0</v>
       </c>
       <c r="D187" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E187" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H187" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I187" t="b">
         <v>1</v>
       </c>
       <c r="K187" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L187" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B188" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C188" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D188" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E188" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H188" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I188" t="b">
         <v>1</v>
       </c>
       <c r="K188" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L188" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B189" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C189" t="b">
         <v>0</v>
       </c>
       <c r="D189" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H189" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I189" t="b">
         <v>1</v>
       </c>
       <c r="K189" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L189" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B190" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C190" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D190" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H190" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I190" t="b">
         <v>1</v>
       </c>
       <c r="K190" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L190" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B191" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C191" t="b">
         <v>0</v>
       </c>
       <c r="D191" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E191" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H191" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I191" t="b">
         <v>1</v>
       </c>
       <c r="K191" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L191" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B192" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C192" t="b">
         <v>0</v>
       </c>
       <c r="D192" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E192" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H192" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I192" t="b">
         <v>1</v>
       </c>
       <c r="K192" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L192" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B193" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C193" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D193" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H193" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I193" t="b">
         <v>1</v>
       </c>
       <c r="K193" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L193" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B194" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C194" t="b">
         <v>0</v>
       </c>
       <c r="D194" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H194" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I194" t="b">
         <v>1</v>
       </c>
       <c r="K194" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L194" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="B195" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="C195" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D195" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E195" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="H195" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I195" t="b">
         <v>1</v>
       </c>
       <c r="K195" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L195" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B196" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C196" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="D196" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E196" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H196" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I196" t="b">
         <v>1</v>
       </c>
       <c r="K196" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L196" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B197" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C197" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="D197" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E197" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H197" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I197" t="b">
         <v>1</v>
       </c>
       <c r="K197" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L197" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B198" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C198" t="b">
         <v>0</v>
       </c>
       <c r="D198" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E198" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H198" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I198" t="b">
         <v>1</v>
       </c>
       <c r="K198" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L198" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B199" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C199" t="b">
         <v>0</v>
       </c>
       <c r="D199" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E199" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H199" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I199" t="b">
         <v>1</v>
       </c>
       <c r="K199" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L199" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B200" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D200" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E200" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H200" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I200" t="b">
         <v>1</v>
       </c>
       <c r="K200" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L200" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B201" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C201" t="b">
         <v>0</v>
       </c>
       <c r="D201" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E201" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H201" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I201" t="b">
         <v>1</v>
       </c>
       <c r="K201" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L201" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B202" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C202" t="b">
         <v>0</v>
       </c>
       <c r="D202" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E202" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H202" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I202" t="b">
         <v>1</v>
       </c>
       <c r="K202" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L202" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B203" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C203" t="b">
         <v>0</v>
       </c>
       <c r="D203" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E203" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="H203" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I203" t="b">
         <v>1</v>
       </c>
       <c r="K203" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L203" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B204" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D204" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E204" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H204" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I204" t="b">
         <v>1</v>
       </c>
       <c r="K204" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L204" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B205" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C205" t="b">
         <v>0</v>
       </c>
       <c r="D205" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E205" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H205" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I205" t="b">
         <v>1</v>
       </c>
       <c r="K205" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L205" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B206" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C206" t="b">
         <v>0</v>
       </c>
       <c r="D206" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E206" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H206" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I206" t="b">
         <v>1</v>
       </c>
       <c r="K206" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L206" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B207" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C207" t="b">
         <v>0</v>
       </c>
       <c r="D207" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E207" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="H207" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I207" t="b">
         <v>1</v>
       </c>
       <c r="K207" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L207" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B208" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C208" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="D208" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E208" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H208" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I208" t="b">
         <v>1</v>
       </c>
       <c r="K208" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L208" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B209" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C209" t="b">
         <v>0</v>
       </c>
       <c r="D209" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E209" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H209" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I209" t="b">
         <v>1</v>
       </c>
       <c r="K209" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L209" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B210" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C210" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D210" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H210" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I210" t="b">
         <v>1</v>
       </c>
       <c r="K210" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L210" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B211" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C211" t="b">
         <v>0</v>
       </c>
       <c r="D211" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E211" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="I211" t="b">
         <v>1</v>
       </c>
       <c r="K211" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L211" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B212" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C212" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="D212" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E212" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H212" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I212" t="b">
         <v>1</v>
       </c>
       <c r="K212" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L212" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B213" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C213" t="b">
         <v>0</v>
       </c>
       <c r="D213" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I213" t="b">
         <v>1</v>
       </c>
       <c r="K213" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L213" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B214" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C214" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="D214" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E214" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H214" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I214" t="b">
         <v>1</v>
       </c>
       <c r="K214" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L214" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B215" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C215" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D215" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H215" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I215" t="b">
         <v>1</v>
       </c>
       <c r="K215" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L215" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B216" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C216" t="b">
         <v>0</v>
       </c>
       <c r="D216" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H216" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I216" t="b">
         <v>1</v>
       </c>
       <c r="K216" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L216" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B217" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C217" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D217" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E217" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H217" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="I217" t="b">
         <v>1</v>
       </c>
       <c r="K217" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L217" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B218" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D218" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H218" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="I218" t="b">
         <v>1</v>
       </c>
       <c r="K218" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L218" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B219" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C219" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="D219" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E219" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H219" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I219" t="b">
         <v>1</v>
       </c>
       <c r="K219" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L219" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B220" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C220" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="D220" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E220" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H220" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I220" t="b">
         <v>1</v>
       </c>
       <c r="K220" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L220" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B221" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C221" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="D221" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E221" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H221" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I221" t="b">
         <v>1</v>
       </c>
       <c r="K221" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L221" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B222" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C222" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="D222" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E222" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H222" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I222" t="b">
         <v>1</v>
       </c>
       <c r="K222" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L222" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B223" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C223" t="b">
         <v>0</v>
       </c>
       <c r="D223" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E223" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="H223" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I223" t="b">
         <v>1</v>
       </c>
       <c r="K223" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L223" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B224" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C224" t="b">
         <v>0</v>
       </c>
       <c r="D224" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E224" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H224" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I224" t="b">
         <v>1</v>
       </c>
       <c r="K224" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L224" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="B225" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C225" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="D225" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E225" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="H225" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I225" t="b">
         <v>0</v>
       </c>
       <c r="K225" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L225" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B226" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="D226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H226" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="I226" t="b">
         <v>1</v>
       </c>
       <c r="K226" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L226" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B227" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C227" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="D227" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H227" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I227" t="b">
         <v>1</v>
       </c>
       <c r="K227" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L227" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B228" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C228" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="D228" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E228" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H228" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I228" t="b">
         <v>1</v>
       </c>
       <c r="K228" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L228" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B229" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C229" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="D229" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E229" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H229" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I229" t="b">
         <v>1</v>
       </c>
       <c r="K229" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L229" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B230" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C230" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D230" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E230" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H230" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I230" t="b">
         <v>1</v>
       </c>
       <c r="K230" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L230" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B231" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C231" t="b">
         <v>0</v>
       </c>
       <c r="D231" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E231" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H231" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I231" t="b">
         <v>1</v>
       </c>
       <c r="K231" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L231" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B232" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C232" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="D232" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E232" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="H232" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I232" t="b">
         <v>1</v>
       </c>
       <c r="K232" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L232" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B233" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C233" t="b">
         <v>0</v>
       </c>
       <c r="D233" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E233" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H233" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I233" t="b">
         <v>1</v>
       </c>
       <c r="K233" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L233" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B234" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C234" t="b">
         <v>0</v>
       </c>
       <c r="D234" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E234" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H234" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I234" t="b">
         <v>1</v>
       </c>
       <c r="K234" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L234" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B235" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C235" t="b">
         <v>0</v>
       </c>
       <c r="D235" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E235" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H235" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I235" t="b">
         <v>1</v>
       </c>
       <c r="K235" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L235" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B236" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C236" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D236" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E236" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H236" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I236" t="b">
         <v>1</v>
       </c>
       <c r="K236" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L236" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B237" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="D237" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E237" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H237" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I237" t="b">
         <v>1</v>
       </c>
       <c r="K237" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L237" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B238" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C238" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D238" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H238" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I238" t="b">
         <v>1</v>
       </c>
       <c r="K238" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L238" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B239" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C239" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D239" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E239" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H239" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I239" t="b">
         <v>1</v>
       </c>
       <c r="K239" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L239" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B240" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C240" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="D240" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E240" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H240" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I240" t="b">
         <v>1</v>
       </c>
       <c r="K240" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L240" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B241" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C241" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="D241" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E241" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H241" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I241" t="b">
         <v>1</v>
       </c>
       <c r="K241" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L241" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="B242" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="C242" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="E242" s="5" t="b">
         <v>0</v>
@@ -10091,30 +10085,30 @@
         <v>0</v>
       </c>
       <c r="H242" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="I242" t="b">
         <v>1</v>
       </c>
       <c r="K242" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L242" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="B243" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="C243" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="E243" s="5" t="b">
         <v>0</v>
@@ -10123,30 +10117,30 @@
         <v>0</v>
       </c>
       <c r="H243" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="I243" t="b">
         <v>1</v>
       </c>
       <c r="K243" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L243" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="B244" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="C244" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D244" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="E244" s="5" t="b">
         <v>0</v>
@@ -10155,30 +10149,30 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="I244" t="b">
         <v>1</v>
       </c>
       <c r="K244" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L244" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="B245" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="C245" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="E245" s="5" t="b">
         <v>0</v>
@@ -10187,30 +10181,30 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="I245" t="b">
         <v>1</v>
       </c>
       <c r="K245" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L245" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="B246" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="C246" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="E246" s="5" t="b">
         <v>0</v>
@@ -10219,30 +10213,30 @@
         <v>0</v>
       </c>
       <c r="H246" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="I246" t="b">
         <v>1</v>
       </c>
       <c r="K246" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L246" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="B247" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="C247" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="E247" s="5" t="b">
         <v>0</v>
@@ -10251,30 +10245,30 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="I247" t="b">
         <v>1</v>
       </c>
       <c r="K247" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L247" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="B248" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="C248" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="E248" s="5" t="b">
         <v>0</v>
@@ -10283,30 +10277,30 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="I248" t="b">
         <v>1</v>
       </c>
       <c r="K248" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L248" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="B249" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="C249" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D249" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="E249" s="5" t="b">
         <v>0</v>
@@ -10315,30 +10309,30 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="I249" t="b">
         <v>1</v>
       </c>
       <c r="K249" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L249" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="B250" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C250" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="E250" s="5" t="b">
         <v>0</v>
@@ -10347,30 +10341,30 @@
         <v>0</v>
       </c>
       <c r="H250" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="I250" t="b">
         <v>1</v>
       </c>
       <c r="K250" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L250" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="B251" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="C251" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="E251" s="5" t="b">
         <v>0</v>
@@ -10379,30 +10373,30 @@
         <v>0</v>
       </c>
       <c r="H251" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="I251" t="b">
         <v>1</v>
       </c>
       <c r="K251" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L251" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="B252" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="C252" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="E252" s="5" t="b">
         <v>0</v>
@@ -10411,30 +10405,30 @@
         <v>0</v>
       </c>
       <c r="H252" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="I252" t="b">
         <v>1</v>
       </c>
       <c r="K252" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L252" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="B253" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="C253" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="E253" s="5" t="b">
         <v>0</v>
@@ -10443,30 +10437,30 @@
         <v>0</v>
       </c>
       <c r="H253" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="I253" t="b">
         <v>1</v>
       </c>
       <c r="K253" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L253" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B254" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="C254" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="E254" s="5" t="b">
         <v>0</v>
@@ -10475,30 +10469,30 @@
         <v>0</v>
       </c>
       <c r="H254" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="I254" t="b">
         <v>1</v>
       </c>
       <c r="K254" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L254" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="B255" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="C255" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="E255" s="5" t="b">
         <v>0</v>
@@ -10507,30 +10501,30 @@
         <v>0</v>
       </c>
       <c r="H255" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="I255" t="b">
         <v>1</v>
       </c>
       <c r="K255" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L255" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="B256" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="C256" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="E256" s="5" t="b">
         <v>0</v>
@@ -10539,30 +10533,30 @@
         <v>0</v>
       </c>
       <c r="H256" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="I256" t="b">
         <v>1</v>
       </c>
       <c r="K256" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L256" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="B257" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="C257" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="E257" s="5" t="b">
         <v>0</v>
@@ -10571,30 +10565,30 @@
         <v>0</v>
       </c>
       <c r="H257" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="I257" t="b">
         <v>1</v>
       </c>
       <c r="K257" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L257" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="B258" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C258" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="E258" s="5" t="b">
         <v>0</v>
@@ -10603,30 +10597,30 @@
         <v>0</v>
       </c>
       <c r="H258" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="I258" t="b">
         <v>1</v>
       </c>
       <c r="K258" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L258" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="B259" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C259" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="E259" s="5" t="b">
         <v>0</v>
@@ -10635,33 +10629,33 @@
         <v>0</v>
       </c>
       <c r="H259" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="I259" t="b">
         <v>1</v>
       </c>
       <c r="J259" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="K259" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L259" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="B260" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="C260" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="E260" s="5" t="b">
         <v>0</v>
@@ -10670,33 +10664,33 @@
         <v>0</v>
       </c>
       <c r="H260" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="I260" t="b">
         <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="K260" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L260" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="B261" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C261" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="E261" s="5" t="b">
         <v>0</v>
@@ -10705,33 +10699,33 @@
         <v>0</v>
       </c>
       <c r="H261" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="I261" t="b">
         <v>1</v>
       </c>
       <c r="J261" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="K261" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L261" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B262" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="C262" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="E262" s="5" t="b">
         <v>0</v>
@@ -10740,33 +10734,33 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="I262" t="b">
         <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="K262" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L262" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="B263" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="C263" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="E263" s="5" t="b">
         <v>0</v>
@@ -10775,33 +10769,33 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="I263" t="b">
         <v>1</v>
       </c>
       <c r="J263" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="K263" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L263" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="B264" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="C264" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="E264" s="5" t="b">
         <v>0</v>
@@ -10810,33 +10804,33 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="I264" t="b">
         <v>1</v>
       </c>
       <c r="J264" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="K264" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L264" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="B265" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="C265" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="E265" s="5" t="b">
         <v>0</v>
@@ -10845,33 +10839,33 @@
         <v>0</v>
       </c>
       <c r="H265" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="I265" t="b">
         <v>1</v>
       </c>
       <c r="J265" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="K265" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L265" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="B266" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="C266" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="E266" s="5" t="b">
         <v>0</v>
@@ -10880,33 +10874,33 @@
         <v>0</v>
       </c>
       <c r="H266" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="I266" t="b">
         <v>1</v>
       </c>
       <c r="J266" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="K266" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L266" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B267" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C267" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="E267" s="5" t="b">
         <v>0</v>
@@ -10915,33 +10909,33 @@
         <v>0</v>
       </c>
       <c r="H267" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="I267" t="b">
         <v>1</v>
       </c>
       <c r="J267" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="K267" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L267" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="B268" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="C268" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="E268" s="5" t="b">
         <v>0</v>
@@ -10950,33 +10944,33 @@
         <v>0</v>
       </c>
       <c r="H268" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="I268" t="b">
         <v>1</v>
       </c>
       <c r="J268" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="K268" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L268" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="B269" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="C269" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="E269" s="5" t="b">
         <v>0</v>
@@ -10985,33 +10979,33 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="I269" t="b">
         <v>1</v>
       </c>
       <c r="J269" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="K269" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L269" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="B270" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="C270" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="E270" s="5" t="b">
         <v>0</v>
@@ -11020,33 +11014,33 @@
         <v>0</v>
       </c>
       <c r="H270" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="I270" t="b">
         <v>1</v>
       </c>
       <c r="J270" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="K270" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L270" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="B271" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="C271" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="E271" s="5" t="b">
         <v>0</v>
@@ -11055,33 +11049,33 @@
         <v>0</v>
       </c>
       <c r="H271" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="I271" t="b">
         <v>1</v>
       </c>
       <c r="J271" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="K271" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L271" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="B272" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="C272" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="E272" s="5" t="b">
         <v>0</v>
@@ -11090,33 +11084,33 @@
         <v>0</v>
       </c>
       <c r="H272" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="I272" t="b">
         <v>1</v>
       </c>
       <c r="J272" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="K272" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L272" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B273" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="C273" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="E273" s="5" t="b">
         <v>0</v>
@@ -11125,33 +11119,33 @@
         <v>0</v>
       </c>
       <c r="H273" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="I273" t="b">
         <v>1</v>
       </c>
       <c r="J273" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="K273" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L273" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="B274" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="C274" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="E274" s="5" t="b">
         <v>0</v>
@@ -11160,33 +11154,33 @@
         <v>0</v>
       </c>
       <c r="H274" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="I274" t="b">
         <v>1</v>
       </c>
       <c r="J274" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="K274" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L274" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="B275" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="C275" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="E275" s="5" t="b">
         <v>0</v>
@@ -11195,33 +11189,33 @@
         <v>0</v>
       </c>
       <c r="H275" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="I275" t="b">
         <v>1</v>
       </c>
       <c r="J275" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="K275" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L275" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="B276" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="C276" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="E276" s="5" t="b">
         <v>0</v>
@@ -11230,33 +11224,33 @@
         <v>0</v>
       </c>
       <c r="H276" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="I276" t="b">
         <v>1</v>
       </c>
       <c r="J276" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="K276" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L276" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="B277" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="C277" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="E277" s="5" t="b">
         <v>0</v>
@@ -11265,33 +11259,33 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="I277" t="b">
         <v>1</v>
       </c>
       <c r="J277" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="K277" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L277" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="B278" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="C278" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="E278" s="5" t="b">
         <v>0</v>
@@ -11300,33 +11294,33 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="I278" t="b">
         <v>1</v>
       </c>
       <c r="J278" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="K278" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L278" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="B279" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="C279" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D279" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="E279" s="5" t="b">
         <v>0</v>
@@ -11335,33 +11329,33 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="I279" t="b">
         <v>1</v>
       </c>
       <c r="J279" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="K279" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L279" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="B280" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="C280" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D280" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="E280" s="5" t="b">
         <v>0</v>
@@ -11370,19 +11364,19 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="I280" t="b">
         <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="K280" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="L280" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
   </sheetData>

--- a/data/compleat_wiki_man.xlsx
+++ b/data/compleat_wiki_man.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\GitHub\PhyrexianDictionary\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD41FBDA-6126-4864-856C-82D51992C9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3670DCBF-9AE0-4283-B5AE-757D395985D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="864">
   <si>
     <t>IPA</t>
   </si>
@@ -533,9 +533,6 @@
     <t>Mind</t>
   </si>
   <si>
-    <t>Mirran</t>
-  </si>
-  <si>
     <t>More (than)</t>
   </si>
   <si>
@@ -980,9 +977,6 @@
     <t>'astiww</t>
   </si>
   <si>
-    <t>buǩð</t>
-  </si>
-  <si>
     <t>nɒqč</t>
   </si>
   <si>
@@ -1193,9 +1187,6 @@
     <t>korxgr</t>
   </si>
   <si>
-    <t>vuw'k</t>
-  </si>
-  <si>
     <t>ǆfyll</t>
   </si>
   <si>
@@ -1529,9 +1520,6 @@
     <t>ʔastiww</t>
   </si>
   <si>
-    <t>buk'ð</t>
-  </si>
-  <si>
     <t>nɒqtʃ</t>
   </si>
   <si>
@@ -1667,9 +1655,6 @@
     <t>nakʰm</t>
   </si>
   <si>
-    <t>vuwʔk</t>
-  </si>
-  <si>
     <t>dʒfyll</t>
   </si>
   <si>
@@ -2333,9 +2318,6 @@
     <t>unclear</t>
   </si>
   <si>
-    <t>Cast,Spell</t>
-  </si>
-  <si>
     <t>vižǥ</t>
   </si>
   <si>
@@ -2631,6 +2613,18 @@
   </si>
   <si>
     <t>marker</t>
+  </si>
+  <si>
+    <t>vuwk</t>
+  </si>
+  <si>
+    <t>Spell</t>
+  </si>
+  <si>
+    <t>bukð</t>
+  </si>
+  <si>
+    <t>Mirrodin</t>
   </si>
 </sst>
 </file>
@@ -3031,8 +3025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="J242" sqref="J242"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="K175" sqref="K175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3050,48 +3044,48 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>583</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -3100,24 +3094,24 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L2" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -3126,24 +3120,24 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L3" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -3152,24 +3146,24 @@
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L4" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -3178,24 +3172,24 @@
         <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L5" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -3204,24 +3198,24 @@
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L6" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -3230,24 +3224,24 @@
         <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L7" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B8" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -3256,24 +3250,24 @@
         <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L8" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -3282,24 +3276,24 @@
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L9" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B10" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -3308,24 +3302,24 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L10" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B11" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -3334,16 +3328,16 @@
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L11" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -3360,24 +3354,24 @@
         <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L12" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B13" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -3386,27 +3380,27 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="H13" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L13" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B14" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -3415,24 +3409,24 @@
         <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L14" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B15" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -3441,24 +3435,24 @@
         <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L15" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -3467,24 +3461,24 @@
         <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L16" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B17" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -3493,24 +3487,24 @@
         <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L17" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B18" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -3519,24 +3513,24 @@
         <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L18" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B19" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -3545,24 +3539,24 @@
         <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L19" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B20" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -3571,24 +3565,24 @@
         <v>21</v>
       </c>
       <c r="H20" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L20" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -3597,720 +3591,720 @@
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H21" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L21" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B22" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C22" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H22" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L22" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B23" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C23" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H23" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L23" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C24" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H24" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I24" t="b">
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L24" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C25" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="H25" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L25" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C26" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D26" t="s">
         <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="H26" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I26" t="b">
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L26" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C27" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D27" t="s">
         <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H27" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I27" t="b">
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L27" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H28" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L28" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D29" t="s">
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H29" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I29" t="b">
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L29" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C30" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D30" t="s">
         <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H30" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L30" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C31" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D31" t="s">
         <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H31" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L31" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C32" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D32" t="s">
         <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H32" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I32" t="b">
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L32" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B33" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D33" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="H33" t="s">
+        <v>582</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
         <v>759</v>
       </c>
-      <c r="H33" t="s">
-        <v>587</v>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" t="s">
-        <v>764</v>
-      </c>
       <c r="L33" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B34" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C34" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D34" t="s">
         <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="H34" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I34" t="b">
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L34" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B35" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C35" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D35" t="s">
         <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="H35" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I35" t="b">
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L35" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C36" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D36" t="s">
         <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H36" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L36" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C37" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D37" t="s">
         <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H37" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L37" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="B38" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="C38" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="D38" t="s">
         <v>39</v>
       </c>
       <c r="H38" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I38" t="b">
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L38" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B39" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D39" t="s">
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H39" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I39" t="b">
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L39" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B40" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D40" t="s">
         <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="H40" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I40" t="b">
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L40" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B41" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C41" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D41" t="s">
         <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H41" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I41" t="b">
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L41" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C42" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="D42" t="s">
         <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H42" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L42" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B43" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C43" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D43" t="s">
         <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="H43" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I43" t="b">
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L43" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="B44" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="C44" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="D44" t="s">
         <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="H44" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I44" t="b">
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L44" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="B45" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="C45" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="D45" t="s">
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="H45" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I45" t="b">
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L45" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -4319,27 +4313,27 @@
         <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H46" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I46" t="b">
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L46" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B47" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -4348,27 +4342,27 @@
         <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="H47" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I47" t="b">
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L47" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B48" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -4377,27 +4371,27 @@
         <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H48" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L48" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B49" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -4406,27 +4400,27 @@
         <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="H49" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I49" t="b">
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L49" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B50" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -4435,27 +4429,27 @@
         <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="H50" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I50" t="b">
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L50" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -4464,27 +4458,27 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="H51" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I51" t="b">
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L51" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B52" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -4493,27 +4487,27 @@
         <v>53</v>
       </c>
       <c r="E52" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="H52" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I52" t="b">
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L52" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B53" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -4522,27 +4516,27 @@
         <v>54</v>
       </c>
       <c r="E53" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="H53" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I53" t="b">
         <v>1</v>
       </c>
       <c r="K53" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L53" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B54" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -4551,27 +4545,27 @@
         <v>55</v>
       </c>
       <c r="E54" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="H54" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I54" t="b">
         <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L54" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B55" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -4580,27 +4574,27 @@
         <v>56</v>
       </c>
       <c r="E55" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="H55" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I55" t="b">
         <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L55" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B56" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -4609,27 +4603,27 @@
         <v>57</v>
       </c>
       <c r="E56" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="H56" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I56" t="b">
         <v>1</v>
       </c>
       <c r="K56" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L56" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B57" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
@@ -4638,27 +4632,27 @@
         <v>58</v>
       </c>
       <c r="E57" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H57" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I57" t="b">
         <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L57" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B58" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
@@ -4667,346 +4661,346 @@
         <v>59</v>
       </c>
       <c r="E58" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H58" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I58" t="b">
         <v>1</v>
       </c>
       <c r="K58" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L58" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B59" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C59" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D59" t="s">
         <v>60</v>
       </c>
       <c r="E59" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="H59" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I59" t="b">
         <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L59" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="B60" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="C60" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="D60" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="E60" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="H60" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I60" t="b">
         <v>1</v>
       </c>
       <c r="K60" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L60" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B61" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C61" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D61" t="s">
         <v>61</v>
       </c>
       <c r="E61" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="H61" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I61" t="b">
         <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L61" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C62" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D62" t="s">
         <v>62</v>
       </c>
       <c r="E62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H62" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I62" t="b">
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L62" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B63" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C63" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D63" t="s">
         <v>63</v>
       </c>
       <c r="E63" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="H63" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I63" t="b">
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L63" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B64" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C64" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D64" t="s">
         <v>64</v>
       </c>
       <c r="E64" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H64" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I64" t="b">
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L64" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B65" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C65" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D65" t="s">
         <v>65</v>
       </c>
       <c r="E65" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="H65" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I65" t="b">
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L65" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B66" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C66" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D66" t="s">
         <v>66</v>
       </c>
       <c r="E66" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H66" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I66" t="b">
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L66" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B67" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C67" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D67" t="s">
         <v>67</v>
       </c>
       <c r="E67" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="H67" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I67" t="b">
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L67" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B68" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C68" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D68" t="s">
         <v>68</v>
       </c>
       <c r="E68" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H68" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I68" t="b">
         <v>1</v>
       </c>
       <c r="K68" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L68" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B69" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C69" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="D69" t="s">
         <v>69</v>
       </c>
       <c r="E69" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H69" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I69" t="b">
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L69" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B70" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
@@ -5015,27 +5009,27 @@
         <v>70</v>
       </c>
       <c r="E70" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H70" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I70" t="b">
         <v>1</v>
       </c>
       <c r="K70" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L70" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -5044,56 +5038,56 @@
         <v>71</v>
       </c>
       <c r="E71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H71" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I71" t="b">
         <v>1</v>
       </c>
       <c r="K71" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L71" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B72" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C72" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D72" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="E72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H72" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I72" t="b">
         <v>1</v>
       </c>
       <c r="K72" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L72" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="B73" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
@@ -5102,140 +5096,140 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="H73" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I73" t="b">
         <v>1</v>
       </c>
       <c r="K73" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L73" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B74" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="E74" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H74" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I74" t="b">
         <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L74" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B75" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C75" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="D75" t="s">
         <v>73</v>
       </c>
       <c r="E75" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H75" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I75" t="b">
         <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L75" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B76" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C76" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D76" t="s">
-        <v>766</v>
+        <v>861</v>
       </c>
       <c r="E76" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H76" t="s">
-        <v>667</v>
+        <v>582</v>
       </c>
       <c r="I76" t="b">
         <v>1</v>
       </c>
       <c r="K76" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L76" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B77" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C77" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D77" t="s">
         <v>74</v>
       </c>
       <c r="H77" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I77" t="b">
         <v>1</v>
       </c>
       <c r="K77" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L77" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B78" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -5244,143 +5238,143 @@
         <v>75</v>
       </c>
       <c r="E78" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H78" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I78" t="b">
         <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L78" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B79" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C79" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D79" t="s">
         <v>76</v>
       </c>
       <c r="E79" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H79" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="I79" t="b">
         <v>1</v>
       </c>
       <c r="K79" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L79" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D80" t="s">
         <v>77</v>
       </c>
       <c r="E80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H80" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I80" t="b">
         <v>1</v>
       </c>
       <c r="K80" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L80" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B81" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="E81" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H81" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I81" t="b">
         <v>1</v>
       </c>
       <c r="K81" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L81" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="B82" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="C82" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="D82" t="s">
         <v>78</v>
       </c>
       <c r="E82" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="H82" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I82" t="b">
         <v>1</v>
       </c>
       <c r="K82" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L82" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B83" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -5389,27 +5383,27 @@
         <v>79</v>
       </c>
       <c r="E83" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H83" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I83" t="b">
         <v>1</v>
       </c>
       <c r="K83" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L83" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B84" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
@@ -5418,27 +5412,27 @@
         <v>80</v>
       </c>
       <c r="E84" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H84" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I84" t="b">
         <v>1</v>
       </c>
       <c r="K84" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L84" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B85" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
@@ -5447,27 +5441,27 @@
         <v>81</v>
       </c>
       <c r="E85" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H85" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I85" t="b">
         <v>1</v>
       </c>
       <c r="K85" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L85" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="B86" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
@@ -5476,27 +5470,27 @@
         <v>82</v>
       </c>
       <c r="E86" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="H86" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I86" t="b">
         <v>1</v>
       </c>
       <c r="K86" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L86" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B87" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
@@ -5505,85 +5499,85 @@
         <v>83</v>
       </c>
       <c r="E87" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H87" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I87" t="b">
         <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L87" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B88" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C88" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D88" t="s">
         <v>84</v>
       </c>
       <c r="E88" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H88" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I88" t="b">
         <v>1</v>
       </c>
       <c r="K88" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L88" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B89" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="E89" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H89" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I89" t="b">
         <v>1</v>
       </c>
       <c r="K89" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L89" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B90" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
@@ -5592,27 +5586,27 @@
         <v>85</v>
       </c>
       <c r="E90" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H90" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="I90" t="b">
         <v>1</v>
       </c>
       <c r="K90" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L90" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
@@ -5621,56 +5615,56 @@
         <v>86</v>
       </c>
       <c r="E91" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="H91" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I91" t="b">
         <v>1</v>
       </c>
       <c r="K91" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L91" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B92" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C92" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D92" t="s">
         <v>87</v>
       </c>
       <c r="E92" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H92" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I92" t="b">
         <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L92" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B93" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
@@ -5679,85 +5673,85 @@
         <v>88</v>
       </c>
       <c r="E93" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H93" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I93" t="b">
         <v>1</v>
       </c>
       <c r="K93" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L93" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B94" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C94" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D94" t="s">
         <v>89</v>
       </c>
       <c r="E94" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H94" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I94" t="b">
         <v>1</v>
       </c>
       <c r="K94" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L94" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B95" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C95" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D95" t="s">
         <v>90</v>
       </c>
       <c r="E95" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="H95" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I95" t="b">
         <v>1</v>
       </c>
       <c r="K95" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L95" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B96" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
@@ -5766,53 +5760,53 @@
         <v>91</v>
       </c>
       <c r="H96" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I96" t="b">
         <v>1</v>
       </c>
       <c r="K96" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L96" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B97" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D97" t="s">
         <v>92</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="H97" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I97" t="b">
         <v>1</v>
       </c>
       <c r="K97" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L97" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>315</v>
+        <v>862</v>
       </c>
       <c r="B98" t="s">
-        <v>498</v>
+        <v>862</v>
       </c>
       <c r="C98" t="b">
         <v>0</v>
@@ -5821,111 +5815,111 @@
         <v>93</v>
       </c>
       <c r="E98" t="s">
-        <v>315</v>
+        <v>862</v>
       </c>
       <c r="H98" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I98" t="b">
         <v>1</v>
       </c>
       <c r="K98" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L98" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B99" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C99" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D99" t="s">
         <v>94</v>
       </c>
       <c r="E99" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H99" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I99" t="b">
         <v>1</v>
       </c>
       <c r="K99" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L99" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B100" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C100" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D100" t="s">
         <v>95</v>
       </c>
       <c r="H100" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I100" t="b">
         <v>1</v>
       </c>
       <c r="K100" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L100" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B101" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C101" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="D101" t="s">
         <v>96</v>
       </c>
       <c r="E101" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H101" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I101" t="b">
         <v>1</v>
       </c>
       <c r="K101" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L101" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B102" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>
@@ -5934,27 +5928,27 @@
         <v>97</v>
       </c>
       <c r="E102" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H102" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I102" t="b">
         <v>1</v>
       </c>
       <c r="K102" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L102" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B103" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C103" t="b">
         <v>0</v>
@@ -5963,24 +5957,24 @@
         <v>98</v>
       </c>
       <c r="H103" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I103" t="b">
         <v>1</v>
       </c>
       <c r="K103" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L103" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B104" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C104" t="b">
         <v>0</v>
@@ -5989,27 +5983,27 @@
         <v>99</v>
       </c>
       <c r="E104" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H104" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I104" t="b">
         <v>1</v>
       </c>
       <c r="K104" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L104" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B105" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C105" t="b">
         <v>0</v>
@@ -6018,54 +6012,54 @@
         <v>100</v>
       </c>
       <c r="E105" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H105" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I105" t="b">
         <v>1</v>
       </c>
       <c r="K105" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L105" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B106" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C106" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="D106" t="s">
         <v>101</v>
       </c>
       <c r="E106" s="2"/>
       <c r="H106" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I106" t="b">
         <v>1</v>
       </c>
       <c r="K106" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L106" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B107" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C107" t="b">
         <v>0</v>
@@ -6074,85 +6068,85 @@
         <v>102</v>
       </c>
       <c r="E107" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H107" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I107" t="b">
         <v>1</v>
       </c>
       <c r="K107" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L107" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B108" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C108" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D108" t="s">
         <v>103</v>
       </c>
       <c r="E108" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H108" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I108" t="b">
         <v>1</v>
       </c>
       <c r="K108" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L108" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B109" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C109" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D109" t="s">
         <v>104</v>
       </c>
       <c r="E109" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H109" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I109" t="b">
         <v>1</v>
       </c>
       <c r="K109" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L109" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B110" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C110" t="b">
         <v>0</v>
@@ -6161,27 +6155,27 @@
         <v>105</v>
       </c>
       <c r="E110" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H110" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I110" t="b">
         <v>1</v>
       </c>
       <c r="K110" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="L110" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B111" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C111" t="b">
         <v>0</v>
@@ -6190,27 +6184,27 @@
         <v>106</v>
       </c>
       <c r="E111" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H111" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I111" t="b">
         <v>1</v>
       </c>
       <c r="K111" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="L111" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B112" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C112" t="b">
         <v>0</v>
@@ -6219,27 +6213,27 @@
         <v>107</v>
       </c>
       <c r="E112" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H112" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I112" t="b">
         <v>1</v>
       </c>
       <c r="K112" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="L112" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B113" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C113" t="b">
         <v>0</v>
@@ -6248,27 +6242,27 @@
         <v>108</v>
       </c>
       <c r="E113" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="H113" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="I113" t="b">
         <v>1</v>
       </c>
       <c r="K113" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L113" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B114" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C114" t="b">
         <v>0</v>
@@ -6277,56 +6271,56 @@
         <v>109</v>
       </c>
       <c r="E114" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="H114" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="I114" t="b">
         <v>1</v>
       </c>
       <c r="K114" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L114" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="B115" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="C115" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="D115" t="s">
         <v>110</v>
       </c>
       <c r="E115" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="H115" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I115" t="b">
         <v>1</v>
       </c>
       <c r="K115" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L115" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B116" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C116" t="b">
         <v>0</v>
@@ -6335,24 +6329,24 @@
         <v>111</v>
       </c>
       <c r="H116" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I116" t="b">
         <v>1</v>
       </c>
       <c r="K116" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L116" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B117" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C117" t="b">
         <v>0</v>
@@ -6361,169 +6355,169 @@
         <v>112</v>
       </c>
       <c r="E117" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H117" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I117" t="b">
         <v>1</v>
       </c>
       <c r="K117" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L117" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B118" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C118" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="D118" t="s">
         <v>113</v>
       </c>
       <c r="E118" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H118" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I118" t="b">
         <v>1</v>
       </c>
       <c r="K118" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L118" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B119" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C119" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="D119" t="s">
         <v>114</v>
       </c>
       <c r="E119" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="H119" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I119" t="b">
         <v>1</v>
       </c>
       <c r="K119" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L119" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B120" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C120" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D120" t="s">
         <v>115</v>
       </c>
       <c r="H120" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I120" t="b">
         <v>1</v>
       </c>
       <c r="K120" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L120" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B121" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C121" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="D121" t="s">
         <v>116</v>
       </c>
       <c r="E121" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="H121" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I121" t="b">
         <v>1</v>
       </c>
       <c r="K121" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L121" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B122" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C122" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D122" t="s">
         <v>117</v>
       </c>
       <c r="E122" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="H122" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I122" t="b">
         <v>1</v>
       </c>
       <c r="K122" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L122" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B123" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C123" t="b">
         <v>0</v>
@@ -6532,27 +6526,27 @@
         <v>118</v>
       </c>
       <c r="E123" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="H123" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I123" t="b">
         <v>1</v>
       </c>
       <c r="K123" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L123" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B124" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C124" t="b">
         <v>0</v>
@@ -6561,56 +6555,56 @@
         <v>119</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="H124" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I124" t="b">
         <v>1</v>
       </c>
       <c r="K124" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L124" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B125" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D125" t="s">
         <v>120</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H125" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I125" t="b">
         <v>1</v>
       </c>
       <c r="K125" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L125" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B126" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C126" t="b">
         <v>0</v>
@@ -6619,56 +6613,56 @@
         <v>121</v>
       </c>
       <c r="E126" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="H126" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I126" t="b">
         <v>1</v>
       </c>
       <c r="K126" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L126" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B127" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C127" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D127" t="s">
         <v>122</v>
       </c>
       <c r="E127" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H127" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I127" t="b">
         <v>1</v>
       </c>
       <c r="K127" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L127" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B128" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C128" t="b">
         <v>0</v>
@@ -6677,53 +6671,53 @@
         <v>123</v>
       </c>
       <c r="H128" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I128" t="b">
         <v>1</v>
       </c>
       <c r="K128" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L128" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B129" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C129" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D129" t="s">
         <v>124</v>
       </c>
       <c r="E129" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H129" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I129" t="b">
         <v>0</v>
       </c>
       <c r="K129" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L129" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B130" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C130" t="b">
         <v>0</v>
@@ -6732,24 +6726,24 @@
         <v>125</v>
       </c>
       <c r="H130" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I130" t="b">
         <v>1</v>
       </c>
       <c r="K130" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L130" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B131" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C131" t="b">
         <v>0</v>
@@ -6758,27 +6752,27 @@
         <v>126</v>
       </c>
       <c r="E131" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H131" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I131" t="b">
         <v>1</v>
       </c>
       <c r="K131" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L131" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B132" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C132" t="b">
         <v>0</v>
@@ -6787,27 +6781,27 @@
         <v>127</v>
       </c>
       <c r="E132" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H132" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I132" t="b">
         <v>1</v>
       </c>
       <c r="K132" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L132" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B133" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C133" t="b">
         <v>0</v>
@@ -6816,53 +6810,53 @@
         <v>128</v>
       </c>
       <c r="H133" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="I133" t="b">
         <v>1</v>
       </c>
       <c r="K133" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L133" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B134" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C134" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D134" t="s">
         <v>129</v>
       </c>
       <c r="E134" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H134" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I134" t="b">
         <v>0</v>
       </c>
       <c r="K134" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L134" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B135" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C135" t="b">
         <v>0</v>
@@ -6871,24 +6865,24 @@
         <v>130</v>
       </c>
       <c r="H135" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I135" t="b">
         <v>1</v>
       </c>
       <c r="K135" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L135" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B136" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C136" t="b">
         <v>0</v>
@@ -6897,53 +6891,53 @@
         <v>131</v>
       </c>
       <c r="H136" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I136" t="b">
         <v>1</v>
       </c>
       <c r="K136" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L136" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B137" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C137" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D137" t="s">
         <v>66</v>
       </c>
       <c r="E137" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H137" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I137" t="b">
         <v>1</v>
       </c>
       <c r="K137" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L137" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B138" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C138" t="b">
         <v>0</v>
@@ -6952,27 +6946,27 @@
         <v>132</v>
       </c>
       <c r="E138" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H138" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I138" t="b">
         <v>1</v>
       </c>
       <c r="K138" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L138" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B139" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C139" t="b">
         <v>0</v>
@@ -6981,85 +6975,85 @@
         <v>133</v>
       </c>
       <c r="E139" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H139" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I139" t="b">
         <v>1</v>
       </c>
       <c r="K139" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L139" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B140" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C140" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D140" t="s">
         <v>134</v>
       </c>
       <c r="E140" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H140" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I140" t="b">
         <v>1</v>
       </c>
       <c r="K140" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L140" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B141" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C141" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D141" t="s">
         <v>135</v>
       </c>
       <c r="E141" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H141" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I141" t="b">
         <v>1</v>
       </c>
       <c r="K141" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L141" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="B142" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="C142" t="b">
         <v>0</v>
@@ -7068,24 +7062,24 @@
         <v>136</v>
       </c>
       <c r="H142" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I142" t="b">
         <v>1</v>
       </c>
       <c r="K142" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L142" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B143" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C143" t="b">
         <v>0</v>
@@ -7094,24 +7088,24 @@
         <v>137</v>
       </c>
       <c r="H143" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I143" t="b">
         <v>1</v>
       </c>
       <c r="K143" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L143" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B144" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C144" t="b">
         <v>0</v>
@@ -7120,27 +7114,27 @@
         <v>138</v>
       </c>
       <c r="E144" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H144" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="I144" t="b">
         <v>1</v>
       </c>
       <c r="K144" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L144" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B145" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C145" t="b">
         <v>0</v>
@@ -7149,53 +7143,53 @@
         <v>139</v>
       </c>
       <c r="E145" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H145" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I145" t="b">
         <v>1</v>
       </c>
       <c r="K145" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L145" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B146" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C146" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="D146" t="s">
         <v>140</v>
       </c>
       <c r="H146" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I146" t="b">
         <v>1</v>
       </c>
       <c r="K146" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L146" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B147" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C147" t="b">
         <v>0</v>
@@ -7204,53 +7198,53 @@
         <v>141</v>
       </c>
       <c r="H147" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I147" t="b">
         <v>1</v>
       </c>
       <c r="K147" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L147" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B148" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C148" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D148" t="s">
         <v>142</v>
       </c>
       <c r="E148" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H148" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I148" t="b">
         <v>1</v>
       </c>
       <c r="K148" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L148" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B149" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C149" t="b">
         <v>0</v>
@@ -7259,143 +7253,143 @@
         <v>143</v>
       </c>
       <c r="E149" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H149" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I149" t="b">
         <v>1</v>
       </c>
       <c r="K149" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L149" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B150" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C150" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D150" t="s">
         <v>144</v>
       </c>
       <c r="E150" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H150" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I150" t="b">
         <v>1</v>
       </c>
       <c r="K150" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L150" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B151" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C151" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D151" t="s">
         <v>145</v>
       </c>
       <c r="E151" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H151" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I151" t="b">
         <v>1</v>
       </c>
       <c r="K151" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L151" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="B152" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C152" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="D152" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="E152" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="H152" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I152" t="b">
         <v>1</v>
       </c>
       <c r="K152" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L152" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B153" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C153" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D153" t="s">
         <v>146</v>
       </c>
       <c r="E153" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H153" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I153" t="b">
         <v>1</v>
       </c>
       <c r="K153" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L153" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B154" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C154" t="b">
         <v>0</v>
@@ -7404,27 +7398,27 @@
         <v>147</v>
       </c>
       <c r="E154" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="H154" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I154" t="b">
         <v>1</v>
       </c>
       <c r="K154" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L154" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B155" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C155" t="b">
         <v>0</v>
@@ -7433,27 +7427,27 @@
         <v>148</v>
       </c>
       <c r="E155" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H155" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I155" t="b">
         <v>1</v>
       </c>
       <c r="K155" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L155" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B156" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C156" t="b">
         <v>0</v>
@@ -7462,56 +7456,56 @@
         <v>149</v>
       </c>
       <c r="E156" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H156" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I156" t="b">
         <v>1</v>
       </c>
       <c r="K156" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L156" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B157" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D157" t="s">
         <v>150</v>
       </c>
       <c r="E157" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="H157" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I157" t="b">
         <v>1</v>
       </c>
       <c r="K157" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L157" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B158" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C158" t="b">
         <v>0</v>
@@ -7520,56 +7514,56 @@
         <v>151</v>
       </c>
       <c r="E158" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H158" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I158" t="b">
         <v>1</v>
       </c>
       <c r="K158" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L158" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B159" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C159" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D159" t="s">
         <v>152</v>
       </c>
       <c r="E159" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H159" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I159" t="b">
         <v>1</v>
       </c>
       <c r="K159" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L159" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B160" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C160" t="b">
         <v>0</v>
@@ -7578,85 +7572,85 @@
         <v>153</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H160" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I160" t="b">
         <v>1</v>
       </c>
       <c r="K160" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L160" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B161" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D161" t="s">
         <v>154</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H161" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I161" t="b">
         <v>1</v>
       </c>
       <c r="K161" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L161" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B162" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C162" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="D162" t="s">
         <v>155</v>
       </c>
       <c r="E162" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="H162" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I162" t="b">
         <v>1</v>
       </c>
       <c r="K162" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L162" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B163" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C163" t="b">
         <v>0</v>
@@ -7665,53 +7659,53 @@
         <v>156</v>
       </c>
       <c r="E163" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H163" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I163" t="b">
         <v>1</v>
       </c>
       <c r="K163" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L163" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B164" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C164" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D164" t="s">
         <v>157</v>
       </c>
       <c r="H164" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I164" t="b">
         <v>1</v>
       </c>
       <c r="K164" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L164" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B165" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C165" t="b">
         <v>0</v>
@@ -7720,53 +7714,53 @@
         <v>158</v>
       </c>
       <c r="H165" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I165" t="b">
         <v>1</v>
       </c>
       <c r="K165" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L165" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B166" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C166" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D166" t="s">
         <v>159</v>
       </c>
       <c r="E166" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H166" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I166" t="b">
         <v>1</v>
       </c>
       <c r="K166" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L166" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B167" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C167" t="b">
         <v>0</v>
@@ -7775,56 +7769,56 @@
         <v>160</v>
       </c>
       <c r="E167" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H167" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I167" t="b">
         <v>1</v>
       </c>
       <c r="K167" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L167" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B168" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C168" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D168" t="s">
         <v>161</v>
       </c>
       <c r="E168" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H168" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I168" t="b">
         <v>1</v>
       </c>
       <c r="K168" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L168" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B169" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C169" t="b">
         <v>0</v>
@@ -7833,129 +7827,129 @@
         <v>162</v>
       </c>
       <c r="E169" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I169" t="b">
         <v>1</v>
       </c>
       <c r="K169" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L169" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B170" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C170" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="D170" t="s">
         <v>163</v>
       </c>
       <c r="E170" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H170" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I170" t="b">
         <v>1</v>
       </c>
       <c r="K170" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L170" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B171" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="C171" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D171" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="E171" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="H171" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I171" t="b">
         <v>1</v>
       </c>
       <c r="K171" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L171" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B172" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C172" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D172" t="s">
         <v>164</v>
       </c>
       <c r="E172" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H172" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="I172" t="b">
         <v>1</v>
       </c>
       <c r="K172" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L172" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B173" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C173" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="D173" t="s">
         <v>165</v>
       </c>
       <c r="H173" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I173" t="b">
         <v>1</v>
       </c>
       <c r="K173" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L173" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -7966,1928 +7960,1928 @@
         <v>2</v>
       </c>
       <c r="C174" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="D174" t="s">
-        <v>166</v>
+        <v>863</v>
       </c>
       <c r="E174" t="s">
         <v>2</v>
       </c>
       <c r="H174" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I174" t="b">
         <v>0</v>
       </c>
       <c r="K174" t="s">
-        <v>581</v>
+        <v>758</v>
       </c>
       <c r="L174" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B175" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C175" t="b">
         <v>0</v>
       </c>
       <c r="D175" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E175" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="I175" t="b">
         <v>1</v>
       </c>
       <c r="K175" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L175" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="B176" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="C176" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="D176" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E176" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="H176" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I176" t="b">
         <v>1</v>
       </c>
       <c r="K176" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L176" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B177" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="C177" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="D177" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E177" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="H177" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I177" t="b">
         <v>1</v>
       </c>
       <c r="K177" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L177" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>386</v>
+        <v>860</v>
       </c>
       <c r="B178" t="s">
-        <v>544</v>
+        <v>860</v>
       </c>
       <c r="C178" t="b">
         <v>0</v>
       </c>
       <c r="D178" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E178" t="s">
-        <v>386</v>
+        <v>860</v>
       </c>
       <c r="H178" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I178" t="b">
         <v>1</v>
       </c>
       <c r="K178" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L178" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B179" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C179" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="D179" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H179" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I179" t="b">
         <v>1</v>
       </c>
       <c r="K179" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L179" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B180" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="C180" t="b">
         <v>0</v>
       </c>
       <c r="D180" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E180" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="H180" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I180" t="b">
         <v>1</v>
       </c>
       <c r="K180" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L180" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B181" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C181" t="b">
         <v>0</v>
       </c>
       <c r="D181" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H181" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I181" t="b">
         <v>1</v>
       </c>
       <c r="K181" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L181" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B182" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C182" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D182" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E182" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H182" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I182" t="b">
         <v>1</v>
       </c>
       <c r="K182" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L182" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B183" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C183" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D183" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E183" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H183" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I183" t="b">
         <v>1</v>
       </c>
       <c r="K183" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L183" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B184" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C184" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D184" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E184" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H184" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I184" t="b">
         <v>1</v>
       </c>
       <c r="K184" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L184" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B185" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D185" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H185" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="I185" t="b">
         <v>1</v>
       </c>
       <c r="K185" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L185" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B186" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C186" t="b">
         <v>0</v>
       </c>
       <c r="D186" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E186" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="I186" t="b">
         <v>1</v>
       </c>
       <c r="K186" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L186" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B187" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C187" t="b">
         <v>0</v>
       </c>
       <c r="D187" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E187" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H187" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I187" t="b">
         <v>1</v>
       </c>
       <c r="K187" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L187" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B188" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C188" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D188" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E188" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H188" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I188" t="b">
         <v>1</v>
       </c>
       <c r="K188" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L188" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B189" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C189" t="b">
         <v>0</v>
       </c>
       <c r="D189" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H189" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I189" t="b">
         <v>1</v>
       </c>
       <c r="K189" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L189" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B190" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C190" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D190" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H190" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I190" t="b">
         <v>1</v>
       </c>
       <c r="K190" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L190" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B191" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C191" t="b">
         <v>0</v>
       </c>
       <c r="D191" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E191" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H191" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I191" t="b">
         <v>1</v>
       </c>
       <c r="K191" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L191" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B192" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C192" t="b">
         <v>0</v>
       </c>
       <c r="D192" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E192" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H192" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I192" t="b">
         <v>1</v>
       </c>
       <c r="K192" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L192" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B193" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C193" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D193" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H193" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I193" t="b">
         <v>1</v>
       </c>
       <c r="K193" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L193" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B194" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C194" t="b">
         <v>0</v>
       </c>
       <c r="D194" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H194" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I194" t="b">
         <v>1</v>
       </c>
       <c r="K194" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L194" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="B195" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="C195" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D195" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E195" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="H195" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I195" t="b">
         <v>1</v>
       </c>
       <c r="K195" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L195" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B196" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C196" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="D196" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E196" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H196" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I196" t="b">
         <v>1</v>
       </c>
       <c r="K196" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L196" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B197" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C197" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="D197" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E197" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H197" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I197" t="b">
         <v>1</v>
       </c>
       <c r="K197" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L197" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B198" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C198" t="b">
         <v>0</v>
       </c>
       <c r="D198" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E198" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H198" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I198" t="b">
         <v>1</v>
       </c>
       <c r="K198" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L198" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B199" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C199" t="b">
         <v>0</v>
       </c>
       <c r="D199" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E199" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H199" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I199" t="b">
         <v>1</v>
       </c>
       <c r="K199" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L199" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B200" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D200" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E200" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H200" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I200" t="b">
         <v>1</v>
       </c>
       <c r="K200" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L200" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B201" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C201" t="b">
         <v>0</v>
       </c>
       <c r="D201" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E201" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H201" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I201" t="b">
         <v>1</v>
       </c>
       <c r="K201" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L201" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B202" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C202" t="b">
         <v>0</v>
       </c>
       <c r="D202" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E202" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H202" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I202" t="b">
         <v>1</v>
       </c>
       <c r="K202" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L202" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B203" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C203" t="b">
         <v>0</v>
       </c>
       <c r="D203" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E203" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="H203" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I203" t="b">
         <v>1</v>
       </c>
       <c r="K203" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L203" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B204" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D204" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E204" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H204" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I204" t="b">
         <v>1</v>
       </c>
       <c r="K204" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L204" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B205" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C205" t="b">
         <v>0</v>
       </c>
       <c r="D205" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E205" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H205" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I205" t="b">
         <v>1</v>
       </c>
       <c r="K205" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L205" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B206" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C206" t="b">
         <v>0</v>
       </c>
       <c r="D206" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E206" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H206" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I206" t="b">
         <v>1</v>
       </c>
       <c r="K206" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L206" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B207" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C207" t="b">
         <v>0</v>
       </c>
       <c r="D207" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E207" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="H207" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I207" t="b">
         <v>1</v>
       </c>
       <c r="K207" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L207" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B208" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C208" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="D208" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E208" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H208" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I208" t="b">
         <v>1</v>
       </c>
       <c r="K208" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L208" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B209" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C209" t="b">
         <v>0</v>
       </c>
       <c r="D209" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E209" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H209" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I209" t="b">
         <v>1</v>
       </c>
       <c r="K209" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L209" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B210" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C210" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D210" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H210" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I210" t="b">
         <v>1</v>
       </c>
       <c r="K210" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L210" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B211" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C211" t="b">
         <v>0</v>
       </c>
       <c r="D211" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E211" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="I211" t="b">
         <v>1</v>
       </c>
       <c r="K211" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L211" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B212" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C212" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="D212" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E212" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H212" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I212" t="b">
         <v>1</v>
       </c>
       <c r="K212" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L212" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B213" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C213" t="b">
         <v>0</v>
       </c>
       <c r="D213" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I213" t="b">
         <v>1</v>
       </c>
       <c r="K213" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L213" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B214" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C214" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="D214" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E214" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H214" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I214" t="b">
         <v>1</v>
       </c>
       <c r="K214" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L214" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B215" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C215" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D215" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H215" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I215" t="b">
         <v>1</v>
       </c>
       <c r="K215" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L215" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B216" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C216" t="b">
         <v>0</v>
       </c>
       <c r="D216" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H216" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I216" t="b">
         <v>1</v>
       </c>
       <c r="K216" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L216" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B217" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C217" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D217" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E217" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H217" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="I217" t="b">
         <v>1</v>
       </c>
       <c r="K217" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L217" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B218" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D218" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H218" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="I218" t="b">
         <v>1</v>
       </c>
       <c r="K218" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L218" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B219" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C219" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="D219" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E219" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H219" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I219" t="b">
         <v>1</v>
       </c>
       <c r="K219" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L219" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B220" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C220" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="D220" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E220" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H220" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I220" t="b">
         <v>1</v>
       </c>
       <c r="K220" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L220" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B221" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C221" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="D221" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E221" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H221" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I221" t="b">
         <v>1</v>
       </c>
       <c r="K221" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L221" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B222" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C222" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="D222" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E222" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H222" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I222" t="b">
         <v>1</v>
       </c>
       <c r="K222" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L222" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B223" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C223" t="b">
         <v>0</v>
       </c>
       <c r="D223" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E223" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="H223" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I223" t="b">
         <v>1</v>
       </c>
       <c r="K223" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L223" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B224" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C224" t="b">
         <v>0</v>
       </c>
       <c r="D224" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E224" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H224" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I224" t="b">
         <v>1</v>
       </c>
       <c r="K224" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L224" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="B225" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C225" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="D225" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E225" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="H225" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I225" t="b">
         <v>0</v>
       </c>
       <c r="K225" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L225" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B226" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="D226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H226" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="I226" t="b">
         <v>1</v>
       </c>
       <c r="K226" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L226" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B227" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C227" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="D227" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H227" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I227" t="b">
         <v>1</v>
       </c>
       <c r="K227" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L227" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B228" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C228" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="D228" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E228" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H228" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I228" t="b">
         <v>1</v>
       </c>
       <c r="K228" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L228" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B229" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C229" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="D229" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E229" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H229" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I229" t="b">
         <v>1</v>
       </c>
       <c r="K229" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L229" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B230" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C230" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D230" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E230" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H230" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I230" t="b">
         <v>1</v>
       </c>
       <c r="K230" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L230" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B231" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C231" t="b">
         <v>0</v>
       </c>
       <c r="D231" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E231" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H231" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I231" t="b">
         <v>1</v>
       </c>
       <c r="K231" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L231" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B232" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C232" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="D232" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E232" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="H232" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I232" t="b">
         <v>1</v>
       </c>
       <c r="K232" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L232" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B233" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C233" t="b">
         <v>0</v>
       </c>
       <c r="D233" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E233" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H233" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I233" t="b">
         <v>1</v>
       </c>
       <c r="K233" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L233" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B234" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C234" t="b">
         <v>0</v>
       </c>
       <c r="D234" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E234" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H234" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I234" t="b">
         <v>1</v>
       </c>
       <c r="K234" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L234" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B235" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C235" t="b">
         <v>0</v>
       </c>
       <c r="D235" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E235" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H235" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I235" t="b">
         <v>1</v>
       </c>
       <c r="K235" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L235" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B236" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C236" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D236" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E236" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H236" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I236" t="b">
         <v>1</v>
       </c>
       <c r="K236" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L236" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B237" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="D237" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E237" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H237" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I237" t="b">
         <v>1</v>
       </c>
       <c r="K237" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L237" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B238" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C238" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D238" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H238" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I238" t="b">
         <v>1</v>
       </c>
       <c r="K238" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L238" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B239" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C239" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D239" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E239" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H239" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I239" t="b">
         <v>1</v>
       </c>
       <c r="K239" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L239" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B240" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C240" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="D240" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E240" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H240" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I240" t="b">
         <v>1</v>
       </c>
       <c r="K240" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L240" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B241" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C241" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="D241" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E241" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H241" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I241" t="b">
         <v>1</v>
       </c>
       <c r="K241" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L241" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="B242" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="C242" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="E242" s="5" t="b">
         <v>0</v>
@@ -9899,24 +9893,24 @@
         <v>1</v>
       </c>
       <c r="K242" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="L242" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B243" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="C243" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="E243" s="5" t="b">
         <v>0</v>
@@ -9928,24 +9922,24 @@
         <v>1</v>
       </c>
       <c r="K243" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="L243" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="B244" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="C244" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D244" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="E244" s="5" t="b">
         <v>0</v>
@@ -9957,24 +9951,24 @@
         <v>1</v>
       </c>
       <c r="K244" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="L244" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="B245" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="C245" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="E245" s="5" t="b">
         <v>0</v>
@@ -9986,24 +9980,24 @@
         <v>1</v>
       </c>
       <c r="K245" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="L245" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="B246" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="C246" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="E246" s="5" t="b">
         <v>0</v>
@@ -10015,24 +10009,24 @@
         <v>1</v>
       </c>
       <c r="K246" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="L246" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="B247" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="C247" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="E247" s="5" t="b">
         <v>0</v>
@@ -10044,24 +10038,24 @@
         <v>1</v>
       </c>
       <c r="K247" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="L247" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="B248" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="C248" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="E248" s="5" t="b">
         <v>0</v>
@@ -10073,24 +10067,24 @@
         <v>1</v>
       </c>
       <c r="K248" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="L248" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="B249" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="C249" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D249" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="E249" s="5" t="b">
         <v>0</v>
@@ -10102,24 +10096,24 @@
         <v>1</v>
       </c>
       <c r="K249" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="L249" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="B250" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="C250" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="E250" s="5" t="b">
         <v>0</v>
@@ -10131,24 +10125,24 @@
         <v>1</v>
       </c>
       <c r="K250" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="L250" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="B251" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C251" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="E251" s="5" t="b">
         <v>0</v>
@@ -10160,24 +10154,24 @@
         <v>1</v>
       </c>
       <c r="K251" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="L251" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="B252" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="C252" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="E252" s="5" t="b">
         <v>0</v>
@@ -10189,24 +10183,24 @@
         <v>1</v>
       </c>
       <c r="K252" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="L252" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="B253" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="C253" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="E253" s="5" t="b">
         <v>0</v>
@@ -10218,24 +10212,24 @@
         <v>1</v>
       </c>
       <c r="K253" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="L253" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="B254" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="C254" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="E254" s="5" t="b">
         <v>0</v>
@@ -10247,24 +10241,24 @@
         <v>1</v>
       </c>
       <c r="K254" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="L254" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="B255" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="C255" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="E255" s="5" t="b">
         <v>0</v>
@@ -10276,24 +10270,24 @@
         <v>1</v>
       </c>
       <c r="K255" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="L255" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="B256" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="C256" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="E256" s="5" t="b">
         <v>0</v>
@@ -10305,24 +10299,24 @@
         <v>1</v>
       </c>
       <c r="K256" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="L256" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="B257" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="C257" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="E257" s="5" t="b">
         <v>0</v>
@@ -10334,24 +10328,24 @@
         <v>1</v>
       </c>
       <c r="K257" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="L257" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="B258" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="C258" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="E258" s="5" t="b">
         <v>0</v>
@@ -10363,24 +10357,24 @@
         <v>1</v>
       </c>
       <c r="K258" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="L258" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="B259" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="C259" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="E259" s="5" t="b">
         <v>0</v>
@@ -10392,27 +10386,27 @@
         <v>1</v>
       </c>
       <c r="J259" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="K259" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="L259" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="B260" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="C260" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="E260" s="5" t="b">
         <v>0</v>
@@ -10424,27 +10418,27 @@
         <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="K260" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="L260" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="B261" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C261" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="E261" s="5" t="b">
         <v>0</v>
@@ -10456,45 +10450,45 @@
         <v>1</v>
       </c>
       <c r="J261" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="K261" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="L261" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="B262" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C262" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D262" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="E262" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F262" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I262" t="b">
+        <v>1</v>
+      </c>
+      <c r="J262" t="s">
+        <v>854</v>
+      </c>
+      <c r="K262" t="s">
         <v>859</v>
       </c>
-      <c r="E262" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F262" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I262" t="b">
-        <v>1</v>
-      </c>
-      <c r="J262" t="s">
-        <v>860</v>
-      </c>
-      <c r="K262" t="s">
-        <v>865</v>
-      </c>
       <c r="L262" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.3">

--- a/data/compleat_wiki_man.xlsx
+++ b/data/compleat_wiki_man.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\GitHub\PhyrexianDictionary\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7182E0-5846-4867-8DF9-1AC6A31DE430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93783722-7449-4E98-8904-8E51DC33AF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="929">
   <si>
     <t>IPA</t>
   </si>
@@ -3218,10 +3218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L280"/>
+  <dimension ref="A1:L279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="J178" sqref="J178"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7100,22 +7100,22 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>286</v>
+        <v>351</v>
       </c>
       <c r="B137" t="s">
-        <v>474</v>
-      </c>
-      <c r="C137" t="s">
-        <v>609</v>
+        <v>520</v>
+      </c>
+      <c r="C137" t="b">
+        <v>0</v>
       </c>
       <c r="D137" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="E137" t="s">
-        <v>286</v>
+        <v>351</v>
       </c>
       <c r="H137" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I137" t="b">
         <v>1</v>
@@ -7129,28 +7129,28 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B138" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C138" t="b">
         <v>0</v>
       </c>
       <c r="D138" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E138" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="H138" t="s">
-        <v>603</v>
+        <v>581</v>
       </c>
       <c r="I138" t="b">
         <v>1</v>
       </c>
       <c r="K138" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L138" t="s">
         <v>803</v>
@@ -7158,28 +7158,28 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B139" t="s">
-        <v>521</v>
-      </c>
-      <c r="C139" t="b">
-        <v>0</v>
+        <v>353</v>
+      </c>
+      <c r="C139" t="s">
+        <v>639</v>
       </c>
       <c r="D139" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E139" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="H139" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I139" t="b">
         <v>1</v>
       </c>
       <c r="K139" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L139" t="s">
         <v>803</v>
@@ -7187,19 +7187,19 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B140" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C140" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D140" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E140" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H140" t="s">
         <v>582</v>
@@ -7216,45 +7216,42 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>354</v>
+        <v>784</v>
       </c>
       <c r="B141" t="s">
-        <v>354</v>
-      </c>
-      <c r="C141" t="s">
-        <v>640</v>
+        <v>785</v>
+      </c>
+      <c r="C141" t="b">
+        <v>0</v>
       </c>
       <c r="D141" t="s">
-        <v>135</v>
-      </c>
-      <c r="E141" t="s">
-        <v>354</v>
+        <v>136</v>
       </c>
       <c r="H141" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I141" t="b">
         <v>1</v>
       </c>
       <c r="K141" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L141" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>784</v>
+        <v>355</v>
       </c>
       <c r="B142" t="s">
-        <v>785</v>
+        <v>355</v>
       </c>
       <c r="C142" t="b">
         <v>0</v>
       </c>
       <c r="D142" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H142" t="s">
         <v>603</v>
@@ -7263,33 +7260,36 @@
         <v>1</v>
       </c>
       <c r="K142" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L142" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B143" t="s">
-        <v>355</v>
+        <v>522</v>
       </c>
       <c r="C143" t="b">
         <v>0</v>
       </c>
       <c r="D143" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="E143" t="s">
+        <v>356</v>
       </c>
       <c r="H143" t="s">
-        <v>603</v>
+        <v>708</v>
       </c>
       <c r="I143" t="b">
         <v>1</v>
       </c>
       <c r="K143" t="s">
-        <v>760</v>
+        <v>576</v>
       </c>
       <c r="L143" t="s">
         <v>803</v>
@@ -7297,22 +7297,22 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B144" t="s">
-        <v>522</v>
+        <v>357</v>
       </c>
       <c r="C144" t="b">
         <v>0</v>
       </c>
       <c r="D144" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E144" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H144" t="s">
-        <v>708</v>
+        <v>581</v>
       </c>
       <c r="I144" t="b">
         <v>1</v>
@@ -7326,28 +7326,25 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B145" t="s">
-        <v>357</v>
-      </c>
-      <c r="C145" t="b">
-        <v>0</v>
+        <v>523</v>
+      </c>
+      <c r="C145" t="s">
+        <v>641</v>
       </c>
       <c r="D145" t="s">
-        <v>139</v>
-      </c>
-      <c r="E145" t="s">
-        <v>357</v>
+        <v>140</v>
       </c>
       <c r="H145" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I145" t="b">
         <v>1</v>
       </c>
       <c r="K145" t="s">
-        <v>576</v>
+        <v>760</v>
       </c>
       <c r="L145" t="s">
         <v>803</v>
@@ -7355,19 +7352,19 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B146" t="s">
-        <v>523</v>
-      </c>
-      <c r="C146" t="s">
-        <v>641</v>
+        <v>524</v>
+      </c>
+      <c r="C146" t="b">
+        <v>0</v>
       </c>
       <c r="D146" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H146" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I146" t="b">
         <v>1</v>
@@ -7381,25 +7378,28 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B147" t="s">
-        <v>524</v>
-      </c>
-      <c r="C147" t="b">
-        <v>0</v>
+        <v>360</v>
+      </c>
+      <c r="C147" t="s">
+        <v>642</v>
       </c>
       <c r="D147" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="E147" t="s">
+        <v>360</v>
       </c>
       <c r="H147" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="I147" t="b">
         <v>1</v>
       </c>
       <c r="K147" t="s">
-        <v>760</v>
+        <v>576</v>
       </c>
       <c r="L147" t="s">
         <v>803</v>
@@ -7407,22 +7407,22 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B148" t="s">
-        <v>360</v>
-      </c>
-      <c r="C148" t="s">
-        <v>642</v>
+        <v>525</v>
+      </c>
+      <c r="C148" t="b">
+        <v>0</v>
       </c>
       <c r="D148" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E148" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H148" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I148" t="b">
         <v>1</v>
@@ -7436,22 +7436,22 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B149" t="s">
-        <v>525</v>
-      </c>
-      <c r="C149" t="b">
-        <v>0</v>
+        <v>362</v>
+      </c>
+      <c r="C149" t="s">
+        <v>362</v>
       </c>
       <c r="D149" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E149" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H149" t="s">
-        <v>603</v>
+        <v>581</v>
       </c>
       <c r="I149" t="b">
         <v>1</v>
@@ -7465,22 +7465,22 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B150" t="s">
-        <v>362</v>
+        <v>526</v>
       </c>
       <c r="C150" t="s">
-        <v>362</v>
+        <v>643</v>
       </c>
       <c r="D150" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E150" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H150" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I150" t="b">
         <v>1</v>
@@ -7494,19 +7494,19 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>363</v>
+        <v>786</v>
       </c>
       <c r="B151" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C151" t="s">
-        <v>643</v>
+        <v>787</v>
       </c>
       <c r="D151" t="s">
-        <v>145</v>
+        <v>644</v>
       </c>
       <c r="E151" t="s">
-        <v>363</v>
+        <v>747</v>
       </c>
       <c r="H151" t="s">
         <v>582</v>
@@ -7515,7 +7515,7 @@
         <v>1</v>
       </c>
       <c r="K151" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L151" t="s">
         <v>803</v>
@@ -7523,19 +7523,19 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>786</v>
+        <v>364</v>
       </c>
       <c r="B152" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C152" t="s">
-        <v>787</v>
+        <v>645</v>
       </c>
       <c r="D152" t="s">
-        <v>644</v>
+        <v>146</v>
       </c>
       <c r="E152" t="s">
-        <v>747</v>
+        <v>364</v>
       </c>
       <c r="H152" t="s">
         <v>582</v>
@@ -7544,7 +7544,7 @@
         <v>1</v>
       </c>
       <c r="K152" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L152" t="s">
         <v>803</v>
@@ -7552,19 +7552,19 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B153" t="s">
-        <v>528</v>
-      </c>
-      <c r="C153" t="s">
-        <v>645</v>
+        <v>529</v>
+      </c>
+      <c r="C153" t="b">
+        <v>0</v>
       </c>
       <c r="D153" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E153" t="s">
-        <v>364</v>
+        <v>748</v>
       </c>
       <c r="H153" t="s">
         <v>582</v>
@@ -7573,7 +7573,7 @@
         <v>1</v>
       </c>
       <c r="K153" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L153" t="s">
         <v>803</v>
@@ -7581,28 +7581,28 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B154" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C154" t="b">
         <v>0</v>
       </c>
       <c r="D154" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E154" t="s">
-        <v>748</v>
+        <v>366</v>
       </c>
       <c r="H154" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I154" t="b">
         <v>1</v>
       </c>
       <c r="K154" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L154" t="s">
         <v>803</v>
@@ -7610,19 +7610,19 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B155" t="s">
-        <v>530</v>
+        <v>367</v>
       </c>
       <c r="C155" t="b">
         <v>0</v>
       </c>
       <c r="D155" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E155" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H155" t="s">
         <v>603</v>
@@ -7639,28 +7639,28 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B156" t="s">
-        <v>367</v>
-      </c>
-      <c r="C156" t="b">
-        <v>0</v>
+        <v>531</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>648</v>
       </c>
       <c r="D156" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E156" t="s">
-        <v>367</v>
+        <v>746</v>
       </c>
       <c r="H156" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="I156" t="b">
         <v>1</v>
       </c>
       <c r="K156" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L156" t="s">
         <v>803</v>
@@ -7668,28 +7668,28 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B157" t="s">
-        <v>531</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>648</v>
+        <v>369</v>
+      </c>
+      <c r="C157" t="b">
+        <v>0</v>
       </c>
       <c r="D157" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E157" t="s">
-        <v>746</v>
+        <v>369</v>
       </c>
       <c r="H157" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I157" t="b">
         <v>1</v>
       </c>
       <c r="K157" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L157" t="s">
         <v>803</v>
@@ -7697,22 +7697,22 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>369</v>
+        <v>235</v>
       </c>
       <c r="B158" t="s">
-        <v>369</v>
-      </c>
-      <c r="C158" t="b">
-        <v>0</v>
+        <v>235</v>
+      </c>
+      <c r="C158" t="s">
+        <v>646</v>
       </c>
       <c r="D158" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E158" t="s">
-        <v>369</v>
+        <v>235</v>
       </c>
       <c r="H158" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="I158" t="b">
         <v>1</v>
@@ -7726,22 +7726,22 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>235</v>
+        <v>306</v>
       </c>
       <c r="B159" t="s">
-        <v>235</v>
-      </c>
-      <c r="C159" t="s">
-        <v>646</v>
+        <v>488</v>
+      </c>
+      <c r="C159" t="b">
+        <v>0</v>
       </c>
       <c r="D159" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E159" t="s">
-        <v>235</v>
+        <v>306</v>
       </c>
       <c r="H159" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I159" t="b">
         <v>1</v>
@@ -7755,22 +7755,22 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>306</v>
+        <v>370</v>
       </c>
       <c r="B160" t="s">
-        <v>488</v>
-      </c>
-      <c r="C160" t="b">
-        <v>0</v>
+        <v>532</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>647</v>
       </c>
       <c r="D160" t="s">
-        <v>153</v>
-      </c>
-      <c r="E160" t="s">
-        <v>306</v>
+        <v>154</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="H160" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="I160" t="b">
         <v>1</v>
@@ -7784,19 +7784,19 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B161" t="s">
-        <v>532</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>647</v>
+        <v>533</v>
+      </c>
+      <c r="C161" t="s">
+        <v>650</v>
       </c>
       <c r="D161" t="s">
-        <v>154</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>370</v>
+        <v>155</v>
+      </c>
+      <c r="E161" t="s">
+        <v>749</v>
       </c>
       <c r="H161" t="s">
         <v>582</v>
@@ -7805,7 +7805,7 @@
         <v>1</v>
       </c>
       <c r="K161" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L161" t="s">
         <v>803</v>
@@ -7813,28 +7813,28 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B162" t="s">
-        <v>533</v>
-      </c>
-      <c r="C162" t="s">
-        <v>650</v>
+        <v>534</v>
+      </c>
+      <c r="C162" t="b">
+        <v>0</v>
       </c>
       <c r="D162" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E162" t="s">
-        <v>749</v>
+        <v>372</v>
       </c>
       <c r="H162" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I162" t="b">
         <v>1</v>
       </c>
       <c r="K162" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L162" t="s">
         <v>803</v>
@@ -7842,28 +7842,25 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B163" t="s">
-        <v>534</v>
-      </c>
-      <c r="C163" t="b">
-        <v>0</v>
+        <v>535</v>
+      </c>
+      <c r="C163" t="s">
+        <v>651</v>
       </c>
       <c r="D163" t="s">
-        <v>156</v>
-      </c>
-      <c r="E163" t="s">
-        <v>372</v>
+        <v>157</v>
       </c>
       <c r="H163" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I163" t="b">
         <v>1</v>
       </c>
       <c r="K163" t="s">
-        <v>576</v>
+        <v>760</v>
       </c>
       <c r="L163" t="s">
         <v>803</v>
@@ -7871,25 +7868,25 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B164" t="s">
-        <v>535</v>
-      </c>
-      <c r="C164" t="s">
-        <v>651</v>
+        <v>536</v>
+      </c>
+      <c r="C164" t="b">
+        <v>0</v>
       </c>
       <c r="D164" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H164" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I164" t="b">
         <v>1</v>
       </c>
       <c r="K164" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L164" t="s">
         <v>803</v>
@@ -7897,25 +7894,28 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B165" t="s">
-        <v>536</v>
-      </c>
-      <c r="C165" t="b">
-        <v>0</v>
+        <v>375</v>
+      </c>
+      <c r="C165" t="s">
+        <v>652</v>
       </c>
       <c r="D165" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="E165" t="s">
+        <v>375</v>
       </c>
       <c r="H165" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I165" t="b">
         <v>1</v>
       </c>
       <c r="K165" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L165" t="s">
         <v>803</v>
@@ -7923,19 +7923,19 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B166" t="s">
-        <v>375</v>
-      </c>
-      <c r="C166" t="s">
-        <v>652</v>
+        <v>537</v>
+      </c>
+      <c r="C166" t="b">
+        <v>0</v>
       </c>
       <c r="D166" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E166" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="H166" t="s">
         <v>582</v>
@@ -7944,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="K166" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L166" t="s">
         <v>803</v>
@@ -7952,19 +7952,19 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B167" t="s">
-        <v>537</v>
-      </c>
-      <c r="C167" t="b">
-        <v>0</v>
+        <v>377</v>
+      </c>
+      <c r="C167" t="s">
+        <v>653</v>
       </c>
       <c r="D167" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E167" t="s">
-        <v>354</v>
+        <v>430</v>
       </c>
       <c r="H167" t="s">
         <v>582</v>
@@ -7981,22 +7981,19 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B168" t="s">
-        <v>377</v>
-      </c>
-      <c r="C168" t="s">
-        <v>653</v>
+        <v>378</v>
+      </c>
+      <c r="C168" t="b">
+        <v>0</v>
       </c>
       <c r="D168" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E168" t="s">
-        <v>430</v>
-      </c>
-      <c r="H168" t="s">
-        <v>582</v>
+        <v>396</v>
       </c>
       <c r="I168" t="b">
         <v>1</v>
@@ -8010,25 +8007,28 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B169" t="s">
-        <v>378</v>
-      </c>
-      <c r="C169" t="b">
-        <v>0</v>
+        <v>538</v>
+      </c>
+      <c r="C169" t="s">
+        <v>654</v>
       </c>
       <c r="D169" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E169" t="s">
-        <v>396</v>
+        <v>379</v>
+      </c>
+      <c r="H169" t="s">
+        <v>582</v>
       </c>
       <c r="I169" t="b">
         <v>1</v>
       </c>
       <c r="K169" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L169" t="s">
         <v>803</v>
@@ -8036,19 +8036,19 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>379</v>
+        <v>656</v>
       </c>
       <c r="B170" t="s">
-        <v>538</v>
+        <v>657</v>
       </c>
       <c r="C170" t="s">
-        <v>654</v>
+        <v>380</v>
       </c>
       <c r="D170" t="s">
-        <v>163</v>
+        <v>655</v>
       </c>
       <c r="E170" t="s">
-        <v>379</v>
+        <v>656</v>
       </c>
       <c r="H170" t="s">
         <v>582</v>
@@ -8065,22 +8065,22 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>656</v>
+        <v>381</v>
       </c>
       <c r="B171" t="s">
-        <v>657</v>
+        <v>539</v>
       </c>
       <c r="C171" t="s">
-        <v>380</v>
+        <v>658</v>
       </c>
       <c r="D171" t="s">
-        <v>655</v>
+        <v>164</v>
       </c>
       <c r="E171" t="s">
-        <v>656</v>
+        <v>381</v>
       </c>
       <c r="H171" t="s">
-        <v>582</v>
+        <v>662</v>
       </c>
       <c r="I171" t="b">
         <v>1</v>
@@ -8094,28 +8094,25 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B172" t="s">
-        <v>539</v>
+        <v>382</v>
       </c>
       <c r="C172" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D172" t="s">
-        <v>164</v>
-      </c>
-      <c r="E172" t="s">
-        <v>381</v>
+        <v>165</v>
       </c>
       <c r="H172" t="s">
-        <v>662</v>
+        <v>582</v>
       </c>
       <c r="I172" t="b">
         <v>1</v>
       </c>
       <c r="K172" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L172" t="s">
         <v>803</v>
@@ -8123,25 +8120,28 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>382</v>
+        <v>2</v>
       </c>
       <c r="B173" t="s">
-        <v>382</v>
+        <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D173" t="s">
-        <v>165</v>
+        <v>927</v>
+      </c>
+      <c r="E173" t="s">
+        <v>2</v>
       </c>
       <c r="H173" t="s">
         <v>582</v>
       </c>
       <c r="I173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K173" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L173" t="s">
         <v>803</v>
@@ -8149,28 +8149,25 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>2</v>
+        <v>383</v>
       </c>
       <c r="B174" t="s">
-        <v>2</v>
-      </c>
-      <c r="C174" t="s">
-        <v>660</v>
+        <v>383</v>
+      </c>
+      <c r="C174" t="b">
+        <v>0</v>
       </c>
       <c r="D174" t="s">
-        <v>927</v>
+        <v>166</v>
       </c>
       <c r="E174" t="s">
-        <v>2</v>
-      </c>
-      <c r="H174" t="s">
-        <v>582</v>
+        <v>750</v>
       </c>
       <c r="I174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K174" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L174" t="s">
         <v>803</v>
@@ -8178,25 +8175,28 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>383</v>
+        <v>788</v>
       </c>
       <c r="B175" t="s">
-        <v>383</v>
-      </c>
-      <c r="C175" t="b">
-        <v>0</v>
+        <v>793</v>
+      </c>
+      <c r="C175" t="s">
+        <v>789</v>
       </c>
       <c r="D175" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E175" t="s">
-        <v>750</v>
+        <v>788</v>
+      </c>
+      <c r="H175" t="s">
+        <v>582</v>
       </c>
       <c r="I175" t="b">
         <v>1</v>
       </c>
       <c r="K175" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L175" t="s">
         <v>803</v>
@@ -8204,19 +8204,19 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="B176" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C176" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="D176" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E176" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="H176" t="s">
         <v>582</v>
@@ -8225,7 +8225,7 @@
         <v>1</v>
       </c>
       <c r="K176" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L176" t="s">
         <v>803</v>
@@ -8233,28 +8233,28 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>792</v>
+        <v>928</v>
       </c>
       <c r="B177" t="s">
-        <v>794</v>
-      </c>
-      <c r="C177" t="s">
-        <v>791</v>
+        <v>928</v>
+      </c>
+      <c r="C177" t="b">
+        <v>0</v>
       </c>
       <c r="D177" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E177" t="s">
-        <v>790</v>
+        <v>928</v>
       </c>
       <c r="H177" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I177" t="b">
         <v>1</v>
       </c>
       <c r="K177" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L177" t="s">
         <v>803</v>
@@ -8262,28 +8262,25 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>928</v>
+        <v>384</v>
       </c>
       <c r="B178" t="s">
-        <v>928</v>
-      </c>
-      <c r="C178" t="b">
-        <v>0</v>
+        <v>540</v>
+      </c>
+      <c r="C178" t="s">
+        <v>661</v>
       </c>
       <c r="D178" t="s">
-        <v>169</v>
-      </c>
-      <c r="E178" t="s">
-        <v>928</v>
+        <v>170</v>
       </c>
       <c r="H178" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="I178" t="b">
         <v>1</v>
       </c>
       <c r="K178" t="s">
-        <v>576</v>
+        <v>760</v>
       </c>
       <c r="L178" t="s">
         <v>803</v>
@@ -8291,25 +8288,28 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>384</v>
+        <v>795</v>
       </c>
       <c r="B179" t="s">
-        <v>540</v>
-      </c>
-      <c r="C179" t="s">
-        <v>661</v>
+        <v>795</v>
+      </c>
+      <c r="C179" t="b">
+        <v>0</v>
       </c>
       <c r="D179" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="E179" t="s">
+        <v>795</v>
       </c>
       <c r="H179" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I179" t="b">
         <v>1</v>
       </c>
       <c r="K179" t="s">
-        <v>760</v>
+        <v>576</v>
       </c>
       <c r="L179" t="s">
         <v>803</v>
@@ -8317,19 +8317,16 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>795</v>
+        <v>385</v>
       </c>
       <c r="B180" t="s">
-        <v>795</v>
+        <v>541</v>
       </c>
       <c r="C180" t="b">
         <v>0</v>
       </c>
       <c r="D180" t="s">
-        <v>171</v>
-      </c>
-      <c r="E180" t="s">
-        <v>795</v>
+        <v>172</v>
       </c>
       <c r="H180" t="s">
         <v>581</v>
@@ -8338,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="K180" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L180" t="s">
         <v>803</v>
@@ -8346,25 +8343,28 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B181" t="s">
-        <v>541</v>
-      </c>
-      <c r="C181" t="b">
-        <v>0</v>
+        <v>542</v>
+      </c>
+      <c r="C181" t="s">
+        <v>386</v>
       </c>
       <c r="D181" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="E181" t="s">
+        <v>386</v>
       </c>
       <c r="H181" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I181" t="b">
         <v>1</v>
       </c>
       <c r="K181" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L181" t="s">
         <v>803</v>
@@ -8372,19 +8372,19 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B182" t="s">
-        <v>542</v>
+        <v>387</v>
       </c>
       <c r="C182" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D182" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E182" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H182" t="s">
         <v>582</v>
@@ -8401,19 +8401,19 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B183" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C183" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D183" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E183" t="s">
-        <v>387</v>
+        <v>751</v>
       </c>
       <c r="H183" t="s">
         <v>582</v>
@@ -8422,7 +8422,7 @@
         <v>1</v>
       </c>
       <c r="K183" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L183" t="s">
         <v>803</v>
@@ -8430,22 +8430,19 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B184" t="s">
-        <v>388</v>
-      </c>
-      <c r="C184" t="s">
-        <v>388</v>
+        <v>543</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>663</v>
       </c>
       <c r="D184" t="s">
-        <v>175</v>
-      </c>
-      <c r="E184" t="s">
-        <v>751</v>
+        <v>176</v>
       </c>
       <c r="H184" t="s">
-        <v>582</v>
+        <v>662</v>
       </c>
       <c r="I184" t="b">
         <v>1</v>
@@ -8459,25 +8456,25 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B185" t="s">
-        <v>543</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>663</v>
+        <v>390</v>
+      </c>
+      <c r="C185" t="b">
+        <v>0</v>
       </c>
       <c r="D185" t="s">
-        <v>176</v>
-      </c>
-      <c r="H185" t="s">
-        <v>662</v>
+        <v>177</v>
+      </c>
+      <c r="E185" t="s">
+        <v>390</v>
       </c>
       <c r="I185" t="b">
         <v>1</v>
       </c>
       <c r="K185" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L185" t="s">
         <v>803</v>
@@ -8485,25 +8482,28 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B186" t="s">
-        <v>390</v>
+        <v>544</v>
       </c>
       <c r="C186" t="b">
         <v>0</v>
       </c>
       <c r="D186" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E186" t="s">
-        <v>390</v>
+        <v>381</v>
+      </c>
+      <c r="H186" t="s">
+        <v>582</v>
       </c>
       <c r="I186" t="b">
         <v>1</v>
       </c>
       <c r="K186" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L186" t="s">
         <v>803</v>
@@ -8511,19 +8511,19 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B187" t="s">
-        <v>544</v>
-      </c>
-      <c r="C187" t="b">
-        <v>0</v>
+        <v>545</v>
+      </c>
+      <c r="C187" t="s">
+        <v>664</v>
       </c>
       <c r="D187" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E187" t="s">
-        <v>381</v>
+        <v>287</v>
       </c>
       <c r="H187" t="s">
         <v>582</v>
@@ -8540,22 +8540,19 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B188" t="s">
-        <v>545</v>
-      </c>
-      <c r="C188" t="s">
-        <v>664</v>
+        <v>546</v>
+      </c>
+      <c r="C188" t="b">
+        <v>0</v>
       </c>
       <c r="D188" t="s">
-        <v>179</v>
-      </c>
-      <c r="E188" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="H188" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I188" t="b">
         <v>1</v>
@@ -8569,19 +8566,19 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B189" t="s">
-        <v>546</v>
-      </c>
-      <c r="C189" t="b">
-        <v>0</v>
+        <v>547</v>
+      </c>
+      <c r="C189" t="s">
+        <v>665</v>
       </c>
       <c r="D189" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H189" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="I189" t="b">
         <v>1</v>
@@ -8595,25 +8592,28 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B190" t="s">
-        <v>547</v>
-      </c>
-      <c r="C190" t="s">
-        <v>665</v>
+        <v>548</v>
+      </c>
+      <c r="C190" t="b">
+        <v>0</v>
       </c>
       <c r="D190" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="E190" t="s">
+        <v>395</v>
       </c>
       <c r="H190" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I190" t="b">
         <v>1</v>
       </c>
       <c r="K190" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L190" t="s">
         <v>803</v>
@@ -8621,19 +8621,19 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B191" t="s">
-        <v>548</v>
+        <v>396</v>
       </c>
       <c r="C191" t="b">
         <v>0</v>
       </c>
       <c r="D191" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E191" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H191" t="s">
         <v>603</v>
@@ -8650,28 +8650,25 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B192" t="s">
-        <v>396</v>
-      </c>
-      <c r="C192" t="b">
-        <v>0</v>
+        <v>549</v>
+      </c>
+      <c r="C192" t="s">
+        <v>666</v>
       </c>
       <c r="D192" t="s">
-        <v>183</v>
-      </c>
-      <c r="E192" t="s">
-        <v>396</v>
+        <v>184</v>
       </c>
       <c r="H192" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="I192" t="b">
         <v>1</v>
       </c>
       <c r="K192" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L192" t="s">
         <v>803</v>
@@ -8679,19 +8676,19 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B193" t="s">
-        <v>549</v>
-      </c>
-      <c r="C193" t="s">
-        <v>666</v>
+        <v>550</v>
+      </c>
+      <c r="C193" t="b">
+        <v>0</v>
       </c>
       <c r="D193" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H193" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I193" t="b">
         <v>1</v>
@@ -8705,25 +8702,28 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>398</v>
+        <v>796</v>
       </c>
       <c r="B194" t="s">
-        <v>550</v>
-      </c>
-      <c r="C194" t="b">
-        <v>0</v>
+        <v>798</v>
+      </c>
+      <c r="C194" t="s">
+        <v>797</v>
       </c>
       <c r="D194" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="E194" t="s">
+        <v>796</v>
       </c>
       <c r="H194" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="I194" t="b">
         <v>1</v>
       </c>
       <c r="K194" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L194" t="s">
         <v>803</v>
@@ -8731,19 +8731,19 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>796</v>
+        <v>399</v>
       </c>
       <c r="B195" t="s">
-        <v>798</v>
+        <v>399</v>
       </c>
       <c r="C195" t="s">
-        <v>797</v>
+        <v>667</v>
       </c>
       <c r="D195" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E195" t="s">
-        <v>796</v>
+        <v>399</v>
       </c>
       <c r="H195" t="s">
         <v>582</v>
@@ -8760,19 +8760,19 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B196" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C196" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D196" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E196" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H196" t="s">
         <v>582</v>
@@ -8789,22 +8789,22 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B197" t="s">
-        <v>400</v>
-      </c>
-      <c r="C197" t="s">
-        <v>668</v>
+        <v>401</v>
+      </c>
+      <c r="C197" t="b">
+        <v>0</v>
       </c>
       <c r="D197" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E197" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H197" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I197" t="b">
         <v>1</v>
@@ -8818,22 +8818,22 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B198" t="s">
-        <v>401</v>
+        <v>551</v>
       </c>
       <c r="C198" t="b">
         <v>0</v>
       </c>
       <c r="D198" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E198" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H198" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="I198" t="b">
         <v>1</v>
@@ -8847,19 +8847,19 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B199" t="s">
-        <v>551</v>
-      </c>
-      <c r="C199" t="b">
-        <v>0</v>
+        <v>552</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>669</v>
       </c>
       <c r="D199" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E199" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H199" t="s">
         <v>582</v>
@@ -8876,22 +8876,22 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B200" t="s">
-        <v>552</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>669</v>
+        <v>553</v>
+      </c>
+      <c r="C200" t="b">
+        <v>0</v>
       </c>
       <c r="D200" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E200" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H200" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I200" t="b">
         <v>1</v>
@@ -8905,19 +8905,19 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B201" t="s">
-        <v>553</v>
+        <v>405</v>
       </c>
       <c r="C201" t="b">
         <v>0</v>
       </c>
       <c r="D201" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E201" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H201" t="s">
         <v>603</v>
@@ -8934,19 +8934,19 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B202" t="s">
-        <v>405</v>
+        <v>554</v>
       </c>
       <c r="C202" t="b">
         <v>0</v>
       </c>
       <c r="D202" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E202" t="s">
-        <v>405</v>
+        <v>726</v>
       </c>
       <c r="H202" t="s">
         <v>603</v>
@@ -8955,7 +8955,7 @@
         <v>1</v>
       </c>
       <c r="K202" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L202" t="s">
         <v>803</v>
@@ -8963,28 +8963,28 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B203" t="s">
-        <v>554</v>
-      </c>
-      <c r="C203" t="b">
-        <v>0</v>
+        <v>555</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>670</v>
       </c>
       <c r="D203" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E203" t="s">
-        <v>726</v>
+        <v>407</v>
       </c>
       <c r="H203" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="I203" t="b">
         <v>1</v>
       </c>
       <c r="K203" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L203" t="s">
         <v>803</v>
@@ -8992,22 +8992,22 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B204" t="s">
-        <v>555</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>670</v>
+        <v>408</v>
+      </c>
+      <c r="C204" t="b">
+        <v>0</v>
       </c>
       <c r="D204" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E204" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H204" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I204" t="b">
         <v>1</v>
@@ -9021,19 +9021,19 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B205" t="s">
-        <v>408</v>
+        <v>556</v>
       </c>
       <c r="C205" t="b">
         <v>0</v>
       </c>
       <c r="D205" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E205" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H205" t="s">
         <v>603</v>
@@ -9050,19 +9050,19 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B206" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C206" t="b">
         <v>0</v>
       </c>
       <c r="D206" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E206" t="s">
-        <v>409</v>
+        <v>755</v>
       </c>
       <c r="H206" t="s">
         <v>603</v>
@@ -9071,7 +9071,7 @@
         <v>1</v>
       </c>
       <c r="K206" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L206" t="s">
         <v>803</v>
@@ -9079,22 +9079,22 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>410</v>
+        <v>756</v>
       </c>
       <c r="B207" t="s">
-        <v>557</v>
-      </c>
-      <c r="C207" t="b">
-        <v>0</v>
+        <v>672</v>
+      </c>
+      <c r="C207" t="s">
+        <v>671</v>
       </c>
       <c r="D207" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E207" t="s">
-        <v>755</v>
+        <v>401</v>
       </c>
       <c r="H207" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="I207" t="b">
         <v>1</v>
@@ -9108,28 +9108,28 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>756</v>
+        <v>411</v>
       </c>
       <c r="B208" t="s">
-        <v>672</v>
-      </c>
-      <c r="C208" t="s">
-        <v>671</v>
+        <v>411</v>
+      </c>
+      <c r="C208" t="b">
+        <v>0</v>
       </c>
       <c r="D208" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E208" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="H208" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I208" t="b">
         <v>1</v>
       </c>
       <c r="K208" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L208" t="s">
         <v>803</v>
@@ -9137,28 +9137,25 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B209" t="s">
-        <v>411</v>
-      </c>
-      <c r="C209" t="b">
-        <v>0</v>
+        <v>412</v>
+      </c>
+      <c r="C209" t="s">
+        <v>673</v>
       </c>
       <c r="D209" t="s">
-        <v>200</v>
-      </c>
-      <c r="E209" t="s">
-        <v>411</v>
+        <v>201</v>
       </c>
       <c r="H209" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="I209" t="b">
         <v>1</v>
       </c>
       <c r="K209" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L209" t="s">
         <v>803</v>
@@ -9166,45 +9163,48 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B210" t="s">
-        <v>412</v>
-      </c>
-      <c r="C210" t="s">
-        <v>673</v>
+        <v>413</v>
+      </c>
+      <c r="C210" t="b">
+        <v>0</v>
       </c>
       <c r="D210" t="s">
-        <v>201</v>
-      </c>
-      <c r="H210" t="s">
-        <v>582</v>
+        <v>202</v>
+      </c>
+      <c r="E210" t="s">
+        <v>413</v>
       </c>
       <c r="I210" t="b">
         <v>1</v>
       </c>
       <c r="K210" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L210" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B211" t="s">
-        <v>413</v>
-      </c>
-      <c r="C211" t="b">
-        <v>0</v>
+        <v>414</v>
+      </c>
+      <c r="C211" t="s">
+        <v>674</v>
       </c>
       <c r="D211" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>414</v>
+      </c>
+      <c r="H211" t="s">
+        <v>582</v>
       </c>
       <c r="I211" t="b">
         <v>1</v>
@@ -9213,33 +9213,27 @@
         <v>576</v>
       </c>
       <c r="L211" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B212" t="s">
-        <v>414</v>
-      </c>
-      <c r="C212" t="s">
-        <v>674</v>
+        <v>558</v>
+      </c>
+      <c r="C212" t="b">
+        <v>0</v>
       </c>
       <c r="D212" t="s">
-        <v>203</v>
-      </c>
-      <c r="E212" t="s">
-        <v>414</v>
-      </c>
-      <c r="H212" t="s">
-        <v>582</v>
+        <v>204</v>
       </c>
       <c r="I212" t="b">
         <v>1</v>
       </c>
       <c r="K212" t="s">
-        <v>576</v>
+        <v>760</v>
       </c>
       <c r="L212" t="s">
         <v>803</v>
@@ -9247,22 +9241,28 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B213" t="s">
-        <v>558</v>
-      </c>
-      <c r="C213" t="b">
-        <v>0</v>
+        <v>559</v>
+      </c>
+      <c r="C213" t="s">
+        <v>675</v>
       </c>
       <c r="D213" t="s">
-        <v>204</v>
+        <v>205</v>
+      </c>
+      <c r="E213" t="s">
+        <v>416</v>
+      </c>
+      <c r="H213" t="s">
+        <v>582</v>
       </c>
       <c r="I213" t="b">
         <v>1</v>
       </c>
       <c r="K213" t="s">
-        <v>760</v>
+        <v>576</v>
       </c>
       <c r="L213" t="s">
         <v>803</v>
@@ -9270,19 +9270,16 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B214" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="C214" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D214" t="s">
-        <v>205</v>
-      </c>
-      <c r="E214" t="s">
-        <v>416</v>
+        <v>206</v>
       </c>
       <c r="H214" t="s">
         <v>582</v>
@@ -9291,7 +9288,7 @@
         <v>1</v>
       </c>
       <c r="K214" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L214" t="s">
         <v>803</v>
@@ -9299,25 +9296,28 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B215" t="s">
-        <v>417</v>
-      </c>
-      <c r="C215" t="s">
-        <v>676</v>
+        <v>418</v>
+      </c>
+      <c r="C215" t="b">
+        <v>0</v>
       </c>
       <c r="D215" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="E215" t="s">
+        <v>418</v>
       </c>
       <c r="H215" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I215" t="b">
         <v>1</v>
       </c>
       <c r="K215" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L215" t="s">
         <v>803</v>
@@ -9325,22 +9325,22 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B216" t="s">
-        <v>418</v>
-      </c>
-      <c r="C216" t="b">
-        <v>0</v>
+        <v>560</v>
+      </c>
+      <c r="C216" t="s">
+        <v>678</v>
       </c>
       <c r="D216" t="s">
-        <v>207</v>
+        <v>677</v>
       </c>
       <c r="E216" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H216" t="s">
-        <v>603</v>
+        <v>662</v>
       </c>
       <c r="I216" t="b">
         <v>1</v>
@@ -9354,19 +9354,16 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B217" t="s">
-        <v>560</v>
-      </c>
-      <c r="C217" t="s">
-        <v>678</v>
+        <v>561</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>679</v>
       </c>
       <c r="D217" t="s">
-        <v>677</v>
-      </c>
-      <c r="E217" t="s">
-        <v>419</v>
+        <v>208</v>
       </c>
       <c r="H217" t="s">
         <v>662</v>
@@ -9375,7 +9372,7 @@
         <v>1</v>
       </c>
       <c r="K217" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L217" t="s">
         <v>803</v>
@@ -9383,19 +9380,22 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B218" t="s">
-        <v>561</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>679</v>
+        <v>421</v>
+      </c>
+      <c r="C218" t="s">
+        <v>680</v>
       </c>
       <c r="D218" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="E218" t="s">
+        <v>255</v>
       </c>
       <c r="H218" t="s">
-        <v>662</v>
+        <v>582</v>
       </c>
       <c r="I218" t="b">
         <v>1</v>
@@ -9409,19 +9409,19 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B219" t="s">
-        <v>421</v>
+        <v>562</v>
       </c>
       <c r="C219" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D219" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E219" t="s">
-        <v>255</v>
+        <v>422</v>
       </c>
       <c r="H219" t="s">
         <v>582</v>
@@ -9430,7 +9430,7 @@
         <v>1</v>
       </c>
       <c r="K219" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L219" t="s">
         <v>803</v>
@@ -9438,19 +9438,19 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B220" t="s">
-        <v>562</v>
+        <v>423</v>
       </c>
       <c r="C220" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D220" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E220" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H220" t="s">
         <v>582</v>
@@ -9467,19 +9467,19 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B221" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C221" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D221" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E221" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H221" t="s">
         <v>582</v>
@@ -9496,22 +9496,22 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>424</v>
+        <v>688</v>
       </c>
       <c r="B222" t="s">
-        <v>424</v>
-      </c>
-      <c r="C222" t="s">
-        <v>683</v>
+        <v>689</v>
+      </c>
+      <c r="C222" t="b">
+        <v>0</v>
       </c>
       <c r="D222" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E222" t="s">
-        <v>424</v>
+        <v>688</v>
       </c>
       <c r="H222" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I222" t="b">
         <v>1</v>
@@ -9520,24 +9520,24 @@
         <v>576</v>
       </c>
       <c r="L222" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>688</v>
+        <v>425</v>
       </c>
       <c r="B223" t="s">
-        <v>689</v>
+        <v>425</v>
       </c>
       <c r="C223" t="b">
         <v>0</v>
       </c>
       <c r="D223" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E223" t="s">
-        <v>688</v>
+        <v>425</v>
       </c>
       <c r="H223" t="s">
         <v>603</v>
@@ -9554,100 +9554,100 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>425</v>
+        <v>799</v>
       </c>
       <c r="B224" t="s">
-        <v>425</v>
-      </c>
-      <c r="C224" t="b">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="C224" t="s">
+        <v>801</v>
       </c>
       <c r="D224" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E224" t="s">
-        <v>425</v>
+        <v>799</v>
       </c>
       <c r="H224" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="I224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K224" t="s">
         <v>576</v>
       </c>
       <c r="L224" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
-        <v>799</v>
+      <c r="A225" s="2" t="s">
+        <v>687</v>
       </c>
       <c r="B225" t="s">
-        <v>800</v>
-      </c>
-      <c r="C225" t="s">
-        <v>801</v>
+        <v>686</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>684</v>
       </c>
       <c r="D225" t="s">
-        <v>215</v>
-      </c>
-      <c r="E225" t="s">
-        <v>799</v>
+        <v>216</v>
       </c>
       <c r="H225" t="s">
-        <v>582</v>
+        <v>662</v>
       </c>
       <c r="I225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K225" t="s">
-        <v>576</v>
+        <v>760</v>
       </c>
       <c r="L225" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A226" s="2" t="s">
-        <v>687</v>
+      <c r="A226" t="s">
+        <v>426</v>
       </c>
       <c r="B226" t="s">
-        <v>686</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>684</v>
+        <v>563</v>
+      </c>
+      <c r="C226" t="s">
+        <v>685</v>
       </c>
       <c r="D226" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H226" t="s">
-        <v>662</v>
+        <v>582</v>
       </c>
       <c r="I226" t="b">
         <v>1</v>
       </c>
       <c r="K226" t="s">
-        <v>760</v>
+        <v>576</v>
       </c>
       <c r="L226" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B227" t="s">
-        <v>563</v>
+        <v>427</v>
       </c>
       <c r="C227" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="D227" t="s">
-        <v>217</v>
+        <v>218</v>
+      </c>
+      <c r="E227" t="s">
+        <v>427</v>
       </c>
       <c r="H227" t="s">
         <v>582</v>
@@ -9664,19 +9664,19 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B228" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C228" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D228" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E228" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H228" t="s">
         <v>582</v>
@@ -9693,19 +9693,19 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B229" t="s">
-        <v>428</v>
+        <v>564</v>
       </c>
       <c r="C229" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D229" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E229" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H229" t="s">
         <v>582</v>
@@ -9717,27 +9717,27 @@
         <v>576</v>
       </c>
       <c r="L229" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B230" t="s">
-        <v>564</v>
-      </c>
-      <c r="C230" t="s">
-        <v>692</v>
+        <v>430</v>
+      </c>
+      <c r="C230" t="b">
+        <v>0</v>
       </c>
       <c r="D230" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E230" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H230" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I230" t="b">
         <v>1</v>
@@ -9746,27 +9746,27 @@
         <v>576</v>
       </c>
       <c r="L230" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>430</v>
+        <v>693</v>
       </c>
       <c r="B231" t="s">
-        <v>430</v>
-      </c>
-      <c r="C231" t="b">
-        <v>0</v>
+        <v>695</v>
+      </c>
+      <c r="C231" t="s">
+        <v>694</v>
       </c>
       <c r="D231" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E231" t="s">
-        <v>430</v>
+        <v>693</v>
       </c>
       <c r="H231" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I231" t="b">
         <v>1</v>
@@ -9780,22 +9780,22 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>693</v>
+        <v>431</v>
       </c>
       <c r="B232" t="s">
-        <v>695</v>
-      </c>
-      <c r="C232" t="s">
-        <v>694</v>
+        <v>565</v>
+      </c>
+      <c r="C232" t="b">
+        <v>0</v>
       </c>
       <c r="D232" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E232" t="s">
-        <v>693</v>
+        <v>431</v>
       </c>
       <c r="H232" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I232" t="b">
         <v>1</v>
@@ -9809,19 +9809,19 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B233" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C233" t="b">
         <v>0</v>
       </c>
       <c r="D233" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E233" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H233" t="s">
         <v>581</v>
@@ -9833,27 +9833,27 @@
         <v>576</v>
       </c>
       <c r="L233" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B234" t="s">
-        <v>566</v>
+        <v>433</v>
       </c>
       <c r="C234" t="b">
         <v>0</v>
       </c>
       <c r="D234" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E234" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H234" t="s">
-        <v>581</v>
+        <v>603</v>
       </c>
       <c r="I234" t="b">
         <v>1</v>
@@ -9867,22 +9867,22 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B235" t="s">
-        <v>433</v>
-      </c>
-      <c r="C235" t="b">
-        <v>0</v>
+        <v>567</v>
+      </c>
+      <c r="C235" t="s">
+        <v>696</v>
       </c>
       <c r="D235" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E235" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H235" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="I235" t="b">
         <v>1</v>
@@ -9891,24 +9891,24 @@
         <v>576</v>
       </c>
       <c r="L235" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B236" t="s">
-        <v>567</v>
-      </c>
-      <c r="C236" t="s">
-        <v>696</v>
+        <v>568</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>697</v>
       </c>
       <c r="D236" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E236" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H236" t="s">
         <v>582</v>
@@ -9920,24 +9920,21 @@
         <v>576</v>
       </c>
       <c r="L236" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>435</v>
+        <v>698</v>
       </c>
       <c r="B237" t="s">
-        <v>568</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>697</v>
+        <v>699</v>
+      </c>
+      <c r="C237" t="s">
+        <v>700</v>
       </c>
       <c r="D237" t="s">
-        <v>227</v>
-      </c>
-      <c r="E237" t="s">
-        <v>435</v>
+        <v>228</v>
       </c>
       <c r="H237" t="s">
         <v>582</v>
@@ -9946,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="K237" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L237" t="s">
         <v>803</v>
@@ -9954,16 +9951,19 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>698</v>
+        <v>436</v>
       </c>
       <c r="B238" t="s">
-        <v>699</v>
+        <v>569</v>
       </c>
       <c r="C238" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D238" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="E238" t="s">
+        <v>436</v>
       </c>
       <c r="H238" t="s">
         <v>582</v>
@@ -9972,27 +9972,27 @@
         <v>1</v>
       </c>
       <c r="K238" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L238" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B239" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C239" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D239" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E239" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H239" t="s">
         <v>582</v>
@@ -10009,19 +10009,19 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B240" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C240" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D240" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E240" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H240" t="s">
         <v>582</v>
@@ -10038,45 +10038,48 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>438</v>
+        <v>806</v>
       </c>
       <c r="B241" t="s">
-        <v>571</v>
-      </c>
-      <c r="C241" t="s">
-        <v>703</v>
-      </c>
-      <c r="D241" t="s">
-        <v>231</v>
-      </c>
-      <c r="E241" t="s">
-        <v>438</v>
+        <v>806</v>
+      </c>
+      <c r="C241" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="E241" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F241" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>582</v>
+        <v>808</v>
       </c>
       <c r="I241" t="b">
         <v>1</v>
       </c>
       <c r="K241" t="s">
-        <v>576</v>
+        <v>809</v>
       </c>
       <c r="L241" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>806</v>
+      <c r="A242" s="2" t="s">
+        <v>810</v>
       </c>
       <c r="B242" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="C242" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="E242" s="5" t="b">
         <v>0</v>
@@ -10098,17 +10101,17 @@
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A243" s="2" t="s">
-        <v>810</v>
+      <c r="A243" t="s">
+        <v>813</v>
       </c>
       <c r="B243" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C243" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D243" s="5" t="s">
-        <v>812</v>
+      <c r="D243" t="s">
+        <v>814</v>
       </c>
       <c r="E243" s="5" t="b">
         <v>0</v>
@@ -10131,16 +10134,16 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B244" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C244" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D244" t="s">
-        <v>814</v>
+      <c r="D244" s="5" t="s">
+        <v>817</v>
       </c>
       <c r="E244" s="5" t="b">
         <v>0</v>
@@ -10163,16 +10166,16 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B245" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C245" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="E245" s="5" t="b">
         <v>0</v>
@@ -10195,16 +10198,16 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B246" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="C246" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="E246" s="5" t="b">
         <v>0</v>
@@ -10227,16 +10230,16 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B247" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C247" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="E247" s="5" t="b">
         <v>0</v>
@@ -10259,16 +10262,16 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B248" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="C248" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D248" s="5" t="s">
-        <v>823</v>
+      <c r="D248" t="s">
+        <v>825</v>
       </c>
       <c r="E248" s="5" t="b">
         <v>0</v>
@@ -10291,16 +10294,16 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B249" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="C249" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D249" t="s">
-        <v>825</v>
+      <c r="D249" s="5" t="s">
+        <v>827</v>
       </c>
       <c r="E249" s="5" t="b">
         <v>0</v>
@@ -10309,7 +10312,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>808</v>
+        <v>828</v>
       </c>
       <c r="I249" t="b">
         <v>1</v>
@@ -10323,16 +10326,16 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="B250" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C250" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="E250" s="5" t="b">
         <v>0</v>
@@ -10355,16 +10358,16 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B251" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C251" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="E251" s="5" t="b">
         <v>0</v>
@@ -10373,7 +10376,7 @@
         <v>0</v>
       </c>
       <c r="H251" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="I251" t="b">
         <v>1</v>
@@ -10387,16 +10390,16 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="B252" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="C252" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="E252" s="5" t="b">
         <v>0</v>
@@ -10405,7 +10408,7 @@
         <v>0</v>
       </c>
       <c r="H252" t="s">
-        <v>833</v>
+        <v>808</v>
       </c>
       <c r="I252" t="b">
         <v>1</v>
@@ -10414,21 +10417,21 @@
         <v>809</v>
       </c>
       <c r="L252" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
-        <v>834</v>
+      <c r="A253" s="2" t="s">
+        <v>836</v>
       </c>
       <c r="B253" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="C253" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="E253" s="5" t="b">
         <v>0</v>
@@ -10446,21 +10449,21 @@
         <v>809</v>
       </c>
       <c r="L253" t="s">
-        <v>804</v>
+        <v>905</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A254" s="2" t="s">
-        <v>836</v>
+      <c r="A254" t="s">
+        <v>839</v>
       </c>
       <c r="B254" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C254" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="E254" s="5" t="b">
         <v>0</v>
@@ -10478,21 +10481,21 @@
         <v>809</v>
       </c>
       <c r="L254" t="s">
-        <v>905</v>
+        <v>803</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B255" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="C255" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="E255" s="5" t="b">
         <v>0</v>
@@ -10510,21 +10513,21 @@
         <v>809</v>
       </c>
       <c r="L255" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="B256" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C256" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D256" s="5" t="s">
-        <v>843</v>
+      <c r="D256" s="6" t="s">
+        <v>924</v>
       </c>
       <c r="E256" s="5" t="b">
         <v>0</v>
@@ -10542,21 +10545,21 @@
         <v>809</v>
       </c>
       <c r="L256" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B257" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="C257" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D257" s="6" t="s">
-        <v>924</v>
+      <c r="D257" s="5" t="s">
+        <v>847</v>
       </c>
       <c r="E257" s="5" t="b">
         <v>0</v>
@@ -10579,16 +10582,16 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="B258" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C258" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="E258" s="5" t="b">
         <v>0</v>
@@ -10602,6 +10605,9 @@
       <c r="I258" t="b">
         <v>1</v>
       </c>
+      <c r="J258" t="s">
+        <v>850</v>
+      </c>
       <c r="K258" t="s">
         <v>809</v>
       </c>
@@ -10611,16 +10617,16 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="B259" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="C259" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="E259" s="5" t="b">
         <v>0</v>
@@ -10635,7 +10641,7 @@
         <v>1</v>
       </c>
       <c r="J259" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="K259" t="s">
         <v>809</v>
@@ -10646,16 +10652,16 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B260" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="C260" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="E260" s="5" t="b">
         <v>0</v>
@@ -10670,7 +10676,7 @@
         <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="K260" t="s">
         <v>809</v>
@@ -10681,16 +10687,16 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="B261" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C261" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="E261" s="5" t="b">
         <v>0</v>
@@ -10705,7 +10711,7 @@
         <v>1</v>
       </c>
       <c r="J261" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="K261" t="s">
         <v>809</v>
@@ -10716,16 +10722,16 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="B262" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="C262" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="E262" s="5" t="b">
         <v>0</v>
@@ -10734,13 +10740,13 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>808</v>
+        <v>863</v>
       </c>
       <c r="I262" t="b">
         <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>860</v>
+        <v>906</v>
       </c>
       <c r="K262" t="s">
         <v>809</v>
@@ -10751,16 +10757,16 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="B263" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="C263" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="E263" s="5" t="b">
         <v>0</v>
@@ -10775,7 +10781,7 @@
         <v>1</v>
       </c>
       <c r="J263" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="K263" t="s">
         <v>809</v>
@@ -10786,16 +10792,16 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="B264" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="C264" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="E264" s="5" t="b">
         <v>0</v>
@@ -10810,7 +10816,7 @@
         <v>1</v>
       </c>
       <c r="J264" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="K264" t="s">
         <v>809</v>
@@ -10821,16 +10827,16 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B265" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="C265" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="E265" s="5" t="b">
         <v>0</v>
@@ -10845,7 +10851,7 @@
         <v>1</v>
       </c>
       <c r="J265" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="K265" t="s">
         <v>809</v>
@@ -10856,16 +10862,16 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>869</v>
+        <v>415</v>
       </c>
       <c r="B266" t="s">
-        <v>870</v>
+        <v>558</v>
       </c>
       <c r="C266" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E266" s="5" t="b">
         <v>0</v>
@@ -10880,7 +10886,7 @@
         <v>1</v>
       </c>
       <c r="J266" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="K266" t="s">
         <v>809</v>
@@ -10890,17 +10896,17 @@
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
-        <v>415</v>
+      <c r="A267" s="2" t="s">
+        <v>873</v>
       </c>
       <c r="B267" t="s">
-        <v>558</v>
+        <v>874</v>
       </c>
       <c r="C267" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="E267" s="5" t="b">
         <v>0</v>
@@ -10915,7 +10921,7 @@
         <v>1</v>
       </c>
       <c r="J267" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="K267" t="s">
         <v>809</v>
@@ -10925,17 +10931,17 @@
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A268" s="2" t="s">
-        <v>873</v>
+      <c r="A268" t="s">
+        <v>876</v>
       </c>
       <c r="B268" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="C268" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="E268" s="5" t="b">
         <v>0</v>
@@ -10950,7 +10956,7 @@
         <v>1</v>
       </c>
       <c r="J268" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="K268" t="s">
         <v>809</v>
@@ -10961,16 +10967,16 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B269" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="C269" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="E269" s="5" t="b">
         <v>0</v>
@@ -10985,7 +10991,7 @@
         <v>1</v>
       </c>
       <c r="J269" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="K269" t="s">
         <v>809</v>
@@ -10996,16 +11002,16 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="B270" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C270" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="E270" s="5" t="b">
         <v>0</v>
@@ -11020,27 +11026,27 @@
         <v>1</v>
       </c>
       <c r="J270" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="K270" t="s">
         <v>809</v>
       </c>
       <c r="L270" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B271" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C271" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="E271" s="5" t="b">
         <v>0</v>
@@ -11055,7 +11061,7 @@
         <v>1</v>
       </c>
       <c r="J271" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="K271" t="s">
         <v>809</v>
@@ -11066,16 +11072,16 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B272" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C272" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="E272" s="5" t="b">
         <v>0</v>
@@ -11084,33 +11090,33 @@
         <v>0</v>
       </c>
       <c r="H272" t="s">
-        <v>863</v>
+        <v>887</v>
       </c>
       <c r="I272" t="b">
         <v>1</v>
       </c>
       <c r="J272" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="K272" t="s">
         <v>809</v>
       </c>
       <c r="L272" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="B273" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="C273" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="E273" s="5" t="b">
         <v>0</v>
@@ -11119,13 +11125,13 @@
         <v>0</v>
       </c>
       <c r="H273" t="s">
-        <v>887</v>
+        <v>863</v>
       </c>
       <c r="I273" t="b">
         <v>1</v>
       </c>
       <c r="J273" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="K273" t="s">
         <v>809</v>
@@ -11136,16 +11142,16 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B274" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C274" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="E274" s="5" t="b">
         <v>0</v>
@@ -11160,27 +11166,27 @@
         <v>1</v>
       </c>
       <c r="J274" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="K274" t="s">
         <v>809</v>
       </c>
       <c r="L274" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B275" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C275" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="E275" s="5" t="b">
         <v>0</v>
@@ -11195,27 +11201,27 @@
         <v>1</v>
       </c>
       <c r="J275" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="K275" t="s">
         <v>809</v>
       </c>
       <c r="L275" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B276" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C276" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="E276" s="5" t="b">
         <v>0</v>
@@ -11230,27 +11236,27 @@
         <v>1</v>
       </c>
       <c r="J276" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="K276" t="s">
         <v>809</v>
       </c>
       <c r="L276" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B277" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C277" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="E277" s="5" t="b">
         <v>0</v>
@@ -11265,27 +11271,27 @@
         <v>1</v>
       </c>
       <c r="J277" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="K277" t="s">
         <v>809</v>
       </c>
       <c r="L277" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B278" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="C278" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D278" s="5" t="s">
-        <v>897</v>
+      <c r="D278" t="s">
+        <v>900</v>
       </c>
       <c r="E278" s="5" t="b">
         <v>0</v>
@@ -11294,13 +11300,13 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>863</v>
+        <v>901</v>
       </c>
       <c r="I278" t="b">
         <v>1</v>
       </c>
       <c r="J278" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="K278" t="s">
         <v>809</v>
@@ -11311,16 +11317,16 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="B279" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="C279" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D279" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="E279" s="5" t="b">
         <v>0</v>
@@ -11329,53 +11335,18 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
       <c r="I279" t="b">
         <v>1</v>
       </c>
       <c r="J279" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="K279" t="s">
         <v>809</v>
       </c>
       <c r="L279" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
-        <v>902</v>
-      </c>
-      <c r="B280" t="s">
-        <v>903</v>
-      </c>
-      <c r="C280" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D280" t="s">
-        <v>904</v>
-      </c>
-      <c r="E280" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F280" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H280" t="s">
-        <v>887</v>
-      </c>
-      <c r="I280" t="b">
-        <v>1</v>
-      </c>
-      <c r="J280" t="s">
-        <v>923</v>
-      </c>
-      <c r="K280" t="s">
-        <v>809</v>
-      </c>
-      <c r="L280" t="s">
         <v>803</v>
       </c>
     </row>

--- a/data/compleat_wiki_man.xlsx
+++ b/data/compleat_wiki_man.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\GitHub\PhyrexianDictionary\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3670DCBF-9AE0-4283-B5AE-757D395985D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93783722-7449-4E98-8904-8E51DC33AF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="929">
   <si>
     <t>IPA</t>
   </si>
@@ -2459,6 +2459,12 @@
     <t>Indicative, Present</t>
   </si>
   <si>
+    <t>mood</t>
+  </si>
+  <si>
+    <t>particle</t>
+  </si>
+  <si>
     <t>'u</t>
   </si>
   <si>
@@ -2513,6 +2519,9 @@
     <t>Alternative (or)</t>
   </si>
   <si>
+    <t>mood, suffix</t>
+  </si>
+  <si>
     <t>xə</t>
   </si>
   <si>
@@ -2525,12 +2534,21 @@
     <t>Negative (un-, not)</t>
   </si>
   <si>
+    <t>mood, prefix</t>
+  </si>
+  <si>
     <t>əl</t>
   </si>
   <si>
     <t>negative (anti-affirmative/double negative)</t>
   </si>
   <si>
+    <t>'a</t>
+  </si>
+  <si>
+    <t>ʔa</t>
+  </si>
+  <si>
     <t>obligation/necessity (must)</t>
   </si>
   <si>
@@ -2600,31 +2618,208 @@
     <t>Paired with past</t>
   </si>
   <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>to (spatial)</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>əšq</t>
+  </si>
+  <si>
+    <t>əʃq</t>
+  </si>
+  <si>
+    <t>on (spatial)</t>
+  </si>
+  <si>
+    <t>dl</t>
+  </si>
+  <si>
+    <t>in (spatial)</t>
+  </si>
+  <si>
+    <t>φɒ'</t>
+  </si>
+  <si>
+    <t>φɒʔ</t>
+  </si>
+  <si>
+    <t>until (temporal)</t>
+  </si>
+  <si>
+    <t>for (temporal)</t>
+  </si>
+  <si>
+    <t>'ɒp</t>
+  </si>
+  <si>
+    <t>ʔɒp</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>ɢə</t>
+  </si>
+  <si>
+    <t>this/that</t>
+  </si>
+  <si>
+    <t>ɣẅ</t>
+  </si>
+  <si>
+    <t>ɣɯ</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>qər</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>than</t>
+  </si>
+  <si>
+    <t>prefix, suffix</t>
+  </si>
+  <si>
+    <t>pl</t>
+  </si>
+  <si>
+    <t>completion</t>
+  </si>
+  <si>
+    <t>plθ</t>
+  </si>
+  <si>
+    <t>not-completion</t>
+  </si>
+  <si>
+    <t>pn</t>
+  </si>
+  <si>
+    <t>greater</t>
+  </si>
+  <si>
+    <t>ke</t>
+  </si>
+  <si>
+    <t>collective</t>
+  </si>
+  <si>
+    <t>ɣwi</t>
+  </si>
+  <si>
+    <t>ability</t>
+  </si>
+  <si>
+    <t>tč</t>
+  </si>
+  <si>
+    <t>ttʃ</t>
+  </si>
+  <si>
+    <t>indicate order</t>
+  </si>
+  <si>
+    <t>suffix</t>
+  </si>
+  <si>
+    <t>xe_'ə</t>
+  </si>
+  <si>
+    <t>xe_ʔə</t>
+  </si>
+  <si>
+    <t>indicate frequency</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>'return this to your hand'</t>
+  </si>
+  <si>
+    <t>'put a counter on this'</t>
+  </si>
+  <si>
+    <t>'target card in your graveyard'</t>
+  </si>
+  <si>
+    <t>'until your next turn'</t>
+  </si>
+  <si>
+    <t>'you can do this for this turn'</t>
+  </si>
+  <si>
+    <t>'produce mana of any type'</t>
+  </si>
+  <si>
+    <t>'sacrifice this creature'</t>
+  </si>
+  <si>
+    <t>'a card from your deck'</t>
+  </si>
+  <si>
+    <t>'ability of a permanent'</t>
+  </si>
+  <si>
+    <t>'destroy all permanents with counters'</t>
+  </si>
+  <si>
+    <t>'more/less than'</t>
+  </si>
+  <si>
+    <t>'Complete (prefix + make)'</t>
+  </si>
+  <si>
+    <t>'half, rounded down (prefix + not + two + amounts)'</t>
+  </si>
+  <si>
+    <t>'Vigilance (ability + prefix + see)'</t>
+  </si>
+  <si>
+    <t>'world (prefix + land)'</t>
+  </si>
+  <si>
+    <t>'Immortality (prefix + un + death)'</t>
+  </si>
+  <si>
+    <t>Number-related. 'Top (first) card of your library '</t>
+  </si>
+  <si>
+    <t>Number-related. 'once per turn'</t>
+  </si>
+  <si>
     <t>'Unless'</t>
   </si>
   <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>ha</t>
-  </si>
-  <si>
-    <t>marker</t>
+    <t>Spell</t>
+  </si>
+  <si>
+    <t>bukð</t>
+  </si>
+  <si>
+    <t>Mirrodin</t>
   </si>
   <si>
     <t>vuwk</t>
-  </si>
-  <si>
-    <t>Spell</t>
-  </si>
-  <si>
-    <t>bukð</t>
-  </si>
-  <si>
-    <t>Mirrodin</t>
   </si>
 </sst>
 </file>
@@ -3023,10 +3218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L280"/>
+  <dimension ref="A1:L279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="K175" sqref="K175"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5180,13 +5375,13 @@
         <v>628</v>
       </c>
       <c r="D76" t="s">
-        <v>861</v>
+        <v>925</v>
       </c>
       <c r="E76" t="s">
         <v>294</v>
       </c>
       <c r="H76" t="s">
-        <v>582</v>
+        <v>662</v>
       </c>
       <c r="I76" t="b">
         <v>1</v>
@@ -5803,10 +5998,10 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>862</v>
+        <v>926</v>
       </c>
       <c r="B98" t="s">
-        <v>862</v>
+        <v>926</v>
       </c>
       <c r="C98" t="b">
         <v>0</v>
@@ -5815,7 +6010,7 @@
         <v>93</v>
       </c>
       <c r="E98" t="s">
-        <v>862</v>
+        <v>926</v>
       </c>
       <c r="H98" t="s">
         <v>603</v>
@@ -6164,7 +6359,7 @@
         <v>1</v>
       </c>
       <c r="K110" t="s">
-        <v>857</v>
+        <v>576</v>
       </c>
       <c r="L110" t="s">
         <v>803</v>
@@ -6193,7 +6388,7 @@
         <v>1</v>
       </c>
       <c r="K111" t="s">
-        <v>857</v>
+        <v>576</v>
       </c>
       <c r="L111" t="s">
         <v>803</v>
@@ -6222,7 +6417,7 @@
         <v>1</v>
       </c>
       <c r="K112" t="s">
-        <v>857</v>
+        <v>576</v>
       </c>
       <c r="L112" t="s">
         <v>803</v>
@@ -6905,22 +7100,22 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>286</v>
+        <v>351</v>
       </c>
       <c r="B137" t="s">
-        <v>474</v>
-      </c>
-      <c r="C137" t="s">
-        <v>609</v>
+        <v>520</v>
+      </c>
+      <c r="C137" t="b">
+        <v>0</v>
       </c>
       <c r="D137" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="E137" t="s">
-        <v>286</v>
+        <v>351</v>
       </c>
       <c r="H137" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I137" t="b">
         <v>1</v>
@@ -6934,28 +7129,28 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B138" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C138" t="b">
         <v>0</v>
       </c>
       <c r="D138" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E138" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="H138" t="s">
-        <v>603</v>
+        <v>581</v>
       </c>
       <c r="I138" t="b">
         <v>1</v>
       </c>
       <c r="K138" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L138" t="s">
         <v>803</v>
@@ -6963,28 +7158,28 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B139" t="s">
-        <v>521</v>
-      </c>
-      <c r="C139" t="b">
-        <v>0</v>
+        <v>353</v>
+      </c>
+      <c r="C139" t="s">
+        <v>639</v>
       </c>
       <c r="D139" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E139" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="H139" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I139" t="b">
         <v>1</v>
       </c>
       <c r="K139" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L139" t="s">
         <v>803</v>
@@ -6992,19 +7187,19 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B140" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C140" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D140" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E140" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H140" t="s">
         <v>582</v>
@@ -7021,45 +7216,42 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>354</v>
+        <v>784</v>
       </c>
       <c r="B141" t="s">
-        <v>354</v>
-      </c>
-      <c r="C141" t="s">
-        <v>640</v>
+        <v>785</v>
+      </c>
+      <c r="C141" t="b">
+        <v>0</v>
       </c>
       <c r="D141" t="s">
-        <v>135</v>
-      </c>
-      <c r="E141" t="s">
-        <v>354</v>
+        <v>136</v>
       </c>
       <c r="H141" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I141" t="b">
         <v>1</v>
       </c>
       <c r="K141" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L141" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>784</v>
+        <v>355</v>
       </c>
       <c r="B142" t="s">
-        <v>785</v>
+        <v>355</v>
       </c>
       <c r="C142" t="b">
         <v>0</v>
       </c>
       <c r="D142" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H142" t="s">
         <v>603</v>
@@ -7068,33 +7260,36 @@
         <v>1</v>
       </c>
       <c r="K142" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L142" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B143" t="s">
-        <v>355</v>
+        <v>522</v>
       </c>
       <c r="C143" t="b">
         <v>0</v>
       </c>
       <c r="D143" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="E143" t="s">
+        <v>356</v>
       </c>
       <c r="H143" t="s">
-        <v>603</v>
+        <v>708</v>
       </c>
       <c r="I143" t="b">
         <v>1</v>
       </c>
       <c r="K143" t="s">
-        <v>760</v>
+        <v>576</v>
       </c>
       <c r="L143" t="s">
         <v>803</v>
@@ -7102,22 +7297,22 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B144" t="s">
-        <v>522</v>
+        <v>357</v>
       </c>
       <c r="C144" t="b">
         <v>0</v>
       </c>
       <c r="D144" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E144" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H144" t="s">
-        <v>708</v>
+        <v>581</v>
       </c>
       <c r="I144" t="b">
         <v>1</v>
@@ -7131,28 +7326,25 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B145" t="s">
-        <v>357</v>
-      </c>
-      <c r="C145" t="b">
-        <v>0</v>
+        <v>523</v>
+      </c>
+      <c r="C145" t="s">
+        <v>641</v>
       </c>
       <c r="D145" t="s">
-        <v>139</v>
-      </c>
-      <c r="E145" t="s">
-        <v>357</v>
+        <v>140</v>
       </c>
       <c r="H145" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I145" t="b">
         <v>1</v>
       </c>
       <c r="K145" t="s">
-        <v>576</v>
+        <v>760</v>
       </c>
       <c r="L145" t="s">
         <v>803</v>
@@ -7160,19 +7352,19 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B146" t="s">
-        <v>523</v>
-      </c>
-      <c r="C146" t="s">
-        <v>641</v>
+        <v>524</v>
+      </c>
+      <c r="C146" t="b">
+        <v>0</v>
       </c>
       <c r="D146" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H146" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I146" t="b">
         <v>1</v>
@@ -7186,25 +7378,28 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B147" t="s">
-        <v>524</v>
-      </c>
-      <c r="C147" t="b">
-        <v>0</v>
+        <v>360</v>
+      </c>
+      <c r="C147" t="s">
+        <v>642</v>
       </c>
       <c r="D147" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="E147" t="s">
+        <v>360</v>
       </c>
       <c r="H147" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="I147" t="b">
         <v>1</v>
       </c>
       <c r="K147" t="s">
-        <v>760</v>
+        <v>576</v>
       </c>
       <c r="L147" t="s">
         <v>803</v>
@@ -7212,22 +7407,22 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B148" t="s">
-        <v>360</v>
-      </c>
-      <c r="C148" t="s">
-        <v>642</v>
+        <v>525</v>
+      </c>
+      <c r="C148" t="b">
+        <v>0</v>
       </c>
       <c r="D148" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E148" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H148" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I148" t="b">
         <v>1</v>
@@ -7241,22 +7436,22 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B149" t="s">
-        <v>525</v>
-      </c>
-      <c r="C149" t="b">
-        <v>0</v>
+        <v>362</v>
+      </c>
+      <c r="C149" t="s">
+        <v>362</v>
       </c>
       <c r="D149" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E149" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H149" t="s">
-        <v>603</v>
+        <v>581</v>
       </c>
       <c r="I149" t="b">
         <v>1</v>
@@ -7270,22 +7465,22 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B150" t="s">
-        <v>362</v>
+        <v>526</v>
       </c>
       <c r="C150" t="s">
-        <v>362</v>
+        <v>643</v>
       </c>
       <c r="D150" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E150" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H150" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I150" t="b">
         <v>1</v>
@@ -7299,19 +7494,19 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>363</v>
+        <v>786</v>
       </c>
       <c r="B151" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C151" t="s">
-        <v>643</v>
+        <v>787</v>
       </c>
       <c r="D151" t="s">
-        <v>145</v>
+        <v>644</v>
       </c>
       <c r="E151" t="s">
-        <v>363</v>
+        <v>747</v>
       </c>
       <c r="H151" t="s">
         <v>582</v>
@@ -7320,7 +7515,7 @@
         <v>1</v>
       </c>
       <c r="K151" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L151" t="s">
         <v>803</v>
@@ -7328,19 +7523,19 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>786</v>
+        <v>364</v>
       </c>
       <c r="B152" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C152" t="s">
-        <v>787</v>
+        <v>645</v>
       </c>
       <c r="D152" t="s">
-        <v>644</v>
+        <v>146</v>
       </c>
       <c r="E152" t="s">
-        <v>747</v>
+        <v>364</v>
       </c>
       <c r="H152" t="s">
         <v>582</v>
@@ -7349,7 +7544,7 @@
         <v>1</v>
       </c>
       <c r="K152" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L152" t="s">
         <v>803</v>
@@ -7357,19 +7552,19 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B153" t="s">
-        <v>528</v>
-      </c>
-      <c r="C153" t="s">
-        <v>645</v>
+        <v>529</v>
+      </c>
+      <c r="C153" t="b">
+        <v>0</v>
       </c>
       <c r="D153" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E153" t="s">
-        <v>364</v>
+        <v>748</v>
       </c>
       <c r="H153" t="s">
         <v>582</v>
@@ -7378,7 +7573,7 @@
         <v>1</v>
       </c>
       <c r="K153" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L153" t="s">
         <v>803</v>
@@ -7386,28 +7581,28 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B154" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C154" t="b">
         <v>0</v>
       </c>
       <c r="D154" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E154" t="s">
-        <v>748</v>
+        <v>366</v>
       </c>
       <c r="H154" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I154" t="b">
         <v>1</v>
       </c>
       <c r="K154" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L154" t="s">
         <v>803</v>
@@ -7415,19 +7610,19 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B155" t="s">
-        <v>530</v>
+        <v>367</v>
       </c>
       <c r="C155" t="b">
         <v>0</v>
       </c>
       <c r="D155" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E155" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H155" t="s">
         <v>603</v>
@@ -7444,28 +7639,28 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B156" t="s">
-        <v>367</v>
-      </c>
-      <c r="C156" t="b">
-        <v>0</v>
+        <v>531</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>648</v>
       </c>
       <c r="D156" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E156" t="s">
-        <v>367</v>
+        <v>746</v>
       </c>
       <c r="H156" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="I156" t="b">
         <v>1</v>
       </c>
       <c r="K156" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L156" t="s">
         <v>803</v>
@@ -7473,28 +7668,28 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B157" t="s">
-        <v>531</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>648</v>
+        <v>369</v>
+      </c>
+      <c r="C157" t="b">
+        <v>0</v>
       </c>
       <c r="D157" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E157" t="s">
-        <v>746</v>
+        <v>369</v>
       </c>
       <c r="H157" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I157" t="b">
         <v>1</v>
       </c>
       <c r="K157" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L157" t="s">
         <v>803</v>
@@ -7502,22 +7697,22 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>369</v>
+        <v>235</v>
       </c>
       <c r="B158" t="s">
-        <v>369</v>
-      </c>
-      <c r="C158" t="b">
-        <v>0</v>
+        <v>235</v>
+      </c>
+      <c r="C158" t="s">
+        <v>646</v>
       </c>
       <c r="D158" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E158" t="s">
-        <v>369</v>
+        <v>235</v>
       </c>
       <c r="H158" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="I158" t="b">
         <v>1</v>
@@ -7531,22 +7726,22 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>235</v>
+        <v>306</v>
       </c>
       <c r="B159" t="s">
-        <v>235</v>
-      </c>
-      <c r="C159" t="s">
-        <v>646</v>
+        <v>488</v>
+      </c>
+      <c r="C159" t="b">
+        <v>0</v>
       </c>
       <c r="D159" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E159" t="s">
-        <v>235</v>
+        <v>306</v>
       </c>
       <c r="H159" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I159" t="b">
         <v>1</v>
@@ -7560,22 +7755,22 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>306</v>
+        <v>370</v>
       </c>
       <c r="B160" t="s">
-        <v>488</v>
-      </c>
-      <c r="C160" t="b">
-        <v>0</v>
+        <v>532</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>647</v>
       </c>
       <c r="D160" t="s">
-        <v>153</v>
-      </c>
-      <c r="E160" t="s">
-        <v>306</v>
+        <v>154</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="H160" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="I160" t="b">
         <v>1</v>
@@ -7589,19 +7784,19 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B161" t="s">
-        <v>532</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>647</v>
+        <v>533</v>
+      </c>
+      <c r="C161" t="s">
+        <v>650</v>
       </c>
       <c r="D161" t="s">
-        <v>154</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>370</v>
+        <v>155</v>
+      </c>
+      <c r="E161" t="s">
+        <v>749</v>
       </c>
       <c r="H161" t="s">
         <v>582</v>
@@ -7610,7 +7805,7 @@
         <v>1</v>
       </c>
       <c r="K161" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L161" t="s">
         <v>803</v>
@@ -7618,28 +7813,28 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B162" t="s">
-        <v>533</v>
-      </c>
-      <c r="C162" t="s">
-        <v>650</v>
+        <v>534</v>
+      </c>
+      <c r="C162" t="b">
+        <v>0</v>
       </c>
       <c r="D162" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E162" t="s">
-        <v>749</v>
+        <v>372</v>
       </c>
       <c r="H162" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I162" t="b">
         <v>1</v>
       </c>
       <c r="K162" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L162" t="s">
         <v>803</v>
@@ -7647,28 +7842,25 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B163" t="s">
-        <v>534</v>
-      </c>
-      <c r="C163" t="b">
-        <v>0</v>
+        <v>535</v>
+      </c>
+      <c r="C163" t="s">
+        <v>651</v>
       </c>
       <c r="D163" t="s">
-        <v>156</v>
-      </c>
-      <c r="E163" t="s">
-        <v>372</v>
+        <v>157</v>
       </c>
       <c r="H163" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I163" t="b">
         <v>1</v>
       </c>
       <c r="K163" t="s">
-        <v>576</v>
+        <v>760</v>
       </c>
       <c r="L163" t="s">
         <v>803</v>
@@ -7676,25 +7868,25 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B164" t="s">
-        <v>535</v>
-      </c>
-      <c r="C164" t="s">
-        <v>651</v>
+        <v>536</v>
+      </c>
+      <c r="C164" t="b">
+        <v>0</v>
       </c>
       <c r="D164" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H164" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I164" t="b">
         <v>1</v>
       </c>
       <c r="K164" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L164" t="s">
         <v>803</v>
@@ -7702,25 +7894,28 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B165" t="s">
-        <v>536</v>
-      </c>
-      <c r="C165" t="b">
-        <v>0</v>
+        <v>375</v>
+      </c>
+      <c r="C165" t="s">
+        <v>652</v>
       </c>
       <c r="D165" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="E165" t="s">
+        <v>375</v>
       </c>
       <c r="H165" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I165" t="b">
         <v>1</v>
       </c>
       <c r="K165" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L165" t="s">
         <v>803</v>
@@ -7728,19 +7923,19 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B166" t="s">
-        <v>375</v>
-      </c>
-      <c r="C166" t="s">
-        <v>652</v>
+        <v>537</v>
+      </c>
+      <c r="C166" t="b">
+        <v>0</v>
       </c>
       <c r="D166" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E166" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="H166" t="s">
         <v>582</v>
@@ -7749,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="K166" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L166" t="s">
         <v>803</v>
@@ -7757,19 +7952,19 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B167" t="s">
-        <v>537</v>
-      </c>
-      <c r="C167" t="b">
-        <v>0</v>
+        <v>377</v>
+      </c>
+      <c r="C167" t="s">
+        <v>653</v>
       </c>
       <c r="D167" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E167" t="s">
-        <v>354</v>
+        <v>430</v>
       </c>
       <c r="H167" t="s">
         <v>582</v>
@@ -7786,22 +7981,19 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B168" t="s">
-        <v>377</v>
-      </c>
-      <c r="C168" t="s">
-        <v>653</v>
+        <v>378</v>
+      </c>
+      <c r="C168" t="b">
+        <v>0</v>
       </c>
       <c r="D168" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E168" t="s">
-        <v>430</v>
-      </c>
-      <c r="H168" t="s">
-        <v>582</v>
+        <v>396</v>
       </c>
       <c r="I168" t="b">
         <v>1</v>
@@ -7815,25 +8007,28 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B169" t="s">
-        <v>378</v>
-      </c>
-      <c r="C169" t="b">
-        <v>0</v>
+        <v>538</v>
+      </c>
+      <c r="C169" t="s">
+        <v>654</v>
       </c>
       <c r="D169" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E169" t="s">
-        <v>396</v>
+        <v>379</v>
+      </c>
+      <c r="H169" t="s">
+        <v>582</v>
       </c>
       <c r="I169" t="b">
         <v>1</v>
       </c>
       <c r="K169" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L169" t="s">
         <v>803</v>
@@ -7841,19 +8036,19 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>379</v>
+        <v>656</v>
       </c>
       <c r="B170" t="s">
-        <v>538</v>
+        <v>657</v>
       </c>
       <c r="C170" t="s">
-        <v>654</v>
+        <v>380</v>
       </c>
       <c r="D170" t="s">
-        <v>163</v>
+        <v>655</v>
       </c>
       <c r="E170" t="s">
-        <v>379</v>
+        <v>656</v>
       </c>
       <c r="H170" t="s">
         <v>582</v>
@@ -7870,22 +8065,22 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>656</v>
+        <v>381</v>
       </c>
       <c r="B171" t="s">
-        <v>657</v>
+        <v>539</v>
       </c>
       <c r="C171" t="s">
-        <v>380</v>
+        <v>658</v>
       </c>
       <c r="D171" t="s">
-        <v>655</v>
+        <v>164</v>
       </c>
       <c r="E171" t="s">
-        <v>656</v>
+        <v>381</v>
       </c>
       <c r="H171" t="s">
-        <v>582</v>
+        <v>662</v>
       </c>
       <c r="I171" t="b">
         <v>1</v>
@@ -7899,28 +8094,25 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B172" t="s">
-        <v>539</v>
+        <v>382</v>
       </c>
       <c r="C172" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D172" t="s">
-        <v>164</v>
-      </c>
-      <c r="E172" t="s">
-        <v>381</v>
+        <v>165</v>
       </c>
       <c r="H172" t="s">
-        <v>662</v>
+        <v>582</v>
       </c>
       <c r="I172" t="b">
         <v>1</v>
       </c>
       <c r="K172" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L172" t="s">
         <v>803</v>
@@ -7928,25 +8120,28 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>382</v>
+        <v>2</v>
       </c>
       <c r="B173" t="s">
-        <v>382</v>
+        <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D173" t="s">
-        <v>165</v>
+        <v>927</v>
+      </c>
+      <c r="E173" t="s">
+        <v>2</v>
       </c>
       <c r="H173" t="s">
         <v>582</v>
       </c>
       <c r="I173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K173" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L173" t="s">
         <v>803</v>
@@ -7954,28 +8149,25 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>2</v>
+        <v>383</v>
       </c>
       <c r="B174" t="s">
-        <v>2</v>
-      </c>
-      <c r="C174" t="s">
-        <v>660</v>
+        <v>383</v>
+      </c>
+      <c r="C174" t="b">
+        <v>0</v>
       </c>
       <c r="D174" t="s">
-        <v>863</v>
+        <v>166</v>
       </c>
       <c r="E174" t="s">
-        <v>2</v>
-      </c>
-      <c r="H174" t="s">
-        <v>582</v>
+        <v>750</v>
       </c>
       <c r="I174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K174" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="L174" t="s">
         <v>803</v>
@@ -7983,25 +8175,28 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>383</v>
+        <v>788</v>
       </c>
       <c r="B175" t="s">
-        <v>383</v>
-      </c>
-      <c r="C175" t="b">
-        <v>0</v>
+        <v>793</v>
+      </c>
+      <c r="C175" t="s">
+        <v>789</v>
       </c>
       <c r="D175" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E175" t="s">
-        <v>750</v>
+        <v>788</v>
+      </c>
+      <c r="H175" t="s">
+        <v>582</v>
       </c>
       <c r="I175" t="b">
         <v>1</v>
       </c>
       <c r="K175" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L175" t="s">
         <v>803</v>
@@ -8009,19 +8204,19 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="B176" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C176" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="D176" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E176" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="H176" t="s">
         <v>582</v>
@@ -8030,7 +8225,7 @@
         <v>1</v>
       </c>
       <c r="K176" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L176" t="s">
         <v>803</v>
@@ -8038,28 +8233,28 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>792</v>
+        <v>928</v>
       </c>
       <c r="B177" t="s">
-        <v>794</v>
-      </c>
-      <c r="C177" t="s">
-        <v>791</v>
+        <v>928</v>
+      </c>
+      <c r="C177" t="b">
+        <v>0</v>
       </c>
       <c r="D177" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E177" t="s">
-        <v>790</v>
+        <v>928</v>
       </c>
       <c r="H177" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I177" t="b">
         <v>1</v>
       </c>
       <c r="K177" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L177" t="s">
         <v>803</v>
@@ -8067,28 +8262,25 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>860</v>
+        <v>384</v>
       </c>
       <c r="B178" t="s">
-        <v>860</v>
-      </c>
-      <c r="C178" t="b">
-        <v>0</v>
+        <v>540</v>
+      </c>
+      <c r="C178" t="s">
+        <v>661</v>
       </c>
       <c r="D178" t="s">
-        <v>169</v>
-      </c>
-      <c r="E178" t="s">
-        <v>860</v>
+        <v>170</v>
       </c>
       <c r="H178" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="I178" t="b">
         <v>1</v>
       </c>
       <c r="K178" t="s">
-        <v>576</v>
+        <v>760</v>
       </c>
       <c r="L178" t="s">
         <v>803</v>
@@ -8096,25 +8288,28 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>384</v>
+        <v>795</v>
       </c>
       <c r="B179" t="s">
-        <v>540</v>
-      </c>
-      <c r="C179" t="s">
-        <v>661</v>
+        <v>795</v>
+      </c>
+      <c r="C179" t="b">
+        <v>0</v>
       </c>
       <c r="D179" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="E179" t="s">
+        <v>795</v>
       </c>
       <c r="H179" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I179" t="b">
         <v>1</v>
       </c>
       <c r="K179" t="s">
-        <v>760</v>
+        <v>576</v>
       </c>
       <c r="L179" t="s">
         <v>803</v>
@@ -8122,19 +8317,16 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>795</v>
+        <v>385</v>
       </c>
       <c r="B180" t="s">
-        <v>795</v>
+        <v>541</v>
       </c>
       <c r="C180" t="b">
         <v>0</v>
       </c>
       <c r="D180" t="s">
-        <v>171</v>
-      </c>
-      <c r="E180" t="s">
-        <v>795</v>
+        <v>172</v>
       </c>
       <c r="H180" t="s">
         <v>581</v>
@@ -8143,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="K180" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L180" t="s">
         <v>803</v>
@@ -8151,25 +8343,28 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B181" t="s">
-        <v>541</v>
-      </c>
-      <c r="C181" t="b">
-        <v>0</v>
+        <v>542</v>
+      </c>
+      <c r="C181" t="s">
+        <v>386</v>
       </c>
       <c r="D181" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="E181" t="s">
+        <v>386</v>
       </c>
       <c r="H181" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I181" t="b">
         <v>1</v>
       </c>
       <c r="K181" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L181" t="s">
         <v>803</v>
@@ -8177,19 +8372,19 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B182" t="s">
-        <v>542</v>
+        <v>387</v>
       </c>
       <c r="C182" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D182" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E182" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H182" t="s">
         <v>582</v>
@@ -8206,19 +8401,19 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B183" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C183" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D183" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E183" t="s">
-        <v>387</v>
+        <v>751</v>
       </c>
       <c r="H183" t="s">
         <v>582</v>
@@ -8227,7 +8422,7 @@
         <v>1</v>
       </c>
       <c r="K183" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L183" t="s">
         <v>803</v>
@@ -8235,22 +8430,19 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B184" t="s">
-        <v>388</v>
-      </c>
-      <c r="C184" t="s">
-        <v>388</v>
+        <v>543</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>663</v>
       </c>
       <c r="D184" t="s">
-        <v>175</v>
-      </c>
-      <c r="E184" t="s">
-        <v>751</v>
+        <v>176</v>
       </c>
       <c r="H184" t="s">
-        <v>582</v>
+        <v>662</v>
       </c>
       <c r="I184" t="b">
         <v>1</v>
@@ -8264,25 +8456,25 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B185" t="s">
-        <v>543</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>663</v>
+        <v>390</v>
+      </c>
+      <c r="C185" t="b">
+        <v>0</v>
       </c>
       <c r="D185" t="s">
-        <v>176</v>
-      </c>
-      <c r="H185" t="s">
-        <v>662</v>
+        <v>177</v>
+      </c>
+      <c r="E185" t="s">
+        <v>390</v>
       </c>
       <c r="I185" t="b">
         <v>1</v>
       </c>
       <c r="K185" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L185" t="s">
         <v>803</v>
@@ -8290,25 +8482,28 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B186" t="s">
-        <v>390</v>
+        <v>544</v>
       </c>
       <c r="C186" t="b">
         <v>0</v>
       </c>
       <c r="D186" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E186" t="s">
-        <v>390</v>
+        <v>381</v>
+      </c>
+      <c r="H186" t="s">
+        <v>582</v>
       </c>
       <c r="I186" t="b">
         <v>1</v>
       </c>
       <c r="K186" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L186" t="s">
         <v>803</v>
@@ -8316,19 +8511,19 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B187" t="s">
-        <v>544</v>
-      </c>
-      <c r="C187" t="b">
-        <v>0</v>
+        <v>545</v>
+      </c>
+      <c r="C187" t="s">
+        <v>664</v>
       </c>
       <c r="D187" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E187" t="s">
-        <v>381</v>
+        <v>287</v>
       </c>
       <c r="H187" t="s">
         <v>582</v>
@@ -8345,22 +8540,19 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B188" t="s">
-        <v>545</v>
-      </c>
-      <c r="C188" t="s">
-        <v>664</v>
+        <v>546</v>
+      </c>
+      <c r="C188" t="b">
+        <v>0</v>
       </c>
       <c r="D188" t="s">
-        <v>179</v>
-      </c>
-      <c r="E188" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="H188" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I188" t="b">
         <v>1</v>
@@ -8374,19 +8566,19 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B189" t="s">
-        <v>546</v>
-      </c>
-      <c r="C189" t="b">
-        <v>0</v>
+        <v>547</v>
+      </c>
+      <c r="C189" t="s">
+        <v>665</v>
       </c>
       <c r="D189" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H189" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="I189" t="b">
         <v>1</v>
@@ -8400,25 +8592,28 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B190" t="s">
-        <v>547</v>
-      </c>
-      <c r="C190" t="s">
-        <v>665</v>
+        <v>548</v>
+      </c>
+      <c r="C190" t="b">
+        <v>0</v>
       </c>
       <c r="D190" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="E190" t="s">
+        <v>395</v>
       </c>
       <c r="H190" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I190" t="b">
         <v>1</v>
       </c>
       <c r="K190" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L190" t="s">
         <v>803</v>
@@ -8426,19 +8621,19 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B191" t="s">
-        <v>548</v>
+        <v>396</v>
       </c>
       <c r="C191" t="b">
         <v>0</v>
       </c>
       <c r="D191" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E191" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H191" t="s">
         <v>603</v>
@@ -8455,28 +8650,25 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B192" t="s">
-        <v>396</v>
-      </c>
-      <c r="C192" t="b">
-        <v>0</v>
+        <v>549</v>
+      </c>
+      <c r="C192" t="s">
+        <v>666</v>
       </c>
       <c r="D192" t="s">
-        <v>183</v>
-      </c>
-      <c r="E192" t="s">
-        <v>396</v>
+        <v>184</v>
       </c>
       <c r="H192" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="I192" t="b">
         <v>1</v>
       </c>
       <c r="K192" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L192" t="s">
         <v>803</v>
@@ -8484,19 +8676,19 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B193" t="s">
-        <v>549</v>
-      </c>
-      <c r="C193" t="s">
-        <v>666</v>
+        <v>550</v>
+      </c>
+      <c r="C193" t="b">
+        <v>0</v>
       </c>
       <c r="D193" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H193" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I193" t="b">
         <v>1</v>
@@ -8510,25 +8702,28 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>398</v>
+        <v>796</v>
       </c>
       <c r="B194" t="s">
-        <v>550</v>
-      </c>
-      <c r="C194" t="b">
-        <v>0</v>
+        <v>798</v>
+      </c>
+      <c r="C194" t="s">
+        <v>797</v>
       </c>
       <c r="D194" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="E194" t="s">
+        <v>796</v>
       </c>
       <c r="H194" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="I194" t="b">
         <v>1</v>
       </c>
       <c r="K194" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L194" t="s">
         <v>803</v>
@@ -8536,19 +8731,19 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>796</v>
+        <v>399</v>
       </c>
       <c r="B195" t="s">
-        <v>798</v>
+        <v>399</v>
       </c>
       <c r="C195" t="s">
-        <v>797</v>
+        <v>667</v>
       </c>
       <c r="D195" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E195" t="s">
-        <v>796</v>
+        <v>399</v>
       </c>
       <c r="H195" t="s">
         <v>582</v>
@@ -8565,19 +8760,19 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B196" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C196" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D196" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E196" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H196" t="s">
         <v>582</v>
@@ -8594,22 +8789,22 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B197" t="s">
-        <v>400</v>
-      </c>
-      <c r="C197" t="s">
-        <v>668</v>
+        <v>401</v>
+      </c>
+      <c r="C197" t="b">
+        <v>0</v>
       </c>
       <c r="D197" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E197" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H197" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I197" t="b">
         <v>1</v>
@@ -8623,22 +8818,22 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B198" t="s">
-        <v>401</v>
+        <v>551</v>
       </c>
       <c r="C198" t="b">
         <v>0</v>
       </c>
       <c r="D198" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E198" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H198" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="I198" t="b">
         <v>1</v>
@@ -8652,19 +8847,19 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B199" t="s">
-        <v>551</v>
-      </c>
-      <c r="C199" t="b">
-        <v>0</v>
+        <v>552</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>669</v>
       </c>
       <c r="D199" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E199" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H199" t="s">
         <v>582</v>
@@ -8681,22 +8876,22 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B200" t="s">
-        <v>552</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>669</v>
+        <v>553</v>
+      </c>
+      <c r="C200" t="b">
+        <v>0</v>
       </c>
       <c r="D200" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E200" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H200" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I200" t="b">
         <v>1</v>
@@ -8710,19 +8905,19 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B201" t="s">
-        <v>553</v>
+        <v>405</v>
       </c>
       <c r="C201" t="b">
         <v>0</v>
       </c>
       <c r="D201" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E201" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H201" t="s">
         <v>603</v>
@@ -8739,19 +8934,19 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B202" t="s">
-        <v>405</v>
+        <v>554</v>
       </c>
       <c r="C202" t="b">
         <v>0</v>
       </c>
       <c r="D202" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E202" t="s">
-        <v>405</v>
+        <v>726</v>
       </c>
       <c r="H202" t="s">
         <v>603</v>
@@ -8760,7 +8955,7 @@
         <v>1</v>
       </c>
       <c r="K202" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L202" t="s">
         <v>803</v>
@@ -8768,28 +8963,28 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B203" t="s">
-        <v>554</v>
-      </c>
-      <c r="C203" t="b">
-        <v>0</v>
+        <v>555</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>670</v>
       </c>
       <c r="D203" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E203" t="s">
-        <v>726</v>
+        <v>407</v>
       </c>
       <c r="H203" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="I203" t="b">
         <v>1</v>
       </c>
       <c r="K203" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L203" t="s">
         <v>803</v>
@@ -8797,22 +8992,22 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B204" t="s">
-        <v>555</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>670</v>
+        <v>408</v>
+      </c>
+      <c r="C204" t="b">
+        <v>0</v>
       </c>
       <c r="D204" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E204" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H204" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I204" t="b">
         <v>1</v>
@@ -8826,19 +9021,19 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B205" t="s">
-        <v>408</v>
+        <v>556</v>
       </c>
       <c r="C205" t="b">
         <v>0</v>
       </c>
       <c r="D205" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E205" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H205" t="s">
         <v>603</v>
@@ -8855,19 +9050,19 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B206" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C206" t="b">
         <v>0</v>
       </c>
       <c r="D206" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E206" t="s">
-        <v>409</v>
+        <v>755</v>
       </c>
       <c r="H206" t="s">
         <v>603</v>
@@ -8876,7 +9071,7 @@
         <v>1</v>
       </c>
       <c r="K206" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L206" t="s">
         <v>803</v>
@@ -8884,22 +9079,22 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>410</v>
+        <v>756</v>
       </c>
       <c r="B207" t="s">
-        <v>557</v>
-      </c>
-      <c r="C207" t="b">
-        <v>0</v>
+        <v>672</v>
+      </c>
+      <c r="C207" t="s">
+        <v>671</v>
       </c>
       <c r="D207" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E207" t="s">
-        <v>755</v>
+        <v>401</v>
       </c>
       <c r="H207" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="I207" t="b">
         <v>1</v>
@@ -8913,28 +9108,28 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>756</v>
+        <v>411</v>
       </c>
       <c r="B208" t="s">
-        <v>672</v>
-      </c>
-      <c r="C208" t="s">
-        <v>671</v>
+        <v>411</v>
+      </c>
+      <c r="C208" t="b">
+        <v>0</v>
       </c>
       <c r="D208" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E208" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="H208" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I208" t="b">
         <v>1</v>
       </c>
       <c r="K208" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L208" t="s">
         <v>803</v>
@@ -8942,28 +9137,25 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B209" t="s">
-        <v>411</v>
-      </c>
-      <c r="C209" t="b">
-        <v>0</v>
+        <v>412</v>
+      </c>
+      <c r="C209" t="s">
+        <v>673</v>
       </c>
       <c r="D209" t="s">
-        <v>200</v>
-      </c>
-      <c r="E209" t="s">
-        <v>411</v>
+        <v>201</v>
       </c>
       <c r="H209" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="I209" t="b">
         <v>1</v>
       </c>
       <c r="K209" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L209" t="s">
         <v>803</v>
@@ -8971,45 +9163,48 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B210" t="s">
-        <v>412</v>
-      </c>
-      <c r="C210" t="s">
-        <v>673</v>
+        <v>413</v>
+      </c>
+      <c r="C210" t="b">
+        <v>0</v>
       </c>
       <c r="D210" t="s">
-        <v>201</v>
-      </c>
-      <c r="H210" t="s">
-        <v>582</v>
+        <v>202</v>
+      </c>
+      <c r="E210" t="s">
+        <v>413</v>
       </c>
       <c r="I210" t="b">
         <v>1</v>
       </c>
       <c r="K210" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L210" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B211" t="s">
-        <v>413</v>
-      </c>
-      <c r="C211" t="b">
-        <v>0</v>
+        <v>414</v>
+      </c>
+      <c r="C211" t="s">
+        <v>674</v>
       </c>
       <c r="D211" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>414</v>
+      </c>
+      <c r="H211" t="s">
+        <v>582</v>
       </c>
       <c r="I211" t="b">
         <v>1</v>
@@ -9018,33 +9213,27 @@
         <v>576</v>
       </c>
       <c r="L211" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B212" t="s">
-        <v>414</v>
-      </c>
-      <c r="C212" t="s">
-        <v>674</v>
+        <v>558</v>
+      </c>
+      <c r="C212" t="b">
+        <v>0</v>
       </c>
       <c r="D212" t="s">
-        <v>203</v>
-      </c>
-      <c r="E212" t="s">
-        <v>414</v>
-      </c>
-      <c r="H212" t="s">
-        <v>582</v>
+        <v>204</v>
       </c>
       <c r="I212" t="b">
         <v>1</v>
       </c>
       <c r="K212" t="s">
-        <v>576</v>
+        <v>760</v>
       </c>
       <c r="L212" t="s">
         <v>803</v>
@@ -9052,22 +9241,28 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B213" t="s">
-        <v>558</v>
-      </c>
-      <c r="C213" t="b">
-        <v>0</v>
+        <v>559</v>
+      </c>
+      <c r="C213" t="s">
+        <v>675</v>
       </c>
       <c r="D213" t="s">
-        <v>204</v>
+        <v>205</v>
+      </c>
+      <c r="E213" t="s">
+        <v>416</v>
+      </c>
+      <c r="H213" t="s">
+        <v>582</v>
       </c>
       <c r="I213" t="b">
         <v>1</v>
       </c>
       <c r="K213" t="s">
-        <v>760</v>
+        <v>576</v>
       </c>
       <c r="L213" t="s">
         <v>803</v>
@@ -9075,19 +9270,16 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B214" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="C214" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D214" t="s">
-        <v>205</v>
-      </c>
-      <c r="E214" t="s">
-        <v>416</v>
+        <v>206</v>
       </c>
       <c r="H214" t="s">
         <v>582</v>
@@ -9096,7 +9288,7 @@
         <v>1</v>
       </c>
       <c r="K214" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L214" t="s">
         <v>803</v>
@@ -9104,25 +9296,28 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B215" t="s">
-        <v>417</v>
-      </c>
-      <c r="C215" t="s">
-        <v>676</v>
+        <v>418</v>
+      </c>
+      <c r="C215" t="b">
+        <v>0</v>
       </c>
       <c r="D215" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="E215" t="s">
+        <v>418</v>
       </c>
       <c r="H215" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I215" t="b">
         <v>1</v>
       </c>
       <c r="K215" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L215" t="s">
         <v>803</v>
@@ -9130,22 +9325,22 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B216" t="s">
-        <v>418</v>
-      </c>
-      <c r="C216" t="b">
-        <v>0</v>
+        <v>560</v>
+      </c>
+      <c r="C216" t="s">
+        <v>678</v>
       </c>
       <c r="D216" t="s">
-        <v>207</v>
+        <v>677</v>
       </c>
       <c r="E216" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H216" t="s">
-        <v>603</v>
+        <v>662</v>
       </c>
       <c r="I216" t="b">
         <v>1</v>
@@ -9159,19 +9354,16 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B217" t="s">
-        <v>560</v>
-      </c>
-      <c r="C217" t="s">
-        <v>678</v>
+        <v>561</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>679</v>
       </c>
       <c r="D217" t="s">
-        <v>677</v>
-      </c>
-      <c r="E217" t="s">
-        <v>419</v>
+        <v>208</v>
       </c>
       <c r="H217" t="s">
         <v>662</v>
@@ -9180,7 +9372,7 @@
         <v>1</v>
       </c>
       <c r="K217" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L217" t="s">
         <v>803</v>
@@ -9188,19 +9380,22 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B218" t="s">
-        <v>561</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>679</v>
+        <v>421</v>
+      </c>
+      <c r="C218" t="s">
+        <v>680</v>
       </c>
       <c r="D218" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="E218" t="s">
+        <v>255</v>
       </c>
       <c r="H218" t="s">
-        <v>662</v>
+        <v>582</v>
       </c>
       <c r="I218" t="b">
         <v>1</v>
@@ -9214,19 +9409,19 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B219" t="s">
-        <v>421</v>
+        <v>562</v>
       </c>
       <c r="C219" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D219" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E219" t="s">
-        <v>255</v>
+        <v>422</v>
       </c>
       <c r="H219" t="s">
         <v>582</v>
@@ -9235,7 +9430,7 @@
         <v>1</v>
       </c>
       <c r="K219" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L219" t="s">
         <v>803</v>
@@ -9243,19 +9438,19 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B220" t="s">
-        <v>562</v>
+        <v>423</v>
       </c>
       <c r="C220" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D220" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E220" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H220" t="s">
         <v>582</v>
@@ -9272,19 +9467,19 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B221" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C221" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D221" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E221" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H221" t="s">
         <v>582</v>
@@ -9301,22 +9496,22 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>424</v>
+        <v>688</v>
       </c>
       <c r="B222" t="s">
-        <v>424</v>
-      </c>
-      <c r="C222" t="s">
-        <v>683</v>
+        <v>689</v>
+      </c>
+      <c r="C222" t="b">
+        <v>0</v>
       </c>
       <c r="D222" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E222" t="s">
-        <v>424</v>
+        <v>688</v>
       </c>
       <c r="H222" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="I222" t="b">
         <v>1</v>
@@ -9325,24 +9520,24 @@
         <v>576</v>
       </c>
       <c r="L222" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>688</v>
+        <v>425</v>
       </c>
       <c r="B223" t="s">
-        <v>689</v>
+        <v>425</v>
       </c>
       <c r="C223" t="b">
         <v>0</v>
       </c>
       <c r="D223" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E223" t="s">
-        <v>688</v>
+        <v>425</v>
       </c>
       <c r="H223" t="s">
         <v>603</v>
@@ -9359,100 +9554,100 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>425</v>
+        <v>799</v>
       </c>
       <c r="B224" t="s">
-        <v>425</v>
-      </c>
-      <c r="C224" t="b">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="C224" t="s">
+        <v>801</v>
       </c>
       <c r="D224" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E224" t="s">
-        <v>425</v>
+        <v>799</v>
       </c>
       <c r="H224" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="I224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K224" t="s">
         <v>576</v>
       </c>
       <c r="L224" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
-        <v>799</v>
+      <c r="A225" s="2" t="s">
+        <v>687</v>
       </c>
       <c r="B225" t="s">
-        <v>800</v>
-      </c>
-      <c r="C225" t="s">
-        <v>801</v>
+        <v>686</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>684</v>
       </c>
       <c r="D225" t="s">
-        <v>215</v>
-      </c>
-      <c r="E225" t="s">
-        <v>799</v>
+        <v>216</v>
       </c>
       <c r="H225" t="s">
-        <v>582</v>
+        <v>662</v>
       </c>
       <c r="I225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K225" t="s">
-        <v>576</v>
+        <v>760</v>
       </c>
       <c r="L225" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A226" s="2" t="s">
-        <v>687</v>
+      <c r="A226" t="s">
+        <v>426</v>
       </c>
       <c r="B226" t="s">
-        <v>686</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>684</v>
+        <v>563</v>
+      </c>
+      <c r="C226" t="s">
+        <v>685</v>
       </c>
       <c r="D226" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H226" t="s">
-        <v>662</v>
+        <v>582</v>
       </c>
       <c r="I226" t="b">
         <v>1</v>
       </c>
       <c r="K226" t="s">
-        <v>760</v>
+        <v>576</v>
       </c>
       <c r="L226" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B227" t="s">
-        <v>563</v>
+        <v>427</v>
       </c>
       <c r="C227" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="D227" t="s">
-        <v>217</v>
+        <v>218</v>
+      </c>
+      <c r="E227" t="s">
+        <v>427</v>
       </c>
       <c r="H227" t="s">
         <v>582</v>
@@ -9469,19 +9664,19 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B228" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C228" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D228" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E228" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H228" t="s">
         <v>582</v>
@@ -9498,19 +9693,19 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B229" t="s">
-        <v>428</v>
+        <v>564</v>
       </c>
       <c r="C229" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D229" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E229" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H229" t="s">
         <v>582</v>
@@ -9522,27 +9717,27 @@
         <v>576</v>
       </c>
       <c r="L229" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B230" t="s">
-        <v>564</v>
-      </c>
-      <c r="C230" t="s">
-        <v>692</v>
+        <v>430</v>
+      </c>
+      <c r="C230" t="b">
+        <v>0</v>
       </c>
       <c r="D230" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E230" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H230" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I230" t="b">
         <v>1</v>
@@ -9551,27 +9746,27 @@
         <v>576</v>
       </c>
       <c r="L230" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>430</v>
+        <v>693</v>
       </c>
       <c r="B231" t="s">
-        <v>430</v>
-      </c>
-      <c r="C231" t="b">
-        <v>0</v>
+        <v>695</v>
+      </c>
+      <c r="C231" t="s">
+        <v>694</v>
       </c>
       <c r="D231" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E231" t="s">
-        <v>430</v>
+        <v>693</v>
       </c>
       <c r="H231" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I231" t="b">
         <v>1</v>
@@ -9585,22 +9780,22 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>693</v>
+        <v>431</v>
       </c>
       <c r="B232" t="s">
-        <v>695</v>
-      </c>
-      <c r="C232" t="s">
-        <v>694</v>
+        <v>565</v>
+      </c>
+      <c r="C232" t="b">
+        <v>0</v>
       </c>
       <c r="D232" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E232" t="s">
-        <v>693</v>
+        <v>431</v>
       </c>
       <c r="H232" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I232" t="b">
         <v>1</v>
@@ -9614,19 +9809,19 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B233" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C233" t="b">
         <v>0</v>
       </c>
       <c r="D233" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E233" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H233" t="s">
         <v>581</v>
@@ -9638,27 +9833,27 @@
         <v>576</v>
       </c>
       <c r="L233" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B234" t="s">
-        <v>566</v>
+        <v>433</v>
       </c>
       <c r="C234" t="b">
         <v>0</v>
       </c>
       <c r="D234" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E234" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H234" t="s">
-        <v>581</v>
+        <v>603</v>
       </c>
       <c r="I234" t="b">
         <v>1</v>
@@ -9672,22 +9867,22 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B235" t="s">
-        <v>433</v>
-      </c>
-      <c r="C235" t="b">
-        <v>0</v>
+        <v>567</v>
+      </c>
+      <c r="C235" t="s">
+        <v>696</v>
       </c>
       <c r="D235" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E235" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H235" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="I235" t="b">
         <v>1</v>
@@ -9696,24 +9891,24 @@
         <v>576</v>
       </c>
       <c r="L235" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B236" t="s">
-        <v>567</v>
-      </c>
-      <c r="C236" t="s">
-        <v>696</v>
+        <v>568</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>697</v>
       </c>
       <c r="D236" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E236" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H236" t="s">
         <v>582</v>
@@ -9725,24 +9920,21 @@
         <v>576</v>
       </c>
       <c r="L236" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>435</v>
+        <v>698</v>
       </c>
       <c r="B237" t="s">
-        <v>568</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>697</v>
+        <v>699</v>
+      </c>
+      <c r="C237" t="s">
+        <v>700</v>
       </c>
       <c r="D237" t="s">
-        <v>227</v>
-      </c>
-      <c r="E237" t="s">
-        <v>435</v>
+        <v>228</v>
       </c>
       <c r="H237" t="s">
         <v>582</v>
@@ -9751,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="K237" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
       <c r="L237" t="s">
         <v>803</v>
@@ -9759,16 +9951,19 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>698</v>
+        <v>436</v>
       </c>
       <c r="B238" t="s">
-        <v>699</v>
+        <v>569</v>
       </c>
       <c r="C238" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D238" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="E238" t="s">
+        <v>436</v>
       </c>
       <c r="H238" t="s">
         <v>582</v>
@@ -9777,27 +9972,27 @@
         <v>1</v>
       </c>
       <c r="K238" t="s">
-        <v>759</v>
+        <v>576</v>
       </c>
       <c r="L238" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B239" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C239" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D239" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E239" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H239" t="s">
         <v>582</v>
@@ -9814,19 +10009,19 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B240" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C240" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D240" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E240" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H240" t="s">
         <v>582</v>
@@ -9843,45 +10038,48 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>438</v>
+        <v>806</v>
       </c>
       <c r="B241" t="s">
-        <v>571</v>
-      </c>
-      <c r="C241" t="s">
-        <v>703</v>
-      </c>
-      <c r="D241" t="s">
-        <v>231</v>
-      </c>
-      <c r="E241" t="s">
-        <v>438</v>
+        <v>806</v>
+      </c>
+      <c r="C241" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="E241" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F241" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>582</v>
+        <v>808</v>
       </c>
       <c r="I241" t="b">
         <v>1</v>
       </c>
       <c r="K241" t="s">
-        <v>576</v>
+        <v>809</v>
       </c>
       <c r="L241" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>806</v>
+      <c r="A242" s="2" t="s">
+        <v>810</v>
       </c>
       <c r="B242" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="C242" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="E242" s="5" t="b">
         <v>0</v>
@@ -9889,40 +10087,46 @@
       <c r="F242" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="H242" t="s">
+        <v>808</v>
+      </c>
       <c r="I242" t="b">
         <v>1</v>
       </c>
       <c r="K242" t="s">
-        <v>859</v>
+        <v>809</v>
       </c>
       <c r="L242" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A243" s="2" t="s">
+      <c r="A243" t="s">
+        <v>813</v>
+      </c>
+      <c r="B243" t="s">
+        <v>813</v>
+      </c>
+      <c r="C243" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D243" t="s">
+        <v>814</v>
+      </c>
+      <c r="E243" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F243" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H243" t="s">
         <v>808</v>
       </c>
-      <c r="B243" t="s">
+      <c r="I243" t="b">
+        <v>1</v>
+      </c>
+      <c r="K243" t="s">
         <v>809</v>
-      </c>
-      <c r="C243" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D243" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="E243" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F243" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I243" t="b">
-        <v>1</v>
-      </c>
-      <c r="K243" t="s">
-        <v>859</v>
       </c>
       <c r="L243" t="s">
         <v>803</v>
@@ -9930,16 +10134,16 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="B244" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="C244" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D244" t="s">
-        <v>812</v>
+      <c r="D244" s="5" t="s">
+        <v>817</v>
       </c>
       <c r="E244" s="5" t="b">
         <v>0</v>
@@ -9947,11 +10151,14 @@
       <c r="F244" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="H244" t="s">
+        <v>808</v>
+      </c>
       <c r="I244" t="b">
         <v>1</v>
       </c>
       <c r="K244" t="s">
-        <v>859</v>
+        <v>809</v>
       </c>
       <c r="L244" t="s">
         <v>803</v>
@@ -9959,16 +10166,16 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="B245" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="C245" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="E245" s="5" t="b">
         <v>0</v>
@@ -9976,11 +10183,14 @@
       <c r="F245" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="H245" t="s">
+        <v>808</v>
+      </c>
       <c r="I245" t="b">
         <v>1</v>
       </c>
       <c r="K245" t="s">
-        <v>859</v>
+        <v>809</v>
       </c>
       <c r="L245" t="s">
         <v>803</v>
@@ -9988,16 +10198,16 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B246" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="C246" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="E246" s="5" t="b">
         <v>0</v>
@@ -10005,11 +10215,14 @@
       <c r="F246" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="H246" t="s">
+        <v>808</v>
+      </c>
       <c r="I246" t="b">
         <v>1</v>
       </c>
       <c r="K246" t="s">
-        <v>859</v>
+        <v>809</v>
       </c>
       <c r="L246" t="s">
         <v>803</v>
@@ -10017,16 +10230,16 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="B247" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="C247" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="E247" s="5" t="b">
         <v>0</v>
@@ -10034,11 +10247,14 @@
       <c r="F247" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="H247" t="s">
+        <v>808</v>
+      </c>
       <c r="I247" t="b">
         <v>1</v>
       </c>
       <c r="K247" t="s">
-        <v>859</v>
+        <v>809</v>
       </c>
       <c r="L247" t="s">
         <v>803</v>
@@ -10046,16 +10262,16 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="B248" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="C248" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D248" s="5" t="s">
-        <v>821</v>
+      <c r="D248" t="s">
+        <v>825</v>
       </c>
       <c r="E248" s="5" t="b">
         <v>0</v>
@@ -10063,11 +10279,14 @@
       <c r="F248" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="H248" t="s">
+        <v>808</v>
+      </c>
       <c r="I248" t="b">
         <v>1</v>
       </c>
       <c r="K248" t="s">
-        <v>859</v>
+        <v>809</v>
       </c>
       <c r="L248" t="s">
         <v>803</v>
@@ -10075,16 +10294,16 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="B249" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="C249" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D249" t="s">
-        <v>823</v>
+      <c r="D249" s="5" t="s">
+        <v>827</v>
       </c>
       <c r="E249" s="5" t="b">
         <v>0</v>
@@ -10092,11 +10311,14 @@
       <c r="F249" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="H249" t="s">
+        <v>828</v>
+      </c>
       <c r="I249" t="b">
         <v>1</v>
       </c>
       <c r="K249" t="s">
-        <v>859</v>
+        <v>809</v>
       </c>
       <c r="L249" t="s">
         <v>803</v>
@@ -10104,16 +10326,16 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="B250" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="C250" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="E250" s="5" t="b">
         <v>0</v>
@@ -10121,11 +10343,14 @@
       <c r="F250" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="H250" t="s">
+        <v>828</v>
+      </c>
       <c r="I250" t="b">
         <v>1</v>
       </c>
       <c r="K250" t="s">
-        <v>859</v>
+        <v>809</v>
       </c>
       <c r="L250" t="s">
         <v>803</v>
@@ -10133,16 +10358,16 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="B251" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="C251" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="E251" s="5" t="b">
         <v>0</v>
@@ -10150,11 +10375,14 @@
       <c r="F251" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="H251" t="s">
+        <v>833</v>
+      </c>
       <c r="I251" t="b">
         <v>1</v>
       </c>
       <c r="K251" t="s">
-        <v>859</v>
+        <v>809</v>
       </c>
       <c r="L251" t="s">
         <v>803</v>
@@ -10162,16 +10390,16 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="B252" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="C252" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="E252" s="5" t="b">
         <v>0</v>
@@ -10179,28 +10407,31 @@
       <c r="F252" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="H252" t="s">
+        <v>808</v>
+      </c>
       <c r="I252" t="b">
         <v>1</v>
       </c>
       <c r="K252" t="s">
-        <v>859</v>
+        <v>809</v>
       </c>
       <c r="L252" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
-        <v>830</v>
+      <c r="A253" s="2" t="s">
+        <v>836</v>
       </c>
       <c r="B253" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="C253" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="E253" s="5" t="b">
         <v>0</v>
@@ -10208,28 +10439,31 @@
       <c r="F253" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="H253" t="s">
+        <v>808</v>
+      </c>
       <c r="I253" t="b">
         <v>1</v>
       </c>
       <c r="K253" t="s">
-        <v>859</v>
+        <v>809</v>
       </c>
       <c r="L253" t="s">
-        <v>804</v>
+        <v>905</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A254" s="2" t="s">
-        <v>858</v>
+      <c r="A254" t="s">
+        <v>839</v>
       </c>
       <c r="B254" t="s">
-        <v>858</v>
+        <v>839</v>
       </c>
       <c r="C254" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="E254" s="5" t="b">
         <v>0</v>
@@ -10237,28 +10471,31 @@
       <c r="F254" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="H254" t="s">
+        <v>808</v>
+      </c>
       <c r="I254" t="b">
         <v>1</v>
       </c>
       <c r="K254" t="s">
-        <v>859</v>
+        <v>809</v>
       </c>
       <c r="L254" t="s">
-        <v>855</v>
+        <v>803</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
       <c r="B255" t="s">
-        <v>833</v>
+        <v>842</v>
       </c>
       <c r="C255" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>834</v>
+        <v>843</v>
       </c>
       <c r="E255" s="5" t="b">
         <v>0</v>
@@ -10266,28 +10503,31 @@
       <c r="F255" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="H255" t="s">
+        <v>808</v>
+      </c>
       <c r="I255" t="b">
         <v>1</v>
       </c>
       <c r="K255" t="s">
-        <v>859</v>
+        <v>809</v>
       </c>
       <c r="L255" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>835</v>
+        <v>844</v>
       </c>
       <c r="B256" t="s">
-        <v>836</v>
+        <v>844</v>
       </c>
       <c r="C256" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D256" s="5" t="s">
-        <v>837</v>
+      <c r="D256" s="6" t="s">
+        <v>924</v>
       </c>
       <c r="E256" s="5" t="b">
         <v>0</v>
@@ -10295,28 +10535,31 @@
       <c r="F256" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="H256" t="s">
+        <v>808</v>
+      </c>
       <c r="I256" t="b">
         <v>1</v>
       </c>
       <c r="K256" t="s">
-        <v>859</v>
+        <v>809</v>
       </c>
       <c r="L256" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
       <c r="B257" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="C257" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D257" s="6" t="s">
-        <v>856</v>
+      <c r="D257" s="5" t="s">
+        <v>847</v>
       </c>
       <c r="E257" s="5" t="b">
         <v>0</v>
@@ -10324,11 +10567,14 @@
       <c r="F257" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="H257" t="s">
+        <v>808</v>
+      </c>
       <c r="I257" t="b">
         <v>1</v>
       </c>
       <c r="K257" t="s">
-        <v>859</v>
+        <v>809</v>
       </c>
       <c r="L257" t="s">
         <v>803</v>
@@ -10336,16 +10582,16 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>839</v>
+        <v>848</v>
       </c>
       <c r="B258" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="C258" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
       <c r="E258" s="5" t="b">
         <v>0</v>
@@ -10353,11 +10599,17 @@
       <c r="F258" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="H258" t="s">
+        <v>808</v>
+      </c>
       <c r="I258" t="b">
         <v>1</v>
       </c>
+      <c r="J258" t="s">
+        <v>850</v>
+      </c>
       <c r="K258" t="s">
-        <v>859</v>
+        <v>809</v>
       </c>
       <c r="L258" t="s">
         <v>803</v>
@@ -10365,16 +10617,16 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="B259" t="s">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="C259" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>843</v>
+        <v>852</v>
       </c>
       <c r="E259" s="5" t="b">
         <v>0</v>
@@ -10382,14 +10634,17 @@
       <c r="F259" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="H259" t="s">
+        <v>808</v>
+      </c>
       <c r="I259" t="b">
         <v>1</v>
       </c>
       <c r="J259" t="s">
-        <v>844</v>
+        <v>853</v>
       </c>
       <c r="K259" t="s">
-        <v>859</v>
+        <v>809</v>
       </c>
       <c r="L259" t="s">
         <v>803</v>
@@ -10397,16 +10652,16 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>845</v>
+        <v>854</v>
       </c>
       <c r="B260" t="s">
-        <v>845</v>
+        <v>854</v>
       </c>
       <c r="C260" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="E260" s="5" t="b">
         <v>0</v>
@@ -10414,14 +10669,17 @@
       <c r="F260" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="H260" t="s">
+        <v>808</v>
+      </c>
       <c r="I260" t="b">
         <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>847</v>
+        <v>856</v>
       </c>
       <c r="K260" t="s">
-        <v>859</v>
+        <v>809</v>
       </c>
       <c r="L260" t="s">
         <v>803</v>
@@ -10429,16 +10687,16 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
       <c r="B261" t="s">
-        <v>848</v>
+        <v>858</v>
       </c>
       <c r="C261" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>849</v>
+        <v>859</v>
       </c>
       <c r="E261" s="5" t="b">
         <v>0</v>
@@ -10446,14 +10704,17 @@
       <c r="F261" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="H261" t="s">
+        <v>808</v>
+      </c>
       <c r="I261" t="b">
         <v>1</v>
       </c>
       <c r="J261" t="s">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="K261" t="s">
-        <v>859</v>
+        <v>809</v>
       </c>
       <c r="L261" t="s">
         <v>803</v>
@@ -10461,16 +10722,16 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>851</v>
+        <v>861</v>
       </c>
       <c r="B262" t="s">
-        <v>852</v>
+        <v>861</v>
       </c>
       <c r="C262" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="E262" s="5" t="b">
         <v>0</v>
@@ -10478,125 +10739,616 @@
       <c r="F262" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="H262" t="s">
+        <v>863</v>
+      </c>
       <c r="I262" t="b">
         <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>854</v>
+        <v>906</v>
       </c>
       <c r="K262" t="s">
-        <v>859</v>
+        <v>809</v>
       </c>
       <c r="L262" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C263" s="5"/>
-      <c r="D263" s="5"/>
-      <c r="E263" s="5"/>
-      <c r="F263" s="5"/>
+      <c r="A263" t="s">
+        <v>864</v>
+      </c>
+      <c r="B263" t="s">
+        <v>865</v>
+      </c>
+      <c r="C263" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="E263" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F263" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H263" t="s">
+        <v>863</v>
+      </c>
+      <c r="I263" t="b">
+        <v>1</v>
+      </c>
+      <c r="J263" t="s">
+        <v>907</v>
+      </c>
+      <c r="K263" t="s">
+        <v>809</v>
+      </c>
+      <c r="L263" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C264" s="5"/>
-      <c r="D264" s="5"/>
-      <c r="E264" s="5"/>
-      <c r="F264" s="5"/>
+      <c r="A264" t="s">
+        <v>867</v>
+      </c>
+      <c r="B264" t="s">
+        <v>867</v>
+      </c>
+      <c r="C264" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="E264" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F264" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H264" t="s">
+        <v>863</v>
+      </c>
+      <c r="I264" t="b">
+        <v>1</v>
+      </c>
+      <c r="J264" t="s">
+        <v>908</v>
+      </c>
+      <c r="K264" t="s">
+        <v>809</v>
+      </c>
+      <c r="L264" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C265" s="5"/>
-      <c r="D265" s="5"/>
-      <c r="E265" s="5"/>
-      <c r="F265" s="5"/>
+      <c r="A265" t="s">
+        <v>869</v>
+      </c>
+      <c r="B265" t="s">
+        <v>870</v>
+      </c>
+      <c r="C265" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D265" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="E265" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F265" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H265" t="s">
+        <v>863</v>
+      </c>
+      <c r="I265" t="b">
+        <v>1</v>
+      </c>
+      <c r="J265" t="s">
+        <v>909</v>
+      </c>
+      <c r="K265" t="s">
+        <v>809</v>
+      </c>
+      <c r="L265" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C266" s="5"/>
-      <c r="D266" s="5"/>
-      <c r="E266" s="5"/>
-      <c r="F266" s="5"/>
+      <c r="A266" t="s">
+        <v>415</v>
+      </c>
+      <c r="B266" t="s">
+        <v>558</v>
+      </c>
+      <c r="C266" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D266" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="E266" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F266" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H266" t="s">
+        <v>863</v>
+      </c>
+      <c r="I266" t="b">
+        <v>1</v>
+      </c>
+      <c r="J266" t="s">
+        <v>910</v>
+      </c>
+      <c r="K266" t="s">
+        <v>809</v>
+      </c>
+      <c r="L266" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C267" s="5"/>
-      <c r="D267" s="5"/>
-      <c r="E267" s="5"/>
-      <c r="F267" s="5"/>
+      <c r="A267" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="B267" t="s">
+        <v>874</v>
+      </c>
+      <c r="C267" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E267" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F267" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H267" t="s">
+        <v>863</v>
+      </c>
+      <c r="I267" t="b">
+        <v>1</v>
+      </c>
+      <c r="J267" t="s">
+        <v>911</v>
+      </c>
+      <c r="K267" t="s">
+        <v>809</v>
+      </c>
+      <c r="L267" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A268" s="2"/>
-      <c r="C268" s="5"/>
-      <c r="D268" s="5"/>
-      <c r="E268" s="5"/>
-      <c r="F268" s="5"/>
+      <c r="A268" t="s">
+        <v>876</v>
+      </c>
+      <c r="B268" t="s">
+        <v>876</v>
+      </c>
+      <c r="C268" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="E268" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F268" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H268" t="s">
+        <v>863</v>
+      </c>
+      <c r="I268" t="b">
+        <v>1</v>
+      </c>
+      <c r="J268" t="s">
+        <v>912</v>
+      </c>
+      <c r="K268" t="s">
+        <v>809</v>
+      </c>
+      <c r="L268" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C269" s="5"/>
-      <c r="D269" s="5"/>
-      <c r="E269" s="5"/>
-      <c r="F269" s="5"/>
+      <c r="A269" t="s">
+        <v>878</v>
+      </c>
+      <c r="B269" t="s">
+        <v>879</v>
+      </c>
+      <c r="C269" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D269" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="E269" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F269" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H269" t="s">
+        <v>863</v>
+      </c>
+      <c r="I269" t="b">
+        <v>1</v>
+      </c>
+      <c r="J269" t="s">
+        <v>913</v>
+      </c>
+      <c r="K269" t="s">
+        <v>809</v>
+      </c>
+      <c r="L269" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C270" s="5"/>
-      <c r="D270" s="5"/>
-      <c r="E270" s="5"/>
-      <c r="F270" s="5"/>
+      <c r="A270" t="s">
+        <v>881</v>
+      </c>
+      <c r="B270" t="s">
+        <v>881</v>
+      </c>
+      <c r="C270" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="E270" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F270" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H270" t="s">
+        <v>863</v>
+      </c>
+      <c r="I270" t="b">
+        <v>1</v>
+      </c>
+      <c r="J270" t="s">
+        <v>914</v>
+      </c>
+      <c r="K270" t="s">
+        <v>809</v>
+      </c>
+      <c r="L270" t="s">
+        <v>804</v>
+      </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C271" s="5"/>
-      <c r="D271" s="5"/>
-      <c r="E271" s="5"/>
-      <c r="F271" s="5"/>
+      <c r="A271" t="s">
+        <v>883</v>
+      </c>
+      <c r="B271" t="s">
+        <v>883</v>
+      </c>
+      <c r="C271" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D271" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="E271" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F271" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H271" t="s">
+        <v>863</v>
+      </c>
+      <c r="I271" t="b">
+        <v>1</v>
+      </c>
+      <c r="J271" t="s">
+        <v>915</v>
+      </c>
+      <c r="K271" t="s">
+        <v>809</v>
+      </c>
+      <c r="L271" t="s">
+        <v>804</v>
+      </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C272" s="5"/>
-      <c r="D272" s="5"/>
-      <c r="E272" s="5"/>
-      <c r="F272" s="5"/>
-    </row>
-    <row r="273" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C273" s="5"/>
-      <c r="D273" s="5"/>
-      <c r="E273" s="5"/>
-      <c r="F273" s="5"/>
-    </row>
-    <row r="274" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C274" s="5"/>
-      <c r="D274" s="5"/>
-      <c r="E274" s="5"/>
-      <c r="F274" s="5"/>
-    </row>
-    <row r="275" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C275" s="5"/>
-      <c r="D275" s="5"/>
-      <c r="E275" s="5"/>
-      <c r="F275" s="5"/>
-    </row>
-    <row r="276" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C276" s="5"/>
-      <c r="D276" s="5"/>
-      <c r="E276" s="5"/>
-      <c r="F276" s="5"/>
-    </row>
-    <row r="277" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C277" s="5"/>
-      <c r="D277" s="5"/>
-      <c r="E277" s="5"/>
-      <c r="F277" s="5"/>
-    </row>
-    <row r="278" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C278" s="5"/>
-      <c r="D278" s="5"/>
-      <c r="E278" s="5"/>
-      <c r="F278" s="5"/>
-    </row>
-    <row r="279" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C279" s="5"/>
-      <c r="E279" s="5"/>
-      <c r="F279" s="5"/>
-    </row>
-    <row r="280" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C280" s="5"/>
-      <c r="E280" s="5"/>
-      <c r="F280" s="5"/>
+      <c r="A272" t="s">
+        <v>885</v>
+      </c>
+      <c r="B272" t="s">
+        <v>885</v>
+      </c>
+      <c r="C272" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D272" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="E272" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F272" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H272" t="s">
+        <v>887</v>
+      </c>
+      <c r="I272" t="b">
+        <v>1</v>
+      </c>
+      <c r="J272" t="s">
+        <v>916</v>
+      </c>
+      <c r="K272" t="s">
+        <v>809</v>
+      </c>
+      <c r="L272" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>888</v>
+      </c>
+      <c r="B273" t="s">
+        <v>888</v>
+      </c>
+      <c r="C273" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D273" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="E273" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F273" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H273" t="s">
+        <v>863</v>
+      </c>
+      <c r="I273" t="b">
+        <v>1</v>
+      </c>
+      <c r="J273" t="s">
+        <v>917</v>
+      </c>
+      <c r="K273" t="s">
+        <v>809</v>
+      </c>
+      <c r="L273" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>890</v>
+      </c>
+      <c r="B274" t="s">
+        <v>890</v>
+      </c>
+      <c r="C274" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="E274" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F274" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H274" t="s">
+        <v>863</v>
+      </c>
+      <c r="I274" t="b">
+        <v>1</v>
+      </c>
+      <c r="J274" t="s">
+        <v>918</v>
+      </c>
+      <c r="K274" t="s">
+        <v>809</v>
+      </c>
+      <c r="L274" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>892</v>
+      </c>
+      <c r="B275" t="s">
+        <v>892</v>
+      </c>
+      <c r="C275" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D275" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="E275" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F275" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H275" t="s">
+        <v>863</v>
+      </c>
+      <c r="I275" t="b">
+        <v>1</v>
+      </c>
+      <c r="J275" t="s">
+        <v>919</v>
+      </c>
+      <c r="K275" t="s">
+        <v>809</v>
+      </c>
+      <c r="L275" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>894</v>
+      </c>
+      <c r="B276" t="s">
+        <v>894</v>
+      </c>
+      <c r="C276" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="E276" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F276" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H276" t="s">
+        <v>863</v>
+      </c>
+      <c r="I276" t="b">
+        <v>1</v>
+      </c>
+      <c r="J276" t="s">
+        <v>920</v>
+      </c>
+      <c r="K276" t="s">
+        <v>809</v>
+      </c>
+      <c r="L276" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>896</v>
+      </c>
+      <c r="B277" t="s">
+        <v>896</v>
+      </c>
+      <c r="C277" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D277" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="E277" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F277" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H277" t="s">
+        <v>863</v>
+      </c>
+      <c r="I277" t="b">
+        <v>1</v>
+      </c>
+      <c r="J277" t="s">
+        <v>921</v>
+      </c>
+      <c r="K277" t="s">
+        <v>809</v>
+      </c>
+      <c r="L277" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>898</v>
+      </c>
+      <c r="B278" t="s">
+        <v>899</v>
+      </c>
+      <c r="C278" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D278" t="s">
+        <v>900</v>
+      </c>
+      <c r="E278" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F278" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H278" t="s">
+        <v>901</v>
+      </c>
+      <c r="I278" t="b">
+        <v>1</v>
+      </c>
+      <c r="J278" t="s">
+        <v>922</v>
+      </c>
+      <c r="K278" t="s">
+        <v>809</v>
+      </c>
+      <c r="L278" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>902</v>
+      </c>
+      <c r="B279" t="s">
+        <v>903</v>
+      </c>
+      <c r="C279" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D279" t="s">
+        <v>904</v>
+      </c>
+      <c r="E279" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F279" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H279" t="s">
+        <v>887</v>
+      </c>
+      <c r="I279" t="b">
+        <v>1</v>
+      </c>
+      <c r="J279" t="s">
+        <v>923</v>
+      </c>
+      <c r="K279" t="s">
+        <v>809</v>
+      </c>
+      <c r="L279" t="s">
+        <v>803</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/compleat_wiki_man.xlsx
+++ b/data/compleat_wiki_man.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\GitHub\PhyrexianDictionary\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93783722-7449-4E98-8904-8E51DC33AF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9021E91E-42A3-4666-A414-BCC94C01CDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="865">
   <si>
     <t>IPA</t>
   </si>
@@ -2459,12 +2459,6 @@
     <t>Indicative, Present</t>
   </si>
   <si>
-    <t>mood</t>
-  </si>
-  <si>
-    <t>particle</t>
-  </si>
-  <si>
     <t>'u</t>
   </si>
   <si>
@@ -2519,9 +2513,6 @@
     <t>Alternative (or)</t>
   </si>
   <si>
-    <t>mood, suffix</t>
-  </si>
-  <si>
     <t>xə</t>
   </si>
   <si>
@@ -2534,9 +2525,6 @@
     <t>Negative (un-, not)</t>
   </si>
   <si>
-    <t>mood, prefix</t>
-  </si>
-  <si>
     <t>əl</t>
   </si>
   <si>
@@ -2618,195 +2606,9 @@
     <t>Paired with past</t>
   </si>
   <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>to (spatial)</t>
-  </si>
-  <si>
-    <t>prefix</t>
-  </si>
-  <si>
-    <t>əšq</t>
-  </si>
-  <si>
-    <t>əʃq</t>
-  </si>
-  <si>
-    <t>on (spatial)</t>
-  </si>
-  <si>
-    <t>dl</t>
-  </si>
-  <si>
-    <t>in (spatial)</t>
-  </si>
-  <si>
-    <t>φɒ'</t>
-  </si>
-  <si>
-    <t>φɒʔ</t>
-  </si>
-  <si>
-    <t>until (temporal)</t>
-  </si>
-  <si>
-    <t>for (temporal)</t>
-  </si>
-  <si>
-    <t>'ɒp</t>
-  </si>
-  <si>
-    <t>ʔɒp</t>
-  </si>
-  <si>
-    <t>any</t>
-  </si>
-  <si>
-    <t>ɢə</t>
-  </si>
-  <si>
-    <t>this/that</t>
-  </si>
-  <si>
-    <t>ɣẅ</t>
-  </si>
-  <si>
-    <t>ɣɯ</t>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>qər</t>
-  </si>
-  <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>than</t>
-  </si>
-  <si>
-    <t>prefix, suffix</t>
-  </si>
-  <si>
-    <t>pl</t>
-  </si>
-  <si>
-    <t>completion</t>
-  </si>
-  <si>
-    <t>plθ</t>
-  </si>
-  <si>
-    <t>not-completion</t>
-  </si>
-  <si>
-    <t>pn</t>
-  </si>
-  <si>
-    <t>greater</t>
-  </si>
-  <si>
-    <t>ke</t>
-  </si>
-  <si>
-    <t>collective</t>
-  </si>
-  <si>
-    <t>ɣwi</t>
-  </si>
-  <si>
-    <t>ability</t>
-  </si>
-  <si>
-    <t>tč</t>
-  </si>
-  <si>
-    <t>ttʃ</t>
-  </si>
-  <si>
-    <t>indicate order</t>
-  </si>
-  <si>
-    <t>suffix</t>
-  </si>
-  <si>
-    <t>xe_'ə</t>
-  </si>
-  <si>
-    <t>xe_ʔə</t>
-  </si>
-  <si>
-    <t>indicate frequency</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>'return this to your hand'</t>
-  </si>
-  <si>
-    <t>'put a counter on this'</t>
-  </si>
-  <si>
-    <t>'target card in your graveyard'</t>
-  </si>
-  <si>
-    <t>'until your next turn'</t>
-  </si>
-  <si>
-    <t>'you can do this for this turn'</t>
-  </si>
-  <si>
-    <t>'produce mana of any type'</t>
-  </si>
-  <si>
-    <t>'sacrifice this creature'</t>
-  </si>
-  <si>
-    <t>'a card from your deck'</t>
-  </si>
-  <si>
-    <t>'ability of a permanent'</t>
-  </si>
-  <si>
-    <t>'destroy all permanents with counters'</t>
-  </si>
-  <si>
-    <t>'more/less than'</t>
-  </si>
-  <si>
-    <t>'Complete (prefix + make)'</t>
-  </si>
-  <si>
-    <t>'half, rounded down (prefix + not + two + amounts)'</t>
-  </si>
-  <si>
-    <t>'Vigilance (ability + prefix + see)'</t>
-  </si>
-  <si>
-    <t>'world (prefix + land)'</t>
-  </si>
-  <si>
-    <t>'Immortality (prefix + un + death)'</t>
-  </si>
-  <si>
-    <t>Number-related. 'Top (first) card of your library '</t>
-  </si>
-  <si>
-    <t>Number-related. 'once per turn'</t>
-  </si>
-  <si>
     <t>'Unless'</t>
   </si>
   <si>
@@ -2820,6 +2622,12 @@
   </si>
   <si>
     <t>vuwk</t>
+  </si>
+  <si>
+    <t>marker</t>
+  </si>
+  <si>
+    <t>number</t>
   </si>
 </sst>
 </file>
@@ -3218,10 +3026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L279"/>
+  <dimension ref="A1:L261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="M113" sqref="M113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5375,7 +5183,7 @@
         <v>628</v>
       </c>
       <c r="D76" t="s">
-        <v>925</v>
+        <v>859</v>
       </c>
       <c r="E76" t="s">
         <v>294</v>
@@ -5998,10 +5806,10 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>926</v>
+        <v>860</v>
       </c>
       <c r="B98" t="s">
-        <v>926</v>
+        <v>860</v>
       </c>
       <c r="C98" t="b">
         <v>0</v>
@@ -6010,7 +5818,7 @@
         <v>93</v>
       </c>
       <c r="E98" t="s">
-        <v>926</v>
+        <v>860</v>
       </c>
       <c r="H98" t="s">
         <v>603</v>
@@ -6359,7 +6167,7 @@
         <v>1</v>
       </c>
       <c r="K110" t="s">
-        <v>576</v>
+        <v>864</v>
       </c>
       <c r="L110" t="s">
         <v>803</v>
@@ -6388,7 +6196,7 @@
         <v>1</v>
       </c>
       <c r="K111" t="s">
-        <v>576</v>
+        <v>864</v>
       </c>
       <c r="L111" t="s">
         <v>803</v>
@@ -6417,7 +6225,7 @@
         <v>1</v>
       </c>
       <c r="K112" t="s">
-        <v>576</v>
+        <v>864</v>
       </c>
       <c r="L112" t="s">
         <v>803</v>
@@ -8129,7 +7937,7 @@
         <v>660</v>
       </c>
       <c r="D173" t="s">
-        <v>927</v>
+        <v>861</v>
       </c>
       <c r="E173" t="s">
         <v>2</v>
@@ -8233,10 +8041,10 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>928</v>
+        <v>862</v>
       </c>
       <c r="B177" t="s">
-        <v>928</v>
+        <v>862</v>
       </c>
       <c r="C177" t="b">
         <v>0</v>
@@ -8245,7 +8053,7 @@
         <v>169</v>
       </c>
       <c r="E177" t="s">
-        <v>928</v>
+        <v>862</v>
       </c>
       <c r="H177" t="s">
         <v>603</v>
@@ -10055,14 +9863,11 @@
       <c r="F241" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H241" t="s">
-        <v>808</v>
-      </c>
       <c r="I241" t="b">
         <v>1</v>
       </c>
       <c r="K241" t="s">
-        <v>809</v>
+        <v>863</v>
       </c>
       <c r="L241" t="s">
         <v>803</v>
@@ -10070,31 +9875,28 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B242" t="s">
+        <v>809</v>
+      </c>
+      <c r="C242" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D242" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="B242" t="s">
-        <v>811</v>
-      </c>
-      <c r="C242" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D242" s="5" t="s">
-        <v>812</v>
-      </c>
       <c r="E242" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F242" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H242" t="s">
-        <v>808</v>
-      </c>
       <c r="I242" t="b">
         <v>1</v>
       </c>
       <c r="K242" t="s">
-        <v>809</v>
+        <v>863</v>
       </c>
       <c r="L242" t="s">
         <v>803</v>
@@ -10102,16 +9904,16 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B243" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C243" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D243" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E243" s="5" t="b">
         <v>0</v>
@@ -10119,14 +9921,11 @@
       <c r="F243" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H243" t="s">
-        <v>808</v>
-      </c>
       <c r="I243" t="b">
         <v>1</v>
       </c>
       <c r="K243" t="s">
-        <v>809</v>
+        <v>863</v>
       </c>
       <c r="L243" t="s">
         <v>803</v>
@@ -10134,31 +9933,28 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
+        <v>813</v>
+      </c>
+      <c r="B244" t="s">
+        <v>814</v>
+      </c>
+      <c r="C244" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D244" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="B244" t="s">
-        <v>816</v>
-      </c>
-      <c r="C244" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D244" s="5" t="s">
-        <v>817</v>
-      </c>
       <c r="E244" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F244" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H244" t="s">
-        <v>808</v>
-      </c>
       <c r="I244" t="b">
         <v>1</v>
       </c>
       <c r="K244" t="s">
-        <v>809</v>
+        <v>863</v>
       </c>
       <c r="L244" t="s">
         <v>803</v>
@@ -10166,16 +9962,16 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B245" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C245" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E245" s="5" t="b">
         <v>0</v>
@@ -10183,14 +9979,11 @@
       <c r="F245" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H245" t="s">
-        <v>808</v>
-      </c>
       <c r="I245" t="b">
         <v>1</v>
       </c>
       <c r="K245" t="s">
-        <v>809</v>
+        <v>863</v>
       </c>
       <c r="L245" t="s">
         <v>803</v>
@@ -10198,16 +9991,16 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B246" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C246" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E246" s="5" t="b">
         <v>0</v>
@@ -10215,14 +10008,11 @@
       <c r="F246" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H246" t="s">
-        <v>808</v>
-      </c>
       <c r="I246" t="b">
         <v>1</v>
       </c>
       <c r="K246" t="s">
-        <v>809</v>
+        <v>863</v>
       </c>
       <c r="L246" t="s">
         <v>803</v>
@@ -10230,16 +10020,16 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B247" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C247" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E247" s="5" t="b">
         <v>0</v>
@@ -10247,14 +10037,11 @@
       <c r="F247" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H247" t="s">
-        <v>808</v>
-      </c>
       <c r="I247" t="b">
         <v>1</v>
       </c>
       <c r="K247" t="s">
-        <v>809</v>
+        <v>863</v>
       </c>
       <c r="L247" t="s">
         <v>803</v>
@@ -10262,16 +10049,16 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B248" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C248" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D248" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E248" s="5" t="b">
         <v>0</v>
@@ -10279,14 +10066,11 @@
       <c r="F248" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H248" t="s">
-        <v>808</v>
-      </c>
       <c r="I248" t="b">
         <v>1</v>
       </c>
       <c r="K248" t="s">
-        <v>809</v>
+        <v>863</v>
       </c>
       <c r="L248" t="s">
         <v>803</v>
@@ -10294,16 +10078,16 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B249" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C249" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E249" s="5" t="b">
         <v>0</v>
@@ -10311,14 +10095,11 @@
       <c r="F249" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H249" t="s">
-        <v>828</v>
-      </c>
       <c r="I249" t="b">
         <v>1</v>
       </c>
       <c r="K249" t="s">
-        <v>809</v>
+        <v>863</v>
       </c>
       <c r="L249" t="s">
         <v>803</v>
@@ -10326,16 +10107,16 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B250" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C250" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E250" s="5" t="b">
         <v>0</v>
@@ -10343,14 +10124,11 @@
       <c r="F250" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H250" t="s">
-        <v>828</v>
-      </c>
       <c r="I250" t="b">
         <v>1</v>
       </c>
       <c r="K250" t="s">
-        <v>809</v>
+        <v>863</v>
       </c>
       <c r="L250" t="s">
         <v>803</v>
@@ -10358,16 +10136,16 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B251" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C251" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E251" s="5" t="b">
         <v>0</v>
@@ -10375,14 +10153,11 @@
       <c r="F251" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H251" t="s">
-        <v>833</v>
-      </c>
       <c r="I251" t="b">
         <v>1</v>
       </c>
       <c r="K251" t="s">
-        <v>809</v>
+        <v>863</v>
       </c>
       <c r="L251" t="s">
         <v>803</v>
@@ -10390,16 +10165,16 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B252" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="C252" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="E252" s="5" t="b">
         <v>0</v>
@@ -10407,14 +10182,11 @@
       <c r="F252" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H252" t="s">
-        <v>808</v>
-      </c>
       <c r="I252" t="b">
         <v>1</v>
       </c>
       <c r="K252" t="s">
-        <v>809</v>
+        <v>863</v>
       </c>
       <c r="L252" t="s">
         <v>804</v>
@@ -10422,16 +10194,16 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B253" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C253" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="E253" s="5" t="b">
         <v>0</v>
@@ -10439,31 +10211,28 @@
       <c r="F253" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H253" t="s">
-        <v>808</v>
-      </c>
       <c r="I253" t="b">
         <v>1</v>
       </c>
       <c r="K253" t="s">
-        <v>809</v>
+        <v>863</v>
       </c>
       <c r="L253" t="s">
-        <v>905</v>
+        <v>857</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B254" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="C254" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="E254" s="5" t="b">
         <v>0</v>
@@ -10471,14 +10240,11 @@
       <c r="F254" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H254" t="s">
-        <v>808</v>
-      </c>
       <c r="I254" t="b">
         <v>1</v>
       </c>
       <c r="K254" t="s">
-        <v>809</v>
+        <v>863</v>
       </c>
       <c r="L254" t="s">
         <v>803</v>
@@ -10486,16 +10252,16 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B255" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C255" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="E255" s="5" t="b">
         <v>0</v>
@@ -10503,14 +10269,11 @@
       <c r="F255" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H255" t="s">
-        <v>808</v>
-      </c>
       <c r="I255" t="b">
         <v>1</v>
       </c>
       <c r="K255" t="s">
-        <v>809</v>
+        <v>863</v>
       </c>
       <c r="L255" t="s">
         <v>805</v>
@@ -10518,16 +10281,16 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B256" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="C256" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>924</v>
+        <v>858</v>
       </c>
       <c r="E256" s="5" t="b">
         <v>0</v>
@@ -10535,14 +10298,11 @@
       <c r="F256" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H256" t="s">
-        <v>808</v>
-      </c>
       <c r="I256" t="b">
         <v>1</v>
       </c>
       <c r="K256" t="s">
-        <v>809</v>
+        <v>863</v>
       </c>
       <c r="L256" t="s">
         <v>803</v>
@@ -10550,16 +10310,16 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="B257" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="C257" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="E257" s="5" t="b">
         <v>0</v>
@@ -10567,14 +10327,11 @@
       <c r="F257" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H257" t="s">
-        <v>808</v>
-      </c>
       <c r="I257" t="b">
         <v>1</v>
       </c>
       <c r="K257" t="s">
-        <v>809</v>
+        <v>863</v>
       </c>
       <c r="L257" t="s">
         <v>803</v>
@@ -10582,16 +10339,16 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B258" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="C258" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E258" s="5" t="b">
         <v>0</v>
@@ -10599,17 +10356,14 @@
       <c r="F258" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H258" t="s">
-        <v>808</v>
-      </c>
       <c r="I258" t="b">
         <v>1</v>
       </c>
       <c r="J258" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="K258" t="s">
-        <v>809</v>
+        <v>863</v>
       </c>
       <c r="L258" t="s">
         <v>803</v>
@@ -10617,16 +10371,16 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B259" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C259" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="E259" s="5" t="b">
         <v>0</v>
@@ -10634,17 +10388,14 @@
       <c r="F259" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H259" t="s">
-        <v>808</v>
-      </c>
       <c r="I259" t="b">
         <v>1</v>
       </c>
       <c r="J259" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="K259" t="s">
-        <v>809</v>
+        <v>863</v>
       </c>
       <c r="L259" t="s">
         <v>803</v>
@@ -10652,16 +10403,16 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="B260" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="C260" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="E260" s="5" t="b">
         <v>0</v>
@@ -10669,17 +10420,14 @@
       <c r="F260" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H260" t="s">
-        <v>808</v>
-      </c>
       <c r="I260" t="b">
         <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="K260" t="s">
-        <v>809</v>
+        <v>863</v>
       </c>
       <c r="L260" t="s">
         <v>803</v>
@@ -10687,16 +10435,16 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B261" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C261" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="E261" s="5" t="b">
         <v>0</v>
@@ -10704,649 +10452,16 @@
       <c r="F261" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H261" t="s">
-        <v>808</v>
-      </c>
       <c r="I261" t="b">
         <v>1</v>
       </c>
       <c r="J261" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="K261" t="s">
-        <v>809</v>
+        <v>863</v>
       </c>
       <c r="L261" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>861</v>
-      </c>
-      <c r="B262" t="s">
-        <v>861</v>
-      </c>
-      <c r="C262" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D262" s="5" t="s">
-        <v>862</v>
-      </c>
-      <c r="E262" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F262" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H262" t="s">
-        <v>863</v>
-      </c>
-      <c r="I262" t="b">
-        <v>1</v>
-      </c>
-      <c r="J262" t="s">
-        <v>906</v>
-      </c>
-      <c r="K262" t="s">
-        <v>809</v>
-      </c>
-      <c r="L262" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
-        <v>864</v>
-      </c>
-      <c r="B263" t="s">
-        <v>865</v>
-      </c>
-      <c r="C263" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D263" s="5" t="s">
-        <v>866</v>
-      </c>
-      <c r="E263" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F263" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H263" t="s">
-        <v>863</v>
-      </c>
-      <c r="I263" t="b">
-        <v>1</v>
-      </c>
-      <c r="J263" t="s">
-        <v>907</v>
-      </c>
-      <c r="K263" t="s">
-        <v>809</v>
-      </c>
-      <c r="L263" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>867</v>
-      </c>
-      <c r="B264" t="s">
-        <v>867</v>
-      </c>
-      <c r="C264" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D264" s="5" t="s">
-        <v>868</v>
-      </c>
-      <c r="E264" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F264" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H264" t="s">
-        <v>863</v>
-      </c>
-      <c r="I264" t="b">
-        <v>1</v>
-      </c>
-      <c r="J264" t="s">
-        <v>908</v>
-      </c>
-      <c r="K264" t="s">
-        <v>809</v>
-      </c>
-      <c r="L264" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>869</v>
-      </c>
-      <c r="B265" t="s">
-        <v>870</v>
-      </c>
-      <c r="C265" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D265" s="5" t="s">
-        <v>871</v>
-      </c>
-      <c r="E265" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F265" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H265" t="s">
-        <v>863</v>
-      </c>
-      <c r="I265" t="b">
-        <v>1</v>
-      </c>
-      <c r="J265" t="s">
-        <v>909</v>
-      </c>
-      <c r="K265" t="s">
-        <v>809</v>
-      </c>
-      <c r="L265" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>415</v>
-      </c>
-      <c r="B266" t="s">
-        <v>558</v>
-      </c>
-      <c r="C266" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D266" s="5" t="s">
-        <v>872</v>
-      </c>
-      <c r="E266" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F266" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H266" t="s">
-        <v>863</v>
-      </c>
-      <c r="I266" t="b">
-        <v>1</v>
-      </c>
-      <c r="J266" t="s">
-        <v>910</v>
-      </c>
-      <c r="K266" t="s">
-        <v>809</v>
-      </c>
-      <c r="L266" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A267" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="B267" t="s">
-        <v>874</v>
-      </c>
-      <c r="C267" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D267" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E267" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F267" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H267" t="s">
-        <v>863</v>
-      </c>
-      <c r="I267" t="b">
-        <v>1</v>
-      </c>
-      <c r="J267" t="s">
-        <v>911</v>
-      </c>
-      <c r="K267" t="s">
-        <v>809</v>
-      </c>
-      <c r="L267" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
-        <v>876</v>
-      </c>
-      <c r="B268" t="s">
-        <v>876</v>
-      </c>
-      <c r="C268" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D268" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="E268" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F268" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H268" t="s">
-        <v>863</v>
-      </c>
-      <c r="I268" t="b">
-        <v>1</v>
-      </c>
-      <c r="J268" t="s">
-        <v>912</v>
-      </c>
-      <c r="K268" t="s">
-        <v>809</v>
-      </c>
-      <c r="L268" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
-        <v>878</v>
-      </c>
-      <c r="B269" t="s">
-        <v>879</v>
-      </c>
-      <c r="C269" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D269" s="5" t="s">
-        <v>880</v>
-      </c>
-      <c r="E269" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F269" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H269" t="s">
-        <v>863</v>
-      </c>
-      <c r="I269" t="b">
-        <v>1</v>
-      </c>
-      <c r="J269" t="s">
-        <v>913</v>
-      </c>
-      <c r="K269" t="s">
-        <v>809</v>
-      </c>
-      <c r="L269" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
-        <v>881</v>
-      </c>
-      <c r="B270" t="s">
-        <v>881</v>
-      </c>
-      <c r="C270" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D270" s="5" t="s">
-        <v>882</v>
-      </c>
-      <c r="E270" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F270" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H270" t="s">
-        <v>863</v>
-      </c>
-      <c r="I270" t="b">
-        <v>1</v>
-      </c>
-      <c r="J270" t="s">
-        <v>914</v>
-      </c>
-      <c r="K270" t="s">
-        <v>809</v>
-      </c>
-      <c r="L270" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
-        <v>883</v>
-      </c>
-      <c r="B271" t="s">
-        <v>883</v>
-      </c>
-      <c r="C271" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D271" s="5" t="s">
-        <v>884</v>
-      </c>
-      <c r="E271" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F271" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H271" t="s">
-        <v>863</v>
-      </c>
-      <c r="I271" t="b">
-        <v>1</v>
-      </c>
-      <c r="J271" t="s">
-        <v>915</v>
-      </c>
-      <c r="K271" t="s">
-        <v>809</v>
-      </c>
-      <c r="L271" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
-        <v>885</v>
-      </c>
-      <c r="B272" t="s">
-        <v>885</v>
-      </c>
-      <c r="C272" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D272" s="5" t="s">
-        <v>886</v>
-      </c>
-      <c r="E272" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F272" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H272" t="s">
-        <v>887</v>
-      </c>
-      <c r="I272" t="b">
-        <v>1</v>
-      </c>
-      <c r="J272" t="s">
-        <v>916</v>
-      </c>
-      <c r="K272" t="s">
-        <v>809</v>
-      </c>
-      <c r="L272" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
-        <v>888</v>
-      </c>
-      <c r="B273" t="s">
-        <v>888</v>
-      </c>
-      <c r="C273" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D273" s="5" t="s">
-        <v>889</v>
-      </c>
-      <c r="E273" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F273" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H273" t="s">
-        <v>863</v>
-      </c>
-      <c r="I273" t="b">
-        <v>1</v>
-      </c>
-      <c r="J273" t="s">
-        <v>917</v>
-      </c>
-      <c r="K273" t="s">
-        <v>809</v>
-      </c>
-      <c r="L273" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
-        <v>890</v>
-      </c>
-      <c r="B274" t="s">
-        <v>890</v>
-      </c>
-      <c r="C274" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D274" s="5" t="s">
-        <v>891</v>
-      </c>
-      <c r="E274" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F274" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H274" t="s">
-        <v>863</v>
-      </c>
-      <c r="I274" t="b">
-        <v>1</v>
-      </c>
-      <c r="J274" t="s">
-        <v>918</v>
-      </c>
-      <c r="K274" t="s">
-        <v>809</v>
-      </c>
-      <c r="L274" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
-        <v>892</v>
-      </c>
-      <c r="B275" t="s">
-        <v>892</v>
-      </c>
-      <c r="C275" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D275" s="5" t="s">
-        <v>893</v>
-      </c>
-      <c r="E275" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F275" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H275" t="s">
-        <v>863</v>
-      </c>
-      <c r="I275" t="b">
-        <v>1</v>
-      </c>
-      <c r="J275" t="s">
-        <v>919</v>
-      </c>
-      <c r="K275" t="s">
-        <v>809</v>
-      </c>
-      <c r="L275" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
-        <v>894</v>
-      </c>
-      <c r="B276" t="s">
-        <v>894</v>
-      </c>
-      <c r="C276" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D276" s="5" t="s">
-        <v>895</v>
-      </c>
-      <c r="E276" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F276" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H276" t="s">
-        <v>863</v>
-      </c>
-      <c r="I276" t="b">
-        <v>1</v>
-      </c>
-      <c r="J276" t="s">
-        <v>920</v>
-      </c>
-      <c r="K276" t="s">
-        <v>809</v>
-      </c>
-      <c r="L276" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
-        <v>896</v>
-      </c>
-      <c r="B277" t="s">
-        <v>896</v>
-      </c>
-      <c r="C277" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D277" s="5" t="s">
-        <v>897</v>
-      </c>
-      <c r="E277" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F277" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H277" t="s">
-        <v>863</v>
-      </c>
-      <c r="I277" t="b">
-        <v>1</v>
-      </c>
-      <c r="J277" t="s">
-        <v>921</v>
-      </c>
-      <c r="K277" t="s">
-        <v>809</v>
-      </c>
-      <c r="L277" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
-        <v>898</v>
-      </c>
-      <c r="B278" t="s">
-        <v>899</v>
-      </c>
-      <c r="C278" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D278" t="s">
-        <v>900</v>
-      </c>
-      <c r="E278" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F278" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H278" t="s">
-        <v>901</v>
-      </c>
-      <c r="I278" t="b">
-        <v>1</v>
-      </c>
-      <c r="J278" t="s">
-        <v>922</v>
-      </c>
-      <c r="K278" t="s">
-        <v>809</v>
-      </c>
-      <c r="L278" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
-        <v>902</v>
-      </c>
-      <c r="B279" t="s">
-        <v>903</v>
-      </c>
-      <c r="C279" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D279" t="s">
-        <v>904</v>
-      </c>
-      <c r="E279" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F279" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H279" t="s">
-        <v>887</v>
-      </c>
-      <c r="I279" t="b">
-        <v>1</v>
-      </c>
-      <c r="J279" t="s">
-        <v>923</v>
-      </c>
-      <c r="K279" t="s">
-        <v>809</v>
-      </c>
-      <c r="L279" t="s">
         <v>803</v>
       </c>
     </row>
